--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4AE0F0-FD88-4B86-A7DB-F1711B0B00D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF058BDB-275C-4E0C-9B0B-11D66377CEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49680" yWindow="3630" windowWidth="32850" windowHeight="14240" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="41010" yWindow="3010" windowWidth="26400" windowHeight="18030" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="251">
   <si>
     <t>Main</t>
   </si>
@@ -1041,6 +1041,30 @@
   </si>
   <si>
     <t>FY00</t>
+  </si>
+  <si>
+    <t>Rubin</t>
+  </si>
+  <si>
+    <t>B100</t>
+  </si>
+  <si>
+    <t>R100</t>
+  </si>
+  <si>
+    <t>250-300</t>
+  </si>
+  <si>
+    <t>TDP</t>
+  </si>
+  <si>
+    <t>taped out June 2025, next version taping out in September?</t>
+  </si>
+  <si>
+    <t>limited 2026</t>
+  </si>
+  <si>
+    <t>MI450 - upcoming AMD chip, Broadcom chip, OpenAI chip</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1244,6 +1268,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1767,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A6168-49C8-45E2-8975-8028D960ECA2}">
-  <dimension ref="B2:L23"/>
+  <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1784,7 +1812,9 @@
         <v>131</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="D2" s="36" t="s">
+        <v>247</v>
+      </c>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -1798,11 +1828,17 @@
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>130</v>
       </c>
+      <c r="D3" s="35">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="20"/>
       <c r="J3" t="s">
         <v>13</v>
@@ -1816,11 +1852,17 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>130</v>
       </c>
+      <c r="D4" s="35">
+        <v>700</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="20"/>
       <c r="J4" t="s">
         <v>113</v>
@@ -1832,10 +1874,13 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
         <v>130</v>
+      </c>
+      <c r="D5">
+        <v>700</v>
       </c>
       <c r="H5" s="20"/>
       <c r="J5" t="s">
@@ -1849,11 +1894,14 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>122</v>
+      <c r="B6" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="D6">
+        <v>400</v>
       </c>
       <c r="H6" s="20"/>
       <c r="J6" t="s">
@@ -1868,10 +1916,13 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="H7" s="20"/>
       <c r="J7" t="s">
@@ -1883,21 +1934,27 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>125</v>
+      <c r="B8" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="D8">
+        <v>450</v>
       </c>
       <c r="H8" s="20"/>
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>126</v>
+      <c r="B9" s="21">
+        <v>5090</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="D9">
+        <v>575</v>
       </c>
       <c r="H9" s="20"/>
       <c r="J9" t="s">
@@ -1909,108 +1966,123 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
       </c>
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
       </c>
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="B14" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="20"/>
       <c r="K15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" t="s">
-        <v>142</v>
-      </c>
+      <c r="B16" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="20"/>
       <c r="K16" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" t="s">
-        <v>144</v>
-      </c>
+      <c r="B17" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
       <c r="K17" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" t="s">
-        <v>146</v>
-      </c>
       <c r="K18" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
       <c r="K19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
       <c r="K20" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>146</v>
       </c>
       <c r="K21" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>169</v>
-      </c>
       <c r="K22" t="s">
         <v>132</v>
       </c>
@@ -2018,6 +2090,30 @@
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="I29" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF058BDB-275C-4E0C-9B0B-11D66377CEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B36477-29C4-4364-B9EF-C7FEAB353DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41010" yWindow="3010" windowWidth="26400" windowHeight="18030" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="13350" yWindow="2610" windowWidth="23390" windowHeight="16060" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -41,8 +41,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={250E49C1-DC6B-44A4-8507-21CC369BDF67}</author>
     <author>tc={E320785E-9BCE-AC4E-B37C-7EB104B6CF82}</author>
     <author>tc={AC62E1DD-5F48-4CE0-8635-05BA74B5AC99}</author>
+    <author>tc={2165D505-0B46-44B7-8C69-AAD20A48D84E}</author>
     <author>tc={C2D17C36-71EE-44D1-BD93-5339CE250BCE}</author>
     <author>tc={DD04AD72-6E1B-4623-8D6F-85C70969715D}</author>
     <author>tc={3CFE94FA-5EAC-7E47-B7D3-031052D60B7C}</author>
@@ -58,6 +60,14 @@
     <author>tc={BDF99649-FFA5-4806-8F0A-EDE5EB314212}</author>
     <author>tc={4E056475-A7E3-43D8-B802-93813DACE25F}</author>
     <author>tc={472BDDD3-4E0A-4C08-8760-ABFC4732C8A2}</author>
+    <author>tc={63238D4C-CE84-4838-9552-C1CFED1CB057}</author>
+    <author>tc={E0BD4732-6672-4A8E-98DD-D80F8291DB33}</author>
+    <author>tc={250CB3BC-420E-44BF-AC5C-6793B6001B85}</author>
+    <author>tc={BD911E99-9212-4EF4-8813-69E92C9CA73A}</author>
+    <author>tc={5BA76EC3-8C9B-47F0-9FDC-F22595796871}</author>
+    <author>tc={14970EBD-D16F-43B3-AC0D-F662CDAE4F87}</author>
+    <author>tc={DD0672ED-71A7-4FEE-8963-AC8C3EB46492}</author>
+    <author>tc={E135F8C4-952E-4ED7-BF9D-C71E486C0EE2}</author>
     <author>tc={1DF99399-1918-4E2C-8279-9C2FF687E1E3}</author>
     <author>tc={1446D5A2-75F4-49C0-818F-A506FFEEE2AC}</author>
     <author>tc={1DF5EE39-C8FB-4475-8FE7-ADC6D1CD4618}</author>
@@ -72,7 +82,16 @@
     <author>tc={D5B65222-64AF-4587-989D-4D4267FB62AC}</author>
   </authors>
   <commentList>
-    <comment ref="S22" authorId="0" shapeId="0" xr:uid="{E320785E-9BCE-AC4E-B37C-7EB104B6CF82}">
+    <comment ref="AB21" authorId="0" shapeId="0" xr:uid="{250E49C1-DC6B-44A4-8507-21CC369BDF67}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    $650m H20
+Sequential increase in H100/H200</t>
+      </text>
+    </comment>
+    <comment ref="S22" authorId="1" shapeId="0" xr:uid="{E320785E-9BCE-AC4E-B37C-7EB104B6CF82}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -80,7 +99,7 @@
     H100 started shipping</t>
       </text>
     </comment>
-    <comment ref="Z22" authorId="1" shapeId="0" xr:uid="{AC62E1DD-5F48-4CE0-8635-05BA74B5AC99}">
+    <comment ref="Z22" authorId="2" shapeId="0" xr:uid="{AC62E1DD-5F48-4CE0-8635-05BA74B5AC99}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -89,7 +108,17 @@
 Blackwall product ramp starts</t>
       </text>
     </comment>
-    <comment ref="D24" authorId="2" shapeId="0" xr:uid="{C2D17C36-71EE-44D1-BD93-5339CE250BCE}">
+    <comment ref="AB22" authorId="3" shapeId="0" xr:uid="{2165D505-0B46-44B7-8C69-AAD20A48D84E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    4B H20 decline
+Blackwell +17% q/q
+GB300 shipments began</t>
+      </text>
+    </comment>
+    <comment ref="D24" authorId="4" shapeId="0" xr:uid="{C2D17C36-71EE-44D1-BD93-5339CE250BCE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -97,7 +126,7 @@
     2889m if Mellanox combined</t>
       </text>
     </comment>
-    <comment ref="E24" authorId="3" shapeId="0" xr:uid="{DD04AD72-6E1B-4623-8D6F-85C70969715D}">
+    <comment ref="E24" authorId="5" shapeId="0" xr:uid="{DD04AD72-6E1B-4623-8D6F-85C70969715D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -105,7 +134,7 @@
     3350m if Mellanox were combined</t>
       </text>
     </comment>
-    <comment ref="S24" authorId="4" shapeId="0" xr:uid="{3CFE94FA-5EAC-7E47-B7D3-031052D60B7C}">
+    <comment ref="S24" authorId="6" shapeId="0" xr:uid="{3CFE94FA-5EAC-7E47-B7D3-031052D60B7C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -113,7 +142,7 @@
     6.5B guidance</t>
       </text>
     </comment>
-    <comment ref="T24" authorId="5" shapeId="0" xr:uid="{23E40331-82EE-794B-BF71-362AABD49EB0}">
+    <comment ref="T24" authorId="7" shapeId="0" xr:uid="{23E40331-82EE-794B-BF71-362AABD49EB0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -121,7 +150,7 @@
     Guidance was 11B</t>
       </text>
     </comment>
-    <comment ref="U24" authorId="6" shapeId="0" xr:uid="{7661685F-D234-EE4D-9EE3-823EB4FBA0E2}">
+    <comment ref="U24" authorId="8" shapeId="0" xr:uid="{7661685F-D234-EE4D-9EE3-823EB4FBA0E2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -129,7 +158,7 @@
     Guidance was 16B</t>
       </text>
     </comment>
-    <comment ref="W24" authorId="7" shapeId="0" xr:uid="{195B7556-9D37-2C4A-AE00-5F1730A1F989}">
+    <comment ref="W24" authorId="9" shapeId="0" xr:uid="{195B7556-9D37-2C4A-AE00-5F1730A1F989}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -138,7 +167,7 @@
 2/21/24 guided to 23.52-24.48B</t>
       </text>
     </comment>
-    <comment ref="X24" authorId="8" shapeId="0" xr:uid="{ABEADC1D-5EB0-4C3F-94A3-CDCB9F5F27A0}">
+    <comment ref="X24" authorId="10" shapeId="0" xr:uid="{ABEADC1D-5EB0-4C3F-94A3-CDCB9F5F27A0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -146,7 +175,7 @@
     Guidance: 28000</t>
       </text>
     </comment>
-    <comment ref="Y24" authorId="9" shapeId="0" xr:uid="{4E6E582A-C13D-49BC-B7B1-29F955B3A8F8}">
+    <comment ref="Y24" authorId="11" shapeId="0" xr:uid="{4E6E582A-C13D-49BC-B7B1-29F955B3A8F8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -154,7 +183,7 @@
     Consensus 31.7</t>
       </text>
     </comment>
-    <comment ref="Z24" authorId="10" shapeId="0" xr:uid="{797E6991-901E-44BC-97CB-E306AC374116}">
+    <comment ref="Z24" authorId="12" shapeId="0" xr:uid="{797E6991-901E-44BC-97CB-E306AC374116}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -162,7 +191,7 @@
     38250 consensus</t>
       </text>
     </comment>
-    <comment ref="AA24" authorId="11" shapeId="0" xr:uid="{5C4B539B-3737-41A2-ACD8-5457F543DF7D}">
+    <comment ref="AA24" authorId="13" shapeId="0" xr:uid="{5C4B539B-3737-41A2-ACD8-5457F543DF7D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -171,23 +200,26 @@
 42.26B consensus, moved up to 43.34B</t>
       </text>
     </comment>
-    <comment ref="AB24" authorId="12" shapeId="0" xr:uid="{0AFD1808-6C0F-4C3F-9836-027F1D0FF106}">
+    <comment ref="AB24" authorId="14" shapeId="0" xr:uid="{0AFD1808-6C0F-4C3F-9836-027F1D0FF106}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    45.92B consensus 5/28/25</t>
+    45.92B consensus 5/28/25
+46.05B consensus 8/27/25</t>
       </text>
     </comment>
-    <comment ref="AC24" authorId="13" shapeId="0" xr:uid="{48933EFE-5C5F-49EA-A80E-E765DE830619}">
+    <comment ref="AC24" authorId="15" shapeId="0" xr:uid="{48933EFE-5C5F-49EA-A80E-E765DE830619}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    51.75B consensus 5/28/25</t>
+    51.75B consensus 5/28/25
+53.43B consensus 8/27/25
+Q2 guidance: 54B +/- 2%</t>
       </text>
     </comment>
-    <comment ref="AD24" authorId="14" shapeId="0" xr:uid="{BDF99649-FFA5-4806-8F0A-EDE5EB314212}">
+    <comment ref="AD24" authorId="16" shapeId="0" xr:uid="{BDF99649-FFA5-4806-8F0A-EDE5EB314212}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -195,7 +227,7 @@
     57.23B consensus 5/28/25</t>
       </text>
     </comment>
-    <comment ref="BH24" authorId="15" shapeId="0" xr:uid="{4E056475-A7E3-43D8-B802-93813DACE25F}">
+    <comment ref="BH24" authorId="17" shapeId="0" xr:uid="{4E056475-A7E3-43D8-B802-93813DACE25F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -203,7 +235,7 @@
     196490 consensus</t>
       </text>
     </comment>
-    <comment ref="BI24" authorId="16" shapeId="0" xr:uid="{472BDDD3-4E0A-4C08-8760-ABFC4732C8A2}">
+    <comment ref="BI24" authorId="18" shapeId="0" xr:uid="{472BDDD3-4E0A-4C08-8760-ABFC4732C8A2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -211,7 +243,71 @@
     247.91B consensus 5/28/25</t>
       </text>
     </comment>
-    <comment ref="C144" authorId="17" shapeId="0" xr:uid="{1DF99399-1918-4E2C-8279-9C2FF687E1E3}">
+    <comment ref="X128" authorId="19" shapeId="0" xr:uid="{63238D4C-CE84-4838-9552-C1CFED1CB057}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Raised 6B Series B</t>
+      </text>
+    </comment>
+    <comment ref="Z128" authorId="20" shapeId="0" xr:uid="{E0BD4732-6672-4A8E-98DD-D80F8291DB33}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Raised 6B Series C</t>
+      </text>
+    </comment>
+    <comment ref="AB128" authorId="21" shapeId="0" xr:uid="{250CB3BC-420E-44BF-AC5C-6793B6001B85}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Raised 10.3B, 5.3B equity, 5.0B debt</t>
+      </text>
+    </comment>
+    <comment ref="Y129" authorId="22" shapeId="0" xr:uid="{BD911E99-9212-4EF4-8813-69E92C9CA73A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Raised $4B from Amazon</t>
+      </text>
+    </comment>
+    <comment ref="Z129" authorId="23" shapeId="0" xr:uid="{5BA76EC3-8C9B-47F0-9FDC-F22595796871}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Raised $1B from Google</t>
+      </text>
+    </comment>
+    <comment ref="AA129" authorId="24" shapeId="0" xr:uid="{14970EBD-D16F-43B3-AC0D-F662CDAE4F87}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Raised 6B: 3.5B Series E, 2.5B debt</t>
+      </text>
+    </comment>
+    <comment ref="Z133" authorId="25" shapeId="0" xr:uid="{DD0672ED-71A7-4FEE-8963-AC8C3EB46492}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Raised 10.6B in equity/debt</t>
+      </text>
+    </comment>
+    <comment ref="AA133" authorId="26" shapeId="0" xr:uid="{E135F8C4-952E-4ED7-BF9D-C71E486C0EE2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Raised 40B from SoftBank/others</t>
+      </text>
+    </comment>
+    <comment ref="C146" authorId="27" shapeId="0" xr:uid="{1DF99399-1918-4E2C-8279-9C2FF687E1E3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -219,7 +315,7 @@
     133m Other, 249m EU, 422m Other APAC</t>
       </text>
     </comment>
-    <comment ref="D144" authorId="18" shapeId="0" xr:uid="{1446D5A2-75F4-49C0-818F-A506FFEEE2AC}">
+    <comment ref="D146" authorId="28" shapeId="0" xr:uid="{1446D5A2-75F4-49C0-818F-A506FFEEE2AC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -227,7 +323,7 @@
     129m other, 288m EU, 756m other APAC</t>
       </text>
     </comment>
-    <comment ref="E144" authorId="19" shapeId="0" xr:uid="{1DF5EE39-C8FB-4475-8FE7-ADC6D1CD4618}">
+    <comment ref="E146" authorId="29" shapeId="0" xr:uid="{1DF5EE39-C8FB-4475-8FE7-ADC6D1CD4618}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -235,7 +331,7 @@
     216m EU, 161m other, 805m Other APAC</t>
       </text>
     </comment>
-    <comment ref="G144" authorId="20" shapeId="0" xr:uid="{DD2CD9F0-4D52-41A1-9318-3FB1FCEC2AD9}">
+    <comment ref="G146" authorId="30" shapeId="0" xr:uid="{DD2CD9F0-4D52-41A1-9318-3FB1FCEC2AD9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -243,7 +339,7 @@
     151m Other, 254m EU, 607m Other APAC</t>
       </text>
     </comment>
-    <comment ref="H144" authorId="21" shapeId="0" xr:uid="{FCB5C1B5-F411-4AA0-8552-6396ACF5C382}">
+    <comment ref="H146" authorId="31" shapeId="0" xr:uid="{FCB5C1B5-F411-4AA0-8552-6396ACF5C382}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -251,7 +347,7 @@
     240m EU, 175m Other, 698m Other APAC</t>
       </text>
     </comment>
-    <comment ref="I144" authorId="22" shapeId="0" xr:uid="{63A90EF7-3038-4F3C-97B2-466FDABC5E09}">
+    <comment ref="I146" authorId="32" shapeId="0" xr:uid="{63A90EF7-3038-4F3C-97B2-466FDABC5E09}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -259,7 +355,7 @@
     Europe 247m, Other APAC 955m, Other 225m</t>
       </text>
     </comment>
-    <comment ref="J144" authorId="23" shapeId="0" xr:uid="{C63606EF-04FE-45D8-9244-916E253074AB}">
+    <comment ref="J146" authorId="33" shapeId="0" xr:uid="{C63606EF-04FE-45D8-9244-916E253074AB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -267,7 +363,7 @@
     TTM EU 1118m, Other APAC 3093m, Other 833m</t>
       </text>
     </comment>
-    <comment ref="O144" authorId="24" shapeId="0" xr:uid="{8AC347C9-DB8B-48B0-AA14-D262027A155D}">
+    <comment ref="O146" authorId="34" shapeId="0" xr:uid="{8AC347C9-DB8B-48B0-AA14-D262027A155D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -275,7 +371,7 @@
     454m Singapore</t>
       </text>
     </comment>
-    <comment ref="Q144" authorId="25" shapeId="0" xr:uid="{EE73B09E-2677-450F-B8B1-9A119FB6CC0B}">
+    <comment ref="Q146" authorId="35" shapeId="0" xr:uid="{EE73B09E-2677-450F-B8B1-9A119FB6CC0B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -283,7 +379,7 @@
     536m Singapore</t>
       </text>
     </comment>
-    <comment ref="R144" authorId="26" shapeId="0" xr:uid="{97838103-F970-4B17-BAA4-B0F2ADACFA86}">
+    <comment ref="R146" authorId="36" shapeId="0" xr:uid="{97838103-F970-4B17-BAA4-B0F2ADACFA86}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -291,7 +387,7 @@
     2288m Singapore (Q4+Q2)</t>
       </text>
     </comment>
-    <comment ref="BA144" authorId="27" shapeId="0" xr:uid="{FB8A1EF9-0129-43D9-BD4D-E70349E6A7E0}">
+    <comment ref="BA146" authorId="37" shapeId="0" xr:uid="{FB8A1EF9-0129-43D9-BD4D-E70349E6A7E0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -299,7 +395,7 @@
     2368m Other APAC, 914m EU, 767m Other</t>
       </text>
     </comment>
-    <comment ref="BB144" authorId="28" shapeId="0" xr:uid="{D5B65222-64AF-4587-989D-4D4267FB62AC}">
+    <comment ref="BB146" authorId="38" shapeId="0" xr:uid="{D5B65222-64AF-4587-989D-4D4267FB62AC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -312,7 +408,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="259">
   <si>
     <t>Main</t>
   </si>
@@ -1065,6 +1161,30 @@
   </si>
   <si>
     <t>MI450 - upcoming AMD chip, Broadcom chip, OpenAI chip</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>B300</t>
+  </si>
+  <si>
+    <t>B200 (Blackwell Ultra?)</t>
+  </si>
+  <si>
+    <t>"has generated 10s of billions in revenue"</t>
+  </si>
+  <si>
+    <t>"at Fab, on schedule for volume production next year. 3D-gen NVLink"</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Ampere Computing acquired by Softbank for $6.5B?!?! Only $16m revenue.</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1268,7 +1388,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1296,16 +1415,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>29167</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>35319</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>43962</xdr:rowOff>
+      <xdr:rowOff>18143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>29167</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>122790</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>35319</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>96971</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1320,8 +1439,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19132898" y="43962"/>
-          <a:ext cx="0" cy="24936636"/>
+          <a:off x="19829176" y="18143"/>
+          <a:ext cx="0" cy="25036142"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1354,7 +1473,7 @@
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>26835</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>118242</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1700,12 +1819,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="AB21" dT="2025-08-27T23:38:43.45" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{250E49C1-DC6B-44A4-8507-21CC369BDF67}">
+    <text>$650m H20
+Sequential increase in H100/H200</text>
+  </threadedComment>
   <threadedComment ref="S22" dT="2024-02-21T20:05:44.73" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{E320785E-9BCE-AC4E-B37C-7EB104B6CF82}">
     <text>H100 started shipping</text>
   </threadedComment>
   <threadedComment ref="Z22" dT="2024-08-28T21:08:16.17" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{AC62E1DD-5F48-4CE0-8635-05BA74B5AC99}">
     <text>Blackwell will sell several billion
 Blackwall product ramp starts</text>
+  </threadedComment>
+  <threadedComment ref="AB22" dT="2025-08-27T23:32:35.75" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{2165D505-0B46-44B7-8C69-AAD20A48D84E}">
+    <text>4B H20 decline
+Blackwell +17% q/q
+GB300 shipments began</text>
   </threadedComment>
   <threadedComment ref="D24" dT="2025-04-26T15:42:26.18" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{C2D17C36-71EE-44D1-BD93-5339CE250BCE}">
     <text>2889m if Mellanox combined</text>
@@ -1740,10 +1868,13 @@
 42.26B consensus, moved up to 43.34B</text>
   </threadedComment>
   <threadedComment ref="AB24" dT="2025-05-28T13:38:02.17" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{0AFD1808-6C0F-4C3F-9836-027F1D0FF106}">
-    <text>45.92B consensus 5/28/25</text>
+    <text>45.92B consensus 5/28/25
+46.05B consensus 8/27/25</text>
   </threadedComment>
   <threadedComment ref="AC24" dT="2025-05-28T13:39:37.10" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{48933EFE-5C5F-49EA-A80E-E765DE830619}">
-    <text>51.75B consensus 5/28/25</text>
+    <text>51.75B consensus 5/28/25
+53.43B consensus 8/27/25
+Q2 guidance: 54B +/- 2%</text>
   </threadedComment>
   <threadedComment ref="AD24" dT="2025-05-28T13:40:30.80" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{BDF99649-FFA5-4806-8F0A-EDE5EB314212}">
     <text>57.23B consensus 5/28/25</text>
@@ -1754,40 +1885,64 @@
   <threadedComment ref="BI24" dT="2025-05-28T14:08:43.60" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{472BDDD3-4E0A-4C08-8760-ABFC4732C8A2}">
     <text>247.91B consensus 5/28/25</text>
   </threadedComment>
-  <threadedComment ref="C144" dT="2025-04-26T15:49:13.84" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{1DF99399-1918-4E2C-8279-9C2FF687E1E3}">
+  <threadedComment ref="X128" dT="2025-08-27T14:48:54.19" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{63238D4C-CE84-4838-9552-C1CFED1CB057}">
+    <text>Raised 6B Series B</text>
+  </threadedComment>
+  <threadedComment ref="Z128" dT="2025-08-27T14:48:39.95" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{E0BD4732-6672-4A8E-98DD-D80F8291DB33}">
+    <text>Raised 6B Series C</text>
+  </threadedComment>
+  <threadedComment ref="AB128" dT="2025-08-27T14:48:03.15" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{250CB3BC-420E-44BF-AC5C-6793B6001B85}">
+    <text>Raised 10.3B, 5.3B equity, 5.0B debt</text>
+  </threadedComment>
+  <threadedComment ref="Y129" dT="2025-08-27T14:50:27.29" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{BD911E99-9212-4EF4-8813-69E92C9CA73A}">
+    <text>Raised $4B from Amazon</text>
+  </threadedComment>
+  <threadedComment ref="Z129" dT="2025-08-27T14:50:18.16" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{5BA76EC3-8C9B-47F0-9FDC-F22595796871}">
+    <text>Raised $1B from Google</text>
+  </threadedComment>
+  <threadedComment ref="AA129" dT="2025-08-27T14:50:00.47" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{14970EBD-D16F-43B3-AC0D-F662CDAE4F87}">
+    <text>Raised 6B: 3.5B Series E, 2.5B debt</text>
+  </threadedComment>
+  <threadedComment ref="Z133" dT="2025-08-27T14:51:50.60" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{DD0672ED-71A7-4FEE-8963-AC8C3EB46492}">
+    <text>Raised 10.6B in equity/debt</text>
+  </threadedComment>
+  <threadedComment ref="AA133" dT="2025-08-27T14:51:27.89" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{E135F8C4-952E-4ED7-BF9D-C71E486C0EE2}">
+    <text>Raised 40B from SoftBank/others</text>
+  </threadedComment>
+  <threadedComment ref="C146" dT="2025-04-26T15:49:13.84" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{1DF99399-1918-4E2C-8279-9C2FF687E1E3}">
     <text>133m Other, 249m EU, 422m Other APAC</text>
   </threadedComment>
-  <threadedComment ref="D144" dT="2025-04-26T15:43:40.38" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{1446D5A2-75F4-49C0-818F-A506FFEEE2AC}">
+  <threadedComment ref="D146" dT="2025-04-26T15:43:40.38" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{1446D5A2-75F4-49C0-818F-A506FFEEE2AC}">
     <text>129m other, 288m EU, 756m other APAC</text>
   </threadedComment>
-  <threadedComment ref="E144" dT="2025-04-26T15:38:37.30" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{1DF5EE39-C8FB-4475-8FE7-ADC6D1CD4618}">
+  <threadedComment ref="E146" dT="2025-04-26T15:38:37.30" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{1DF5EE39-C8FB-4475-8FE7-ADC6D1CD4618}">
     <text>216m EU, 161m other, 805m Other APAC</text>
   </threadedComment>
-  <threadedComment ref="G144" dT="2025-04-26T15:08:33.59" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{DD2CD9F0-4D52-41A1-9318-3FB1FCEC2AD9}">
+  <threadedComment ref="G146" dT="2025-04-26T15:08:33.59" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{DD2CD9F0-4D52-41A1-9318-3FB1FCEC2AD9}">
     <text>151m Other, 254m EU, 607m Other APAC</text>
   </threadedComment>
-  <threadedComment ref="H144" dT="2025-04-26T15:06:24.83" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{FCB5C1B5-F411-4AA0-8552-6396ACF5C382}">
+  <threadedComment ref="H146" dT="2025-04-26T15:06:24.83" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{FCB5C1B5-F411-4AA0-8552-6396ACF5C382}">
     <text>240m EU, 175m Other, 698m Other APAC</text>
   </threadedComment>
-  <threadedComment ref="I144" dT="2025-04-26T15:03:55.10" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{63A90EF7-3038-4F3C-97B2-466FDABC5E09}">
+  <threadedComment ref="I146" dT="2025-04-26T15:03:55.10" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{63A90EF7-3038-4F3C-97B2-466FDABC5E09}">
     <text>Europe 247m, Other APAC 955m, Other 225m</text>
   </threadedComment>
-  <threadedComment ref="J144" dT="2025-04-26T15:26:37.52" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{C63606EF-04FE-45D8-9244-916E253074AB}">
+  <threadedComment ref="J146" dT="2025-04-26T15:26:37.52" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{C63606EF-04FE-45D8-9244-916E253074AB}">
     <text>TTM EU 1118m, Other APAC 3093m, Other 833m</text>
   </threadedComment>
-  <threadedComment ref="O144" dT="2025-04-26T14:56:45.38" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{8AC347C9-DB8B-48B0-AA14-D262027A155D}">
+  <threadedComment ref="O146" dT="2025-04-26T14:56:45.38" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{8AC347C9-DB8B-48B0-AA14-D262027A155D}">
     <text>454m Singapore</text>
   </threadedComment>
-  <threadedComment ref="Q144" dT="2025-04-26T14:45:52.99" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{EE73B09E-2677-450F-B8B1-9A119FB6CC0B}">
+  <threadedComment ref="Q146" dT="2025-04-26T14:45:52.99" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{EE73B09E-2677-450F-B8B1-9A119FB6CC0B}">
     <text>536m Singapore</text>
   </threadedComment>
-  <threadedComment ref="R144" dT="2025-04-26T14:57:01.49" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{97838103-F970-4B17-BAA4-B0F2ADACFA86}">
+  <threadedComment ref="R146" dT="2025-04-26T14:57:01.49" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{97838103-F970-4B17-BAA4-B0F2ADACFA86}">
     <text>2288m Singapore (Q4+Q2)</text>
   </threadedComment>
-  <threadedComment ref="BA144" dT="2025-04-26T15:27:26.33" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{FB8A1EF9-0129-43D9-BD4D-E70349E6A7E0}">
+  <threadedComment ref="BA146" dT="2025-04-26T15:27:26.33" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{FB8A1EF9-0129-43D9-BD4D-E70349E6A7E0}">
     <text>2368m Other APAC, 914m EU, 767m Other</text>
   </threadedComment>
-  <threadedComment ref="BB144" dT="2025-04-26T15:27:36.53" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{D5B65222-64AF-4587-989D-4D4267FB62AC}">
+  <threadedComment ref="BB146" dT="2025-04-26T15:27:36.53" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{D5B65222-64AF-4587-989D-4D4267FB62AC}">
     <text>2685m Other APAC, 992m EU, 599m Other</text>
   </threadedComment>
 </ThreadedComments>
@@ -1795,10 +1950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A6168-49C8-45E2-8975-8028D960ECA2}">
-  <dimension ref="B2:L29"/>
+  <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1812,7 +1967,7 @@
         <v>131</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>247</v>
       </c>
       <c r="E2" s="26"/>
@@ -1823,22 +1978,22 @@
         <v>112</v>
       </c>
       <c r="K2" s="15">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3">
         <v>2000</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="E3" t="s">
+        <v>256</v>
+      </c>
       <c r="H3" s="20"/>
       <c r="J3" t="s">
         <v>13</v>
@@ -1854,33 +2009,27 @@
       <c r="B4" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4">
         <v>700</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
       <c r="H4" s="20"/>
       <c r="J4" t="s">
         <v>113</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>3888538</v>
+        <v>4429980</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5">
-        <v>700</v>
+        <v>254</v>
+      </c>
+      <c r="E5" t="s">
+        <v>255</v>
       </c>
       <c r="H5" s="20"/>
       <c r="J5" t="s">
@@ -1895,13 +2044,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6">
-        <v>400</v>
+        <v>253</v>
       </c>
       <c r="H6" s="20"/>
       <c r="J6" t="s">
@@ -1916,13 +2059,13 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>246</v>
+      <c r="D7">
+        <v>700</v>
       </c>
       <c r="H7" s="20"/>
       <c r="J7" t="s">
@@ -1930,31 +2073,31 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>3843311</v>
+        <v>4384753</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>122</v>
+      <c r="B8" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D8">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="H8" s="20"/>
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="21">
-        <v>5090</v>
+      <c r="B9" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9">
-        <v>575</v>
+        <v>130</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="H9" s="20"/>
       <c r="J9" t="s">
@@ -1965,56 +2108,62 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
-        <v>123</v>
+      <c r="B10" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="D10">
+        <v>450</v>
       </c>
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
-        <v>125</v>
+      <c r="B11" s="21">
+        <v>5090</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="D11">
+        <v>575</v>
       </c>
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
       </c>
       <c r="H15" s="20"/>
       <c r="K15" t="s">
@@ -2023,7 +2172,13 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
+        <v>168</v>
       </c>
       <c r="H16" s="20"/>
       <c r="K16" t="s">
@@ -2031,89 +2186,109 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
+      <c r="B17" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="20"/>
       <c r="K17" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="20"/>
       <c r="K18" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" t="s">
-        <v>142</v>
-      </c>
+      <c r="B19" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
       <c r="K19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" t="s">
-        <v>144</v>
-      </c>
       <c r="K20" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K21" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
       <c r="K22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
       <c r="K23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>243</v>
-      </c>
-      <c r="C29" t="s">
-        <v>248</v>
-      </c>
-      <c r="F29" t="s">
-        <v>250</v>
-      </c>
       <c r="I29" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2123,13 +2298,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
-  <dimension ref="A1:FE144"/>
+  <dimension ref="A1:FE146"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="S34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA36" sqref="AA36"/>
+      <selection pane="bottomRight" activeCell="AE26" sqref="AE26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3727,15 +3902,13 @@
         <v>126</v>
       </c>
       <c r="AA17" s="2">
-        <f>+W17*1.1</f>
-        <v>85.800000000000011</v>
+        <v>74</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" ref="AB17:AD19" si="3">+X17*1.1</f>
-        <v>96.800000000000011</v>
+        <v>173</v>
       </c>
       <c r="AC17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AC17:AD19" si="3">+Y17*1.1</f>
         <v>106.7</v>
       </c>
       <c r="AD17" s="2">
@@ -3846,12 +4019,10 @@
         <v>511</v>
       </c>
       <c r="AA18" s="2">
-        <f>+W18*1.1</f>
-        <v>469.70000000000005</v>
+        <v>509</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="3"/>
-        <v>499.40000000000003</v>
+        <v>601</v>
       </c>
       <c r="AC18" s="2">
         <f t="shared" si="3"/>
@@ -3978,12 +4149,10 @@
         <v>570</v>
       </c>
       <c r="AA19" s="2">
-        <f>+W19*1.1</f>
-        <v>361.90000000000003</v>
+        <v>567</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" si="3"/>
-        <v>380.6</v>
+        <v>586</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" si="3"/>
@@ -4078,6 +4247,9 @@
       <c r="AA20" s="2">
         <v>4957</v>
       </c>
+      <c r="AB20" s="2">
+        <v>7252</v>
+      </c>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
@@ -4147,6 +4319,9 @@
       <c r="AA21" s="2">
         <v>34155</v>
       </c>
+      <c r="AB21" s="2">
+        <v>33844</v>
+      </c>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
@@ -4256,20 +4431,19 @@
         <v>35580</v>
       </c>
       <c r="AA22" s="2">
-        <f>+W22*1.8</f>
-        <v>40613.4</v>
+        <f>+AA21+AA20</f>
+        <v>39112</v>
       </c>
       <c r="AB22" s="2">
-        <f>+X22*1.9</f>
-        <v>49916.799999999996</v>
+        <v>41096</v>
       </c>
       <c r="AC22" s="2">
         <f>+Y22*1.4</f>
         <v>43079.399999999994</v>
       </c>
       <c r="AD22" s="2">
-        <f>+Z22*1.5</f>
-        <v>53370</v>
+        <f>+Z22*1.35</f>
+        <v>48033</v>
       </c>
       <c r="BA22" s="2">
         <v>2932</v>
@@ -4376,19 +4550,17 @@
         <v>2544</v>
       </c>
       <c r="AA23" s="2">
-        <f>+W23*1.2</f>
-        <v>3176.4</v>
+        <v>3800</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" ref="AB23:AD23" si="6">+X23*1.2</f>
-        <v>3456</v>
+        <v>4287</v>
       </c>
       <c r="AC23" s="2">
-        <f t="shared" si="6"/>
+        <f>+Y23*1.2</f>
         <v>3934.7999999999997</v>
       </c>
       <c r="AD23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AD23" si="6">+Z23*1.2</f>
         <v>3052.7999999999997</v>
       </c>
       <c r="AF23" s="5"/>
@@ -4509,35 +4681,35 @@
         <v>22103</v>
       </c>
       <c r="W24" s="9">
-        <f>+W23+W22+W19+W18+W17</f>
+        <f t="shared" ref="W24:AB24" si="7">+W23+W22+W19+W18+W17</f>
         <v>26044</v>
       </c>
       <c r="X24" s="9">
-        <f>+X23+X22+X19+X18+X17</f>
+        <f t="shared" si="7"/>
         <v>30040</v>
       </c>
       <c r="Y24" s="9">
-        <f>+Y23+Y22+Y19+Y18+Y17</f>
+        <f t="shared" si="7"/>
         <v>35082</v>
       </c>
       <c r="Z24" s="9">
-        <f>+Z23+Z22+Z19+Z18+Z17</f>
+        <f t="shared" si="7"/>
         <v>39331</v>
       </c>
       <c r="AA24" s="9">
-        <f>+AA123</f>
-        <v>44318.77</v>
+        <f t="shared" si="7"/>
+        <v>44062</v>
       </c>
       <c r="AB24" s="9">
-        <v>53000</v>
+        <f t="shared" si="7"/>
+        <v>46743</v>
       </c>
       <c r="AC24" s="9">
-        <f>+AC123</f>
-        <v>49680.475000000006</v>
+        <v>53430</v>
       </c>
       <c r="AD24" s="9">
-        <f>+AD123</f>
-        <v>59814.570000000007</v>
+        <f>+AD125</f>
+        <v>52984.526400000002</v>
       </c>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
@@ -4600,60 +4772,60 @@
         <v>9714</v>
       </c>
       <c r="BA24" s="8">
-        <f t="shared" ref="BA24:BG24" si="7">+BA23+BA22+BA19+BA18+BA17</f>
+        <f t="shared" ref="BA24:BG24" si="8">+BA23+BA22+BA19+BA18+BA17</f>
         <v>11716</v>
       </c>
       <c r="BB24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10918</v>
       </c>
       <c r="BC24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16675</v>
       </c>
       <c r="BD24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26913</v>
       </c>
       <c r="BE24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26977</v>
       </c>
       <c r="BF24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>60922</v>
       </c>
       <c r="BG24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>130497</v>
       </c>
       <c r="BH24" s="8">
         <f>SUM(AA24:AD24)</f>
-        <v>206813.815</v>
+        <v>197219.5264</v>
       </c>
       <c r="BI24" s="8">
         <f>+BH24*1.5</f>
-        <v>310220.72250000003</v>
+        <v>295829.28960000002</v>
       </c>
       <c r="BJ24" s="8">
         <f>+BI24*1.4</f>
-        <v>434309.01150000002</v>
+        <v>414161.00543999998</v>
       </c>
       <c r="BK24" s="8">
         <f>+BJ24*1.4</f>
-        <v>608032.61609999998</v>
+        <v>579825.40761599992</v>
       </c>
       <c r="BL24" s="8">
         <f>+BK24*1.3</f>
-        <v>790442.40093</v>
+        <v>753773.02990079997</v>
       </c>
       <c r="BM24" s="8">
         <f>+BL24*1.3</f>
-        <v>1027575.121209</v>
+        <v>979904.93887104001</v>
       </c>
       <c r="BN24" s="8">
         <f>+BM24*1.3</f>
-        <v>1335847.6575716999</v>
+        <v>1273876.4205323521</v>
       </c>
     </row>
     <row r="25" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4735,20 +4907,20 @@
         <v>10608</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" ref="AA25:AC25" si="8">+AA24-AA26</f>
-        <v>10636.504800000002</v>
+        <f t="shared" ref="AA25:AC25" si="9">+AA24-AA26</f>
+        <v>10574.879999999997</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="8"/>
-        <v>12720</v>
+        <f t="shared" si="9"/>
+        <v>11218.32</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="8"/>
-        <v>11923.313999999998</v>
+        <f t="shared" si="9"/>
+        <v>12823.199999999997</v>
       </c>
       <c r="AD25" s="2">
         <f>+AD24-AD26</f>
-        <v>14355.496800000001</v>
+        <v>12716.286335999997</v>
       </c>
       <c r="AH25" s="2">
         <v>141.84299999999999</v>
@@ -4833,27 +5005,27 @@
       </c>
       <c r="BH25" s="2">
         <f>+BH24-BH26</f>
-        <v>49635.315600000002</v>
+        <v>47332.686335999984</v>
       </c>
       <c r="BI25" s="2">
-        <f t="shared" ref="BI25:BK25" si="9">+BI24-BI26</f>
-        <v>68248.558950000006</v>
+        <f t="shared" ref="BI25:BK25" si="10">+BI24-BI26</f>
+        <v>65082.443712000008</v>
       </c>
       <c r="BJ25" s="2">
-        <f t="shared" si="9"/>
-        <v>95547.982529999979</v>
+        <f t="shared" si="10"/>
+        <v>91115.421196799958</v>
       </c>
       <c r="BK25" s="2">
-        <f t="shared" si="9"/>
-        <v>133767.17554199998</v>
+        <f t="shared" si="10"/>
+        <v>127561.58967551996</v>
       </c>
       <c r="BL25" s="2">
-        <f t="shared" ref="BL25" si="10">+BL24-BL26</f>
-        <v>173897.32820460002</v>
+        <f t="shared" ref="BL25" si="11">+BL24-BL26</f>
+        <v>165830.06657817599</v>
       </c>
       <c r="BM25" s="2">
-        <f t="shared" ref="BM25" si="11">+BM24-BM26</f>
-        <v>226066.52666598</v>
+        <f t="shared" ref="BM25" si="12">+BM24-BM26</f>
+        <v>215579.08655162877</v>
       </c>
     </row>
     <row r="26" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4861,71 +5033,71 @@
         <v>5</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" ref="C26:F26" si="12">+C24-C25</f>
+        <f t="shared" ref="C26:F26" si="13">+C24-C25</f>
         <v>1296</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1541</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1916</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2015</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" ref="G26:S26" si="13">+G24-G25</f>
+        <f t="shared" ref="G26:S26" si="14">+G24-G25</f>
         <v>2004</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2275</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2960</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3157</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3629</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4215</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4631</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4999</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5431</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2915</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3177</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3833</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4648</v>
       </c>
       <c r="T26" s="2">
@@ -4933,67 +5105,67 @@
         <v>9462</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" ref="U26:Z26" si="14">+U24-U25</f>
+        <f t="shared" ref="U26:Z26" si="15">+U24-U25</f>
         <v>13400</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16791</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>20406</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>22574</v>
       </c>
       <c r="Y26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>26156</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>28723</v>
       </c>
       <c r="AA26" s="2">
         <f>+AA24*0.76</f>
-        <v>33682.265199999994</v>
+        <v>33487.120000000003</v>
       </c>
       <c r="AB26" s="2">
         <f>+AB24*0.76</f>
-        <v>40280</v>
+        <v>35524.68</v>
       </c>
       <c r="AC26" s="2">
         <f>+AC24*0.76</f>
-        <v>37757.161000000007</v>
+        <v>40606.800000000003</v>
       </c>
       <c r="AD26" s="2">
         <f>+AD24*0.76</f>
-        <v>45459.073200000006</v>
+        <v>40268.240064000005</v>
       </c>
       <c r="AH26" s="2">
-        <f t="shared" ref="AH26:AI26" si="15">+AH24-AH25</f>
+        <f t="shared" ref="AH26:AI26" si="16">+AH24-AH25</f>
         <v>232.66200000000001</v>
       </c>
       <c r="AI26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>462.38499999999999</v>
       </c>
       <c r="AJ26" s="2">
-        <f t="shared" ref="AJ26:AM26" si="16">+AJ24-AJ25</f>
+        <f t="shared" ref="AJ26:AM26" si="17">+AJ24-AJ25</f>
         <v>850.23299999999995</v>
       </c>
       <c r="AK26" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>582.17599999999993</v>
       </c>
       <c r="AL26" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>528.87799999999993</v>
       </c>
       <c r="AM26" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>649.48599999999988</v>
       </c>
       <c r="AN26" s="2">
@@ -5017,59 +5189,59 @@
         <v>1176.9230000000002</v>
       </c>
       <c r="AS26" s="2">
-        <f t="shared" ref="AS26:BF26" si="17">+AS24-AS25</f>
+        <f t="shared" ref="AS26:BF26" si="18">+AS24-AS25</f>
         <v>1409.0900000000001</v>
       </c>
       <c r="AT26" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2056.5169999999998</v>
       </c>
       <c r="AU26" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2226.3429999999998</v>
       </c>
       <c r="AV26" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2268</v>
       </c>
       <c r="AW26" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2599</v>
       </c>
       <c r="AX26" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2811</v>
       </c>
       <c r="AY26" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4063</v>
       </c>
       <c r="AZ26" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5822</v>
       </c>
       <c r="BA26" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7171</v>
       </c>
       <c r="BB26" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6768</v>
       </c>
       <c r="BC26" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10396</v>
       </c>
       <c r="BD26" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17473</v>
       </c>
       <c r="BE26" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>15359</v>
       </c>
       <c r="BF26" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>44301</v>
       </c>
       <c r="BG26" s="2">
@@ -5078,27 +5250,27 @@
       </c>
       <c r="BH26" s="2">
         <f>SUM(AA26:AD26)</f>
-        <v>157178.4994</v>
+        <v>149886.84006400002</v>
       </c>
       <c r="BI26" s="2">
         <f>+BI24*0.78</f>
-        <v>241972.16355000003</v>
+        <v>230746.84588800001</v>
       </c>
       <c r="BJ26" s="2">
         <f>+BJ24*0.78</f>
-        <v>338761.02897000004</v>
+        <v>323045.58424320002</v>
       </c>
       <c r="BK26" s="2">
         <f>+BK24*0.78</f>
-        <v>474265.440558</v>
+        <v>452263.81794047996</v>
       </c>
       <c r="BL26" s="2">
-        <f t="shared" ref="BL26:BM26" si="18">+BL24*0.78</f>
-        <v>616545.07272539998</v>
+        <f t="shared" ref="BL26:BM26" si="19">+BL24*0.78</f>
+        <v>587942.96332262398</v>
       </c>
       <c r="BM26" s="2">
-        <f t="shared" si="18"/>
-        <v>801508.59454302001</v>
+        <f t="shared" si="19"/>
+        <v>764325.85231941123</v>
       </c>
     </row>
     <row r="27" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5115,7 +5287,7 @@
         <v>712</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" ref="F27:F28" si="19">+BB27-E27-D27-C27</f>
+        <f t="shared" ref="F27:F28" si="20">+BB27-E27-D27-C27</f>
         <v>739</v>
       </c>
       <c r="G27" s="5">
@@ -5152,7 +5324,7 @@
         <v>1945</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" ref="R27:R28" si="20">+BE27-Q27-P27-O27</f>
+        <f t="shared" ref="R27:R28" si="21">+BE27-Q27-P27-O27</f>
         <v>1952</v>
       </c>
       <c r="S27" s="5">
@@ -5180,19 +5352,19 @@
         <v>3714</v>
       </c>
       <c r="AA27" s="2">
-        <f t="shared" ref="AA27" si="21">+W27*1.2</f>
+        <f t="shared" ref="AA27" si="22">+W27*1.2</f>
         <v>3264</v>
       </c>
       <c r="AB27" s="2">
-        <f t="shared" ref="AB27" si="22">+X27*1.2</f>
+        <f t="shared" ref="AB27" si="23">+X27*1.2</f>
         <v>3708</v>
       </c>
       <c r="AC27" s="2">
-        <f t="shared" ref="AC27" si="23">+Y27*1.2</f>
+        <f t="shared" ref="AC27" si="24">+Y27*1.2</f>
         <v>4068</v>
       </c>
       <c r="AD27" s="2">
-        <f t="shared" ref="AD27" si="24">+Z27*1.2</f>
+        <f t="shared" ref="AD27" si="25">+Z27*1.2</f>
         <v>4456.8</v>
       </c>
       <c r="AK27" s="2">
@@ -5272,23 +5444,23 @@
         <v>15496.8</v>
       </c>
       <c r="BI27" s="2">
-        <f t="shared" ref="BI27:BK27" si="25">+BH27*1.2</f>
+        <f t="shared" ref="BI27:BK27" si="26">+BH27*1.2</f>
         <v>18596.16</v>
       </c>
       <c r="BJ27" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>22315.392</v>
       </c>
       <c r="BK27" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>26778.470399999998</v>
       </c>
       <c r="BL27" s="2">
-        <f t="shared" ref="BL27:BM27" si="26">+BK27*1.2</f>
+        <f t="shared" ref="BL27:BM27" si="27">+BK27*1.2</f>
         <v>32134.164479999996</v>
       </c>
       <c r="BM27" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>38560.997375999992</v>
       </c>
     </row>
@@ -5306,7 +5478,7 @@
         <v>277</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>286</v>
       </c>
       <c r="G28" s="5">
@@ -5343,7 +5515,7 @@
         <v>631</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>625</v>
       </c>
       <c r="S28" s="5">
@@ -5463,23 +5635,23 @@
         <v>4189.2</v>
       </c>
       <c r="BI28" s="2">
-        <f t="shared" ref="BI28:BK28" si="27">+BH28*1.2</f>
+        <f t="shared" ref="BI28:BK28" si="28">+BH28*1.2</f>
         <v>5027.04</v>
       </c>
       <c r="BJ28" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6032.4479999999994</v>
       </c>
       <c r="BK28" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7238.9375999999993</v>
       </c>
       <c r="BL28" s="2">
-        <f t="shared" ref="BL28:BM28" si="28">+BK28*1.2</f>
+        <f t="shared" ref="BL28:BM28" si="29">+BK28*1.2</f>
         <v>8686.7251199999992</v>
       </c>
       <c r="BM28" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>10424.070143999999</v>
       </c>
     </row>
@@ -5488,51 +5660,51 @@
         <v>3</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" ref="C29:F29" si="29">+C27+C28</f>
+        <f t="shared" ref="C29:F29" si="30">+C27+C28</f>
         <v>938</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>970</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>989</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1025</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" ref="G29:I29" si="30">+G27+G28</f>
+        <f t="shared" ref="G29:I29" si="31">+G27+G28</f>
         <v>1028</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" ref="H29" si="31">+H27+H28</f>
+        <f t="shared" ref="H29" si="32">+H27+H28</f>
         <v>1624</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1562</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" ref="J29" si="32">+J27+J28</f>
+        <f t="shared" ref="J29" si="33">+J27+J28</f>
         <v>1650</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" ref="K29:M29" si="33">+K27+K28</f>
+        <f t="shared" ref="K29:M29" si="34">+K27+K28</f>
         <v>1673</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1771</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1960</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" ref="N29" si="34">+N27+N28</f>
+        <f t="shared" ref="N29" si="35">+N27+N28</f>
         <v>2029</v>
       </c>
       <c r="O29" s="5">
@@ -5540,7 +5712,7 @@
         <v>2210</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" ref="P29" si="35">+P27+P28</f>
+        <f t="shared" ref="P29" si="36">+P27+P28</f>
         <v>2416</v>
       </c>
       <c r="Q29" s="5">
@@ -5560,142 +5732,142 @@
         <v>2662</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" ref="U29:W29" si="36">+U27+U28</f>
+        <f t="shared" ref="U29:W29" si="37">+U27+U28</f>
         <v>2983</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3176</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3497</v>
       </c>
       <c r="X29" s="5">
-        <f t="shared" ref="X29:Z29" si="37">+X27+X28</f>
+        <f t="shared" ref="X29:Z29" si="38">+X27+X28</f>
         <v>3932</v>
       </c>
       <c r="Y29" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4287</v>
       </c>
       <c r="Z29" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4689</v>
       </c>
       <c r="AA29" s="5">
-        <f t="shared" ref="AA29:AD29" si="38">+AA27+AA28</f>
+        <f t="shared" ref="AA29:AD29" si="39">+AA27+AA28</f>
         <v>4196.3999999999996</v>
       </c>
       <c r="AB29" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>4718.3999999999996</v>
       </c>
       <c r="AC29" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>5144.3999999999996</v>
       </c>
       <c r="AD29" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>5626.8</v>
       </c>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="2">
-        <f t="shared" ref="AH29" si="39">+AH27+AH28</f>
+        <f t="shared" ref="AH29" si="40">+AH27+AH28</f>
         <v>0</v>
       </c>
       <c r="AI29" s="2">
-        <f t="shared" ref="AI29:AJ29" si="40">+AI27+AI28</f>
+        <f t="shared" ref="AI29:AJ29" si="41">+AI27+AI28</f>
         <v>0</v>
       </c>
       <c r="AJ29" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AK29" s="2">
-        <f t="shared" ref="AK29:AL29" si="41">+AK27+AK28</f>
+        <f t="shared" ref="AK29:AL29" si="42">+AK27+AK28</f>
         <v>376.358</v>
       </c>
       <c r="AL29" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>435.221</v>
       </c>
       <c r="AM29" s="2">
-        <f t="shared" ref="AM29:AR29" si="42">+AM27+AM28</f>
+        <f t="shared" ref="AM29:AR29" si="43">+AM27+AM28</f>
         <v>535.89300000000003</v>
       </c>
       <c r="AN29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>559.21100000000001</v>
       </c>
       <c r="AO29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>846.99699999999996</v>
       </c>
       <c r="AP29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1032.934</v>
       </c>
       <c r="AQ29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1218.1010000000001</v>
       </c>
       <c r="AR29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1275.8679999999999</v>
       </c>
       <c r="AS29" s="2">
-        <f t="shared" ref="AS29:BE29" si="43">+AS27+AS28</f>
+        <f t="shared" ref="AS29:BE29" si="44">+AS27+AS28</f>
         <v>1210.3430000000001</v>
       </c>
       <c r="AT29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1408.2180000000001</v>
       </c>
       <c r="AU29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1578.1039999999998</v>
       </c>
       <c r="AV29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1772</v>
       </c>
       <c r="AW29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1840</v>
       </c>
       <c r="AX29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1933</v>
       </c>
       <c r="AY29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2126</v>
       </c>
       <c r="AZ29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2612</v>
       </c>
       <c r="BA29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3367</v>
       </c>
       <c r="BB29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3922</v>
       </c>
       <c r="BC29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>5864</v>
       </c>
       <c r="BD29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7433</v>
       </c>
       <c r="BE29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>9779</v>
       </c>
       <c r="BF29" s="2">
@@ -5707,27 +5879,27 @@
         <v>16405</v>
       </c>
       <c r="BH29" s="2">
-        <f t="shared" ref="BH29:BK29" si="44">+BH27+BH28</f>
+        <f t="shared" ref="BH29:BK29" si="45">+BH27+BH28</f>
         <v>19686</v>
       </c>
       <c r="BI29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>23623.200000000001</v>
       </c>
       <c r="BJ29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>28347.84</v>
       </c>
       <c r="BK29" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>34017.407999999996</v>
       </c>
       <c r="BL29" s="2">
-        <f t="shared" ref="BL29" si="45">+BL27+BL28</f>
+        <f t="shared" ref="BL29" si="46">+BL27+BL28</f>
         <v>40820.889599999995</v>
       </c>
       <c r="BM29" s="2">
-        <f t="shared" ref="BM29" si="46">+BM27+BM28</f>
+        <f t="shared" ref="BM29" si="47">+BM27+BM28</f>
         <v>48985.06751999999</v>
       </c>
     </row>
@@ -5736,51 +5908,51 @@
         <v>2</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" ref="C30:F30" si="47">+C26-C29</f>
+        <f t="shared" ref="C30:F30" si="48">+C26-C29</f>
         <v>358</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>571</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>927</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>990</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" ref="G30:I30" si="48">+G26-G29</f>
+        <f t="shared" ref="G30:I30" si="49">+G26-G29</f>
         <v>976</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" ref="H30" si="49">+H26-H29</f>
+        <f t="shared" ref="H30" si="50">+H26-H29</f>
         <v>651</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1398</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" ref="J30" si="50">+J26-J29</f>
+        <f t="shared" ref="J30" si="51">+J26-J29</f>
         <v>1507</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" ref="K30:M30" si="51">+K26-K29</f>
+        <f t="shared" ref="K30:M30" si="52">+K26-K29</f>
         <v>1956</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2444</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2671</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" ref="N30" si="52">+N26-N29</f>
+        <f t="shared" ref="N30" si="53">+N26-N29</f>
         <v>2970</v>
       </c>
       <c r="O30" s="5">
@@ -5788,7 +5960,7 @@
         <v>3221</v>
       </c>
       <c r="P30" s="5">
-        <f t="shared" ref="P30" si="53">+P26-P29</f>
+        <f t="shared" ref="P30" si="54">+P26-P29</f>
         <v>499</v>
       </c>
       <c r="Q30" s="5">
@@ -5808,175 +5980,175 @@
         <v>6800</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" ref="U30:W30" si="54">+U26-U29</f>
+        <f t="shared" ref="U30:W30" si="55">+U26-U29</f>
         <v>10417</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>13615</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>16909</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" ref="X30:Z30" si="55">+X26-X29</f>
+        <f t="shared" ref="X30:Z30" si="56">+X26-X29</f>
         <v>18642</v>
       </c>
       <c r="Y30" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>21869</v>
       </c>
       <c r="Z30" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>24034</v>
       </c>
       <c r="AA30" s="5">
-        <f t="shared" ref="AA30:AD30" si="56">+AA26-AA29</f>
-        <v>29485.865199999993</v>
+        <f t="shared" ref="AA30:AD30" si="57">+AA26-AA29</f>
+        <v>29290.720000000001</v>
       </c>
       <c r="AB30" s="5">
-        <f t="shared" si="56"/>
-        <v>35561.599999999999</v>
+        <f t="shared" si="57"/>
+        <v>30806.28</v>
       </c>
       <c r="AC30" s="5">
-        <f t="shared" si="56"/>
-        <v>32612.761000000006</v>
+        <f t="shared" si="57"/>
+        <v>35462.400000000001</v>
       </c>
       <c r="AD30" s="5">
-        <f t="shared" si="56"/>
-        <v>39832.273200000003</v>
+        <f t="shared" si="57"/>
+        <v>34641.440064000002</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
       <c r="AH30" s="2">
-        <f t="shared" ref="AH30" si="57">+AH26-AH29</f>
+        <f t="shared" ref="AH30" si="58">+AH26-AH29</f>
         <v>232.66200000000001</v>
       </c>
       <c r="AI30" s="2">
-        <f t="shared" ref="AI30:AJ30" si="58">+AI26-AI29</f>
+        <f t="shared" ref="AI30:AJ30" si="59">+AI26-AI29</f>
         <v>462.38499999999999</v>
       </c>
       <c r="AJ30" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>850.23299999999995</v>
       </c>
       <c r="AK30" s="2">
-        <f t="shared" ref="AK30:AL30" si="59">+AK26-AK29</f>
+        <f t="shared" ref="AK30:AL30" si="60">+AK26-AK29</f>
         <v>205.81799999999993</v>
       </c>
       <c r="AL30" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>93.656999999999925</v>
       </c>
       <c r="AM30" s="2">
-        <f t="shared" ref="AM30:AR30" si="60">+AM26-AM29</f>
+        <f t="shared" ref="AM30:AR30" si="61">+AM26-AM29</f>
         <v>113.59299999999985</v>
       </c>
       <c r="AN30" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>350.82199999999989</v>
       </c>
       <c r="AO30" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>453.45200000000034</v>
       </c>
       <c r="AP30" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>836.34599999999978</v>
       </c>
       <c r="AQ30" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-43.832000000000335</v>
       </c>
       <c r="AR30" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-98.944999999999709</v>
       </c>
       <c r="AS30" s="2">
-        <f t="shared" ref="AS30:BG30" si="61">+AS26-AS29</f>
+        <f t="shared" ref="AS30:BG30" si="62">+AS26-AS29</f>
         <v>198.74700000000007</v>
       </c>
       <c r="AT30" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>648.29899999999975</v>
       </c>
       <c r="AU30" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>648.23900000000003</v>
       </c>
       <c r="AV30" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>496</v>
       </c>
       <c r="AW30" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>759</v>
       </c>
       <c r="AX30" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>878</v>
       </c>
       <c r="AY30" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1937</v>
       </c>
       <c r="AZ30" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>3210</v>
       </c>
       <c r="BA30" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>3804</v>
       </c>
       <c r="BB30" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>2846</v>
       </c>
       <c r="BC30" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>4532</v>
       </c>
       <c r="BD30" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>10040</v>
       </c>
       <c r="BE30" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>5580</v>
       </c>
       <c r="BF30" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>32972</v>
       </c>
       <c r="BG30" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>81454</v>
       </c>
       <c r="BH30" s="2">
-        <f t="shared" ref="BH30:BK30" si="62">+BH26-BH29</f>
-        <v>137492.4994</v>
+        <f t="shared" ref="BH30:BK30" si="63">+BH26-BH29</f>
+        <v>130200.84006400002</v>
       </c>
       <c r="BI30" s="2">
-        <f t="shared" si="62"/>
-        <v>218348.96355000001</v>
+        <f t="shared" si="63"/>
+        <v>207123.645888</v>
       </c>
       <c r="BJ30" s="2">
-        <f t="shared" si="62"/>
-        <v>310413.18897000002</v>
+        <f t="shared" si="63"/>
+        <v>294697.7442432</v>
       </c>
       <c r="BK30" s="2">
-        <f t="shared" si="62"/>
-        <v>440248.03255800001</v>
+        <f t="shared" si="63"/>
+        <v>418246.40994047996</v>
       </c>
       <c r="BL30" s="2">
-        <f t="shared" ref="BL30" si="63">+BL26-BL29</f>
-        <v>575724.18312539998</v>
+        <f t="shared" ref="BL30" si="64">+BL26-BL29</f>
+        <v>547122.07372262399</v>
       </c>
       <c r="BM30" s="2">
-        <f t="shared" ref="BM30" si="64">+BM26-BM29</f>
-        <v>752523.52702301997</v>
+        <f t="shared" ref="BM30" si="65">+BM26-BM29</f>
+        <v>715340.78479941119</v>
       </c>
     </row>
     <row r="31" spans="2:66" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6035,7 +6207,7 @@
         <v>12</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" ref="R31" si="65">+BE31-Q31-P31-O31</f>
+        <f t="shared" ref="R31" si="66">+BE31-Q31-P31-O31</f>
         <v>32</v>
       </c>
       <c r="S31" s="5">
@@ -6187,11 +6359,11 @@
         <v>6298.2920000000022</v>
       </c>
       <c r="BL31" s="2">
-        <f t="shared" ref="BL31:BM31" si="66">+BK31*1.1</f>
+        <f t="shared" ref="BL31:BM31" si="67">+BK31*1.1</f>
         <v>6928.1212000000032</v>
       </c>
       <c r="BM31" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>7620.9333200000037</v>
       </c>
     </row>
@@ -6200,87 +6372,87 @@
         <v>10</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" ref="C32:F32" si="67">+C30+C31</f>
+        <f t="shared" ref="C32:F32" si="68">+C30+C31</f>
         <v>389</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>606</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>959</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1016</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" ref="G32:T32" si="68">+G30+G31</f>
+        <f t="shared" ref="G32:T32" si="69">+G30+G31</f>
         <v>981</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>609</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1348</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1470</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2044</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2394</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2638</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2865</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>3158</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>475</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>613</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1288</v>
       </c>
       <c r="S32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2209</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>6981</v>
       </c>
       <c r="U32" s="5">
-        <f t="shared" ref="U32:AD32" si="69">+U30+U31</f>
+        <f t="shared" ref="U32:AD32" si="70">+U30+U31</f>
         <v>10522</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>14106</v>
       </c>
       <c r="W32" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>17279</v>
       </c>
       <c r="X32" s="5">
@@ -6288,159 +6460,159 @@
         <v>19214</v>
       </c>
       <c r="Y32" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>22316</v>
       </c>
       <c r="Z32" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>25217</v>
       </c>
       <c r="AA32" s="5">
-        <f t="shared" si="69"/>
-        <v>30668.865199999993</v>
+        <f t="shared" si="70"/>
+        <v>30473.72</v>
       </c>
       <c r="AB32" s="5">
-        <f t="shared" si="69"/>
-        <v>36744.6</v>
+        <f t="shared" si="70"/>
+        <v>31989.279999999999</v>
       </c>
       <c r="AC32" s="5">
-        <f t="shared" si="69"/>
-        <v>33795.761000000006</v>
+        <f t="shared" si="70"/>
+        <v>36645.4</v>
       </c>
       <c r="AD32" s="5">
-        <f t="shared" si="69"/>
-        <v>41015.273200000003</v>
+        <f t="shared" si="70"/>
+        <v>35824.440064000002</v>
       </c>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
       <c r="AH32" s="2">
-        <f t="shared" ref="AH32" si="70">+AH30+AH31</f>
+        <f t="shared" ref="AH32" si="71">+AH30+AH31</f>
         <v>255.90800000000002</v>
       </c>
       <c r="AI32" s="2">
-        <f t="shared" ref="AI32:AJ32" si="71">+AI30+AI31</f>
+        <f t="shared" ref="AI32:AJ32" si="72">+AI30+AI31</f>
         <v>485.63099999999997</v>
       </c>
       <c r="AJ32" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>873.47899999999993</v>
       </c>
       <c r="AK32" s="2">
-        <f t="shared" ref="AK32:AL32" si="72">+AK30+AK31</f>
+        <f t="shared" ref="AK32:AL32" si="73">+AK30+AK31</f>
         <v>229.06399999999994</v>
       </c>
       <c r="AL32" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>112.21799999999993</v>
       </c>
       <c r="AM32" s="2">
-        <f t="shared" ref="AM32:AR32" si="73">+AM30+AM31</f>
+        <f t="shared" ref="AM32:AR32" si="74">+AM30+AM31</f>
         <v>125.01499999999984</v>
       </c>
       <c r="AN32" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>371.51999999999987</v>
       </c>
       <c r="AO32" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>495.27200000000033</v>
       </c>
       <c r="AP32" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>900.63499999999976</v>
       </c>
       <c r="AQ32" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-1.3790000000003317</v>
       </c>
       <c r="AR32" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-75.829999999999714</v>
       </c>
       <c r="AS32" s="2">
-        <f t="shared" ref="AS32:BG32" si="74">+AS30+AS31</f>
+        <f t="shared" ref="AS32:BG32" si="75">+AS30+AS31</f>
         <v>214.16900000000007</v>
       </c>
       <c r="AT32" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>663.39599999999973</v>
       </c>
       <c r="AU32" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>662.03899999999999</v>
       </c>
       <c r="AV32" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>510</v>
       </c>
       <c r="AW32" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>773</v>
       </c>
       <c r="AX32" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>874</v>
       </c>
       <c r="AY32" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1908</v>
       </c>
       <c r="AZ32" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3196</v>
       </c>
       <c r="BA32" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3896</v>
       </c>
       <c r="BB32" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>2970</v>
       </c>
       <c r="BC32" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>4409</v>
       </c>
       <c r="BD32" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>9940</v>
       </c>
       <c r="BE32" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>5537</v>
       </c>
       <c r="BF32" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>33818</v>
       </c>
       <c r="BG32" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>84026</v>
       </c>
       <c r="BH32" s="2">
-        <f t="shared" ref="BH32:BK32" si="75">+BH30+BH31</f>
-        <v>142224.4994</v>
+        <f t="shared" ref="BH32:BK32" si="76">+BH30+BH31</f>
+        <v>134932.84006400002</v>
       </c>
       <c r="BI32" s="2">
-        <f t="shared" si="75"/>
-        <v>223554.16355000003</v>
+        <f t="shared" si="76"/>
+        <v>212328.84588800001</v>
       </c>
       <c r="BJ32" s="2">
-        <f t="shared" si="75"/>
-        <v>316138.90896999999</v>
+        <f t="shared" si="76"/>
+        <v>300423.46424320003</v>
       </c>
       <c r="BK32" s="2">
-        <f t="shared" si="75"/>
-        <v>446546.32455800002</v>
+        <f t="shared" si="76"/>
+        <v>424544.70194047998</v>
       </c>
       <c r="BL32" s="2">
-        <f t="shared" ref="BL32" si="76">+BL30+BL31</f>
-        <v>582652.30432540004</v>
+        <f t="shared" ref="BL32" si="77">+BL30+BL31</f>
+        <v>554050.19492262404</v>
       </c>
       <c r="BM32" s="2">
-        <f t="shared" ref="BM32" si="77">+BM30+BM31</f>
-        <v>760144.46034301992</v>
+        <f t="shared" ref="BM32" si="78">+BM30+BM31</f>
+        <v>722961.71811941115</v>
       </c>
     </row>
     <row r="33" spans="2:161" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6494,7 +6666,7 @@
         <v>-67</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" ref="R33" si="78">+BE33-Q33-P33-O33</f>
+        <f t="shared" ref="R33" si="79">+BE33-Q33-P33-O33</f>
         <v>61</v>
       </c>
       <c r="S33" s="5">
@@ -6523,19 +6695,19 @@
       </c>
       <c r="AA33" s="2">
         <f>+AA32*0.15</f>
-        <v>4600.3297799999991</v>
+        <v>4571.058</v>
       </c>
       <c r="AB33" s="2">
         <f>+AB32*0.15</f>
-        <v>5511.69</v>
+        <v>4798.3919999999998</v>
       </c>
       <c r="AC33" s="2">
         <f>+AC32*0.15</f>
-        <v>5069.3641500000003</v>
+        <v>5496.81</v>
       </c>
       <c r="AD33" s="2">
         <f>+AD32*0.15</f>
-        <v>6152.2909800000007</v>
+        <v>5373.6660096000005</v>
       </c>
       <c r="AH33" s="2">
         <v>59.758000000000003</v>
@@ -6620,27 +6792,27 @@
       </c>
       <c r="BH33" s="2">
         <f>SUM(AA33:AD33)</f>
-        <v>21333.674910000002</v>
+        <v>20239.926009600003</v>
       </c>
       <c r="BI33" s="2">
-        <f t="shared" ref="BI33:BK33" si="79">+BI32*0.2</f>
-        <v>44710.83271000001</v>
+        <f t="shared" ref="BI33:BK33" si="80">+BI32*0.2</f>
+        <v>42465.769177600007</v>
       </c>
       <c r="BJ33" s="2">
-        <f t="shared" si="79"/>
-        <v>63227.781794000002</v>
+        <f t="shared" si="80"/>
+        <v>60084.692848640007</v>
       </c>
       <c r="BK33" s="2">
-        <f t="shared" si="79"/>
-        <v>89309.26491160001</v>
+        <f t="shared" si="80"/>
+        <v>84908.940388096002</v>
       </c>
       <c r="BL33" s="2">
-        <f t="shared" ref="BL33" si="80">+BL32*0.2</f>
-        <v>116530.46086508001</v>
+        <f t="shared" ref="BL33" si="81">+BL32*0.2</f>
+        <v>110810.03898452481</v>
       </c>
       <c r="BM33" s="2">
-        <f t="shared" ref="BM33" si="81">+BM32*0.2</f>
-        <v>152028.89206860398</v>
+        <f t="shared" ref="BM33" si="82">+BM32*0.2</f>
+        <v>144592.34362388225</v>
       </c>
     </row>
     <row r="34" spans="2:161" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6648,71 +6820,71 @@
         <v>8</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" ref="C34:F34" si="82">+C32-C33</f>
+        <f t="shared" ref="C34:F34" si="83">+C32-C33</f>
         <v>394</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>552</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>899</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>951</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" ref="G34:S34" si="83">+G32-G33</f>
+        <f t="shared" ref="G34:S34" si="84">+G32-G33</f>
         <v>917</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>622</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1336</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1457</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1912</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2374</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2464</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>3003</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2971</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>656</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>680</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1227</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2043</v>
       </c>
       <c r="T34" s="2">
@@ -6720,7 +6892,7 @@
         <v>6188</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" ref="U34" si="84">U32-U33</f>
+        <f t="shared" ref="U34" si="85">U32-U33</f>
         <v>9243</v>
       </c>
       <c r="V34" s="2">
@@ -6732,544 +6904,544 @@
         <v>14881</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" ref="X34:AD34" si="85">+X32-X33</f>
+        <f t="shared" ref="X34:AD34" si="86">+X32-X33</f>
         <v>16599</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>19309</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>22091</v>
       </c>
       <c r="AA34" s="2">
-        <f t="shared" si="85"/>
-        <v>26068.535419999993</v>
+        <f t="shared" si="86"/>
+        <v>25902.662</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" si="85"/>
-        <v>31232.91</v>
+        <f t="shared" si="86"/>
+        <v>27190.887999999999</v>
       </c>
       <c r="AC34" s="2">
-        <f t="shared" si="85"/>
-        <v>28726.396850000005</v>
+        <f t="shared" si="86"/>
+        <v>31148.59</v>
       </c>
       <c r="AD34" s="2">
-        <f t="shared" si="85"/>
-        <v>34862.982220000005</v>
+        <f t="shared" si="86"/>
+        <v>30450.774054400001</v>
       </c>
       <c r="AH34" s="2">
-        <f t="shared" ref="AH34" si="86">+AH32-AH33</f>
+        <f t="shared" ref="AH34" si="87">+AH32-AH33</f>
         <v>196.15</v>
       </c>
       <c r="AI34" s="2">
-        <f t="shared" ref="AI34:AJ34" si="87">+AI32-AI33</f>
+        <f t="shared" ref="AI34:AJ34" si="88">+AI32-AI33</f>
         <v>425.87299999999999</v>
       </c>
       <c r="AJ34" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>813.72099999999989</v>
       </c>
       <c r="AK34" s="2">
-        <f t="shared" ref="AK34:AL34" si="88">+AK32-AK33</f>
+        <f t="shared" ref="AK34:AL34" si="89">+AK32-AK33</f>
         <v>169.30599999999993</v>
       </c>
       <c r="AL34" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>99.963999999999928</v>
       </c>
       <c r="AM34" s="2">
-        <f t="shared" ref="AM34:AR34" si="89">+AM32-AM33</f>
+        <f t="shared" ref="AM34:AR34" si="90">+AM32-AM33</f>
         <v>99.925999999999846</v>
       </c>
       <c r="AN34" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>315.90799999999984</v>
       </c>
       <c r="AO34" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>448.92200000000031</v>
       </c>
       <c r="AP34" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>796.93899999999974</v>
       </c>
       <c r="AQ34" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>-1.3790000000003317</v>
       </c>
       <c r="AR34" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>-75.829999999999714</v>
       </c>
       <c r="AS34" s="2">
-        <f t="shared" ref="AS34:BG34" si="90">+AS32-AS33</f>
+        <f t="shared" ref="AS34:BG34" si="91">+AS32-AS33</f>
         <v>196.14600000000007</v>
       </c>
       <c r="AT34" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>581.08999999999969</v>
       </c>
       <c r="AU34" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>562.53599999999994</v>
       </c>
       <c r="AV34" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>440</v>
       </c>
       <c r="AW34" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>649</v>
       </c>
       <c r="AX34" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>745</v>
       </c>
       <c r="AY34" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1669</v>
       </c>
       <c r="AZ34" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>3047</v>
       </c>
       <c r="BA34" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>4141</v>
       </c>
       <c r="BB34" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>2796</v>
       </c>
       <c r="BC34" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>4332</v>
       </c>
       <c r="BD34" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>9752</v>
       </c>
       <c r="BE34" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>5537</v>
       </c>
       <c r="BF34" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>29759</v>
       </c>
       <c r="BG34" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>72880</v>
       </c>
       <c r="BH34" s="2">
-        <f t="shared" ref="BH34:BK34" si="91">+BH32-BH33</f>
-        <v>120890.82449</v>
+        <f t="shared" ref="BH34:BK34" si="92">+BH32-BH33</f>
+        <v>114692.91405440001</v>
       </c>
       <c r="BI34" s="2">
-        <f t="shared" si="91"/>
-        <v>178843.33084000001</v>
+        <f t="shared" si="92"/>
+        <v>169863.0767104</v>
       </c>
       <c r="BJ34" s="2">
-        <f t="shared" si="91"/>
-        <v>252911.12717599998</v>
+        <f t="shared" si="92"/>
+        <v>240338.77139456003</v>
       </c>
       <c r="BK34" s="2">
-        <f t="shared" si="91"/>
-        <v>357237.05964640004</v>
+        <f t="shared" si="92"/>
+        <v>339635.76155238401</v>
       </c>
       <c r="BL34" s="2">
-        <f t="shared" ref="BL34" si="92">+BL32-BL33</f>
-        <v>466121.84346032003</v>
+        <f t="shared" ref="BL34" si="93">+BL32-BL33</f>
+        <v>443240.15593809925</v>
       </c>
       <c r="BM34" s="2">
-        <f t="shared" ref="BM34" si="93">+BM32-BM33</f>
-        <v>608115.56827441591</v>
+        <f t="shared" ref="BM34" si="94">+BM32-BM33</f>
+        <v>578369.37449552887</v>
       </c>
       <c r="BN34" s="2">
-        <f t="shared" ref="BN34:CS34" si="94">BM34*(1+$BP$41)</f>
-        <v>614196.72395716002</v>
+        <f t="shared" ref="BN34:CS34" si="95">BM34*(1+$BP$41)</f>
+        <v>584153.06824048422</v>
       </c>
       <c r="BO34" s="2">
-        <f t="shared" si="94"/>
-        <v>620338.69119673164</v>
+        <f t="shared" si="95"/>
+        <v>589994.5989228891</v>
       </c>
       <c r="BP34" s="2">
-        <f t="shared" si="94"/>
-        <v>626542.07810869894</v>
+        <f t="shared" si="95"/>
+        <v>595894.544912118</v>
       </c>
       <c r="BQ34" s="2">
-        <f t="shared" si="94"/>
-        <v>632807.49888978596</v>
+        <f t="shared" si="95"/>
+        <v>601853.49036123918</v>
       </c>
       <c r="BR34" s="2">
-        <f t="shared" si="94"/>
-        <v>639135.57387868385</v>
+        <f t="shared" si="95"/>
+        <v>607872.02526485163</v>
       </c>
       <c r="BS34" s="2">
-        <f t="shared" si="94"/>
-        <v>645526.92961747071</v>
+        <f t="shared" si="95"/>
+        <v>613950.74551750021</v>
       </c>
       <c r="BT34" s="2">
-        <f t="shared" si="94"/>
-        <v>651982.19891364546</v>
+        <f t="shared" si="95"/>
+        <v>620090.25297267525</v>
       </c>
       <c r="BU34" s="2">
-        <f t="shared" si="94"/>
-        <v>658502.02090278198</v>
+        <f t="shared" si="95"/>
+        <v>626291.15550240199</v>
       </c>
       <c r="BV34" s="2">
-        <f t="shared" si="94"/>
-        <v>665087.04111180978</v>
+        <f t="shared" si="95"/>
+        <v>632554.06705742597</v>
       </c>
       <c r="BW34" s="2">
-        <f t="shared" si="94"/>
-        <v>671737.91152292793</v>
+        <f t="shared" si="95"/>
+        <v>638879.60772800026</v>
       </c>
       <c r="BX34" s="2">
-        <f t="shared" si="94"/>
-        <v>678455.29063815717</v>
+        <f t="shared" si="95"/>
+        <v>645268.40380528022</v>
       </c>
       <c r="BY34" s="2">
-        <f t="shared" si="94"/>
-        <v>685239.84354453871</v>
+        <f t="shared" si="95"/>
+        <v>651721.08784333302</v>
       </c>
       <c r="BZ34" s="2">
-        <f t="shared" si="94"/>
-        <v>692092.2419799841</v>
+        <f t="shared" si="95"/>
+        <v>658238.29872176633</v>
       </c>
       <c r="CA34" s="2">
-        <f t="shared" si="94"/>
-        <v>699013.16439978394</v>
+        <f t="shared" si="95"/>
+        <v>664820.68170898396</v>
       </c>
       <c r="CB34" s="2">
-        <f t="shared" si="94"/>
-        <v>706003.2960437818</v>
+        <f t="shared" si="95"/>
+        <v>671468.88852607377</v>
       </c>
       <c r="CC34" s="2">
-        <f t="shared" si="94"/>
-        <v>713063.32900421962</v>
+        <f t="shared" si="95"/>
+        <v>678183.5774113345</v>
       </c>
       <c r="CD34" s="2">
-        <f t="shared" si="94"/>
-        <v>720193.96229426179</v>
+        <f t="shared" si="95"/>
+        <v>684965.4131854478</v>
       </c>
       <c r="CE34" s="2">
-        <f t="shared" si="94"/>
-        <v>727395.90191720438</v>
+        <f t="shared" si="95"/>
+        <v>691815.06731730234</v>
       </c>
       <c r="CF34" s="2">
-        <f t="shared" si="94"/>
-        <v>734669.86093637638</v>
+        <f t="shared" si="95"/>
+        <v>698733.21799047536</v>
       </c>
       <c r="CG34" s="2">
-        <f t="shared" si="94"/>
-        <v>742016.55954574014</v>
+        <f t="shared" si="95"/>
+        <v>705720.55017038016</v>
       </c>
       <c r="CH34" s="2">
-        <f t="shared" si="94"/>
-        <v>749436.72514119756</v>
+        <f t="shared" si="95"/>
+        <v>712777.75567208393</v>
       </c>
       <c r="CI34" s="2">
-        <f t="shared" si="94"/>
-        <v>756931.09239260957</v>
+        <f t="shared" si="95"/>
+        <v>719905.53322880482</v>
       </c>
       <c r="CJ34" s="2">
-        <f t="shared" si="94"/>
-        <v>764500.40331653564</v>
+        <f t="shared" si="95"/>
+        <v>727104.58856109285</v>
       </c>
       <c r="CK34" s="2">
-        <f t="shared" si="94"/>
-        <v>772145.40734970104</v>
+        <f t="shared" si="95"/>
+        <v>734375.63444670383</v>
       </c>
       <c r="CL34" s="2">
-        <f t="shared" si="94"/>
-        <v>779866.86142319802</v>
+        <f t="shared" si="95"/>
+        <v>741719.39079117088</v>
       </c>
       <c r="CM34" s="2">
-        <f t="shared" si="94"/>
-        <v>787665.53003743</v>
+        <f t="shared" si="95"/>
+        <v>749136.58469908265</v>
       </c>
       <c r="CN34" s="2">
-        <f t="shared" si="94"/>
-        <v>795542.18533780426</v>
+        <f t="shared" si="95"/>
+        <v>756627.95054607349</v>
       </c>
       <c r="CO34" s="2">
-        <f t="shared" si="94"/>
-        <v>803497.60719118232</v>
+        <f t="shared" si="95"/>
+        <v>764194.23005153425</v>
       </c>
       <c r="CP34" s="2">
-        <f t="shared" si="94"/>
-        <v>811532.58326309419</v>
+        <f t="shared" si="95"/>
+        <v>771836.17235204962</v>
       </c>
       <c r="CQ34" s="2">
-        <f t="shared" si="94"/>
-        <v>819647.90909572516</v>
+        <f t="shared" si="95"/>
+        <v>779554.53407557018</v>
       </c>
       <c r="CR34" s="2">
-        <f t="shared" si="94"/>
-        <v>827844.38818668236</v>
+        <f t="shared" si="95"/>
+        <v>787350.0794163259</v>
       </c>
       <c r="CS34" s="2">
-        <f t="shared" si="94"/>
-        <v>836122.83206854924</v>
+        <f t="shared" si="95"/>
+        <v>795223.58021048922</v>
       </c>
       <c r="CT34" s="2">
-        <f t="shared" ref="CT34:DY34" si="95">CS34*(1+$BP$41)</f>
-        <v>844484.06038923468</v>
+        <f t="shared" ref="CT34:DY34" si="96">CS34*(1+$BP$41)</f>
+        <v>803175.81601259415</v>
       </c>
       <c r="CU34" s="2">
-        <f t="shared" si="95"/>
-        <v>852928.90099312703</v>
+        <f t="shared" si="96"/>
+        <v>811207.57417272008</v>
       </c>
       <c r="CV34" s="2">
-        <f t="shared" si="95"/>
-        <v>861458.19000305829</v>
+        <f t="shared" si="96"/>
+        <v>819319.64991444733</v>
       </c>
       <c r="CW34" s="2">
-        <f t="shared" si="95"/>
-        <v>870072.7719030889</v>
+        <f t="shared" si="96"/>
+        <v>827512.84641359176</v>
       </c>
       <c r="CX34" s="2">
-        <f t="shared" si="95"/>
-        <v>878773.49962211982</v>
+        <f t="shared" si="96"/>
+        <v>835787.97487772768</v>
       </c>
       <c r="CY34" s="2">
-        <f t="shared" si="95"/>
-        <v>887561.23461834108</v>
+        <f t="shared" si="96"/>
+        <v>844145.85462650494</v>
       </c>
       <c r="CZ34" s="2">
-        <f t="shared" si="95"/>
-        <v>896436.84696452448</v>
+        <f t="shared" si="96"/>
+        <v>852587.31317276997</v>
       </c>
       <c r="DA34" s="2">
-        <f t="shared" si="95"/>
-        <v>905401.21543416975</v>
+        <f t="shared" si="96"/>
+        <v>861113.18630449765</v>
       </c>
       <c r="DB34" s="2">
-        <f t="shared" si="95"/>
-        <v>914455.22758851142</v>
+        <f t="shared" si="96"/>
+        <v>869724.31816754269</v>
       </c>
       <c r="DC34" s="2">
-        <f t="shared" si="95"/>
-        <v>923599.77986439655</v>
+        <f t="shared" si="96"/>
+        <v>878421.56134921813</v>
       </c>
       <c r="DD34" s="2">
-        <f t="shared" si="95"/>
-        <v>932835.77766304056</v>
+        <f t="shared" si="96"/>
+        <v>887205.77696271031</v>
       </c>
       <c r="DE34" s="2">
-        <f t="shared" si="95"/>
-        <v>942164.13543967099</v>
+        <f t="shared" si="96"/>
+        <v>896077.83473233739</v>
       </c>
       <c r="DF34" s="2">
-        <f t="shared" si="95"/>
-        <v>951585.7767940677</v>
+        <f t="shared" si="96"/>
+        <v>905038.6130796608</v>
       </c>
       <c r="DG34" s="2">
-        <f t="shared" si="95"/>
-        <v>961101.63456200843</v>
+        <f t="shared" si="96"/>
+        <v>914088.99921045743</v>
       </c>
       <c r="DH34" s="2">
-        <f t="shared" si="95"/>
-        <v>970712.65090762847</v>
+        <f t="shared" si="96"/>
+        <v>923229.88920256204</v>
       </c>
       <c r="DI34" s="2">
-        <f t="shared" si="95"/>
-        <v>980419.7774167048</v>
+        <f t="shared" si="96"/>
+        <v>932462.18809458765</v>
       </c>
       <c r="DJ34" s="2">
-        <f t="shared" si="95"/>
-        <v>990223.97519087186</v>
+        <f t="shared" si="96"/>
+        <v>941786.80997553351</v>
       </c>
       <c r="DK34" s="2">
-        <f t="shared" si="95"/>
-        <v>1000126.2149427806</v>
+        <f t="shared" si="96"/>
+        <v>951204.67807528889</v>
       </c>
       <c r="DL34" s="2">
-        <f t="shared" si="95"/>
-        <v>1010127.4770922083</v>
+        <f t="shared" si="96"/>
+        <v>960716.72485604184</v>
       </c>
       <c r="DM34" s="2">
-        <f t="shared" si="95"/>
-        <v>1020228.7518631305</v>
+        <f t="shared" si="96"/>
+        <v>970323.8921046023</v>
       </c>
       <c r="DN34" s="2">
-        <f t="shared" si="95"/>
-        <v>1030431.0393817618</v>
+        <f t="shared" si="96"/>
+        <v>980027.13102564833</v>
       </c>
       <c r="DO34" s="2">
-        <f t="shared" si="95"/>
-        <v>1040735.3497755794</v>
+        <f t="shared" si="96"/>
+        <v>989827.40233590477</v>
       </c>
       <c r="DP34" s="2">
-        <f t="shared" si="95"/>
-        <v>1051142.7032733352</v>
+        <f t="shared" si="96"/>
+        <v>999725.67635926383</v>
       </c>
       <c r="DQ34" s="2">
-        <f t="shared" si="95"/>
-        <v>1061654.1303060686</v>
+        <f t="shared" si="96"/>
+        <v>1009722.9331228564</v>
       </c>
       <c r="DR34" s="2">
-        <f t="shared" si="95"/>
-        <v>1072270.6716091293</v>
+        <f t="shared" si="96"/>
+        <v>1019820.162454085</v>
       </c>
       <c r="DS34" s="2">
-        <f t="shared" si="95"/>
-        <v>1082993.3783252207</v>
+        <f t="shared" si="96"/>
+        <v>1030018.3640786258</v>
       </c>
       <c r="DT34" s="2">
-        <f t="shared" si="95"/>
-        <v>1093823.3121084729</v>
+        <f t="shared" si="96"/>
+        <v>1040318.547719412</v>
       </c>
       <c r="DU34" s="2">
-        <f t="shared" si="95"/>
-        <v>1104761.5452295577</v>
+        <f t="shared" si="96"/>
+        <v>1050721.7331966062</v>
       </c>
       <c r="DV34" s="2">
-        <f t="shared" si="95"/>
-        <v>1115809.1606818533</v>
+        <f t="shared" si="96"/>
+        <v>1061228.9505285723</v>
       </c>
       <c r="DW34" s="2">
-        <f t="shared" si="95"/>
-        <v>1126967.2522886719</v>
+        <f t="shared" si="96"/>
+        <v>1071841.240033858</v>
       </c>
       <c r="DX34" s="2">
-        <f t="shared" si="95"/>
-        <v>1138236.9248115586</v>
+        <f t="shared" si="96"/>
+        <v>1082559.6524341966</v>
       </c>
       <c r="DY34" s="2">
-        <f t="shared" si="95"/>
-        <v>1149619.2940596743</v>
+        <f t="shared" si="96"/>
+        <v>1093385.2489585385</v>
       </c>
       <c r="DZ34" s="2">
-        <f t="shared" ref="DZ34:FE34" si="96">DY34*(1+$BP$41)</f>
-        <v>1161115.487000271</v>
+        <f t="shared" ref="DZ34:FE34" si="97">DY34*(1+$BP$41)</f>
+        <v>1104319.1014481238</v>
       </c>
       <c r="EA34" s="2">
-        <f t="shared" si="96"/>
-        <v>1172726.6418702737</v>
+        <f t="shared" si="97"/>
+        <v>1115362.2924626051</v>
       </c>
       <c r="EB34" s="2">
-        <f t="shared" si="96"/>
-        <v>1184453.9082889764</v>
+        <f t="shared" si="97"/>
+        <v>1126515.9153872312</v>
       </c>
       <c r="EC34" s="2">
-        <f t="shared" si="96"/>
-        <v>1196298.4473718661</v>
+        <f t="shared" si="97"/>
+        <v>1137781.0745411036</v>
       </c>
       <c r="ED34" s="2">
-        <f t="shared" si="96"/>
-        <v>1208261.4318455847</v>
+        <f t="shared" si="97"/>
+        <v>1149158.8852865146</v>
       </c>
       <c r="EE34" s="2">
-        <f t="shared" si="96"/>
-        <v>1220344.0461640405</v>
+        <f t="shared" si="97"/>
+        <v>1160650.4741393798</v>
       </c>
       <c r="EF34" s="2">
-        <f t="shared" si="96"/>
-        <v>1232547.4866256809</v>
+        <f t="shared" si="97"/>
+        <v>1172256.9788807735</v>
       </c>
       <c r="EG34" s="2">
-        <f t="shared" si="96"/>
-        <v>1244872.9614919377</v>
+        <f t="shared" si="97"/>
+        <v>1183979.5486695813</v>
       </c>
       <c r="EH34" s="2">
-        <f t="shared" si="96"/>
-        <v>1257321.691106857</v>
+        <f t="shared" si="97"/>
+        <v>1195819.3441562771</v>
       </c>
       <c r="EI34" s="2">
-        <f t="shared" si="96"/>
-        <v>1269894.9080179257</v>
+        <f t="shared" si="97"/>
+        <v>1207777.53759784</v>
       </c>
       <c r="EJ34" s="2">
-        <f t="shared" si="96"/>
-        <v>1282593.8570981049</v>
+        <f t="shared" si="97"/>
+        <v>1219855.3129738183</v>
       </c>
       <c r="EK34" s="2">
-        <f t="shared" si="96"/>
-        <v>1295419.795669086</v>
+        <f t="shared" si="97"/>
+        <v>1232053.8661035565</v>
       </c>
       <c r="EL34" s="2">
-        <f t="shared" si="96"/>
-        <v>1308373.9936257768</v>
+        <f t="shared" si="97"/>
+        <v>1244374.4047645919</v>
       </c>
       <c r="EM34" s="2">
-        <f t="shared" si="96"/>
-        <v>1321457.7335620346</v>
+        <f t="shared" si="97"/>
+        <v>1256818.1488122379</v>
       </c>
       <c r="EN34" s="2">
-        <f t="shared" si="96"/>
-        <v>1334672.3108976549</v>
+        <f t="shared" si="97"/>
+        <v>1269386.3303003602</v>
       </c>
       <c r="EO34" s="2">
-        <f t="shared" si="96"/>
-        <v>1348019.0340066315</v>
+        <f t="shared" si="97"/>
+        <v>1282080.1936033638</v>
       </c>
       <c r="EP34" s="2">
-        <f t="shared" si="96"/>
-        <v>1361499.2243466978</v>
+        <f t="shared" si="97"/>
+        <v>1294900.9955393975</v>
       </c>
       <c r="EQ34" s="2">
-        <f t="shared" si="96"/>
-        <v>1375114.2165901647</v>
+        <f t="shared" si="97"/>
+        <v>1307850.0054947915</v>
       </c>
       <c r="ER34" s="2">
-        <f t="shared" si="96"/>
-        <v>1388865.3587560663</v>
+        <f t="shared" si="97"/>
+        <v>1320928.5055497396</v>
       </c>
       <c r="ES34" s="2">
-        <f t="shared" si="96"/>
-        <v>1402754.0123436269</v>
+        <f t="shared" si="97"/>
+        <v>1334137.790605237</v>
       </c>
       <c r="ET34" s="2">
-        <f t="shared" si="96"/>
-        <v>1416781.5524670633</v>
+        <f t="shared" si="97"/>
+        <v>1347479.1685112894</v>
       </c>
       <c r="EU34" s="2">
-        <f t="shared" si="96"/>
-        <v>1430949.3679917341</v>
+        <f t="shared" si="97"/>
+        <v>1360953.9601964024</v>
       </c>
       <c r="EV34" s="2">
-        <f t="shared" si="96"/>
-        <v>1445258.8616716515</v>
+        <f t="shared" si="97"/>
+        <v>1374563.4997983663</v>
       </c>
       <c r="EW34" s="2">
-        <f t="shared" si="96"/>
-        <v>1459711.4502883679</v>
+        <f t="shared" si="97"/>
+        <v>1388309.13479635</v>
       </c>
       <c r="EX34" s="2">
-        <f t="shared" si="96"/>
-        <v>1474308.5647912517</v>
+        <f t="shared" si="97"/>
+        <v>1402192.2261443136</v>
       </c>
       <c r="EY34" s="2">
-        <f t="shared" si="96"/>
-        <v>1489051.6504391641</v>
+        <f t="shared" si="97"/>
+        <v>1416214.1484057568</v>
       </c>
       <c r="EZ34" s="2">
-        <f t="shared" si="96"/>
-        <v>1503942.1669435557</v>
+        <f t="shared" si="97"/>
+        <v>1430376.2898898143</v>
       </c>
       <c r="FA34" s="2">
-        <f t="shared" si="96"/>
-        <v>1518981.5886129912</v>
+        <f t="shared" si="97"/>
+        <v>1444680.0527887125</v>
       </c>
       <c r="FB34" s="2">
-        <f t="shared" si="96"/>
-        <v>1534171.404499121</v>
+        <f t="shared" si="97"/>
+        <v>1459126.8533165997</v>
       </c>
       <c r="FC34" s="2">
-        <f t="shared" si="96"/>
-        <v>1549513.1185441122</v>
+        <f t="shared" si="97"/>
+        <v>1473718.1218497658</v>
       </c>
       <c r="FD34" s="2">
-        <f t="shared" si="96"/>
-        <v>1565008.2497295532</v>
+        <f t="shared" si="97"/>
+        <v>1488455.3030682635</v>
       </c>
       <c r="FE34" s="2">
-        <f t="shared" si="96"/>
-        <v>1580658.3322268487</v>
+        <f t="shared" si="97"/>
+        <v>1503339.8560989462</v>
       </c>
     </row>
     <row r="35" spans="2:161" x14ac:dyDescent="0.25">
@@ -7277,247 +7449,247 @@
         <v>12</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" ref="C35:F35" si="97">+C34/C36</f>
+        <f t="shared" ref="C35:F35" si="98">+C34/C36</f>
         <v>0.15990259740259741</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0.22402597402597402</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0.36367313915857608</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0.38470873786407767</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" ref="G35:T35" si="98">+G34/G36</f>
+        <f t="shared" ref="G35:T35" si="99">+G34/G36</f>
         <v>0.36856913183279744</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0.24840255591054314</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0.53015873015873016</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0.57725832012678291</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0.75632911392405067</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0.93759873617693523</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0.97084318360914101</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1.1799607072691551</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1.1710681907765077</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0.26073131955484896</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0.27210884353741499</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>4.894295971280415E-2</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>8.2048192771084341E-2</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0.24757941906057454</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" ref="U35:W35" si="99">+U34/U36</f>
+        <f t="shared" ref="U35:W35" si="100">+U34/U36</f>
         <v>3.7060946271050521</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>0.49337349397590363</v>
       </c>
       <c r="W35" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>5.978706307754118</v>
       </c>
       <c r="X35" s="6">
-        <f t="shared" ref="X35:AD35" si="100">+X34/X36</f>
+        <f t="shared" ref="X35:AD35" si="101">+X34/X36</f>
         <v>0.66802157115260785</v>
       </c>
       <c r="Y35" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.77940582869136998</v>
       </c>
       <c r="Z35" s="6">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.8941552659273051</v>
       </c>
       <c r="AA35" s="6">
-        <f t="shared" si="100"/>
-        <v>1.0592229255211081</v>
+        <f t="shared" si="101"/>
+        <v>1.05248311730527</v>
       </c>
       <c r="AB35" s="6">
-        <f t="shared" si="100"/>
-        <v>1.2690630206005444</v>
+        <f t="shared" si="101"/>
+        <v>1.1048266222420868</v>
       </c>
       <c r="AC35" s="6">
-        <f t="shared" si="100"/>
-        <v>1.1672177826987935</v>
+        <f t="shared" si="101"/>
+        <v>1.2656369103246516</v>
       </c>
       <c r="AD35" s="6">
-        <f t="shared" si="100"/>
-        <v>1.4165609776116372</v>
+        <f t="shared" si="101"/>
+        <v>1.2372830870098737</v>
       </c>
       <c r="AE35" s="6"/>
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="15">
-        <f t="shared" ref="AH35" si="101">+AH34/AH36</f>
+        <f t="shared" ref="AH35" si="102">+AH34/AH36</f>
         <v>1.1648346427701863</v>
       </c>
       <c r="AI35" s="15">
-        <f t="shared" ref="AI35:AJ35" si="102">+AI34/AI36</f>
+        <f t="shared" ref="AI35:AJ35" si="103">+AI34/AI36</f>
         <v>2.5290421810882875</v>
       </c>
       <c r="AJ35" s="15">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>4.8322733130237001</v>
       </c>
       <c r="AK35" s="15">
-        <f t="shared" ref="AK35:AL35" si="103">+AK34/AK36</f>
+        <f t="shared" ref="AK35:AL35" si="104">+AK34/AK36</f>
         <v>1.0054218405753204</v>
       </c>
       <c r="AL35" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.57880688101814015</v>
       </c>
       <c r="AM35" s="15">
-        <f t="shared" ref="AM35:AR35" si="104">+AM34/AM36</f>
+        <f t="shared" ref="AM35:AR35" si="105">+AM34/AM36</f>
         <v>0.56596699101711534</v>
       </c>
       <c r="AN35" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.62055905867562389</v>
       </c>
       <c r="AO35" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.76444003977822339</v>
       </c>
       <c r="AP35" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1.3134942610575999</v>
       </c>
       <c r="AQ35" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>-2.515844896976848E-3</v>
       </c>
       <c r="AR35" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>-0.13797959874375373</v>
       </c>
       <c r="AS35" s="15">
-        <f t="shared" ref="AS35" si="105">+AS34/AS36</f>
+        <f t="shared" ref="AS35" si="106">+AS34/AS36</f>
         <v>0.33319403958660349</v>
       </c>
       <c r="AT35" s="15">
-        <f t="shared" ref="AT35:AU35" si="106">+AT34/AT36</f>
+        <f t="shared" ref="AT35:AU35" si="107">+AT34/AT36</f>
         <v>0.94276012336725723</v>
       </c>
       <c r="AU35" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.90011952822354169</v>
       </c>
       <c r="AV35" s="15">
-        <f t="shared" ref="AV35:AW35" si="107">+AV34/AV36</f>
+        <f t="shared" ref="AV35:AW35" si="108">+AV34/AV36</f>
         <v>0.73949579831932777</v>
       </c>
       <c r="AW35" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>1.152753108348135</v>
       </c>
       <c r="AX35" s="15">
-        <f t="shared" ref="AX35:AY35" si="108">+AX34/AX36</f>
+        <f t="shared" ref="AX35:AY35" si="109">+AX34/AX36</f>
         <v>1.3093145869947276</v>
       </c>
       <c r="AY35" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>2.5716486902927582</v>
       </c>
       <c r="AZ35" s="15">
-        <f t="shared" ref="AZ35:BA35" si="109">+AZ34/AZ36</f>
+        <f t="shared" ref="AZ35:BA35" si="110">+AZ34/AZ36</f>
         <v>4.8212025316455698</v>
       </c>
       <c r="BA35" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>6.6256000000000004</v>
       </c>
       <c r="BB35" s="15">
-        <f t="shared" ref="BB35:BC35" si="110">+BB34/BB36</f>
+        <f t="shared" ref="BB35:BC35" si="111">+BB34/BB36</f>
         <v>1.1310679611650485</v>
       </c>
       <c r="BC35" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>1.7258964143426294</v>
       </c>
       <c r="BD35" s="15">
-        <f t="shared" ref="BD35:BK35" si="111">+BD34/BD36</f>
+        <f t="shared" ref="BD35:BK35" si="112">+BD34/BD36</f>
         <v>3.8469428007889546</v>
       </c>
       <c r="BE35" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>0.22086158755484642</v>
       </c>
       <c r="BF35" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1.1932237369687249</v>
       </c>
       <c r="BG35" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>2.9382357684244478</v>
       </c>
       <c r="BH35" s="15">
-        <f t="shared" si="111"/>
-        <v>4.9120647064320835</v>
+        <f t="shared" si="112"/>
+        <v>4.6602297368818828</v>
       </c>
       <c r="BI35" s="15">
-        <f t="shared" si="111"/>
-        <v>7.2668047149648531</v>
+        <f t="shared" si="112"/>
+        <v>6.9019168953069761</v>
       </c>
       <c r="BJ35" s="15">
-        <f t="shared" si="111"/>
-        <v>10.276345015480882</v>
+        <f t="shared" si="112"/>
+        <v>9.7655020679598561</v>
       </c>
       <c r="BK35" s="15">
-        <f t="shared" si="111"/>
-        <v>14.51534109326724</v>
+        <f t="shared" si="112"/>
+        <v>13.800160966737801</v>
       </c>
       <c r="BL35" s="15">
-        <f t="shared" ref="BL35:BM35" si="112">+BL34/BL36</f>
-        <v>18.939573502105564</v>
+        <f t="shared" ref="BL35:BM35" si="113">+BL34/BL36</f>
+        <v>18.009839337617294</v>
       </c>
       <c r="BM35" s="15">
-        <f t="shared" si="112"/>
-        <v>24.709096268921048</v>
+        <f t="shared" si="113"/>
+        <v>23.500441855086297</v>
       </c>
       <c r="BN35" s="15"/>
     </row>
@@ -7719,11 +7891,11 @@
         <v>24611</v>
       </c>
       <c r="BL36" s="2">
-        <f t="shared" ref="BL36:BM36" si="113">+BK36</f>
+        <f t="shared" ref="BL36:BM36" si="114">+BK36</f>
         <v>24611</v>
       </c>
       <c r="BM36" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>24611</v>
       </c>
       <c r="BN36" s="2"/>
@@ -7737,67 +7909,67 @@
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
       <c r="G38" s="17">
-        <f t="shared" ref="G38" si="114">+G24/C24-1</f>
+        <f t="shared" ref="G38" si="115">+G24/C24-1</f>
         <v>0.38738738738738743</v>
       </c>
       <c r="H38" s="17">
-        <f t="shared" ref="H38" si="115">+H24/D24-1</f>
+        <f t="shared" ref="H38" si="116">+H24/D24-1</f>
         <v>0.49903063202791786</v>
       </c>
       <c r="I38" s="17">
-        <f t="shared" ref="I38" si="116">+I24/E24-1</f>
+        <f t="shared" ref="I38" si="117">+I24/E24-1</f>
         <v>0.56801592568015935</v>
       </c>
       <c r="J38" s="17">
-        <f t="shared" ref="J38" si="117">+J24/F24-1</f>
+        <f t="shared" ref="J38" si="118">+J24/F24-1</f>
         <v>0.61127214170692423</v>
       </c>
       <c r="K38" s="17">
-        <f t="shared" ref="K38:M38" si="118">+K24/G24-1</f>
+        <f t="shared" ref="K38:M38" si="119">+K24/G24-1</f>
         <v>0.83798701298701306</v>
       </c>
       <c r="L38" s="17">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.68313502327987585</v>
       </c>
       <c r="M38" s="17">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.50296233601354201</v>
       </c>
       <c r="N38" s="17">
-        <f t="shared" ref="N38:V38" si="119">+N24/J24-1</f>
+        <f t="shared" ref="N38:V38" si="120">+N24/J24-1</f>
         <v>0.52768338996602049</v>
       </c>
       <c r="O38" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>0.46405228758169925</v>
       </c>
       <c r="P38" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>3.0275088366374714E-2</v>
       </c>
       <c r="Q38" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>-0.16500070392791777</v>
       </c>
       <c r="R38" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>-0.20829517205285886</v>
       </c>
       <c r="S38" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>-0.13223938223938225</v>
       </c>
       <c r="T38" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>1.0147673031026252</v>
       </c>
       <c r="U38" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>2.0551340414769852</v>
       </c>
       <c r="V38" s="17">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>2.6527846636919516</v>
       </c>
       <c r="W38" s="17">
@@ -7805,32 +7977,32 @@
         <v>2.6212458286985538</v>
       </c>
       <c r="X38" s="17">
-        <f t="shared" ref="X38" si="120">+X24/T24-1</f>
+        <f t="shared" ref="X38" si="121">+X24/T24-1</f>
         <v>1.2240319834160065</v>
       </c>
       <c r="Y38" s="17">
-        <f t="shared" ref="Y38" si="121">+Y24/U24-1</f>
+        <f t="shared" ref="Y38" si="122">+Y24/U24-1</f>
         <v>0.93609271523178816</v>
       </c>
       <c r="Z38" s="17">
-        <f t="shared" ref="Z38:AA38" si="122">+Z24/V24-1</f>
+        <f t="shared" ref="Z38:AA38" si="123">+Z24/V24-1</f>
         <v>0.77944170474596208</v>
       </c>
       <c r="AA38" s="17">
-        <f t="shared" si="122"/>
-        <v>0.7016882967286131</v>
+        <f t="shared" si="123"/>
+        <v>0.69182921210259551</v>
       </c>
       <c r="AB38" s="17">
-        <f t="shared" ref="AB38" si="123">+AB24/X24-1</f>
-        <v>0.76431424766977374</v>
+        <f t="shared" ref="AB38" si="124">+AB24/X24-1</f>
+        <v>0.5560252996005326</v>
       </c>
       <c r="AC38" s="17">
-        <f t="shared" ref="AC38" si="124">+AC24/Y24-1</f>
-        <v>0.41612436577162093</v>
+        <f t="shared" ref="AC38" si="125">+AC24/Y24-1</f>
+        <v>0.52300324952967325</v>
       </c>
       <c r="AD38" s="17">
-        <f t="shared" ref="AD38" si="125">+AD24/Z24-1</f>
-        <v>0.52079962370649113</v>
+        <f t="shared" ref="AD38" si="126">+AD24/Z24-1</f>
+        <v>0.34714414583915998</v>
       </c>
       <c r="AE38" s="17"/>
       <c r="AF38" s="17"/>
@@ -7840,115 +8012,115 @@
       <c r="AJ38" s="17"/>
       <c r="AK38" s="17"/>
       <c r="AL38" s="17">
-        <f t="shared" ref="AL38:AN38" si="126">+AL24/AK24-1</f>
+        <f t="shared" ref="AL38:AN38" si="127">+AL24/AK24-1</f>
         <v>-4.5302121504288917E-2</v>
       </c>
       <c r="AM38" s="17">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.10262953627235039</v>
       </c>
       <c r="AN38" s="17">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>0.18191442628056365</v>
       </c>
       <c r="AO38" s="17">
-        <f t="shared" ref="AO38" si="127">+AO24/AN24-1</f>
+        <f t="shared" ref="AO38" si="128">+AO24/AN24-1</f>
         <v>0.29174045234073365</v>
       </c>
       <c r="AP38" s="17">
-        <f t="shared" ref="AP38" si="128">+AP24/AO24-1</f>
+        <f t="shared" ref="AP38" si="129">+AP24/AO24-1</f>
         <v>0.33534238951032824</v>
       </c>
       <c r="AQ38" s="17">
-        <f t="shared" ref="AQ38" si="129">+AQ24/AP24-1</f>
+        <f t="shared" ref="AQ38" si="130">+AQ24/AP24-1</f>
         <v>-0.16423230661857646</v>
       </c>
       <c r="AR38" s="17">
-        <f t="shared" ref="AR38" si="130">+AR24/AQ24-1</f>
+        <f t="shared" ref="AR38" si="131">+AR24/AQ24-1</f>
         <v>-2.8735197565797566E-2</v>
       </c>
       <c r="AS38" s="17">
-        <f t="shared" ref="AS38" si="131">+AS24/AR24-1</f>
+        <f t="shared" ref="AS38" si="132">+AS24/AR24-1</f>
         <v>6.5193923242380381E-2</v>
       </c>
       <c r="AT38" s="17">
-        <f t="shared" ref="AT38:BM38" si="132">+AT24/AS24-1</f>
+        <f t="shared" ref="AT38:BM38" si="133">+AT24/AS24-1</f>
         <v>0.12830407960468571</v>
       </c>
       <c r="AU38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>7.0593782282331041E-2</v>
       </c>
       <c r="AV38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>-3.5082575203397748E-2</v>
       </c>
       <c r="AW38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.13365617433414045</v>
       </c>
       <c r="AX38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>7.0055531824006811E-2</v>
       </c>
       <c r="AY38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.37924151696606789</v>
       </c>
       <c r="AZ38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.40578871201157751</v>
       </c>
       <c r="BA38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.20609429689108505</v>
       </c>
       <c r="BB38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>-6.8111983612154314E-2</v>
       </c>
       <c r="BC38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.52729437625938824</v>
       </c>
       <c r="BD38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.61397301349325328</v>
       </c>
       <c r="BE38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>2.378032920893336E-3</v>
       </c>
       <c r="BF38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>1.2582941023835117</v>
       </c>
       <c r="BG38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>1.1420340763599355</v>
       </c>
       <c r="BH38" s="17">
         <f>+BH24/BG24-1</f>
-        <v>0.58481662413695346</v>
+        <v>0.51129548112217149</v>
       </c>
       <c r="BI38" s="17">
-        <f t="shared" si="132"/>
-        <v>0.50000000000000022</v>
+        <f t="shared" si="133"/>
+        <v>0.5</v>
       </c>
       <c r="BJ38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="BK38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="BL38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BM38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BN38" s="17"/>
@@ -7959,79 +8131,79 @@
         <v>72</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" ref="D39" si="133">+D24/C24-1</f>
+        <f t="shared" ref="D39" si="134">+D24/C24-1</f>
         <v>0.16171171171171173</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" ref="E39" si="134">+E24/D24-1</f>
+        <f t="shared" ref="E39" si="135">+E24/D24-1</f>
         <v>0.16867002714230317</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" ref="F39" si="135">+F24/E24-1</f>
+        <f t="shared" ref="F39" si="136">+F24/E24-1</f>
         <v>3.0192435301924281E-2</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" ref="G39:H39" si="136">+G24/F24-1</f>
+        <f t="shared" ref="G39:H39" si="137">+G24/F24-1</f>
         <v>-8.0515297906602612E-3</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>0.2551948051948052</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" ref="I39" si="137">+I24/H24-1</f>
+        <f t="shared" ref="I39" si="138">+I24/H24-1</f>
         <v>0.22245214692188298</v>
       </c>
       <c r="J39" s="10">
-        <f t="shared" ref="J39" si="138">+J24/I24-1</f>
+        <f t="shared" ref="J39" si="139">+J24/I24-1</f>
         <v>5.8611933982225972E-2</v>
       </c>
       <c r="K39" s="10">
-        <f t="shared" ref="K39:V39" si="139">+K24/J24-1</f>
+        <f t="shared" ref="K39:V39" si="140">+K24/J24-1</f>
         <v>0.13152108734759138</v>
       </c>
       <c r="L39" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.14944356120826718</v>
       </c>
       <c r="M39" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>9.1593668357153879E-2</v>
       </c>
       <c r="N39" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>7.6024215120371608E-2</v>
       </c>
       <c r="O39" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>8.4390945963626951E-2</v>
       </c>
       <c r="P39" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>-0.19111969111969107</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>-0.11530429594272074</v>
       </c>
       <c r="R39" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>2.0232675771370667E-2</v>
       </c>
       <c r="S39" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.1885638737398776</v>
       </c>
       <c r="T39" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.87805895439377091</v>
       </c>
       <c r="U39" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.34152661582882948</v>
       </c>
       <c r="V39" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.21981236203090515</v>
       </c>
       <c r="W39" s="10">
@@ -8039,32 +8211,32 @@
         <v>0.17830158801972584</v>
       </c>
       <c r="X39" s="10">
-        <f t="shared" ref="X39" si="140">+X24/W24-1</f>
+        <f t="shared" ref="X39" si="141">+X24/W24-1</f>
         <v>0.1534326524343419</v>
       </c>
       <c r="Y39" s="10">
-        <f t="shared" ref="Y39" si="141">+Y24/X24-1</f>
+        <f t="shared" ref="Y39" si="142">+Y24/X24-1</f>
         <v>0.16784287616511318</v>
       </c>
       <c r="Z39" s="10">
-        <f t="shared" ref="Z39" si="142">+Z24/Y24-1</f>
+        <f t="shared" ref="Z39" si="143">+Z24/Y24-1</f>
         <v>0.12111624194743742</v>
       </c>
       <c r="AA39" s="10">
-        <f t="shared" ref="AA39" si="143">+AA24/Z24-1</f>
-        <v>0.12681523480206436</v>
+        <f t="shared" ref="AA39" si="144">+AA24/Z24-1</f>
+        <v>0.12028679667437903</v>
       </c>
       <c r="AB39" s="10">
-        <f t="shared" ref="AB39" si="144">+AB24/AA24-1</f>
-        <v>0.19588156440262217</v>
+        <f t="shared" ref="AB39" si="145">+AB24/AA24-1</f>
+        <v>6.0846080522899637E-2</v>
       </c>
       <c r="AC39" s="10">
-        <f t="shared" ref="AC39" si="145">+AC24/AB24-1</f>
-        <v>-6.2632547169811259E-2</v>
+        <f t="shared" ref="AC39" si="146">+AC24/AB24-1</f>
+        <v>0.14305885373210958</v>
       </c>
       <c r="AD39" s="10">
-        <f t="shared" ref="AD39" si="146">+AD24/AC24-1</f>
-        <v>0.20398546914054272</v>
+        <f t="shared" ref="AD39" si="147">+AD24/AC24-1</f>
+        <v>-8.3375182481751908E-3</v>
       </c>
       <c r="AE39" s="10"/>
       <c r="AF39" s="10"/>
@@ -8091,75 +8263,75 @@
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10">
-        <f t="shared" ref="E40" si="147">+E22/D22-1</f>
+        <f t="shared" ref="E40" si="148">+E22/D22-1</f>
         <v>0.10839694656488552</v>
       </c>
       <c r="F40" s="10">
-        <f t="shared" ref="F40" si="148">+F22/E22-1</f>
+        <f t="shared" ref="F40" si="149">+F22/E22-1</f>
         <v>0.33333333333333326</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" ref="G40" si="149">+G22/F22-1</f>
+        <f t="shared" ref="G40" si="150">+G22/F22-1</f>
         <v>0.17871900826446274</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" ref="H40" si="150">+H22/G22-1</f>
+        <f t="shared" ref="H40" si="151">+H22/G22-1</f>
         <v>0.5354951796669587</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" ref="I40" si="151">+I22/H22-1</f>
+        <f t="shared" ref="I40" si="152">+I22/H22-1</f>
         <v>8.4474885844748826E-2</v>
       </c>
       <c r="J40" s="10">
-        <f t="shared" ref="J40" si="152">+J22/I22-1</f>
+        <f t="shared" ref="J40" si="153">+J22/I22-1</f>
         <v>1.5789473684211242E-3</v>
       </c>
       <c r="K40" s="10">
-        <f t="shared" ref="K40" si="153">+K22/J22-1</f>
+        <f t="shared" ref="K40" si="154">+K22/J22-1</f>
         <v>7.7246452968996238E-2</v>
       </c>
       <c r="L40" s="10">
-        <f t="shared" ref="L40:V40" si="154">+L22/K22-1</f>
+        <f t="shared" ref="L40:V40" si="155">+L22/K22-1</f>
         <v>0.15414634146341455</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.24091293322062546</v>
       </c>
       <c r="N40" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.11035422343324242</v>
       </c>
       <c r="O40" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.15030674846625769</v>
       </c>
       <c r="P40" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>1.4933333333333243E-2</v>
       </c>
       <c r="Q40" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>7.0940620073567384E-3</v>
       </c>
       <c r="R40" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>-5.5570049569527824E-2</v>
       </c>
       <c r="S40" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.18342541436464099</v>
       </c>
       <c r="T40" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>1.4096638655462184</v>
       </c>
       <c r="U40" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.40598663179308336</v>
       </c>
       <c r="V40" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.2680170869505305</v>
       </c>
       <c r="W40" s="10">
@@ -8167,32 +8339,32 @@
         <v>0.22598348185177142</v>
       </c>
       <c r="X40" s="10">
-        <f t="shared" ref="X40" si="155">+X22/W22-1</f>
+        <f t="shared" ref="X40" si="156">+X22/W22-1</f>
         <v>0.16438416877188322</v>
       </c>
       <c r="Y40" s="10">
-        <f t="shared" ref="Y40" si="156">+Y22/X22-1</f>
+        <f t="shared" ref="Y40" si="157">+Y22/X22-1</f>
         <v>0.17124695493300846</v>
       </c>
       <c r="Z40" s="10">
-        <f t="shared" ref="Z40" si="157">+Z22/Y22-1</f>
+        <f t="shared" ref="Z40" si="158">+Z22/Y22-1</f>
         <v>0.15628351369796234</v>
       </c>
       <c r="AA40" s="10">
-        <f t="shared" ref="AA40" si="158">+AA22/Z22-1</f>
-        <v>0.14146711635750431</v>
+        <f t="shared" ref="AA40" si="159">+AA22/Z22-1</f>
+        <v>9.9269252388982654E-2</v>
       </c>
       <c r="AB40" s="10">
-        <f t="shared" ref="AB40" si="159">+AB22/AA22-1</f>
-        <v>0.22907217814809866</v>
+        <f t="shared" ref="AB40" si="160">+AB22/AA22-1</f>
+        <v>5.0726119860912355E-2</v>
       </c>
       <c r="AC40" s="10">
-        <f t="shared" ref="AC40" si="160">+AC22/AB22-1</f>
-        <v>-0.13697592794409907</v>
+        <f t="shared" ref="AC40" si="161">+AC22/AB22-1</f>
+        <v>4.8262604633054096E-2</v>
       </c>
       <c r="AD40" s="10">
-        <f t="shared" ref="AD40" si="161">+AD22/AC22-1</f>
-        <v>0.23887519324781703</v>
+        <f t="shared" ref="AD40" si="162">+AD22/AC22-1</f>
+        <v>0.11498767392303533</v>
       </c>
       <c r="AE40" s="10"/>
       <c r="AF40" s="10"/>
@@ -8218,246 +8390,246 @@
         <v>5</v>
       </c>
       <c r="C41" s="7">
-        <f t="shared" ref="C41:F41" si="162">C26/C24</f>
+        <f t="shared" ref="C41:F41" si="163">C26/C24</f>
         <v>0.58378378378378382</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.59751841799146954</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.63570006635700071</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>0.64895330112721417</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" ref="G41:H41" si="163">G26/G24</f>
+        <f t="shared" ref="G41:H41" si="164">G26/G24</f>
         <v>0.6506493506493507</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>0.58846352819451631</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" ref="I41:U41" si="164">I26/I24</f>
+        <f t="shared" ref="I41:U41" si="165">I26/I24</f>
         <v>0.62632247143461706</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.6310213871676994</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.6410528175234057</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.64776394651913327</v>
       </c>
       <c r="M41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.65197803744896521</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.65406254088708626</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.65528474903474898</v>
       </c>
       <c r="P41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.43481503579952269</v>
       </c>
       <c r="Q41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.53566009104704093</v>
       </c>
       <c r="R41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.63344901669145592</v>
       </c>
       <c r="S41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.64627363737486099</v>
       </c>
       <c r="T41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.7005256533649219</v>
       </c>
       <c r="U41" s="7">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>0.73951434878587197</v>
       </c>
       <c r="V41" s="7">
-        <f t="shared" ref="V41:X41" si="165">V26/V24</f>
+        <f t="shared" ref="V41:X41" si="166">V26/V24</f>
         <v>0.75967063294575399</v>
       </c>
       <c r="W41" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.78352019659038552</v>
       </c>
       <c r="X41" s="7">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>0.75146471371504664</v>
       </c>
       <c r="Y41" s="7">
-        <f t="shared" ref="Y41:AD41" si="166">Y26/Y24</f>
+        <f t="shared" ref="Y41:AD41" si="167">Y26/Y24</f>
         <v>0.74556752750698363</v>
       </c>
       <c r="Z41" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.73028908494571709</v>
       </c>
       <c r="AA41" s="7">
-        <f t="shared" si="166"/>
-        <v>0.7599999999999999</v>
+        <f t="shared" si="167"/>
+        <v>0.76</v>
       </c>
       <c r="AB41" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.76</v>
       </c>
       <c r="AC41" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.76</v>
       </c>
       <c r="AD41" s="7">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0.76</v>
       </c>
       <c r="AE41" s="7"/>
       <c r="AF41" s="7"/>
       <c r="AG41" s="7"/>
       <c r="AH41" s="7">
-        <f t="shared" ref="AH41" si="167">AH26/AH24</f>
+        <f t="shared" ref="AH41" si="168">AH26/AH24</f>
         <v>0.62125205270957662</v>
       </c>
       <c r="AI41" s="7">
-        <f t="shared" ref="AI41:AJ41" si="168">AI26/AI24</f>
+        <f t="shared" ref="AI41:AJ41" si="169">AI26/AI24</f>
         <v>0.62886935848892367</v>
       </c>
       <c r="AJ41" s="7">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>0.6208477580029077</v>
       </c>
       <c r="AK41" s="7">
-        <f t="shared" ref="AK41:AR41" si="169">AK26/AK24</f>
+        <f t="shared" ref="AK41:AR41" si="170">AK26/AK24</f>
         <v>0.30489246362952205</v>
       </c>
       <c r="AL41" s="7">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.29012285066197824</v>
       </c>
       <c r="AM41" s="7">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.3231220581950644</v>
       </c>
       <c r="AN41" s="7">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.38306098404377342</v>
       </c>
       <c r="AO41" s="7">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.42376866830402143</v>
       </c>
       <c r="AP41" s="7">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.45616004451103742</v>
       </c>
       <c r="AQ41" s="7">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.34286637785672341</v>
       </c>
       <c r="AR41" s="7">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>0.35380804432359475</v>
       </c>
       <c r="AS41" s="7">
-        <f t="shared" ref="AS41" si="170">AS26/AS24</f>
+        <f t="shared" ref="AS41" si="171">AS26/AS24</f>
         <v>0.39767629636591112</v>
       </c>
       <c r="AT41" s="7">
-        <f t="shared" ref="AT41:AU41" si="171">AT26/AT24</f>
+        <f t="shared" ref="AT41:AU41" si="172">AT26/AT24</f>
         <v>0.51439544964519135</v>
       </c>
       <c r="AU41" s="7">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.52015427464260089</v>
       </c>
       <c r="AV41" s="7">
-        <f t="shared" ref="AV41:BM41" si="172">AV26/AV24</f>
+        <f t="shared" ref="AV41:BM41" si="173">AV26/AV24</f>
         <v>0.54915254237288136</v>
       </c>
       <c r="AW41" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.55510465612985904</v>
       </c>
       <c r="AX41" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.56107784431137719</v>
       </c>
       <c r="AY41" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.58798842257597683</v>
       </c>
       <c r="AZ41" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.59934115709285563</v>
       </c>
       <c r="BA41" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.61206896551724133</v>
       </c>
       <c r="BB41" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.61989375343469499</v>
       </c>
       <c r="BC41" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.62344827586206897</v>
       </c>
       <c r="BD41" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.64924014416824583</v>
       </c>
       <c r="BE41" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.56933684249545913</v>
       </c>
       <c r="BF41" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.72717573290436954</v>
       </c>
       <c r="BG41" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.74989463359310937</v>
       </c>
       <c r="BH41" s="7">
-        <f t="shared" si="172"/>
-        <v>0.76</v>
+        <f t="shared" si="173"/>
+        <v>0.76000000000000012</v>
       </c>
       <c r="BI41" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.78</v>
       </c>
       <c r="BJ41" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
+        <v>0.78000000000000014</v>
+      </c>
+      <c r="BK41" s="7">
+        <f t="shared" si="173"/>
         <v>0.78</v>
       </c>
-      <c r="BK41" s="7">
-        <f t="shared" si="172"/>
+      <c r="BL41" s="7">
+        <f t="shared" si="173"/>
         <v>0.78</v>
       </c>
-      <c r="BL41" s="7">
-        <f t="shared" si="172"/>
-        <v>0.77999999999999992</v>
-      </c>
       <c r="BM41" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.78</v>
       </c>
       <c r="BO41" t="s">
@@ -8472,83 +8644,83 @@
         <v>24</v>
       </c>
       <c r="C42" s="7">
-        <f t="shared" ref="C42:F42" si="173">C22/C24</f>
+        <f t="shared" ref="C42:F42" si="174">C22/C24</f>
         <v>0.28558558558558561</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.25397440868553706</v>
       </c>
       <c r="E42" s="7">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.24087591240875914</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.3117552334943639</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" ref="G42:I42" si="174">G22/G24</f>
+        <f t="shared" ref="G42:I42" si="175">G22/G24</f>
         <v>0.37045454545454548</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>0.45318158303155714</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>0.40203131612357174</v>
       </c>
       <c r="J42" s="7">
-        <f t="shared" ref="J42:O42" si="175">J22/J24</f>
+        <f t="shared" ref="J42:O42" si="176">J22/J24</f>
         <v>0.38037177693383972</v>
       </c>
       <c r="K42" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>0.36212683271506801</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>0.36360842169970803</v>
       </c>
       <c r="M42" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>0.41334647332113189</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>0.42653408347507521</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>0.45246138996138996</v>
       </c>
       <c r="P42" s="7">
-        <f t="shared" ref="P42:U42" si="176">P22/P24</f>
+        <f t="shared" ref="P42:U42" si="177">P22/P24</f>
         <v>0.56772076372315039</v>
       </c>
       <c r="Q42" s="7">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.64626538526386779</v>
       </c>
       <c r="R42" s="7">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.59824822343414308</v>
       </c>
       <c r="S42" s="7">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.59566184649610676</v>
       </c>
       <c r="T42" s="7">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.76427037832235134</v>
       </c>
       <c r="U42" s="7">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.80099337748344368</v>
       </c>
       <c r="V42" s="7">
-        <f t="shared" ref="V42:AD42" si="177">V22/V24</f>
+        <f t="shared" ref="V42:AD42" si="178">V22/V24</f>
         <v>0.8326471519703208</v>
       </c>
       <c r="W42" s="7">
@@ -8556,32 +8728,32 @@
         <v>0.86634157579480875</v>
       </c>
       <c r="X42" s="7">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.87456724367509986</v>
       </c>
       <c r="Y42" s="7">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.87711646998460746</v>
       </c>
       <c r="Z42" s="7">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.90462993567415018</v>
       </c>
       <c r="AA42" s="7">
-        <f t="shared" si="177"/>
-        <v>0.91639276090017852</v>
+        <f t="shared" si="178"/>
+        <v>0.88765829966864873</v>
       </c>
       <c r="AB42" s="7">
-        <f t="shared" si="177"/>
-        <v>0.94182641509433951</v>
+        <f t="shared" si="178"/>
+        <v>0.87919046702180004</v>
       </c>
       <c r="AC42" s="7">
-        <f t="shared" si="177"/>
-        <v>0.86712939036915382</v>
+        <f t="shared" si="178"/>
+        <v>0.80627737226277363</v>
       </c>
       <c r="AD42" s="7">
-        <f t="shared" si="177"/>
-        <v>0.89225752187134333</v>
+        <f t="shared" si="178"/>
+        <v>0.90654768974211308</v>
       </c>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
@@ -8614,7 +8786,7 @@
       </c>
       <c r="BP43" s="2">
         <f>NPV(BP42,BH34:FE34)+Main!K5-Main!K6</f>
-        <v>5995361.1934512733</v>
+        <v>5703553.926836011</v>
       </c>
     </row>
     <row r="44" spans="2:161" x14ac:dyDescent="0.25">
@@ -8643,67 +8815,67 @@
         <v>5704</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" ref="L44:M44" si="178">+L45-L58</f>
+        <f t="shared" ref="L44:M44" si="179">+L45-L58</f>
         <v>7711</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>8354</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" ref="N44:V44" si="179">+N45-N58</f>
+        <f t="shared" ref="N44:V44" si="180">+N45-N58</f>
         <v>10262</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>9391</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>6088</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>2193</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>2343</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>4366</v>
       </c>
       <c r="T44" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>6318</v>
       </c>
       <c r="U44" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>8575</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>16275</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" ref="W44:AA44" si="180">+W45-W58</f>
+        <f t="shared" ref="W44:AA44" si="181">+W45-W58</f>
         <v>21728</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>26339</v>
       </c>
       <c r="Y44" s="2">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>30025</v>
       </c>
       <c r="Z44" s="2">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>34747</v>
       </c>
       <c r="AA44" s="2">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>45227</v>
       </c>
       <c r="AB44" s="2"/>
@@ -8752,7 +8924,7 @@
       </c>
       <c r="BP44" s="15">
         <f>BP43/Main!K3</f>
-        <v>243.60494061400485</v>
+        <v>231.74815841843122</v>
       </c>
     </row>
     <row r="45" spans="2:161" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -8939,23 +9111,23 @@
         <v>22132</v>
       </c>
       <c r="BC46" s="2">
-        <f t="shared" ref="BC46:BC53" si="181">+J46</f>
+        <f t="shared" ref="BC46:BC53" si="182">+J46</f>
         <v>2429</v>
       </c>
       <c r="BD46" s="2">
-        <f t="shared" ref="BD46:BD53" si="182">+N46</f>
+        <f t="shared" ref="BD46:BD53" si="183">+N46</f>
         <v>4650</v>
       </c>
       <c r="BE46" s="2">
-        <f t="shared" ref="BE46:BE53" si="183">+R46</f>
+        <f t="shared" ref="BE46:BE53" si="184">+R46</f>
         <v>3827</v>
       </c>
       <c r="BF46" s="2">
-        <f t="shared" ref="BF46:BF53" si="184">+V46</f>
+        <f t="shared" ref="BF46:BF53" si="185">+V46</f>
         <v>9999</v>
       </c>
       <c r="BG46" s="2">
-        <f t="shared" ref="BG46:BG53" si="185">+Z46</f>
+        <f t="shared" ref="BG46:BG53" si="186">+Z46</f>
         <v>23065</v>
       </c>
     </row>
@@ -9031,23 +9203,23 @@
         <v>11333</v>
       </c>
       <c r="BC47" s="2">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>1826</v>
       </c>
       <c r="BD47" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>2605</v>
       </c>
       <c r="BE47" s="2">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>5159</v>
       </c>
       <c r="BF47" s="2">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>5282</v>
       </c>
       <c r="BG47" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>10080</v>
       </c>
     </row>
@@ -9123,23 +9295,23 @@
         <v>2779</v>
       </c>
       <c r="BC48" s="2">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>239</v>
       </c>
       <c r="BD48" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>366</v>
       </c>
       <c r="BE48" s="2">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>791</v>
       </c>
       <c r="BF48" s="2">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>3080</v>
       </c>
       <c r="BG48" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>3771</v>
       </c>
     </row>
@@ -9215,23 +9387,23 @@
         <v>7136</v>
       </c>
       <c r="BC49" s="2">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>2149</v>
       </c>
       <c r="BD49" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>2778</v>
       </c>
       <c r="BE49" s="2">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>3807</v>
       </c>
       <c r="BF49" s="2">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>3914</v>
       </c>
       <c r="BG49" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>6283</v>
       </c>
     </row>
@@ -9307,23 +9479,23 @@
         <v>1810</v>
       </c>
       <c r="BC50" s="2">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>707</v>
       </c>
       <c r="BD50" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>829</v>
       </c>
       <c r="BE50" s="2">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>1038</v>
       </c>
       <c r="BF50" s="2">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>1346</v>
       </c>
       <c r="BG50" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>1793</v>
       </c>
     </row>
@@ -9420,23 +9592,23 @@
         <v>6267</v>
       </c>
       <c r="BC51" s="2">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>6930</v>
       </c>
       <c r="BD51" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>6688</v>
       </c>
       <c r="BE51" s="2">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>6048</v>
       </c>
       <c r="BF51" s="2">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>5542</v>
       </c>
       <c r="BG51" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>5995</v>
       </c>
     </row>
@@ -9512,23 +9684,23 @@
         <v>13318</v>
       </c>
       <c r="BC52" s="2">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>806</v>
       </c>
       <c r="BD52" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>1222</v>
       </c>
       <c r="BE52" s="2">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>3396</v>
       </c>
       <c r="BF52" s="2">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>6081</v>
       </c>
       <c r="BG52" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>10979</v>
       </c>
     </row>
@@ -9604,23 +9776,23 @@
         <v>6788</v>
       </c>
       <c r="BC53" s="2">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>2144</v>
       </c>
       <c r="BD53" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>3841</v>
       </c>
       <c r="BE53" s="2">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>3820</v>
       </c>
       <c r="BF53" s="2">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>4500</v>
       </c>
       <c r="BG53" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>6425</v>
       </c>
     </row>
@@ -9632,87 +9804,87 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="G54" s="2">
-        <f t="shared" ref="G54:M54" si="186">SUM(G45:G53)</f>
+        <f t="shared" ref="G54:M54" si="187">SUM(G45:G53)</f>
         <v>23254</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>25180</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>26881</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>28791</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>30796</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>38650</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>40632</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" ref="N54:Q54" si="187">SUM(N45:N53)</f>
+        <f t="shared" ref="N54:Q54" si="188">SUM(N45:N53)</f>
         <v>44187</v>
       </c>
       <c r="O54" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>45212</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>43476</v>
       </c>
       <c r="Q54" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>40488</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" ref="R54:S54" si="188">SUM(R45:R53)</f>
+        <f t="shared" ref="R54:S54" si="189">SUM(R45:R53)</f>
         <v>41182</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>44460</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" ref="T54:AA54" si="189">SUM(T45:T53)</f>
+        <f t="shared" ref="T54:AA54" si="190">SUM(T45:T53)</f>
         <v>49555</v>
       </c>
       <c r="U54" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>54148</v>
       </c>
       <c r="V54" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>65728</v>
       </c>
       <c r="W54" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>77072</v>
       </c>
       <c r="X54" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>85227</v>
       </c>
       <c r="Y54" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>96013</v>
       </c>
       <c r="Z54" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>111601</v>
       </c>
       <c r="AA54" s="2">
-        <f t="shared" si="189"/>
+        <f t="shared" si="190"/>
         <v>125254</v>
       </c>
       <c r="BC54" s="2">
@@ -9826,23 +9998,23 @@
         <v>7331</v>
       </c>
       <c r="BC56" s="2">
-        <f t="shared" ref="BC56:BC61" si="190">+J56</f>
+        <f t="shared" ref="BC56:BC61" si="191">+J56</f>
         <v>1201</v>
       </c>
       <c r="BD56" s="2">
-        <f t="shared" ref="BD56:BD61" si="191">+N56</f>
+        <f t="shared" ref="BD56:BD61" si="192">+N56</f>
         <v>1783</v>
       </c>
       <c r="BE56" s="2">
-        <f t="shared" ref="BE56:BE61" si="192">+R56</f>
+        <f t="shared" ref="BE56:BE61" si="193">+R56</f>
         <v>1193</v>
       </c>
       <c r="BF56" s="2">
-        <f t="shared" ref="BF56:BF61" si="193">+V56</f>
+        <f t="shared" ref="BF56:BF61" si="194">+V56</f>
         <v>2699</v>
       </c>
       <c r="BG56" s="2">
-        <f t="shared" ref="BG56:BG61" si="194">+Z56</f>
+        <f t="shared" ref="BG56:BG61" si="195">+Z56</f>
         <v>6310</v>
       </c>
     </row>
@@ -9918,23 +10090,23 @@
         <v>19211</v>
       </c>
       <c r="BC57" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>1725</v>
       </c>
       <c r="BD57" s="2">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>2552</v>
       </c>
       <c r="BE57" s="2">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>4120</v>
       </c>
       <c r="BF57" s="2">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>6682</v>
       </c>
       <c r="BG57" s="2">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>11737</v>
       </c>
     </row>
@@ -10022,23 +10194,23 @@
         <v>8464</v>
       </c>
       <c r="BC58" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>6963</v>
       </c>
       <c r="BD58" s="2">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>10946</v>
       </c>
       <c r="BE58" s="2">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>10953</v>
       </c>
       <c r="BF58" s="2">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>9709</v>
       </c>
       <c r="BG58" s="2">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>8463</v>
       </c>
     </row>
@@ -10115,23 +10287,23 @@
         <v>1521</v>
       </c>
       <c r="BC59" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>634</v>
       </c>
       <c r="BD59" s="2">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>741</v>
       </c>
       <c r="BE59" s="2">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>902</v>
       </c>
       <c r="BF59" s="2">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>1119</v>
       </c>
       <c r="BG59" s="2">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>1519</v>
       </c>
     </row>
@@ -10207,23 +10379,23 @@
         <v>4884</v>
       </c>
       <c r="BC60" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>1375</v>
       </c>
       <c r="BD60" s="2">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>1553</v>
       </c>
       <c r="BE60" s="2">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>1913</v>
       </c>
       <c r="BF60" s="2">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>2541</v>
       </c>
       <c r="BG60" s="2">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>4245</v>
       </c>
     </row>
@@ -10299,23 +10471,23 @@
         <v>83843</v>
       </c>
       <c r="BC61" s="2">
-        <f t="shared" si="190"/>
+        <f t="shared" si="191"/>
         <v>16893</v>
       </c>
       <c r="BD61" s="2">
-        <f t="shared" si="191"/>
+        <f t="shared" si="192"/>
         <v>26612</v>
       </c>
       <c r="BE61" s="2">
-        <f t="shared" si="192"/>
+        <f t="shared" si="193"/>
         <v>22101</v>
       </c>
       <c r="BF61" s="2">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>42978</v>
       </c>
       <c r="BG61" s="2">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>79327</v>
       </c>
     </row>
@@ -10327,91 +10499,91 @@
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="2">
-        <f t="shared" ref="F62" si="195">SUM(F56:F61)</f>
+        <f t="shared" ref="F62" si="196">SUM(F56:F61)</f>
         <v>0</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" ref="G62:M62" si="196">SUM(G56:G61)</f>
+        <f t="shared" ref="G62:M62" si="197">SUM(G56:G61)</f>
         <v>23254</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>25180</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>26881</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>28791</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>30796</v>
       </c>
       <c r="L62" s="2">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>38650</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>40632</v>
       </c>
       <c r="N62" s="2">
-        <f t="shared" ref="N62:Q62" si="197">SUM(N56:N61)</f>
+        <f t="shared" ref="N62:Q62" si="198">SUM(N56:N61)</f>
         <v>44187</v>
       </c>
       <c r="O62" s="2">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>45212</v>
       </c>
       <c r="P62" s="2">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>43476</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="197"/>
+        <f t="shared" si="198"/>
         <v>40488</v>
       </c>
       <c r="R62" s="2">
-        <f t="shared" ref="R62:S62" si="198">SUM(R56:R61)</f>
+        <f t="shared" ref="R62:S62" si="199">SUM(R56:R61)</f>
         <v>41182</v>
       </c>
       <c r="S62" s="2">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>44460</v>
       </c>
       <c r="T62" s="2">
-        <f t="shared" ref="T62:AA62" si="199">SUM(T56:T61)</f>
+        <f t="shared" ref="T62:AA62" si="200">SUM(T56:T61)</f>
         <v>49555</v>
       </c>
       <c r="U62" s="2">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>54148</v>
       </c>
       <c r="V62" s="2">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>65728</v>
       </c>
       <c r="W62" s="2">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>77072</v>
       </c>
       <c r="X62" s="2">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>85227</v>
       </c>
       <c r="Y62" s="2">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>96013</v>
       </c>
       <c r="Z62" s="2">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>111601</v>
       </c>
       <c r="AA62" s="2">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>125254</v>
       </c>
       <c r="BC62" s="2">
@@ -10448,92 +10620,92 @@
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5">
-        <f t="shared" ref="F64:K64" si="200">F34</f>
+        <f t="shared" ref="F64:K64" si="201">F34</f>
         <v>951</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>917</v>
       </c>
       <c r="H64" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>622</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>1336</v>
       </c>
       <c r="J64" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>1457</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>1912</v>
       </c>
       <c r="L64" s="5">
-        <f t="shared" ref="L64:R64" si="201">L34</f>
+        <f t="shared" ref="L64:R64" si="202">L34</f>
         <v>2374</v>
       </c>
       <c r="M64" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>2464</v>
       </c>
       <c r="N64" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>3003</v>
       </c>
       <c r="O64" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>2971</v>
       </c>
       <c r="P64" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>656</v>
       </c>
       <c r="Q64" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>680</v>
       </c>
       <c r="R64" s="5">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>1227</v>
       </c>
       <c r="S64" s="5">
-        <f t="shared" ref="S64:AA64" si="202">S34</f>
+        <f t="shared" ref="S64:AA64" si="203">S34</f>
         <v>2043</v>
       </c>
       <c r="T64" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>6188</v>
       </c>
       <c r="U64" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>9243</v>
       </c>
       <c r="V64" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>12285</v>
       </c>
       <c r="W64" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>14881</v>
       </c>
       <c r="X64" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>16599</v>
       </c>
       <c r="Y64" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>19309</v>
       </c>
       <c r="Z64" s="5">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>22091</v>
       </c>
       <c r="AA64" s="5">
-        <f t="shared" si="202"/>
-        <v>26068.535419999993</v>
+        <f t="shared" si="203"/>
+        <v>25902.662</v>
       </c>
       <c r="AF64" s="5"/>
       <c r="AG64" s="5"/>
@@ -10690,7 +10862,7 @@
         <v>4332</v>
       </c>
       <c r="BD65" s="2">
-        <f t="shared" ref="BD65:BD72" si="203">SUM(K65:N65)</f>
+        <f t="shared" ref="BD65:BD72" si="204">SUM(K65:N65)</f>
         <v>9752</v>
       </c>
       <c r="BE65" s="2">
@@ -10724,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" ref="J66:J72" si="204">+BC66-I66-H66-G66</f>
+        <f t="shared" ref="J66:J72" si="205">+BC66-I66-H66-G66</f>
         <v>0</v>
       </c>
       <c r="K66" s="5">
@@ -10787,19 +10959,19 @@
         <v>0</v>
       </c>
       <c r="BD66" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0</v>
       </c>
       <c r="BE66" s="2">
-        <f t="shared" ref="BE66:BE72" si="205">SUM(O66:R66)</f>
+        <f t="shared" ref="BE66:BE72" si="206">SUM(O66:R66)</f>
         <v>1353</v>
       </c>
       <c r="BF66" s="2">
-        <f t="shared" ref="BF66:BF72" si="206">SUM(S66:V66)</f>
+        <f t="shared" ref="BF66:BF72" si="207">SUM(S66:V66)</f>
         <v>0</v>
       </c>
       <c r="BG66" s="2">
-        <f t="shared" ref="BG66:BG72" si="207">SUM(W66:Z66)</f>
+        <f t="shared" ref="BG66:BG72" si="208">SUM(W66:Z66)</f>
         <v>0</v>
       </c>
     </row>
@@ -10823,7 +10995,7 @@
         <v>383</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>416</v>
       </c>
       <c r="K67" s="5">
@@ -10898,19 +11070,19 @@
         <v>1397</v>
       </c>
       <c r="BD67" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>2004</v>
       </c>
       <c r="BE67" s="2">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v>2709</v>
       </c>
       <c r="BF67" s="2">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>3549</v>
       </c>
       <c r="BG67" s="2">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>4737</v>
       </c>
     </row>
@@ -10934,7 +11106,7 @@
         <v>299</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>288</v>
       </c>
       <c r="K68" s="5">
@@ -11009,19 +11181,19 @@
         <v>1098</v>
       </c>
       <c r="BD68" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>1174</v>
       </c>
       <c r="BE68" s="2">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v>1544</v>
       </c>
       <c r="BF68" s="2">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>1508</v>
       </c>
       <c r="BG68" s="2">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>1864</v>
       </c>
     </row>
@@ -11043,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="5">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0</v>
       </c>
       <c r="K69" s="5">
@@ -11118,19 +11290,19 @@
         <v>0</v>
       </c>
       <c r="BD69" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>-100</v>
       </c>
       <c r="BE69" s="2">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v>45</v>
       </c>
       <c r="BF69" s="2">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>-238</v>
       </c>
       <c r="BG69" s="2">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>-1029</v>
       </c>
     </row>
@@ -11154,7 +11326,7 @@
         <v>-53</v>
       </c>
       <c r="J70" s="5">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>-165</v>
       </c>
       <c r="K70" s="5">
@@ -11229,19 +11401,19 @@
         <v>-282</v>
       </c>
       <c r="BD70" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>-406</v>
       </c>
       <c r="BE70" s="2">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v>-2164</v>
       </c>
       <c r="BF70" s="2">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>-2489</v>
       </c>
       <c r="BG70" s="2">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>-4477</v>
       </c>
     </row>
@@ -11265,7 +11437,7 @@
         <v>3</v>
       </c>
       <c r="J71" s="5">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>-18</v>
       </c>
       <c r="K71" s="5">
@@ -11340,19 +11512,19 @@
         <v>-20</v>
       </c>
       <c r="BD71" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>47</v>
       </c>
       <c r="BE71" s="2">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v>-7</v>
       </c>
       <c r="BF71" s="2">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>-278</v>
       </c>
       <c r="BG71" s="2">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>-503</v>
       </c>
     </row>
@@ -11377,7 +11549,7 @@
         <v>-689</v>
       </c>
       <c r="J72" s="5">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>89</v>
       </c>
       <c r="K72" s="5">
@@ -11461,19 +11633,19 @@
         <v>-703</v>
       </c>
       <c r="BD72" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>-3363</v>
       </c>
       <c r="BE72" s="2">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v>-2207</v>
       </c>
       <c r="BF72" s="2">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>-3722</v>
       </c>
       <c r="BG72" s="2">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>-9384</v>
       </c>
     </row>
@@ -11486,87 +11658,87 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5">
-        <f t="shared" ref="G73:AA73" si="208">SUM(G65:G72)</f>
+        <f t="shared" ref="G73:AA73" si="209">SUM(G65:G72)</f>
         <v>909</v>
       </c>
       <c r="H73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>1567</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>1279</v>
       </c>
       <c r="J73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>2067</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>1874</v>
       </c>
       <c r="L73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>2682</v>
       </c>
       <c r="M73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>1519</v>
       </c>
       <c r="N73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>3033</v>
       </c>
       <c r="O73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>1731</v>
       </c>
       <c r="P73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>1270</v>
       </c>
       <c r="Q73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>392</v>
       </c>
       <c r="R73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>2248</v>
       </c>
       <c r="S73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>2911</v>
       </c>
       <c r="T73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>6348</v>
       </c>
       <c r="U73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>7332</v>
       </c>
       <c r="V73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>11499</v>
       </c>
       <c r="W73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>15345</v>
       </c>
       <c r="X73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>14488</v>
       </c>
       <c r="Y73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>17627</v>
       </c>
       <c r="Z73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>16628</v>
       </c>
       <c r="AA73" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>27414</v>
       </c>
       <c r="AF73" s="5"/>
@@ -11586,31 +11758,31 @@
       <c r="AT73" s="5"/>
       <c r="AU73" s="5"/>
       <c r="BA73" s="2">
-        <f t="shared" ref="BA73:BG73" si="209">SUM(BA65:BA72)</f>
+        <f t="shared" ref="BA73:BG73" si="210">SUM(BA65:BA72)</f>
         <v>3743</v>
       </c>
       <c r="BB73" s="2">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>4761</v>
       </c>
       <c r="BC73" s="2">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>5822</v>
       </c>
       <c r="BD73" s="2">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>9108</v>
       </c>
       <c r="BE73" s="2">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>5641</v>
       </c>
       <c r="BF73" s="2">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>28090</v>
       </c>
       <c r="BG73" s="2">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>64088</v>
       </c>
     </row>
@@ -11641,7 +11813,7 @@
         <v>-175</v>
       </c>
       <c r="J75" s="5">
-        <f t="shared" ref="J75:J77" si="210">+BC75-I75-H75-G75</f>
+        <f t="shared" ref="J75:J77" si="211">+BC75-I75-H75-G75</f>
         <v>-2846</v>
       </c>
       <c r="K75" s="5">
@@ -11729,15 +11901,15 @@
         <v>-8591</v>
       </c>
       <c r="BE75" s="2">
-        <f t="shared" ref="BE75:BE77" si="211">SUM(O75:R75)</f>
+        <f t="shared" ref="BE75:BE77" si="212">SUM(O75:R75)</f>
         <v>9257</v>
       </c>
       <c r="BF75" s="2">
-        <f t="shared" ref="BF75:BF80" si="212">SUM(S75:V75)</f>
+        <f t="shared" ref="BF75:BF80" si="213">SUM(S75:V75)</f>
         <v>-9414</v>
       </c>
       <c r="BG75" s="2">
-        <f t="shared" ref="BG75:BG80" si="213">SUM(W75:Z75)</f>
+        <f t="shared" ref="BG75:BG80" si="214">SUM(W75:Z75)</f>
         <v>-16178</v>
       </c>
     </row>
@@ -11761,7 +11933,7 @@
         <v>-473</v>
       </c>
       <c r="J76" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>-283</v>
       </c>
       <c r="K76" s="5">
@@ -11840,15 +12012,15 @@
         <v>-976</v>
       </c>
       <c r="BE76" s="2">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>-1833</v>
       </c>
       <c r="BF76" s="2">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>-1069</v>
       </c>
       <c r="BG76" s="2">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>-3236</v>
       </c>
     </row>
@@ -11872,7 +12044,7 @@
         <v>-1353</v>
       </c>
       <c r="J77" s="5">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0</v>
       </c>
       <c r="K77" s="5">
@@ -11950,15 +12122,15 @@
         <v>-263</v>
       </c>
       <c r="BE77" s="2">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>-49</v>
       </c>
       <c r="BF77" s="2">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>-83</v>
       </c>
       <c r="BG77" s="2">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>-1007</v>
       </c>
     </row>
@@ -11971,87 +12143,87 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5">
-        <f t="shared" ref="G78:N78" si="214">SUM(G75:G77)</f>
+        <f t="shared" ref="G78:N78" si="215">SUM(G75:G77)</f>
         <v>-1055</v>
       </c>
       <c r="H78" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>-13490</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>-2001</v>
       </c>
       <c r="J78" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>-3129</v>
       </c>
       <c r="K78" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>-1272</v>
       </c>
       <c r="L78" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>-2533</v>
       </c>
       <c r="M78" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>-4439</v>
       </c>
       <c r="N78" s="5">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>-1586</v>
       </c>
       <c r="O78" s="5">
-        <f t="shared" ref="O78:S78" si="215">SUM(O75:O77)</f>
+        <f t="shared" ref="O78:S78" si="216">SUM(O75:O77)</f>
         <v>2612</v>
       </c>
       <c r="P78" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>1618</v>
       </c>
       <c r="Q78" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>3148</v>
       </c>
       <c r="R78" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>-3</v>
       </c>
       <c r="S78" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>-841</v>
       </c>
       <c r="T78" s="5">
-        <f t="shared" ref="T78:AA78" si="216">SUM(T75:T77)</f>
+        <f t="shared" ref="T78:AA78" si="217">SUM(T75:T77)</f>
         <v>-446</v>
       </c>
       <c r="U78" s="5">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>-3170</v>
       </c>
       <c r="V78" s="5">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>-6109</v>
       </c>
       <c r="W78" s="5">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>-5693</v>
       </c>
       <c r="X78" s="5">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>-3184</v>
       </c>
       <c r="Y78" s="5">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>-4346</v>
       </c>
       <c r="Z78" s="5">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>-7198</v>
       </c>
       <c r="AA78" s="5">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>-5216</v>
       </c>
       <c r="AF78" s="5"/>
@@ -12071,11 +12243,11 @@
       <c r="AT78" s="5"/>
       <c r="AU78" s="5"/>
       <c r="BA78" s="2">
-        <f t="shared" ref="BA78:BB78" si="217">SUM(BA75:BA77)</f>
+        <f t="shared" ref="BA78:BB78" si="218">SUM(BA75:BA77)</f>
         <v>-4097</v>
       </c>
       <c r="BB78" s="2">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>6145</v>
       </c>
       <c r="BC78" s="2">
@@ -12122,7 +12294,7 @@
         <v>96</v>
       </c>
       <c r="J80" s="5">
-        <f t="shared" ref="J80:J85" si="218">+BC80-I80-H80-G80</f>
+        <f t="shared" ref="J80:J85" si="219">+BC80-I80-H80-G80</f>
         <v>4</v>
       </c>
       <c r="K80" s="5">
@@ -12198,19 +12370,19 @@
         <v>194</v>
       </c>
       <c r="BD80" s="2">
-        <f t="shared" ref="BD80:BD85" si="219">SUM(K80:N80)</f>
+        <f t="shared" ref="BD80:BD85" si="220">SUM(K80:N80)</f>
         <v>281</v>
       </c>
       <c r="BE80" s="2">
-        <f t="shared" ref="BE80:BE85" si="220">SUM(O80:R80)</f>
+        <f t="shared" ref="BE80:BE85" si="221">SUM(O80:R80)</f>
         <v>355</v>
       </c>
       <c r="BF80" s="2">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>403</v>
       </c>
       <c r="BG80" s="2">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>489</v>
       </c>
     </row>
@@ -12234,7 +12406,7 @@
         <v>-298</v>
       </c>
       <c r="J81" s="5">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>-226</v>
       </c>
       <c r="K81" s="5">
@@ -12309,19 +12481,19 @@
         <v>-942</v>
       </c>
       <c r="BD81" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>-1904</v>
       </c>
       <c r="BE81" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>-1475</v>
       </c>
       <c r="BF81" s="2">
-        <f t="shared" ref="BF81:BF85" si="221">SUM(S81:V81)</f>
+        <f t="shared" ref="BF81:BF85" si="222">SUM(S81:V81)</f>
         <v>-2783</v>
       </c>
       <c r="BG81" s="2">
-        <f t="shared" ref="BG81:BG85" si="222">SUM(W81:Z81)</f>
+        <f t="shared" ref="BG81:BG85" si="223">SUM(W81:Z81)</f>
         <v>-6929</v>
       </c>
     </row>
@@ -12345,7 +12517,7 @@
         <v>-99</v>
       </c>
       <c r="J82" s="5">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>-99</v>
       </c>
       <c r="K82" s="5">
@@ -12420,19 +12592,19 @@
         <v>-395</v>
       </c>
       <c r="BD82" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>-399</v>
       </c>
       <c r="BE82" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>-398</v>
       </c>
       <c r="BF82" s="2">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>-395</v>
       </c>
       <c r="BG82" s="2">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>-834</v>
       </c>
     </row>
@@ -12454,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="5">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>0</v>
       </c>
       <c r="K83" s="5">
@@ -12526,19 +12698,19 @@
         <v>0</v>
       </c>
       <c r="BD83" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>0</v>
       </c>
       <c r="BE83" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>-10039</v>
       </c>
       <c r="BF83" s="2">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>-9533</v>
       </c>
       <c r="BG83" s="2">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>-33705</v>
       </c>
     </row>
@@ -12563,7 +12735,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="5">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>-4</v>
       </c>
       <c r="K84" s="5">
@@ -12639,19 +12811,19 @@
         <v>4964</v>
       </c>
       <c r="BD84" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>3977</v>
       </c>
       <c r="BE84" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>-2</v>
       </c>
       <c r="BF84" s="2">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>-1250</v>
       </c>
       <c r="BG84" s="2">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>-1250</v>
       </c>
     </row>
@@ -12673,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="5">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>-17</v>
       </c>
       <c r="K85" s="5">
@@ -12749,19 +12921,19 @@
         <v>-17</v>
       </c>
       <c r="BD85" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>-90</v>
       </c>
       <c r="BE85" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>-58</v>
       </c>
       <c r="BF85" s="2">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>-74</v>
       </c>
       <c r="BG85" s="2">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>-129</v>
       </c>
     </row>
@@ -12774,87 +12946,87 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5">
-        <f t="shared" ref="G86:N86" si="223">SUM(G80:G85)</f>
+        <f t="shared" ref="G86:N86" si="224">SUM(G80:G85)</f>
         <v>4744</v>
       </c>
       <c r="H86" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>-297</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>-301</v>
       </c>
       <c r="J86" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>-342</v>
       </c>
       <c r="K86" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>-471</v>
       </c>
       <c r="L86" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>4501</v>
       </c>
       <c r="M86" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>-1420</v>
       </c>
       <c r="N86" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>-745</v>
       </c>
       <c r="O86" s="5">
-        <f t="shared" ref="O86:S86" si="224">SUM(O80:O85)</f>
+        <f t="shared" ref="O86:S86" si="225">SUM(O80:O85)</f>
         <v>-2446</v>
       </c>
       <c r="P86" s="5">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>-3762</v>
       </c>
       <c r="Q86" s="5">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>-3753</v>
       </c>
       <c r="R86" s="5">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>-1656</v>
       </c>
       <c r="S86" s="5">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>-380</v>
       </c>
       <c r="T86" s="5">
-        <f t="shared" ref="T86:AA86" si="225">SUM(T80:T85)</f>
+        <f t="shared" ref="T86:AA86" si="226">SUM(T80:T85)</f>
         <v>-5099</v>
       </c>
       <c r="U86" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>-4524</v>
       </c>
       <c r="V86" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>-3629</v>
       </c>
       <c r="W86" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>-9345</v>
       </c>
       <c r="X86" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>-10320</v>
       </c>
       <c r="Y86" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>-12745</v>
       </c>
       <c r="Z86" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>-9948</v>
       </c>
       <c r="AA86" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>-15553</v>
       </c>
       <c r="AF86" s="5"/>
@@ -12874,31 +13046,31 @@
       <c r="AT86" s="5"/>
       <c r="AU86" s="5"/>
       <c r="BA86" s="2">
-        <f t="shared" ref="BA86:BG86" si="226">SUM(BA80:BA85)</f>
+        <f t="shared" ref="BA86:BG86" si="227">SUM(BA80:BA85)</f>
         <v>-2866</v>
       </c>
       <c r="BB86" s="2">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>-792</v>
       </c>
       <c r="BC86" s="2">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>3804</v>
       </c>
       <c r="BD86" s="2">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>1865</v>
       </c>
       <c r="BE86" s="2">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>-11617</v>
       </c>
       <c r="BF86" s="2">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>-13632</v>
       </c>
       <c r="BG86" s="2">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>-42358</v>
       </c>
     </row>
@@ -12908,87 +13080,87 @@
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5">
-        <f t="shared" ref="G87:N87" si="227">G86+G78+G73</f>
+        <f t="shared" ref="G87:N87" si="228">G86+G78+G73</f>
         <v>4598</v>
       </c>
       <c r="H87" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>-12220</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>-1023</v>
       </c>
       <c r="J87" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>-1404</v>
       </c>
       <c r="K87" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>131</v>
       </c>
       <c r="L87" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>4650</v>
       </c>
       <c r="M87" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>-4340</v>
       </c>
       <c r="N87" s="5">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>702</v>
       </c>
       <c r="O87" s="5">
-        <f t="shared" ref="O87:R87" si="228">O86+O78+O73</f>
+        <f t="shared" ref="O87:R87" si="229">O86+O78+O73</f>
         <v>1897</v>
       </c>
       <c r="P87" s="5">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>-874</v>
       </c>
       <c r="Q87" s="5">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>-213</v>
       </c>
       <c r="R87" s="5">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>589</v>
       </c>
       <c r="S87" s="5">
-        <f t="shared" ref="S87:AA87" si="229">S86+S78+S73</f>
+        <f t="shared" ref="S87:AA87" si="230">S86+S78+S73</f>
         <v>1690</v>
       </c>
       <c r="T87" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>803</v>
       </c>
       <c r="U87" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>-362</v>
       </c>
       <c r="V87" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>1761</v>
       </c>
       <c r="W87" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>307</v>
       </c>
       <c r="X87" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>984</v>
       </c>
       <c r="Y87" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>536</v>
       </c>
       <c r="Z87" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>-518</v>
       </c>
       <c r="AA87" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>6645</v>
       </c>
       <c r="AF87" s="5"/>
@@ -13009,19 +13181,19 @@
       <c r="AU87" s="5"/>
       <c r="BA87" s="5"/>
       <c r="BB87" s="5">
-        <f t="shared" ref="BB87:BE87" si="230">BB86+BB78+BB73</f>
+        <f t="shared" ref="BB87:BE87" si="231">BB86+BB78+BB73</f>
         <v>10114</v>
       </c>
       <c r="BC87" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>-10049</v>
       </c>
       <c r="BD87" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>1143</v>
       </c>
       <c r="BE87" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>1399</v>
       </c>
       <c r="BF87" s="5">
@@ -13039,88 +13211,88 @@
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5">
-        <f t="shared" ref="G89:N89" si="231">(G46/G24)*90</f>
+        <f t="shared" ref="G89:N89" si="232">(G46/G24)*90</f>
         <v>55.72402597402597</v>
       </c>
       <c r="H89" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>48.51526125193999</v>
       </c>
       <c r="I89" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>48.484976724502751</v>
       </c>
       <c r="J89" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>43.695782530481715</v>
       </c>
       <c r="K89" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>48.076311605723369</v>
       </c>
       <c r="L89" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>49.598893499308438</v>
       </c>
       <c r="M89" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>50.099957764324934</v>
       </c>
       <c r="N89" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>54.755985869423007</v>
       </c>
       <c r="O89" s="5">
-        <f t="shared" ref="O89:AA89" si="232">(O46/O24)*90</f>
+        <f t="shared" ref="O89:AA89" si="233">(O46/O24)*90</f>
         <v>59.051640926640928</v>
       </c>
       <c r="P89" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>71.379773269689736</v>
       </c>
       <c r="Q89" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>74.476479514415786</v>
       </c>
       <c r="R89" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>56.921170054536439</v>
       </c>
       <c r="S89" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>51.056729699666299</v>
       </c>
       <c r="T89" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>47.082253646257499</v>
       </c>
       <c r="U89" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>41.269867549668874</v>
       </c>
       <c r="V89" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>40.714382662986928</v>
       </c>
       <c r="W89" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>42.729611426816156</v>
       </c>
       <c r="X89" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>42.339547270306255</v>
       </c>
       <c r="Y89" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>45.389943560800411</v>
       </c>
       <c r="Z89" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>52.778978413973704</v>
       </c>
       <c r="AA89" s="5">
-        <f t="shared" si="232"/>
-        <v>44.944388122684813</v>
+        <f t="shared" si="233"/>
+        <v>45.206300213335751</v>
       </c>
       <c r="AF89" s="5"/>
       <c r="AG89" s="5"/>
@@ -13426,7 +13598,7 @@
       <c r="AU97" s="5"/>
       <c r="AV97" s="5"/>
       <c r="BG97" s="2">
-        <f t="shared" ref="BG97:BG115" si="233">SUM(W97:Z97)</f>
+        <f t="shared" ref="BG97:BG115" si="234">SUM(W97:Z97)</f>
         <v>100</v>
       </c>
     </row>
@@ -13495,7 +13667,7 @@
       <c r="AU98" s="5"/>
       <c r="AV98" s="5"/>
       <c r="BG98" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>200</v>
       </c>
     </row>
@@ -13564,7 +13736,7 @@
       <c r="AU99" s="5"/>
       <c r="AV99" s="5"/>
       <c r="BG99" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>200</v>
       </c>
     </row>
@@ -13633,7 +13805,7 @@
       <c r="AU100" s="5"/>
       <c r="AV100" s="5"/>
       <c r="BG100" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>100</v>
       </c>
     </row>
@@ -13702,7 +13874,7 @@
       <c r="AU101" s="5"/>
       <c r="AV101" s="5"/>
       <c r="BG101" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>400</v>
       </c>
     </row>
@@ -13771,7 +13943,7 @@
       <c r="AU102" s="5"/>
       <c r="AV102" s="5"/>
       <c r="BG102" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>0</v>
       </c>
     </row>
@@ -13840,7 +14012,7 @@
       <c r="AU103" s="5"/>
       <c r="AV103" s="5"/>
       <c r="BG103" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>400</v>
       </c>
     </row>
@@ -13909,7 +14081,7 @@
       <c r="AU104" s="5"/>
       <c r="AV104" s="5"/>
       <c r="BG104" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>100</v>
       </c>
     </row>
@@ -13978,7 +14150,7 @@
       <c r="AU105" s="5"/>
       <c r="AV105" s="5"/>
       <c r="BG105" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>100</v>
       </c>
     </row>
@@ -14047,7 +14219,7 @@
       <c r="AU106" s="5"/>
       <c r="AV106" s="5"/>
       <c r="BG106" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>210</v>
       </c>
     </row>
@@ -14116,7 +14288,7 @@
       <c r="AU107" s="5"/>
       <c r="AV107" s="5"/>
       <c r="BG107" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>90</v>
       </c>
     </row>
@@ -14185,7 +14357,7 @@
       <c r="AU108" s="5"/>
       <c r="AV108" s="5"/>
       <c r="BG108" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>0</v>
       </c>
     </row>
@@ -14254,7 +14426,7 @@
       <c r="AU109" s="5"/>
       <c r="AV109" s="5"/>
       <c r="BG109" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>95</v>
       </c>
     </row>
@@ -14323,7 +14495,7 @@
       <c r="AU110" s="5"/>
       <c r="AV110" s="5"/>
       <c r="BG110" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>85</v>
       </c>
     </row>
@@ -14392,7 +14564,7 @@
       <c r="AU111" s="5"/>
       <c r="AV111" s="5"/>
       <c r="BG111" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>0</v>
       </c>
     </row>
@@ -14461,7 +14633,7 @@
       <c r="AU112" s="5"/>
       <c r="AV112" s="5"/>
       <c r="BG112" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>190</v>
       </c>
     </row>
@@ -14530,7 +14702,7 @@
       <c r="AU113" s="5"/>
       <c r="AV113" s="5"/>
       <c r="BG113" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>160</v>
       </c>
     </row>
@@ -14599,7 +14771,7 @@
       <c r="AU114" s="5"/>
       <c r="AV114" s="5"/>
       <c r="BG114" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>35</v>
       </c>
     </row>
@@ -14668,7 +14840,7 @@
       <c r="AU115" s="5"/>
       <c r="AV115" s="5"/>
       <c r="BG115" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>35</v>
       </c>
     </row>
@@ -14702,23 +14874,23 @@
         <v>360</v>
       </c>
       <c r="V116" s="9">
-        <f t="shared" ref="V116:Z116" si="234">SUM(V96:V115)</f>
+        <f t="shared" ref="V116:Z116" si="235">SUM(V96:V115)</f>
         <v>460</v>
       </c>
       <c r="W116" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>570</v>
       </c>
       <c r="X116" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>690</v>
       </c>
       <c r="Y116" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>735</v>
       </c>
       <c r="Z116" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>735</v>
       </c>
       <c r="AA116" s="9"/>
@@ -14982,296 +15154,248 @@
     </row>
     <row r="123" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>1</v>
-      </c>
-      <c r="S123" s="2">
-        <f t="shared" ref="S123:X123" si="235">S24</f>
-        <v>7192</v>
-      </c>
-      <c r="T123" s="2">
-        <f t="shared" si="235"/>
-        <v>13507</v>
+        <v>252</v>
       </c>
       <c r="U123" s="2">
-        <f t="shared" si="235"/>
-        <v>18120</v>
+        <f t="shared" ref="U123:AA123" si="236">+U124-U125</f>
+        <v>880.00714285714275</v>
       </c>
       <c r="V123" s="2">
-        <f t="shared" si="235"/>
-        <v>22103</v>
+        <f t="shared" si="236"/>
+        <v>-647.79285714285652</v>
       </c>
       <c r="W123" s="2">
-        <f t="shared" si="235"/>
-        <v>26044</v>
+        <f t="shared" si="236"/>
+        <v>-2786.8428571428558</v>
       </c>
       <c r="X123" s="2">
-        <f t="shared" si="235"/>
-        <v>30040</v>
+        <f t="shared" si="236"/>
+        <v>-2171.2428571428572</v>
       </c>
       <c r="Y123" s="2">
-        <f>Y24</f>
-        <v>35082</v>
+        <f t="shared" si="236"/>
+        <v>-1903.9499999999971</v>
       </c>
       <c r="Z123" s="2">
-        <f>Z24</f>
-        <v>39331</v>
+        <f t="shared" si="236"/>
+        <v>-361.90000000000146</v>
       </c>
       <c r="AA123" s="2">
-        <f>+AA125*0.5</f>
-        <v>44318.77</v>
-      </c>
-      <c r="AB123" s="2">
-        <f>+AB125*0.5</f>
-        <v>46941.600000000006</v>
-      </c>
-      <c r="AC123" s="2">
-        <f>+AC125*0.5</f>
-        <v>49680.475000000006</v>
-      </c>
-      <c r="AD123" s="2">
-        <f>+AD125*0.5</f>
-        <v>59814.570000000007</v>
+        <f t="shared" si="236"/>
+        <v>481.70000000000437</v>
       </c>
     </row>
     <row r="124" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
+        <v>251</v>
+      </c>
+      <c r="U124" s="2">
+        <f t="shared" ref="U124:Z124" si="237">+U127*0.45</f>
+        <v>19000.007142857143</v>
+      </c>
+      <c r="V124" s="2">
+        <f t="shared" si="237"/>
+        <v>21455.207142857143</v>
+      </c>
+      <c r="W124" s="2">
+        <f t="shared" si="237"/>
+        <v>23257.157142857144</v>
+      </c>
+      <c r="X124" s="2">
+        <f t="shared" si="237"/>
+        <v>27868.757142857143</v>
+      </c>
+      <c r="Y124" s="2">
+        <f t="shared" si="237"/>
+        <v>33178.050000000003</v>
+      </c>
+      <c r="Z124" s="2">
+        <f t="shared" si="237"/>
+        <v>38969.1</v>
+      </c>
+      <c r="AA124" s="2">
+        <f>+AA127*0.45</f>
+        <v>44543.700000000004</v>
+      </c>
+    </row>
+    <row r="125" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="S125" s="2">
+        <f t="shared" ref="S125:AB125" si="238">S24</f>
+        <v>7192</v>
+      </c>
+      <c r="T125" s="2">
+        <f t="shared" si="238"/>
+        <v>13507</v>
+      </c>
+      <c r="U125" s="2">
+        <f t="shared" si="238"/>
+        <v>18120</v>
+      </c>
+      <c r="V125" s="2">
+        <f t="shared" si="238"/>
+        <v>22103</v>
+      </c>
+      <c r="W125" s="2">
+        <f t="shared" si="238"/>
+        <v>26044</v>
+      </c>
+      <c r="X125" s="2">
+        <f t="shared" si="238"/>
+        <v>30040</v>
+      </c>
+      <c r="Y125" s="2">
+        <f t="shared" si="238"/>
+        <v>35082</v>
+      </c>
+      <c r="Z125" s="2">
+        <f t="shared" si="238"/>
+        <v>39331</v>
+      </c>
+      <c r="AA125" s="2">
+        <f t="shared" si="238"/>
+        <v>44062</v>
+      </c>
+      <c r="AB125" s="2">
+        <f t="shared" si="238"/>
+        <v>46743</v>
+      </c>
+      <c r="AC125" s="2">
+        <f>+AC127*0.39</f>
+        <v>51197.951999999997</v>
+      </c>
+      <c r="AD125" s="2">
+        <f>+AD127*0.39</f>
+        <v>52984.526400000002</v>
+      </c>
+    </row>
+    <row r="126" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>22</v>
       </c>
-      <c r="S124" s="5">
-        <f>S22</f>
+      <c r="S126" s="5">
+        <f t="shared" ref="S126:AB126" si="239">S22</f>
         <v>4284</v>
       </c>
-      <c r="T124" s="5">
-        <f t="shared" ref="T124:Z124" si="236">T22</f>
+      <c r="T126" s="5">
+        <f t="shared" si="239"/>
         <v>10323</v>
       </c>
-      <c r="U124" s="5">
-        <f t="shared" si="236"/>
+      <c r="U126" s="5">
+        <f t="shared" si="239"/>
         <v>14514</v>
       </c>
-      <c r="V124" s="5">
-        <f t="shared" si="236"/>
+      <c r="V126" s="5">
+        <f t="shared" si="239"/>
         <v>18404</v>
       </c>
-      <c r="W124" s="5">
-        <f t="shared" si="236"/>
+      <c r="W126" s="5">
+        <f t="shared" si="239"/>
         <v>22563</v>
       </c>
-      <c r="X124" s="5">
-        <f t="shared" si="236"/>
+      <c r="X126" s="5">
+        <f t="shared" si="239"/>
         <v>26272</v>
       </c>
-      <c r="Y124" s="5">
-        <f t="shared" si="236"/>
+      <c r="Y126" s="5">
+        <f t="shared" si="239"/>
         <v>30771</v>
       </c>
-      <c r="Z124" s="5">
-        <f t="shared" si="236"/>
+      <c r="Z126" s="5">
+        <f t="shared" si="239"/>
         <v>35580</v>
       </c>
-      <c r="AA124" s="5">
-        <f>+AA125*0.45</f>
-        <v>39886.892999999996</v>
-      </c>
-      <c r="AB124" s="5">
-        <f>+AB125*0.45</f>
-        <v>42247.44000000001</v>
-      </c>
-      <c r="AC124" s="5">
-        <f>+AC125*0.45</f>
-        <v>44712.427500000005</v>
-      </c>
-      <c r="AD124" s="5">
-        <f>+AD125*0.45</f>
-        <v>53833.113000000005</v>
-      </c>
-    </row>
-    <row r="125" spans="2:59" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B125" s="11" t="s">
+      <c r="AA126" s="5">
+        <f t="shared" si="239"/>
+        <v>39112</v>
+      </c>
+      <c r="AB126" s="5">
+        <f t="shared" si="239"/>
+        <v>41096</v>
+      </c>
+      <c r="AC126" s="5">
+        <f>+AC127*0.35</f>
+        <v>45946.87999999999</v>
+      </c>
+      <c r="AD126" s="5">
+        <f>+AD127*0.35</f>
+        <v>47550.216</v>
+      </c>
+    </row>
+    <row r="127" spans="2:59" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B127" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C125" s="29"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="29"/>
-      <c r="I125" s="29"/>
-      <c r="J125" s="29"/>
-      <c r="K125" s="29"/>
-      <c r="L125" s="29"/>
-      <c r="M125" s="29"/>
-      <c r="N125" s="29"/>
-      <c r="O125" s="29"/>
-      <c r="P125" s="29"/>
-      <c r="Q125" s="29"/>
-      <c r="R125" s="29"/>
-      <c r="S125" s="8">
-        <f>SUM(S126:S134)</f>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="29"/>
+      <c r="K127" s="29"/>
+      <c r="L127" s="29"/>
+      <c r="M127" s="29"/>
+      <c r="N127" s="29"/>
+      <c r="O127" s="29"/>
+      <c r="P127" s="29"/>
+      <c r="Q127" s="29"/>
+      <c r="R127" s="29"/>
+      <c r="S127" s="8">
+        <f>SUM(S128:S136)</f>
         <v>36225.571428571428</v>
       </c>
-      <c r="T125" s="8">
-        <f t="shared" ref="T125:AD125" si="237">SUM(T126:T134)</f>
-        <v>39615.238095238092</v>
-      </c>
-      <c r="U125" s="8">
-        <f t="shared" si="237"/>
-        <v>41142.238095238092</v>
-      </c>
-      <c r="V125" s="8">
-        <f t="shared" si="237"/>
-        <v>46004.238095238092</v>
-      </c>
-      <c r="W125" s="8">
-        <f t="shared" si="237"/>
-        <v>50584.571428571428</v>
-      </c>
-      <c r="X125" s="8">
-        <f t="shared" si="237"/>
-        <v>62022.571428571428</v>
-      </c>
-      <c r="Y125" s="8">
-        <f t="shared" si="237"/>
-        <v>68837</v>
-      </c>
-      <c r="Z125" s="8">
-        <f t="shared" si="237"/>
-        <v>82314</v>
-      </c>
-      <c r="AA125" s="8">
-        <f t="shared" si="237"/>
-        <v>88637.54</v>
-      </c>
-      <c r="AB125" s="8">
-        <f t="shared" si="237"/>
-        <v>93883.200000000012</v>
-      </c>
-      <c r="AC125" s="8">
-        <f t="shared" si="237"/>
-        <v>99360.950000000012</v>
-      </c>
-      <c r="AD125" s="8">
-        <f t="shared" si="237"/>
-        <v>119629.14000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="2:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
-      <c r="Q126" s="5"/>
-      <c r="R126" s="5"/>
-      <c r="S126" s="5">
-        <v>0</v>
-      </c>
-      <c r="T126" s="2">
-        <v>0</v>
-      </c>
-      <c r="U126" s="2">
-        <v>0</v>
-      </c>
-      <c r="V126" s="2">
-        <v>125</v>
-      </c>
-      <c r="W126" s="2">
-        <v>125</v>
-      </c>
-      <c r="X126" s="2">
-        <v>3000</v>
-      </c>
-      <c r="Y126" s="2">
-        <v>3000</v>
-      </c>
-      <c r="Z126" s="2">
-        <v>6000</v>
-      </c>
-      <c r="AA126" s="2">
-        <v>10000</v>
-      </c>
-      <c r="AB126" s="2">
-        <v>5000</v>
-      </c>
-      <c r="AC126" s="2">
-        <v>2500</v>
-      </c>
-      <c r="AD126" s="2">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="127" spans="2:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
-      <c r="O127" s="5"/>
-      <c r="P127" s="5"/>
-      <c r="Q127" s="5"/>
-      <c r="R127" s="5"/>
-      <c r="S127" s="5">
-        <v>450</v>
-      </c>
-      <c r="T127" s="2">
-        <v>4000</v>
-      </c>
-      <c r="U127" s="2">
-        <v>2000</v>
-      </c>
-      <c r="V127" s="2">
-        <v>750</v>
-      </c>
-      <c r="W127" s="2">
-        <v>442</v>
-      </c>
-      <c r="X127" s="2">
-        <v>442</v>
-      </c>
-      <c r="Y127" s="2">
-        <v>4000</v>
-      </c>
-      <c r="Z127" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AA127" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AB127" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AC127" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AD127" s="2">
-        <v>1000</v>
+      <c r="T127" s="8">
+        <f t="shared" ref="T127:AD127" si="240">SUM(T128:T136)</f>
+        <v>40929.238095238092</v>
+      </c>
+      <c r="U127" s="8">
+        <f t="shared" si="240"/>
+        <v>42222.238095238092</v>
+      </c>
+      <c r="V127" s="8">
+        <f t="shared" si="240"/>
+        <v>47678.238095238092</v>
+      </c>
+      <c r="W127" s="8">
+        <f t="shared" si="240"/>
+        <v>51682.571428571428</v>
+      </c>
+      <c r="X127" s="8">
+        <f t="shared" si="240"/>
+        <v>61930.571428571428</v>
+      </c>
+      <c r="Y127" s="8">
+        <f t="shared" si="240"/>
+        <v>73729</v>
+      </c>
+      <c r="Z127" s="8">
+        <f t="shared" si="240"/>
+        <v>86598</v>
+      </c>
+      <c r="AA127" s="8">
+        <f t="shared" si="240"/>
+        <v>98986</v>
+      </c>
+      <c r="AB127" s="8">
+        <f t="shared" si="240"/>
+        <v>118779</v>
+      </c>
+      <c r="AC127" s="8">
+        <f t="shared" si="240"/>
+        <v>131276.79999999999</v>
+      </c>
+      <c r="AD127" s="8">
+        <f t="shared" si="240"/>
+        <v>135857.76</v>
       </c>
     </row>
     <row r="128" spans="2:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -15289,893 +15413,1062 @@
       <c r="P128" s="5"/>
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
-      <c r="S128" s="2">
+      <c r="S128" s="5">
+        <v>0</v>
+      </c>
+      <c r="T128" s="2">
+        <v>0</v>
+      </c>
+      <c r="U128" s="2">
+        <v>0</v>
+      </c>
+      <c r="V128" s="2">
+        <v>125</v>
+      </c>
+      <c r="W128" s="2">
+        <v>125</v>
+      </c>
+      <c r="X128" s="2">
+        <v>1500</v>
+      </c>
+      <c r="Y128" s="2">
+        <f t="shared" ref="Y128:AD128" si="241">+X128+500</f>
+        <v>2000</v>
+      </c>
+      <c r="Z128" s="2">
+        <f t="shared" si="241"/>
+        <v>2500</v>
+      </c>
+      <c r="AA128" s="2">
+        <f t="shared" si="241"/>
+        <v>3000</v>
+      </c>
+      <c r="AB128" s="2">
+        <f t="shared" si="241"/>
+        <v>3500</v>
+      </c>
+      <c r="AC128" s="2">
+        <f t="shared" si="241"/>
+        <v>4000</v>
+      </c>
+      <c r="AD128" s="2">
+        <f t="shared" si="241"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="129" spans="2:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="5"/>
+      <c r="S129" s="5">
+        <v>450</v>
+      </c>
+      <c r="T129" s="2">
+        <v>4000</v>
+      </c>
+      <c r="U129" s="2">
+        <v>2000</v>
+      </c>
+      <c r="V129" s="2">
+        <v>750</v>
+      </c>
+      <c r="W129" s="2">
+        <v>1000</v>
+      </c>
+      <c r="X129" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Y129" s="2">
+        <v>4000</v>
+      </c>
+      <c r="Z129" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AA129" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AB129" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AC129" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD129" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="130" spans="2:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="5"/>
+      <c r="N130" s="5"/>
+      <c r="O130" s="5"/>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="R130" s="5"/>
+      <c r="S130" s="2">
         <v>6607</v>
       </c>
-      <c r="T128" s="2">
+      <c r="T130" s="2">
         <v>8943</v>
       </c>
-      <c r="U128" s="2">
+      <c r="U130" s="2">
         <v>9917</v>
       </c>
-      <c r="V128" s="2">
+      <c r="V130" s="2">
         <v>9735</v>
       </c>
-      <c r="W128" s="2">
+      <c r="W130" s="2">
         <v>10952</v>
       </c>
-      <c r="X128" s="2">
+      <c r="X130" s="2">
         <v>13873</v>
       </c>
-      <c r="Y128" s="2">
+      <c r="Y130" s="2">
         <v>14923</v>
       </c>
-      <c r="Z128" s="2">
+      <c r="Z130" s="2">
         <v>15804</v>
       </c>
-      <c r="AA128" s="2">
-        <f>+W128*1.44</f>
-        <v>15770.88</v>
-      </c>
-      <c r="AB128" s="2">
-        <f>+X128*1.44</f>
-        <v>19977.12</v>
-      </c>
-      <c r="AC128" s="2">
-        <f>+Y128*1.44</f>
-        <v>21489.119999999999</v>
-      </c>
-      <c r="AD128" s="2">
-        <f>+Z128*1.44</f>
+      <c r="AA130" s="2">
+        <v>16745</v>
+      </c>
+      <c r="AB130" s="2">
+        <v>17079</v>
+      </c>
+      <c r="AC130" s="2">
+        <f>+Y130*1.6</f>
+        <v>23876.800000000003</v>
+      </c>
+      <c r="AD130" s="2">
+        <f>+Z130*1.44</f>
         <v>22757.759999999998</v>
-      </c>
-    </row>
-    <row r="129" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>199</v>
-      </c>
-      <c r="S129" s="5">
-        <v>6289</v>
-      </c>
-      <c r="T129" s="5">
-        <f>13177-S129</f>
-        <v>6888</v>
-      </c>
-      <c r="U129" s="5">
-        <v>8055</v>
-      </c>
-      <c r="V129" s="5">
-        <v>11019</v>
-      </c>
-      <c r="W129" s="5">
-        <v>12012</v>
-      </c>
-      <c r="X129" s="5">
-        <f>25198-W129</f>
-        <v>13186</v>
-      </c>
-      <c r="Y129" s="5">
-        <f>38259-X129-W129</f>
-        <v>13061</v>
-      </c>
-      <c r="Z129" s="5">
-        <f>52535-Y129-X129-W129</f>
-        <v>14276</v>
-      </c>
-      <c r="AA129" s="2">
-        <f>+W129*1.43</f>
-        <v>17177.16</v>
-      </c>
-      <c r="AB129" s="2">
-        <f>+X129*1.43</f>
-        <v>18855.98</v>
-      </c>
-      <c r="AC129" s="2">
-        <f>+Y129*1.43</f>
-        <v>18677.23</v>
-      </c>
-      <c r="AD129" s="2">
-        <f>+Z129*1.43</f>
-        <v>20414.68</v>
-      </c>
-    </row>
-    <row r="130" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>200</v>
-      </c>
-      <c r="S130" s="2">
-        <v>14207</v>
-      </c>
-      <c r="T130" s="2">
-        <v>11455</v>
-      </c>
-      <c r="U130" s="2">
-        <v>12479</v>
-      </c>
-      <c r="V130" s="2">
-        <v>14588</v>
-      </c>
-      <c r="W130" s="2">
-        <v>14925</v>
-      </c>
-      <c r="X130" s="2">
-        <v>17620</v>
-      </c>
-      <c r="Y130" s="2">
-        <v>22620</v>
-      </c>
-      <c r="Z130" s="2">
-        <v>27834</v>
-      </c>
-      <c r="AA130" s="2">
-        <f>+W130*1.3</f>
-        <v>19402.5</v>
-      </c>
-      <c r="AB130" s="2">
-        <f>+X130*1.3</f>
-        <v>22906</v>
-      </c>
-      <c r="AC130" s="2">
-        <f>+Y130*1.3</f>
-        <v>29406</v>
-      </c>
-      <c r="AD130" s="2">
-        <f>+Z130*1.3</f>
-        <v>36184.200000000004</v>
       </c>
     </row>
     <row r="131" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>78</v>
-      </c>
-      <c r="R131" s="5">
-        <v>1428.5714285714287</v>
+        <v>199</v>
       </c>
       <c r="S131" s="5">
-        <v>1428.5714285714287</v>
+        <v>6289</v>
       </c>
       <c r="T131" s="5">
-        <v>1428.5714285714287</v>
+        <f>13177-S131</f>
+        <v>6888</v>
       </c>
       <c r="U131" s="5">
-        <v>1428.5714285714287</v>
+        <v>8055</v>
       </c>
       <c r="V131" s="5">
-        <v>1428.5714285714287</v>
+        <v>11019</v>
       </c>
       <c r="W131" s="5">
-        <v>1428.5714285714287</v>
+        <v>12012</v>
       </c>
       <c r="X131" s="5">
-        <v>1428.5714285714287</v>
-      </c>
-      <c r="Y131" s="2">
-        <v>2650</v>
-      </c>
-      <c r="Z131" s="2">
-        <v>2650</v>
+        <f>25198-W131</f>
+        <v>13186</v>
+      </c>
+      <c r="Y131" s="5">
+        <f>38259-X131-W131</f>
+        <v>13061</v>
+      </c>
+      <c r="Z131" s="5">
+        <f>52535-Y131-X131-W131</f>
+        <v>14276</v>
       </c>
       <c r="AA131" s="2">
-        <v>10000</v>
+        <v>17197</v>
       </c>
       <c r="AB131" s="2">
-        <v>10000</v>
+        <v>22446</v>
       </c>
       <c r="AC131" s="2">
-        <v>10000</v>
+        <f>+AB131+500</f>
+        <v>22946</v>
       </c>
       <c r="AD131" s="2">
-        <v>10000</v>
+        <f>+AC131+500</f>
+        <v>23446</v>
       </c>
     </row>
     <row r="132" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
+        <v>200</v>
+      </c>
+      <c r="S132" s="2">
+        <v>14207</v>
+      </c>
+      <c r="T132" s="2">
+        <v>11455</v>
+      </c>
+      <c r="U132" s="2">
+        <v>12479</v>
+      </c>
+      <c r="V132" s="2">
+        <v>14588</v>
+      </c>
+      <c r="W132" s="2">
+        <v>14925</v>
+      </c>
+      <c r="X132" s="2">
+        <v>17620</v>
+      </c>
+      <c r="Y132" s="2">
+        <v>22620</v>
+      </c>
+      <c r="Z132" s="2">
+        <v>27834</v>
+      </c>
+      <c r="AA132" s="2">
+        <v>25019</v>
+      </c>
+      <c r="AB132" s="2">
+        <v>32183</v>
+      </c>
+      <c r="AC132" s="2">
+        <f>+AB132</f>
+        <v>32183</v>
+      </c>
+      <c r="AD132" s="2">
+        <f>+AC132</f>
+        <v>32183</v>
+      </c>
+    </row>
+    <row r="133" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>78</v>
+      </c>
+      <c r="R133" s="5">
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="S133" s="5">
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="T133" s="5">
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="U133" s="5">
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="V133" s="5">
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="W133" s="5">
+        <f>+V133+300</f>
+        <v>1728.5714285714287</v>
+      </c>
+      <c r="X133" s="5">
+        <f>+W133+300</f>
+        <v>2028.5714285714287</v>
+      </c>
+      <c r="Y133" s="2">
+        <v>2650</v>
+      </c>
+      <c r="Z133" s="2">
+        <v>2650</v>
+      </c>
+      <c r="AA133" s="2">
+        <v>7000</v>
+      </c>
+      <c r="AB133" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AC133" s="2">
+        <f>+AB133+2000</f>
+        <v>12000</v>
+      </c>
+      <c r="AD133" s="2">
+        <f>+AC133+2000</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="134" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>202</v>
       </c>
-      <c r="R132" s="5">
+      <c r="R134" s="5">
         <v>100</v>
       </c>
-      <c r="S132" s="5">
+      <c r="S134" s="5">
         <f>200+221</f>
         <v>421</v>
       </c>
-      <c r="T132" s="2">
+      <c r="T134" s="2">
         <v>766.66666666666663</v>
       </c>
-      <c r="U132" s="2">
+      <c r="U134" s="2">
         <v>766.66666666666663</v>
       </c>
-      <c r="V132" s="2">
+      <c r="V134" s="2">
         <v>766.66666666666663</v>
       </c>
-      <c r="W132" s="2">
-        <v>4300</v>
-      </c>
-      <c r="X132" s="2">
-        <v>4300</v>
-      </c>
-      <c r="Y132" s="2">
-        <v>325</v>
-      </c>
-      <c r="Z132" s="2">
-        <v>325</v>
-      </c>
-      <c r="AA132" s="2">
+      <c r="W134" s="2">
+        <v>1742</v>
+      </c>
+      <c r="X134" s="2">
+        <v>2247</v>
+      </c>
+      <c r="Y134" s="2">
+        <f>+X134</f>
+        <v>2247</v>
+      </c>
+      <c r="Z134" s="2">
+        <f>+Y134</f>
+        <v>2247</v>
+      </c>
+      <c r="AA134" s="2">
         <v>1407</v>
       </c>
-      <c r="AB132" s="2">
-        <f>5000/4</f>
-        <v>1250</v>
-      </c>
-      <c r="AC132" s="2">
-        <f>5000/4</f>
-        <v>1250</v>
-      </c>
-      <c r="AD132" s="2">
-        <f>5000/4</f>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="133" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
+      <c r="AB134" s="2">
+        <v>2453</v>
+      </c>
+      <c r="AC134" s="2">
+        <f>+AB134+200</f>
+        <v>2653</v>
+      </c>
+      <c r="AD134" s="2">
+        <f>+AC134+200</f>
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="135" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>203</v>
       </c>
-      <c r="S133" s="5">
+      <c r="S135" s="5">
         <v>6823</v>
       </c>
-      <c r="T133" s="5">
+      <c r="T135" s="5">
         <v>6134</v>
       </c>
-      <c r="U133" s="5">
+      <c r="U135" s="5">
         <v>6496</v>
       </c>
-      <c r="V133" s="2">
+      <c r="V135" s="2">
         <v>7592</v>
       </c>
-      <c r="W133" s="2">
+      <c r="W135" s="2">
         <v>6400</v>
       </c>
-      <c r="X133" s="2">
+      <c r="X135" s="2">
         <v>8173</v>
       </c>
-      <c r="Y133" s="2">
+      <c r="Y135" s="2">
         <v>8258</v>
       </c>
-      <c r="Z133" s="2">
+      <c r="Z135" s="2">
         <v>14425</v>
       </c>
-      <c r="AA133" s="2">
-        <f>+W133*1.7</f>
-        <v>10880</v>
-      </c>
-      <c r="AB133" s="2">
-        <f>+X133*1.7</f>
-        <v>13894.1</v>
-      </c>
-      <c r="AC133" s="2">
-        <f>+Y133*1.7</f>
-        <v>14038.6</v>
-      </c>
-      <c r="AD133" s="2">
-        <f>+Z133*1.7</f>
-        <v>24522.5</v>
-      </c>
-    </row>
-    <row r="134" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA134" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AB134" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AC134" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AD134" s="2">
-        <v>1000</v>
+      <c r="AA135" s="2">
+        <v>16538</v>
+      </c>
+      <c r="AB135" s="2">
+        <f>+AA135+2000</f>
+        <v>18538</v>
+      </c>
+      <c r="AC135" s="2">
+        <f>+AB135+2000</f>
+        <v>20538</v>
+      </c>
+      <c r="AD135" s="2">
+        <f>+AC135+2000</f>
+        <v>22538</v>
       </c>
     </row>
     <row r="136" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
+        <v>204</v>
+      </c>
+      <c r="T136" s="2">
+        <v>1314</v>
+      </c>
+      <c r="U136" s="2">
+        <v>1080</v>
+      </c>
+      <c r="V136" s="2">
+        <v>1674</v>
+      </c>
+      <c r="W136" s="2">
+        <v>2798</v>
+      </c>
+      <c r="X136" s="2">
+        <v>2303</v>
+      </c>
+      <c r="Y136" s="2">
+        <v>3970</v>
+      </c>
+      <c r="Z136" s="2">
+        <v>5862</v>
+      </c>
+      <c r="AA136" s="2">
+        <v>9080</v>
+      </c>
+      <c r="AB136" s="2">
+        <f>+AA136+500</f>
+        <v>9580</v>
+      </c>
+      <c r="AC136" s="2">
+        <f>+AB136+500</f>
+        <v>10080</v>
+      </c>
+      <c r="AD136" s="2">
+        <f>+AC136+500</f>
+        <v>10580</v>
+      </c>
+    </row>
+    <row r="138" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
         <v>205</v>
       </c>
-      <c r="S136" s="7">
-        <f>+S124/S125</f>
+      <c r="S138" s="7">
+        <f>+S126/S127</f>
         <v>0.11825900409734245</v>
       </c>
-      <c r="T136" s="7">
-        <f t="shared" ref="T136:AA136" si="238">+T124/T125</f>
-        <v>0.26058154630252911</v>
-      </c>
-      <c r="U136" s="7">
-        <f t="shared" si="238"/>
-        <v>0.35277614130768176</v>
-      </c>
-      <c r="V136" s="7">
-        <f t="shared" si="238"/>
-        <v>0.40005009890393123</v>
-      </c>
-      <c r="W136" s="7">
-        <f t="shared" si="238"/>
-        <v>0.44604509562486588</v>
-      </c>
-      <c r="X136" s="7">
-        <f t="shared" si="238"/>
-        <v>0.42358772612735457</v>
-      </c>
-      <c r="Y136" s="7">
-        <f t="shared" si="238"/>
-        <v>0.44701250780830076</v>
-      </c>
-      <c r="Z136" s="7">
-        <f t="shared" si="238"/>
-        <v>0.43224724834171585</v>
-      </c>
-      <c r="AA136" s="7">
-        <f t="shared" si="238"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="137" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+      <c r="T138" s="7">
+        <f t="shared" ref="T138:Z138" si="242">+T126/T127</f>
+        <v>0.25221578706106013</v>
+      </c>
+      <c r="U138" s="7">
+        <f>+U126/U127</f>
+        <v>0.34375250234868338</v>
+      </c>
+      <c r="V138" s="7">
+        <f t="shared" si="242"/>
+        <v>0.38600419678339826</v>
+      </c>
+      <c r="W138" s="7">
+        <f t="shared" si="242"/>
+        <v>0.43656883503142813</v>
+      </c>
+      <c r="X138" s="7">
+        <f t="shared" si="242"/>
+        <v>0.42421698030513433</v>
+      </c>
+      <c r="Y138" s="7">
+        <f t="shared" si="242"/>
+        <v>0.41735273772870918</v>
+      </c>
+      <c r="Z138" s="7">
+        <f t="shared" si="242"/>
+        <v>0.41086399224000553</v>
+      </c>
+      <c r="AA138" s="7">
+        <f>+AA126/AA127</f>
+        <v>0.39512658355727071</v>
+      </c>
+      <c r="AB138" s="7">
+        <f t="shared" ref="AB138:AD138" si="243">+AB126/AB127</f>
+        <v>0.34598708525917882</v>
+      </c>
+      <c r="AC138" s="7">
+        <f t="shared" si="243"/>
+        <v>0.35</v>
+      </c>
+      <c r="AD138" s="7">
+        <f t="shared" si="243"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="139" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
         <v>206</v>
       </c>
-      <c r="S137" s="7">
-        <f>+S123/S125</f>
+      <c r="S139" s="7">
+        <f>+S125/S127</f>
         <v>0.19853379025865708</v>
       </c>
-      <c r="T137" s="7">
-        <f t="shared" ref="T137:AA137" si="239">+T123/T125</f>
-        <v>0.34095465910183675</v>
-      </c>
-      <c r="U137" s="7">
-        <f t="shared" si="239"/>
-        <v>0.44042329340603509</v>
-      </c>
-      <c r="V137" s="7">
-        <f t="shared" si="239"/>
-        <v>0.48045573440956274</v>
-      </c>
-      <c r="W137" s="7">
-        <f t="shared" si="239"/>
-        <v>0.51486054471719211</v>
-      </c>
-      <c r="X137" s="7">
-        <f t="shared" si="239"/>
-        <v>0.48433980256035825</v>
-      </c>
-      <c r="Y137" s="7">
-        <f t="shared" si="239"/>
-        <v>0.50963871173932629</v>
-      </c>
-      <c r="Z137" s="7">
-        <f t="shared" si="239"/>
-        <v>0.47781665330320477</v>
-      </c>
-      <c r="AA137" s="7">
-        <f t="shared" si="239"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="139" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="AA139" s="10"/>
-    </row>
-    <row r="140" spans="2:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C140" s="5">
-        <v>165</v>
-      </c>
-      <c r="D140" s="5">
-        <v>188</v>
-      </c>
-      <c r="E140" s="5">
-        <v>236</v>
-      </c>
-      <c r="F140" s="5">
-        <f>+BB140-E140-D140-C140</f>
-        <v>297</v>
-      </c>
-      <c r="G140" s="5">
-        <v>497</v>
-      </c>
-      <c r="H140" s="5">
-        <v>944</v>
-      </c>
-      <c r="I140" s="5">
-        <v>890</v>
-      </c>
-      <c r="J140" s="5">
-        <f>3214-I140-H140-G140</f>
-        <v>883</v>
-      </c>
-      <c r="K140" s="5">
-        <v>768</v>
-      </c>
-      <c r="L140" s="5">
-        <v>996</v>
-      </c>
-      <c r="M140" s="5">
-        <v>1126</v>
-      </c>
-      <c r="N140" s="5">
-        <f>4349-M140-L140-K140</f>
-        <v>1459</v>
-      </c>
-      <c r="O140" s="5">
-        <v>1932</v>
-      </c>
-      <c r="P140" s="5">
-        <v>1988</v>
-      </c>
-      <c r="Q140" s="5">
-        <v>2148</v>
-      </c>
-      <c r="R140" s="5">
-        <f>8292-Q140-P140-O140</f>
-        <v>2224</v>
-      </c>
-      <c r="S140" s="5">
-        <v>2385</v>
-      </c>
-      <c r="T140" s="2">
-        <v>6043</v>
-      </c>
-      <c r="U140" s="2">
-        <v>6302</v>
-      </c>
-      <c r="V140" s="2">
-        <f>26966-U140-T140-S140</f>
-        <v>12236</v>
-      </c>
-      <c r="W140" s="2">
-        <v>13496</v>
-      </c>
-      <c r="X140" s="2">
-        <v>13022</v>
-      </c>
-      <c r="Y140" s="2">
-        <v>14800</v>
-      </c>
-      <c r="Z140" s="2">
-        <f>61257-Y140-X140-W140</f>
-        <v>19939</v>
-      </c>
-      <c r="AA140" s="2">
-        <v>20739</v>
-      </c>
-      <c r="BA140" s="2">
-        <v>1506</v>
-      </c>
-      <c r="BB140" s="2">
-        <v>886</v>
-      </c>
-      <c r="BC140" s="2">
-        <f>SUM(G140:J140)</f>
-        <v>3214</v>
-      </c>
-      <c r="BD140" s="2">
-        <f>SUM(K140:N140)</f>
-        <v>4349</v>
-      </c>
-      <c r="BE140" s="2">
-        <f t="shared" ref="BE140:BE144" si="240">SUM(O140:R140)</f>
-        <v>8292</v>
-      </c>
-      <c r="BF140" s="2">
-        <f t="shared" ref="BF140:BF144" si="241">SUM(S140:V140)</f>
-        <v>26966</v>
-      </c>
-      <c r="BG140" s="2">
-        <f t="shared" ref="BG140:BG144" si="242">SUM(W140:Z140)</f>
-        <v>61257</v>
-      </c>
-    </row>
-    <row r="141" spans="2:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C141" s="5">
-        <v>698</v>
-      </c>
-      <c r="D141" s="5">
-        <v>635</v>
-      </c>
-      <c r="E141" s="5">
-        <v>838</v>
-      </c>
-      <c r="F141" s="5">
-        <f>+BB141-E141-D141-C141</f>
-        <v>854</v>
-      </c>
-      <c r="G141" s="5">
-        <v>813</v>
-      </c>
-      <c r="H141" s="5">
-        <v>954</v>
-      </c>
-      <c r="I141" s="5">
-        <v>1296</v>
-      </c>
-      <c r="J141" s="5">
-        <f>4531-I141-H141-G141</f>
-        <v>1468</v>
-      </c>
-      <c r="K141" s="5">
-        <v>1784</v>
-      </c>
-      <c r="L141" s="5">
-        <v>1961</v>
-      </c>
-      <c r="M141" s="5">
-        <v>2187</v>
-      </c>
-      <c r="N141" s="5">
-        <f>8544-M141-L141-K141</f>
-        <v>2612</v>
-      </c>
-      <c r="O141" s="5">
-        <v>2777</v>
-      </c>
-      <c r="P141" s="5">
-        <v>1204</v>
-      </c>
-      <c r="Q141" s="5">
-        <v>1153</v>
-      </c>
-      <c r="R141" s="5">
-        <f>6986-Q141-P141-O141</f>
-        <v>1852</v>
-      </c>
-      <c r="S141" s="5">
-        <v>1796</v>
-      </c>
-      <c r="T141" s="2">
-        <v>2839</v>
-      </c>
-      <c r="U141" s="2">
-        <v>4333</v>
-      </c>
-      <c r="V141" s="2">
-        <f>13405-U141-T141-S141</f>
-        <v>4437</v>
-      </c>
-      <c r="W141" s="2">
-        <v>4373</v>
-      </c>
-      <c r="X141" s="2">
-        <v>5740</v>
-      </c>
-      <c r="Y141" s="2">
-        <v>5153</v>
-      </c>
-      <c r="Z141" s="2">
-        <f>20573-Y141-X141-W141</f>
-        <v>5307</v>
-      </c>
-      <c r="AA141" s="2">
-        <v>7158</v>
-      </c>
-      <c r="BA141" s="2">
-        <v>3360</v>
-      </c>
-      <c r="BB141" s="2">
-        <v>3025</v>
-      </c>
-      <c r="BC141" s="2">
-        <f>SUM(G141:J141)</f>
-        <v>4531</v>
-      </c>
-      <c r="BD141" s="2">
-        <f>SUM(K141:N141)</f>
-        <v>8544</v>
-      </c>
-      <c r="BE141" s="2">
-        <f t="shared" si="240"/>
-        <v>6986</v>
-      </c>
-      <c r="BF141" s="2">
-        <f t="shared" si="241"/>
-        <v>13405</v>
-      </c>
-      <c r="BG141" s="2">
-        <f t="shared" si="242"/>
-        <v>20573</v>
-      </c>
+      <c r="T139" s="7">
+        <f>+T125/T127</f>
+        <v>0.33000858624757717</v>
+      </c>
+      <c r="U139" s="7">
+        <f t="shared" ref="U139:Z139" si="244">+U125/U127</f>
+        <v>0.42915773339934837</v>
+      </c>
+      <c r="V139" s="7">
+        <f t="shared" si="244"/>
+        <v>0.46358676165526252</v>
+      </c>
+      <c r="W139" s="7">
+        <f t="shared" si="244"/>
+        <v>0.50392229488802531</v>
+      </c>
+      <c r="X139" s="7">
+        <f t="shared" si="244"/>
+        <v>0.48505930604317277</v>
+      </c>
+      <c r="Y139" s="7">
+        <f t="shared" si="244"/>
+        <v>0.47582362435405334</v>
+      </c>
+      <c r="Z139" s="7">
+        <f t="shared" si="244"/>
+        <v>0.45417908034827592</v>
+      </c>
+      <c r="AA139" s="7">
+        <f>+AA125/AA127</f>
+        <v>0.44513365526438081</v>
+      </c>
+      <c r="AB139" s="7">
+        <f>+AB125/AB127</f>
+        <v>0.39352915919480719</v>
+      </c>
+      <c r="AC139" s="7">
+        <f t="shared" ref="AC139:AD139" si="245">+AC125/AC127</f>
+        <v>0.39</v>
+      </c>
+      <c r="AD139" s="7">
+        <f t="shared" si="245"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="140" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="AA140" s="10"/>
+    </row>
+    <row r="141" spans="2:59" x14ac:dyDescent="0.25">
+      <c r="AA141" s="10"/>
     </row>
     <row r="142" spans="2:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="C142" s="5">
+        <v>165</v>
+      </c>
+      <c r="D142" s="5">
+        <v>188</v>
+      </c>
+      <c r="E142" s="5">
+        <v>236</v>
+      </c>
+      <c r="F142" s="5">
+        <f>+BB142-E142-D142-C142</f>
+        <v>297</v>
+      </c>
+      <c r="G142" s="5">
+        <v>497</v>
+      </c>
+      <c r="H142" s="5">
+        <v>944</v>
+      </c>
+      <c r="I142" s="5">
+        <v>890</v>
+      </c>
+      <c r="J142" s="5">
+        <f>3214-I142-H142-G142</f>
+        <v>883</v>
+      </c>
+      <c r="K142" s="5">
+        <v>768</v>
+      </c>
+      <c r="L142" s="5">
+        <v>996</v>
+      </c>
+      <c r="M142" s="5">
+        <v>1126</v>
+      </c>
+      <c r="N142" s="5">
+        <f>4349-M142-L142-K142</f>
+        <v>1459</v>
+      </c>
+      <c r="O142" s="5">
+        <v>1932</v>
+      </c>
+      <c r="P142" s="5">
+        <v>1988</v>
+      </c>
+      <c r="Q142" s="5">
+        <v>2148</v>
+      </c>
+      <c r="R142" s="5">
+        <f>8292-Q142-P142-O142</f>
+        <v>2224</v>
+      </c>
       <c r="S142" s="5">
-        <v>762</v>
+        <v>2385</v>
       </c>
       <c r="T142" s="2">
-        <v>1042</v>
+        <v>6043</v>
       </c>
       <c r="U142" s="2">
-        <v>2702</v>
+        <v>6302</v>
       </c>
       <c r="V142" s="2">
-        <f>6831-U142-T142-S142</f>
-        <v>2325</v>
+        <f>26966-U142-T142-S142</f>
+        <v>12236</v>
       </c>
       <c r="W142" s="2">
-        <v>4037</v>
+        <v>13496</v>
       </c>
       <c r="X142" s="2">
-        <v>5622</v>
+        <v>13022</v>
       </c>
       <c r="Y142" s="2">
-        <v>7697</v>
+        <v>14800</v>
       </c>
       <c r="Z142" s="2">
-        <f>23684-Y142-X142-W142</f>
-        <v>6328</v>
+        <f>61257-Y142-X142-W142</f>
+        <v>19939</v>
       </c>
       <c r="AA142" s="2">
-        <v>9017</v>
+        <v>20739</v>
+      </c>
+      <c r="BA142" s="2">
+        <v>1506</v>
+      </c>
+      <c r="BB142" s="2">
+        <v>886</v>
+      </c>
+      <c r="BC142" s="2">
+        <f>SUM(G142:J142)</f>
+        <v>3214</v>
+      </c>
+      <c r="BD142" s="2">
+        <f>SUM(K142:N142)</f>
+        <v>4349</v>
+      </c>
+      <c r="BE142" s="2">
+        <f t="shared" ref="BE142:BE146" si="246">SUM(O142:R142)</f>
+        <v>8292</v>
       </c>
       <c r="BF142" s="2">
-        <f t="shared" si="241"/>
-        <v>6831</v>
+        <f t="shared" ref="BF142:BF146" si="247">SUM(S142:V142)</f>
+        <v>26966</v>
       </c>
       <c r="BG142" s="2">
-        <f t="shared" si="242"/>
-        <v>23684</v>
+        <f t="shared" ref="BG142:BG146" si="248">SUM(W142:Z142)</f>
+        <v>61257</v>
       </c>
     </row>
     <row r="143" spans="2:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C143" s="5">
-        <v>553</v>
+        <v>698</v>
       </c>
       <c r="D143" s="5">
-        <v>583</v>
+        <v>635</v>
       </c>
       <c r="E143" s="5">
-        <v>758</v>
+        <v>838</v>
       </c>
       <c r="F143" s="5">
         <f>+BB143-E143-D143-C143</f>
-        <v>837</v>
+        <v>854</v>
       </c>
       <c r="G143" s="5">
-        <v>758</v>
+        <v>813</v>
       </c>
       <c r="H143" s="5">
-        <v>855</v>
+        <v>954</v>
       </c>
       <c r="I143" s="5">
-        <v>1113</v>
+        <v>1296</v>
       </c>
       <c r="J143" s="5">
-        <f>3886-I143-H143-G143</f>
-        <v>1160</v>
+        <f>4531-I143-H143-G143</f>
+        <v>1468</v>
       </c>
       <c r="K143" s="5">
-        <v>1391</v>
+        <v>1784</v>
       </c>
       <c r="L143" s="5">
-        <v>1720</v>
+        <v>1961</v>
       </c>
       <c r="M143" s="5">
-        <v>2017</v>
+        <v>2187</v>
       </c>
       <c r="N143" s="5">
-        <f>7111-M143-L143-K143</f>
-        <v>1983</v>
+        <f>8544-M143-L143-K143</f>
+        <v>2612</v>
       </c>
       <c r="O143" s="5">
-        <v>2081</v>
+        <v>2777</v>
       </c>
       <c r="P143" s="5">
-        <v>1602</v>
+        <v>1204</v>
       </c>
       <c r="Q143" s="5">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="R143" s="5">
-        <f>5785-Q143-P143-O143</f>
-        <v>954</v>
+        <f>6986-Q143-P143-O143</f>
+        <v>1852</v>
       </c>
       <c r="S143" s="5">
-        <v>1590</v>
+        <v>1796</v>
       </c>
       <c r="T143" s="2">
-        <v>2740</v>
+        <v>2839</v>
       </c>
       <c r="U143" s="2">
-        <v>4030</v>
+        <v>4333</v>
       </c>
       <c r="V143" s="2">
-        <f>10306-U143-T143-S143</f>
-        <v>1946</v>
+        <f>13405-U143-T143-S143</f>
+        <v>4437</v>
       </c>
       <c r="W143" s="2">
-        <v>2491</v>
+        <v>4373</v>
       </c>
       <c r="X143" s="2">
-        <v>3667</v>
+        <v>5740</v>
       </c>
       <c r="Y143" s="2">
-        <v>5416</v>
+        <v>5153</v>
       </c>
       <c r="Z143" s="2">
-        <f>17108-Y143-X143-W143</f>
-        <v>5534</v>
+        <f>20573-Y143-X143-W143</f>
+        <v>5307</v>
       </c>
       <c r="AA143" s="2">
-        <v>5522</v>
+        <v>7158</v>
       </c>
       <c r="BA143" s="2">
-        <v>2801</v>
+        <v>3360</v>
       </c>
       <c r="BB143" s="2">
-        <v>2731</v>
+        <v>3025</v>
       </c>
       <c r="BC143" s="2">
         <f>SUM(G143:J143)</f>
-        <v>3886</v>
+        <v>4531</v>
       </c>
       <c r="BD143" s="2">
         <f>SUM(K143:N143)</f>
-        <v>7111</v>
+        <v>8544</v>
       </c>
       <c r="BE143" s="2">
-        <f t="shared" si="240"/>
-        <v>5785</v>
+        <f t="shared" si="246"/>
+        <v>6986</v>
       </c>
       <c r="BF143" s="2">
-        <f t="shared" si="241"/>
-        <v>10306</v>
+        <f t="shared" si="247"/>
+        <v>13405</v>
       </c>
       <c r="BG143" s="2">
-        <f t="shared" si="242"/>
-        <v>17108</v>
+        <f t="shared" si="248"/>
+        <v>20573</v>
       </c>
     </row>
     <row r="144" spans="2:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5">
+        <v>762</v>
+      </c>
+      <c r="T144" s="2">
+        <v>1042</v>
+      </c>
+      <c r="U144" s="2">
+        <v>2702</v>
+      </c>
+      <c r="V144" s="2">
+        <f>6831-U144-T144-S144</f>
+        <v>2325</v>
+      </c>
+      <c r="W144" s="2">
+        <v>4037</v>
+      </c>
+      <c r="X144" s="2">
+        <v>5622</v>
+      </c>
+      <c r="Y144" s="2">
+        <v>7697</v>
+      </c>
+      <c r="Z144" s="2">
+        <f>23684-Y144-X144-W144</f>
+        <v>6328</v>
+      </c>
+      <c r="AA144" s="2">
+        <v>9017</v>
+      </c>
+      <c r="BF144" s="2">
+        <f t="shared" si="247"/>
+        <v>6831</v>
+      </c>
+      <c r="BG144" s="2">
+        <f t="shared" si="248"/>
+        <v>23684</v>
+      </c>
+    </row>
+    <row r="145" spans="2:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C145" s="5">
+        <v>553</v>
+      </c>
+      <c r="D145" s="5">
+        <v>583</v>
+      </c>
+      <c r="E145" s="5">
+        <v>758</v>
+      </c>
+      <c r="F145" s="5">
+        <f>+BB145-E145-D145-C145</f>
+        <v>837</v>
+      </c>
+      <c r="G145" s="5">
+        <v>758</v>
+      </c>
+      <c r="H145" s="5">
+        <v>855</v>
+      </c>
+      <c r="I145" s="5">
+        <v>1113</v>
+      </c>
+      <c r="J145" s="5">
+        <f>3886-I145-H145-G145</f>
+        <v>1160</v>
+      </c>
+      <c r="K145" s="5">
+        <v>1391</v>
+      </c>
+      <c r="L145" s="5">
+        <v>1720</v>
+      </c>
+      <c r="M145" s="5">
+        <v>2017</v>
+      </c>
+      <c r="N145" s="5">
+        <f>7111-M145-L145-K145</f>
+        <v>1983</v>
+      </c>
+      <c r="O145" s="5">
+        <v>2081</v>
+      </c>
+      <c r="P145" s="5">
+        <v>1602</v>
+      </c>
+      <c r="Q145" s="5">
+        <v>1148</v>
+      </c>
+      <c r="R145" s="5">
+        <f>5785-Q145-P145-O145</f>
+        <v>954</v>
+      </c>
+      <c r="S145" s="5">
+        <v>1590</v>
+      </c>
+      <c r="T145" s="2">
+        <v>2740</v>
+      </c>
+      <c r="U145" s="2">
+        <v>4030</v>
+      </c>
+      <c r="V145" s="2">
+        <f>10306-U145-T145-S145</f>
+        <v>1946</v>
+      </c>
+      <c r="W145" s="2">
+        <v>2491</v>
+      </c>
+      <c r="X145" s="2">
+        <v>3667</v>
+      </c>
+      <c r="Y145" s="2">
+        <v>5416</v>
+      </c>
+      <c r="Z145" s="2">
+        <f>17108-Y145-X145-W145</f>
+        <v>5534</v>
+      </c>
+      <c r="AA145" s="2">
+        <v>5522</v>
+      </c>
+      <c r="BA145" s="2">
+        <v>2801</v>
+      </c>
+      <c r="BB145" s="2">
+        <v>2731</v>
+      </c>
+      <c r="BC145" s="2">
+        <f>SUM(G145:J145)</f>
+        <v>3886</v>
+      </c>
+      <c r="BD145" s="2">
+        <f>SUM(K145:N145)</f>
+        <v>7111</v>
+      </c>
+      <c r="BE145" s="2">
+        <f t="shared" si="246"/>
+        <v>5785</v>
+      </c>
+      <c r="BF145" s="2">
+        <f t="shared" si="247"/>
+        <v>10306</v>
+      </c>
+      <c r="BG145" s="2">
+        <f t="shared" si="248"/>
+        <v>17108</v>
+      </c>
+    </row>
+    <row r="146" spans="2:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C146" s="5">
         <f>422+133+249</f>
         <v>804</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D146" s="5">
         <f>756+288+129</f>
         <v>1173</v>
       </c>
-      <c r="E144" s="5">
+      <c r="E146" s="5">
         <f>805+216+161</f>
         <v>1182</v>
       </c>
-      <c r="F144" s="5">
-        <f>+BB144-E144-D144-C144</f>
+      <c r="F146" s="5">
+        <f>+BB146-E146-D146-C146</f>
         <v>1117</v>
       </c>
-      <c r="G144" s="5">
+      <c r="G146" s="5">
         <f>254+151+607</f>
         <v>1012</v>
       </c>
-      <c r="H144" s="5">
+      <c r="H146" s="5">
         <f>240+175+698</f>
         <v>1113</v>
       </c>
-      <c r="I144" s="5">
+      <c r="I146" s="5">
         <f>955+247+225</f>
         <v>1427</v>
       </c>
-      <c r="J144" s="5">
-        <f>3093+1118+833-I144-H144-G144</f>
+      <c r="J146" s="5">
+        <f>3093+1118+833-I146-H146-G146</f>
         <v>1492</v>
       </c>
-      <c r="K144" s="5">
+      <c r="K146" s="5">
         <v>1718</v>
       </c>
-      <c r="L144" s="5">
+      <c r="L146" s="5">
         <v>1830</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M146" s="5">
         <v>1773</v>
       </c>
-      <c r="N144" s="5">
-        <f>6910-M144-L144-K144</f>
+      <c r="N146" s="5">
+        <f>6910-M146-L146-K146</f>
         <v>1589</v>
       </c>
-      <c r="O144" s="5">
+      <c r="O146" s="5">
         <f>1044+454</f>
         <v>1498</v>
       </c>
-      <c r="P144" s="5">
+      <c r="P146" s="5">
         <v>1910</v>
       </c>
-      <c r="Q144" s="5">
+      <c r="Q146" s="5">
         <f>536+946</f>
         <v>1482</v>
       </c>
-      <c r="R144" s="5">
-        <f>3623-Q144-P144-O144+2288</f>
+      <c r="R146" s="5">
+        <f>3623-Q146-P146-O146+2288</f>
         <v>1021</v>
       </c>
-      <c r="S144" s="5">
+      <c r="S146" s="5">
         <v>659</v>
       </c>
-      <c r="T144" s="2">
+      <c r="T146" s="2">
         <v>843</v>
       </c>
-      <c r="U144" s="2">
+      <c r="U146" s="2">
         <v>753</v>
       </c>
-      <c r="V144" s="2">
-        <f>3414-U144-T144-S144</f>
+      <c r="V146" s="2">
+        <f>3414-U146-T146-S146</f>
         <v>1159</v>
       </c>
-      <c r="W144" s="2">
+      <c r="W146" s="2">
         <v>1647</v>
       </c>
-      <c r="X144" s="2">
+      <c r="X146" s="2">
         <v>1989</v>
       </c>
-      <c r="Y144" s="2">
+      <c r="Y146" s="2">
         <v>2016</v>
       </c>
-      <c r="Z144" s="2">
-        <f>7875-Y144-X144-W144</f>
+      <c r="Z146" s="2">
+        <f>7875-Y146-X146-W146</f>
         <v>2223</v>
       </c>
-      <c r="AA144" s="2">
+      <c r="AA146" s="2">
         <v>1626</v>
       </c>
-      <c r="BA144" s="2">
+      <c r="BA146" s="2">
         <f>2368+914+767</f>
         <v>4049</v>
       </c>
-      <c r="BB144" s="2">
+      <c r="BB146" s="2">
         <f>2685+992+599</f>
         <v>4276</v>
       </c>
-      <c r="BC144" s="2">
-        <f>SUM(G144:J144)</f>
+      <c r="BC146" s="2">
+        <f>SUM(G146:J146)</f>
         <v>5044</v>
       </c>
-      <c r="BD144" s="2">
-        <f>SUM(K144:N144)</f>
+      <c r="BD146" s="2">
+        <f>SUM(K146:N146)</f>
         <v>6910</v>
       </c>
-      <c r="BE144" s="2">
-        <f t="shared" si="240"/>
+      <c r="BE146" s="2">
+        <f t="shared" si="246"/>
         <v>5911</v>
       </c>
-      <c r="BF144" s="2">
-        <f t="shared" si="241"/>
+      <c r="BF146" s="2">
+        <f t="shared" si="247"/>
         <v>3414</v>
       </c>
-      <c r="BG144" s="2">
-        <f t="shared" si="242"/>
+      <c r="BG146" s="2">
+        <f t="shared" si="248"/>
         <v>7875</v>
       </c>
     </row>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD58AC5-B962-43CD-92A3-BD48EF79F811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C482B88-4D1C-41B1-8817-F7C92A6C911A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38450" yWindow="3160" windowWidth="24340" windowHeight="15680" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
+    <workbookView xWindow="38770" yWindow="2610" windowWidth="22530" windowHeight="11650" activeTab="1" xr2:uid="{EA2824C1-1697-4288-88B1-60A32E5E15B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -216,6 +216,7 @@
 Comment:
     51.75B consensus 5/28/25
 53.43B consensus 8/27/25
+54.90B consensus 11/19/25
 Q2 guidance: 54B +/- 2%</t>
       </text>
     </comment>
@@ -224,7 +225,8 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    57.23B consensus 5/28/25</t>
+    57.23B consensus 5/28/25
+62.17B consensus 11/19/25</t>
       </text>
     </comment>
     <comment ref="BM24" authorId="17" shapeId="0" xr:uid="{4E056475-A7E3-43D8-B802-93813DACE25F}">
@@ -308,7 +310,7 @@
     Raised 40B from SoftBank/others</t>
       </text>
     </comment>
-    <comment ref="C150" authorId="27" shapeId="0" xr:uid="{1DF99399-1918-4E2C-8279-9C2FF687E1E3}">
+    <comment ref="C152" authorId="27" shapeId="0" xr:uid="{1DF99399-1918-4E2C-8279-9C2FF687E1E3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -316,7 +318,7 @@
     133m Other, 249m EU, 422m Other APAC</t>
       </text>
     </comment>
-    <comment ref="D150" authorId="28" shapeId="0" xr:uid="{1446D5A2-75F4-49C0-818F-A506FFEEE2AC}">
+    <comment ref="D152" authorId="28" shapeId="0" xr:uid="{1446D5A2-75F4-49C0-818F-A506FFEEE2AC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -324,7 +326,7 @@
     129m other, 288m EU, 756m other APAC</t>
       </text>
     </comment>
-    <comment ref="E150" authorId="29" shapeId="0" xr:uid="{1DF5EE39-C8FB-4475-8FE7-ADC6D1CD4618}">
+    <comment ref="E152" authorId="29" shapeId="0" xr:uid="{1DF5EE39-C8FB-4475-8FE7-ADC6D1CD4618}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -332,7 +334,7 @@
     216m EU, 161m other, 805m Other APAC</t>
       </text>
     </comment>
-    <comment ref="G150" authorId="30" shapeId="0" xr:uid="{DD2CD9F0-4D52-41A1-9318-3FB1FCEC2AD9}">
+    <comment ref="G152" authorId="30" shapeId="0" xr:uid="{DD2CD9F0-4D52-41A1-9318-3FB1FCEC2AD9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -340,7 +342,7 @@
     151m Other, 254m EU, 607m Other APAC</t>
       </text>
     </comment>
-    <comment ref="H150" authorId="31" shapeId="0" xr:uid="{FCB5C1B5-F411-4AA0-8552-6396ACF5C382}">
+    <comment ref="H152" authorId="31" shapeId="0" xr:uid="{FCB5C1B5-F411-4AA0-8552-6396ACF5C382}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -348,7 +350,7 @@
     240m EU, 175m Other, 698m Other APAC</t>
       </text>
     </comment>
-    <comment ref="I150" authorId="32" shapeId="0" xr:uid="{63A90EF7-3038-4F3C-97B2-466FDABC5E09}">
+    <comment ref="I152" authorId="32" shapeId="0" xr:uid="{63A90EF7-3038-4F3C-97B2-466FDABC5E09}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -356,7 +358,7 @@
     Europe 247m, Other APAC 955m, Other 225m</t>
       </text>
     </comment>
-    <comment ref="J150" authorId="33" shapeId="0" xr:uid="{C63606EF-04FE-45D8-9244-916E253074AB}">
+    <comment ref="J152" authorId="33" shapeId="0" xr:uid="{C63606EF-04FE-45D8-9244-916E253074AB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -364,7 +366,7 @@
     TTM EU 1118m, Other APAC 3093m, Other 833m</t>
       </text>
     </comment>
-    <comment ref="O150" authorId="34" shapeId="0" xr:uid="{8AC347C9-DB8B-48B0-AA14-D262027A155D}">
+    <comment ref="O152" authorId="34" shapeId="0" xr:uid="{8AC347C9-DB8B-48B0-AA14-D262027A155D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -372,7 +374,7 @@
     454m Singapore</t>
       </text>
     </comment>
-    <comment ref="Q150" authorId="35" shapeId="0" xr:uid="{EE73B09E-2677-450F-B8B1-9A119FB6CC0B}">
+    <comment ref="Q152" authorId="35" shapeId="0" xr:uid="{EE73B09E-2677-450F-B8B1-9A119FB6CC0B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -380,7 +382,7 @@
     536m Singapore</t>
       </text>
     </comment>
-    <comment ref="R150" authorId="36" shapeId="0" xr:uid="{97838103-F970-4B17-BAA4-B0F2ADACFA86}">
+    <comment ref="R152" authorId="36" shapeId="0" xr:uid="{97838103-F970-4B17-BAA4-B0F2ADACFA86}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -388,7 +390,7 @@
     2288m Singapore (Q4+Q2)</t>
       </text>
     </comment>
-    <comment ref="BF150" authorId="37" shapeId="0" xr:uid="{FB8A1EF9-0129-43D9-BD4D-E70349E6A7E0}">
+    <comment ref="BF152" authorId="37" shapeId="0" xr:uid="{FB8A1EF9-0129-43D9-BD4D-E70349E6A7E0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -396,7 +398,7 @@
     2368m Other APAC, 914m EU, 767m Other</t>
       </text>
     </comment>
-    <comment ref="BG150" authorId="38" shapeId="0" xr:uid="{D5B65222-64AF-4587-989D-4D4267FB62AC}">
+    <comment ref="BG152" authorId="38" shapeId="0" xr:uid="{D5B65222-64AF-4587-989D-4D4267FB62AC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -409,7 +411,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="272">
   <si>
     <t>Main</t>
   </si>
@@ -1222,6 +1224,9 @@
   </si>
   <si>
     <t>2. Curtis Priem (co-founder)</t>
+  </si>
+  <si>
+    <t>Spending y/y</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1468,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>35319</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>96971</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1513,7 +1518,7 @@
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>26835</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>118242</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1914,10 +1919,12 @@
   <threadedComment ref="AC24" dT="2025-05-28T13:39:37.10" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{48933EFE-5C5F-49EA-A80E-E765DE830619}">
     <text>51.75B consensus 5/28/25
 53.43B consensus 8/27/25
+54.90B consensus 11/19/25
 Q2 guidance: 54B +/- 2%</text>
   </threadedComment>
   <threadedComment ref="AD24" dT="2025-05-28T13:40:30.80" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{BDF99649-FFA5-4806-8F0A-EDE5EB314212}">
-    <text>57.23B consensus 5/28/25</text>
+    <text>57.23B consensus 5/28/25
+62.17B consensus 11/19/25</text>
   </threadedComment>
   <threadedComment ref="BM24" dT="2025-02-26T16:49:05.11" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{4E056475-A7E3-43D8-B802-93813DACE25F}">
     <text>196490 consensus</text>
@@ -1950,40 +1957,40 @@
   <threadedComment ref="AA137" dT="2025-08-27T14:51:27.89" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{E135F8C4-952E-4ED7-BF9D-C71E486C0EE2}">
     <text>Raised 40B from SoftBank/others</text>
   </threadedComment>
-  <threadedComment ref="C150" dT="2025-04-26T15:49:13.84" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{1DF99399-1918-4E2C-8279-9C2FF687E1E3}">
+  <threadedComment ref="C152" dT="2025-04-26T15:49:13.84" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{1DF99399-1918-4E2C-8279-9C2FF687E1E3}">
     <text>133m Other, 249m EU, 422m Other APAC</text>
   </threadedComment>
-  <threadedComment ref="D150" dT="2025-04-26T15:43:40.38" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{1446D5A2-75F4-49C0-818F-A506FFEEE2AC}">
+  <threadedComment ref="D152" dT="2025-04-26T15:43:40.38" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{1446D5A2-75F4-49C0-818F-A506FFEEE2AC}">
     <text>129m other, 288m EU, 756m other APAC</text>
   </threadedComment>
-  <threadedComment ref="E150" dT="2025-04-26T15:38:37.30" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{1DF5EE39-C8FB-4475-8FE7-ADC6D1CD4618}">
+  <threadedComment ref="E152" dT="2025-04-26T15:38:37.30" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{1DF5EE39-C8FB-4475-8FE7-ADC6D1CD4618}">
     <text>216m EU, 161m other, 805m Other APAC</text>
   </threadedComment>
-  <threadedComment ref="G150" dT="2025-04-26T15:08:33.59" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{DD2CD9F0-4D52-41A1-9318-3FB1FCEC2AD9}">
+  <threadedComment ref="G152" dT="2025-04-26T15:08:33.59" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{DD2CD9F0-4D52-41A1-9318-3FB1FCEC2AD9}">
     <text>151m Other, 254m EU, 607m Other APAC</text>
   </threadedComment>
-  <threadedComment ref="H150" dT="2025-04-26T15:06:24.83" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{FCB5C1B5-F411-4AA0-8552-6396ACF5C382}">
+  <threadedComment ref="H152" dT="2025-04-26T15:06:24.83" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{FCB5C1B5-F411-4AA0-8552-6396ACF5C382}">
     <text>240m EU, 175m Other, 698m Other APAC</text>
   </threadedComment>
-  <threadedComment ref="I150" dT="2025-04-26T15:03:55.10" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{63A90EF7-3038-4F3C-97B2-466FDABC5E09}">
+  <threadedComment ref="I152" dT="2025-04-26T15:03:55.10" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{63A90EF7-3038-4F3C-97B2-466FDABC5E09}">
     <text>Europe 247m, Other APAC 955m, Other 225m</text>
   </threadedComment>
-  <threadedComment ref="J150" dT="2025-04-26T15:26:37.52" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{C63606EF-04FE-45D8-9244-916E253074AB}">
+  <threadedComment ref="J152" dT="2025-04-26T15:26:37.52" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{C63606EF-04FE-45D8-9244-916E253074AB}">
     <text>TTM EU 1118m, Other APAC 3093m, Other 833m</text>
   </threadedComment>
-  <threadedComment ref="O150" dT="2025-04-26T14:56:45.38" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{8AC347C9-DB8B-48B0-AA14-D262027A155D}">
+  <threadedComment ref="O152" dT="2025-04-26T14:56:45.38" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{8AC347C9-DB8B-48B0-AA14-D262027A155D}">
     <text>454m Singapore</text>
   </threadedComment>
-  <threadedComment ref="Q150" dT="2025-04-26T14:45:52.99" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{EE73B09E-2677-450F-B8B1-9A119FB6CC0B}">
+  <threadedComment ref="Q152" dT="2025-04-26T14:45:52.99" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{EE73B09E-2677-450F-B8B1-9A119FB6CC0B}">
     <text>536m Singapore</text>
   </threadedComment>
-  <threadedComment ref="R150" dT="2025-04-26T14:57:01.49" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{97838103-F970-4B17-BAA4-B0F2ADACFA86}">
+  <threadedComment ref="R152" dT="2025-04-26T14:57:01.49" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{97838103-F970-4B17-BAA4-B0F2ADACFA86}">
     <text>2288m Singapore (Q4+Q2)</text>
   </threadedComment>
-  <threadedComment ref="BF150" dT="2025-04-26T15:27:26.33" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{FB8A1EF9-0129-43D9-BD4D-E70349E6A7E0}">
+  <threadedComment ref="BF152" dT="2025-04-26T15:27:26.33" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{FB8A1EF9-0129-43D9-BD4D-E70349E6A7E0}">
     <text>2368m Other APAC, 914m EU, 767m Other</text>
   </threadedComment>
-  <threadedComment ref="BG150" dT="2025-04-26T15:27:36.53" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{D5B65222-64AF-4587-989D-4D4267FB62AC}">
+  <threadedComment ref="BG152" dT="2025-04-26T15:27:36.53" personId="{C526F2C0-66C0-534F-AADF-50BFCB37FCD4}" id="{D5B65222-64AF-4587-989D-4D4267FB62AC}">
     <text>2685m Other APAC, 992m EU, 599m Other</text>
   </threadedComment>
 </ThreadedComments>
@@ -1993,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A6168-49C8-45E2-8975-8028D960ECA2}">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2358,13 +2365,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18193D-ACA0-4C17-9392-2417D68CD430}">
-  <dimension ref="A1:FJ150"/>
+  <dimension ref="A1:FJ152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AB13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="BJ23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH24" sqref="AH24"/>
+      <selection pane="bottomRight" activeCell="BN27" sqref="BN27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4063,12 +4070,12 @@
         <v>173</v>
       </c>
       <c r="AC17" s="2">
-        <f t="shared" ref="AC17:AD19" si="3">+Y17*1.1</f>
+        <f t="shared" ref="AC17:AC19" si="3">+Y17*1.1</f>
         <v>106.7</v>
       </c>
       <c r="AD17" s="2">
-        <f t="shared" si="3"/>
-        <v>138.60000000000002</v>
+        <f>+Z17*1.4</f>
+        <v>176.39999999999998</v>
       </c>
       <c r="BF17" s="2">
         <v>767</v>
@@ -4184,8 +4191,8 @@
         <v>534.6</v>
       </c>
       <c r="AD18" s="2">
-        <f t="shared" si="3"/>
-        <v>562.1</v>
+        <f>+Z18*1.4</f>
+        <v>715.4</v>
       </c>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
@@ -4319,8 +4326,8 @@
         <v>493.90000000000003</v>
       </c>
       <c r="AD19" s="2">
-        <f t="shared" si="3"/>
-        <v>627</v>
+        <f>+Z19*1.4</f>
+        <v>798</v>
       </c>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
@@ -4613,12 +4620,12 @@
         <v>41096</v>
       </c>
       <c r="AC22" s="2">
-        <f>+Y22*1.4</f>
-        <v>43079.399999999994</v>
+        <f>+Y22*1.6</f>
+        <v>49233.600000000006</v>
       </c>
       <c r="AD22" s="2">
-        <f>+Z22*1.35</f>
-        <v>48033</v>
+        <f>+Z22*1.65</f>
+        <v>58707</v>
       </c>
       <c r="BF22" s="2">
         <v>2932</v>
@@ -4731,12 +4738,12 @@
         <v>4287</v>
       </c>
       <c r="AC23" s="2">
-        <f>+Y23*1.2</f>
-        <v>3934.7999999999997</v>
+        <f>+Y23*1.6</f>
+        <v>5246.4000000000005</v>
       </c>
       <c r="AD23" s="2">
-        <f t="shared" ref="AD23" si="6">+Z23*1.2</f>
-        <v>3052.7999999999997</v>
+        <f>+Z23*1.6</f>
+        <v>4070.4</v>
       </c>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
@@ -4861,35 +4868,34 @@
         <v>22103</v>
       </c>
       <c r="W24" s="9">
-        <f t="shared" ref="W24:AB24" si="7">+W23+W22+W19+W18+W17</f>
+        <f t="shared" ref="W24:AB24" si="6">+W23+W22+W19+W18+W17</f>
         <v>26044</v>
       </c>
       <c r="X24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30040</v>
       </c>
       <c r="Y24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>35082</v>
       </c>
       <c r="Z24" s="9">
-        <f t="shared" si="7"/>
+        <f>+Z23+Z22+Z19+Z18+Z17</f>
         <v>39331</v>
       </c>
       <c r="AA24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44062</v>
       </c>
       <c r="AB24" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>46743</v>
       </c>
       <c r="AC24" s="9">
-        <v>53430</v>
+        <v>57000</v>
       </c>
       <c r="AD24" s="9">
-        <f>+AD129</f>
-        <v>52984.526400000002</v>
+        <v>65000</v>
       </c>
       <c r="AE24" s="9"/>
       <c r="AF24" s="9"/>
@@ -4967,56 +4973,56 @@
         <v>9714</v>
       </c>
       <c r="BF24" s="8">
-        <f t="shared" ref="BF24:BL24" si="8">+BF23+BF22+BF19+BF18+BF17</f>
+        <f t="shared" ref="BF24:BL24" si="7">+BF23+BF22+BF19+BF18+BF17</f>
         <v>11716</v>
       </c>
       <c r="BG24" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10918</v>
       </c>
       <c r="BH24" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>16675</v>
       </c>
       <c r="BI24" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>26913</v>
       </c>
       <c r="BJ24" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>26977</v>
       </c>
       <c r="BK24" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>60922</v>
       </c>
       <c r="BL24" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>130497</v>
       </c>
       <c r="BM24" s="8">
         <f>SUM(AA24:AD24)</f>
-        <v>197219.5264</v>
+        <v>212805</v>
       </c>
       <c r="BN24" s="8">
-        <f>+BM24*1.5</f>
-        <v>295829.28960000002</v>
+        <f>+BM24*1.9</f>
+        <v>404329.5</v>
       </c>
       <c r="BO24" s="8">
-        <f>+BN24*1.4</f>
-        <v>414161.00543999998</v>
+        <f>+BN24*1.7</f>
+        <v>687360.15</v>
       </c>
       <c r="BP24" s="8">
         <f>+BO24*1.4</f>
-        <v>579825.40761599992</v>
+        <v>962304.21</v>
       </c>
       <c r="BQ24" s="8">
         <f>+BP24*1.3</f>
-        <v>753773.02990079997</v>
+        <v>1250995.473</v>
       </c>
       <c r="BR24" s="8">
         <f>+BQ24*1.3</f>
-        <v>979904.93887104001</v>
+        <v>1626294.1149000002</v>
       </c>
     </row>
     <row r="25" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5104,12 +5110,12 @@
         <v>12890</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" ref="AC25" si="9">+AC24-AC26</f>
-        <v>12823.199999999997</v>
+        <f t="shared" ref="AC25" si="8">+AC24-AC26</f>
+        <v>13680</v>
       </c>
       <c r="AD25" s="2">
         <f>+AD24-AD26</f>
-        <v>12716.286335999997</v>
+        <v>15600</v>
       </c>
       <c r="AM25" s="2">
         <v>141.84299999999999</v>
@@ -5194,27 +5200,27 @@
       </c>
       <c r="BM25" s="2">
         <f>+BM24-BM26</f>
-        <v>55823.486336000002</v>
+        <v>59564</v>
       </c>
       <c r="BN25" s="2">
-        <f t="shared" ref="BN25:BP25" si="10">+BN24-BN26</f>
-        <v>65082.443712000008</v>
+        <f>+BN24-BN26</f>
+        <v>101082.375</v>
       </c>
       <c r="BO25" s="2">
-        <f t="shared" si="10"/>
-        <v>91115.421196799958</v>
+        <f t="shared" ref="BN25:BP25" si="9">+BO24-BO26</f>
+        <v>151219.23300000001</v>
       </c>
       <c r="BP25" s="2">
-        <f t="shared" si="10"/>
-        <v>127561.58967551996</v>
+        <f t="shared" si="9"/>
+        <v>211706.92619999999</v>
       </c>
       <c r="BQ25" s="2">
-        <f t="shared" ref="BQ25" si="11">+BQ24-BQ26</f>
-        <v>165830.06657817599</v>
+        <f t="shared" ref="BQ25" si="10">+BQ24-BQ26</f>
+        <v>275219.00405999995</v>
       </c>
       <c r="BR25" s="2">
-        <f t="shared" ref="BR25" si="12">+BR24-BR26</f>
-        <v>215579.08655162877</v>
+        <f t="shared" ref="BR25" si="11">+BR24-BR26</f>
+        <v>357784.7052780001</v>
       </c>
     </row>
     <row r="26" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5222,71 +5228,71 @@
         <v>5</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" ref="C26:F26" si="13">+C24-C25</f>
+        <f t="shared" ref="C26:F26" si="12">+C24-C25</f>
         <v>1296</v>
       </c>
       <c r="D26" s="5">
+        <f t="shared" si="12"/>
+        <v>1541</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="12"/>
+        <v>1916</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="12"/>
+        <v>2015</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" ref="G26:S26" si="13">+G24-G25</f>
+        <v>2004</v>
+      </c>
+      <c r="H26" s="5">
         <f t="shared" si="13"/>
-        <v>1541</v>
-      </c>
-      <c r="E26" s="5">
+        <v>2275</v>
+      </c>
+      <c r="I26" s="5">
         <f t="shared" si="13"/>
-        <v>1916</v>
-      </c>
-      <c r="F26" s="5">
+        <v>2960</v>
+      </c>
+      <c r="J26" s="5">
         <f t="shared" si="13"/>
-        <v>2015</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" ref="G26:S26" si="14">+G24-G25</f>
-        <v>2004</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="14"/>
-        <v>2275</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="14"/>
-        <v>2960</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="14"/>
         <v>3157</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3629</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4215</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4631</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4999</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5431</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2915</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3177</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3833</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4648</v>
       </c>
       <c r="T26" s="2">
@@ -5294,27 +5300,27 @@
         <v>9462</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" ref="U26:Z26" si="15">+U24-U25</f>
+        <f t="shared" ref="U26:Z26" si="14">+U24-U25</f>
         <v>13400</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>16791</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>20406</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>22574</v>
       </c>
       <c r="Y26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>26156</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>28723</v>
       </c>
       <c r="AA26" s="2">
@@ -5327,34 +5333,34 @@
       </c>
       <c r="AC26" s="2">
         <f>+AC24*0.76</f>
-        <v>40606.800000000003</v>
+        <v>43320</v>
       </c>
       <c r="AD26" s="2">
         <f>+AD24*0.76</f>
-        <v>40268.240064000005</v>
+        <v>49400</v>
       </c>
       <c r="AM26" s="2">
-        <f t="shared" ref="AM26:AN26" si="16">+AM24-AM25</f>
+        <f t="shared" ref="AM26:AN26" si="15">+AM24-AM25</f>
         <v>232.66200000000001</v>
       </c>
       <c r="AN26" s="2">
+        <f t="shared" si="15"/>
+        <v>462.38499999999999</v>
+      </c>
+      <c r="AO26" s="2">
+        <f t="shared" ref="AO26:AR26" si="16">+AO24-AO25</f>
+        <v>850.23299999999995</v>
+      </c>
+      <c r="AP26" s="2">
         <f t="shared" si="16"/>
-        <v>462.38499999999999</v>
-      </c>
-      <c r="AO26" s="2">
-        <f t="shared" ref="AO26:AR26" si="17">+AO24-AO25</f>
-        <v>850.23299999999995</v>
-      </c>
-      <c r="AP26" s="2">
-        <f t="shared" si="17"/>
         <v>582.17599999999993</v>
       </c>
       <c r="AQ26" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>528.87799999999993</v>
       </c>
       <c r="AR26" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>649.48599999999988</v>
       </c>
       <c r="AS26" s="2">
@@ -5378,59 +5384,59 @@
         <v>1176.9230000000002</v>
       </c>
       <c r="AX26" s="2">
-        <f t="shared" ref="AX26:BK26" si="18">+AX24-AX25</f>
+        <f t="shared" ref="AX26:BK26" si="17">+AX24-AX25</f>
         <v>1409.0900000000001</v>
       </c>
       <c r="AY26" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2056.5169999999998</v>
       </c>
       <c r="AZ26" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2226.3429999999998</v>
       </c>
       <c r="BA26" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2268</v>
       </c>
       <c r="BB26" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2599</v>
       </c>
       <c r="BC26" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>2811</v>
       </c>
       <c r="BD26" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>4063</v>
       </c>
       <c r="BE26" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>5822</v>
       </c>
       <c r="BF26" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>7171</v>
       </c>
       <c r="BG26" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>6768</v>
       </c>
       <c r="BH26" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>10396</v>
       </c>
       <c r="BI26" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>17473</v>
       </c>
       <c r="BJ26" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>15359</v>
       </c>
       <c r="BK26" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>44301</v>
       </c>
       <c r="BL26" s="2">
@@ -5439,27 +5445,27 @@
       </c>
       <c r="BM26" s="2">
         <f>SUM(AA26:AD26)</f>
-        <v>141396.040064</v>
+        <v>153241</v>
       </c>
       <c r="BN26" s="2">
-        <f>+BN24*0.78</f>
-        <v>230746.84588800001</v>
+        <f>+BN24*0.75</f>
+        <v>303247.125</v>
       </c>
       <c r="BO26" s="2">
         <f>+BO24*0.78</f>
-        <v>323045.58424320002</v>
+        <v>536140.91700000002</v>
       </c>
       <c r="BP26" s="2">
         <f>+BP24*0.78</f>
-        <v>452263.81794047996</v>
+        <v>750597.28379999998</v>
       </c>
       <c r="BQ26" s="2">
-        <f t="shared" ref="BQ26:BR26" si="19">+BQ24*0.78</f>
-        <v>587942.96332262398</v>
+        <f t="shared" ref="BQ26:BR26" si="18">+BQ24*0.78</f>
+        <v>975776.46894000005</v>
       </c>
       <c r="BR26" s="2">
-        <f t="shared" si="19"/>
-        <v>764325.85231941123</v>
+        <f t="shared" si="18"/>
+        <v>1268509.4096220001</v>
       </c>
     </row>
     <row r="27" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5476,7 +5482,7 @@
         <v>712</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" ref="F27:F28" si="20">+BG27-E27-D27-C27</f>
+        <f t="shared" ref="F27:F28" si="19">+BG27-E27-D27-C27</f>
         <v>739</v>
       </c>
       <c r="G27" s="5">
@@ -5513,7 +5519,7 @@
         <v>1945</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" ref="R27:R28" si="21">+BJ27-Q27-P27-O27</f>
+        <f t="shared" ref="R27:R28" si="20">+BJ27-Q27-P27-O27</f>
         <v>1952</v>
       </c>
       <c r="S27" s="5">
@@ -5547,11 +5553,11 @@
         <v>4291</v>
       </c>
       <c r="AC27" s="2">
-        <f t="shared" ref="AC27" si="22">+Y27*1.2</f>
+        <f t="shared" ref="AC27" si="21">+Y27*1.2</f>
         <v>4068</v>
       </c>
       <c r="AD27" s="2">
-        <f t="shared" ref="AD27" si="23">+Z27*1.2</f>
+        <f t="shared" ref="AD27" si="22">+Z27*1.2</f>
         <v>4456.8</v>
       </c>
       <c r="AP27" s="2">
@@ -5631,23 +5637,23 @@
         <v>16804.8</v>
       </c>
       <c r="BN27" s="2">
-        <f t="shared" ref="BN27:BP27" si="24">+BM27*1.2</f>
+        <f>+BM27*1.2</f>
         <v>20165.759999999998</v>
       </c>
       <c r="BO27" s="2">
+        <f t="shared" ref="BN27:BP27" si="23">+BN27*1.2</f>
+        <v>24198.911999999997</v>
+      </c>
+      <c r="BP27" s="2">
+        <f t="shared" si="23"/>
+        <v>29038.694399999997</v>
+      </c>
+      <c r="BQ27" s="2">
+        <f t="shared" ref="BQ27:BR27" si="24">+BP27*1.2</f>
+        <v>34846.433279999997</v>
+      </c>
+      <c r="BR27" s="2">
         <f t="shared" si="24"/>
-        <v>24198.911999999997</v>
-      </c>
-      <c r="BP27" s="2">
-        <f t="shared" si="24"/>
-        <v>29038.694399999997</v>
-      </c>
-      <c r="BQ27" s="2">
-        <f t="shared" ref="BQ27:BR27" si="25">+BP27*1.2</f>
-        <v>34846.433279999997</v>
-      </c>
-      <c r="BR27" s="2">
-        <f t="shared" si="25"/>
         <v>41815.719935999994</v>
       </c>
     </row>
@@ -5665,7 +5671,7 @@
         <v>277</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>286</v>
       </c>
       <c r="G28" s="5">
@@ -5702,7 +5708,7 @@
         <v>631</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>625</v>
       </c>
       <c r="S28" s="5">
@@ -5820,23 +5826,23 @@
         <v>4409.3999999999996</v>
       </c>
       <c r="BN28" s="2">
-        <f t="shared" ref="BN28:BP28" si="26">+BM28*1.2</f>
+        <f>+BM28*1.2</f>
         <v>5291.28</v>
       </c>
       <c r="BO28" s="2">
+        <f t="shared" ref="BN28:BP28" si="25">+BN28*1.2</f>
+        <v>6349.5359999999991</v>
+      </c>
+      <c r="BP28" s="2">
+        <f t="shared" si="25"/>
+        <v>7619.4431999999988</v>
+      </c>
+      <c r="BQ28" s="2">
+        <f t="shared" ref="BQ28:BR28" si="26">+BP28*1.2</f>
+        <v>9143.3318399999989</v>
+      </c>
+      <c r="BR28" s="2">
         <f t="shared" si="26"/>
-        <v>6349.5359999999991</v>
-      </c>
-      <c r="BP28" s="2">
-        <f t="shared" si="26"/>
-        <v>7619.4431999999988</v>
-      </c>
-      <c r="BQ28" s="2">
-        <f t="shared" ref="BQ28:BR28" si="27">+BP28*1.2</f>
-        <v>9143.3318399999989</v>
-      </c>
-      <c r="BR28" s="2">
-        <f t="shared" si="27"/>
         <v>10971.998207999999</v>
       </c>
     </row>
@@ -5845,51 +5851,51 @@
         <v>3</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" ref="C29:F29" si="28">+C27+C28</f>
+        <f t="shared" ref="C29:F29" si="27">+C27+C28</f>
         <v>938</v>
       </c>
       <c r="D29" s="5">
+        <f t="shared" si="27"/>
+        <v>970</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="27"/>
+        <v>989</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="27"/>
+        <v>1025</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" ref="G29:I29" si="28">+G27+G28</f>
+        <v>1028</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" ref="H29" si="29">+H27+H28</f>
+        <v>1624</v>
+      </c>
+      <c r="I29" s="5">
         <f t="shared" si="28"/>
-        <v>970</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="28"/>
-        <v>989</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="28"/>
-        <v>1025</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" ref="G29:I29" si="29">+G27+G28</f>
-        <v>1028</v>
-      </c>
-      <c r="H29" s="5">
-        <f t="shared" ref="H29" si="30">+H27+H28</f>
-        <v>1624</v>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" si="29"/>
         <v>1562</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" ref="J29" si="31">+J27+J28</f>
+        <f t="shared" ref="J29" si="30">+J27+J28</f>
         <v>1650</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" ref="K29:M29" si="32">+K27+K28</f>
+        <f t="shared" ref="K29:M29" si="31">+K27+K28</f>
         <v>1673</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1771</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1960</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" ref="N29" si="33">+N27+N28</f>
+        <f t="shared" ref="N29" si="32">+N27+N28</f>
         <v>2029</v>
       </c>
       <c r="O29" s="5">
@@ -5897,7 +5903,7 @@
         <v>2210</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" ref="P29" si="34">+P27+P28</f>
+        <f t="shared" ref="P29" si="33">+P27+P28</f>
         <v>2416</v>
       </c>
       <c r="Q29" s="5">
@@ -5917,43 +5923,43 @@
         <v>2662</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" ref="U29:W29" si="35">+U27+U28</f>
+        <f t="shared" ref="U29:W29" si="34">+U27+U28</f>
         <v>2983</v>
       </c>
       <c r="V29" s="5">
+        <f t="shared" si="34"/>
+        <v>3176</v>
+      </c>
+      <c r="W29" s="5">
+        <f t="shared" si="34"/>
+        <v>3497</v>
+      </c>
+      <c r="X29" s="5">
+        <f t="shared" ref="X29:Z29" si="35">+X27+X28</f>
+        <v>3932</v>
+      </c>
+      <c r="Y29" s="5">
         <f t="shared" si="35"/>
-        <v>3176</v>
-      </c>
-      <c r="W29" s="5">
+        <v>4287</v>
+      </c>
+      <c r="Z29" s="5">
         <f t="shared" si="35"/>
-        <v>3497</v>
-      </c>
-      <c r="X29" s="5">
-        <f t="shared" ref="X29:Z29" si="36">+X27+X28</f>
-        <v>3932</v>
-      </c>
-      <c r="Y29" s="5">
+        <v>4689</v>
+      </c>
+      <c r="AA29" s="5">
+        <f t="shared" ref="AA29:AD29" si="36">+AA27+AA28</f>
+        <v>5030</v>
+      </c>
+      <c r="AB29" s="5">
         <f t="shared" si="36"/>
-        <v>4287</v>
-      </c>
-      <c r="Z29" s="5">
+        <v>5413</v>
+      </c>
+      <c r="AC29" s="5">
         <f t="shared" si="36"/>
-        <v>4689</v>
-      </c>
-      <c r="AA29" s="5">
-        <f t="shared" ref="AA29:AD29" si="37">+AA27+AA28</f>
-        <v>5030</v>
-      </c>
-      <c r="AB29" s="5">
-        <f t="shared" si="37"/>
-        <v>5413</v>
-      </c>
-      <c r="AC29" s="5">
-        <f t="shared" si="37"/>
         <v>5144.3999999999996</v>
       </c>
       <c r="AD29" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>5626.8</v>
       </c>
       <c r="AE29" s="5"/>
@@ -5965,99 +5971,99 @@
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
       <c r="AM29" s="2">
-        <f t="shared" ref="AM29" si="38">+AM27+AM28</f>
+        <f t="shared" ref="AM29" si="37">+AM27+AM28</f>
         <v>0</v>
       </c>
       <c r="AN29" s="2">
-        <f t="shared" ref="AN29:AO29" si="39">+AN27+AN28</f>
+        <f t="shared" ref="AN29:AO29" si="38">+AN27+AN28</f>
         <v>0</v>
       </c>
       <c r="AO29" s="2">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AP29" s="2">
+        <f t="shared" ref="AP29:AQ29" si="39">+AP27+AP28</f>
+        <v>376.358</v>
+      </c>
+      <c r="AQ29" s="2">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AP29" s="2">
-        <f t="shared" ref="AP29:AQ29" si="40">+AP27+AP28</f>
-        <v>376.358</v>
-      </c>
-      <c r="AQ29" s="2">
+        <v>435.221</v>
+      </c>
+      <c r="AR29" s="2">
+        <f t="shared" ref="AR29:AW29" si="40">+AR27+AR28</f>
+        <v>535.89300000000003</v>
+      </c>
+      <c r="AS29" s="2">
         <f t="shared" si="40"/>
-        <v>435.221</v>
-      </c>
-      <c r="AR29" s="2">
-        <f t="shared" ref="AR29:AW29" si="41">+AR27+AR28</f>
-        <v>535.89300000000003</v>
-      </c>
-      <c r="AS29" s="2">
+        <v>559.21100000000001</v>
+      </c>
+      <c r="AT29" s="2">
+        <f t="shared" si="40"/>
+        <v>846.99699999999996</v>
+      </c>
+      <c r="AU29" s="2">
+        <f t="shared" si="40"/>
+        <v>1032.934</v>
+      </c>
+      <c r="AV29" s="2">
+        <f t="shared" si="40"/>
+        <v>1218.1010000000001</v>
+      </c>
+      <c r="AW29" s="2">
+        <f t="shared" si="40"/>
+        <v>1275.8679999999999</v>
+      </c>
+      <c r="AX29" s="2">
+        <f t="shared" ref="AX29:BJ29" si="41">+AX27+AX28</f>
+        <v>1210.3430000000001</v>
+      </c>
+      <c r="AY29" s="2">
         <f t="shared" si="41"/>
-        <v>559.21100000000001</v>
-      </c>
-      <c r="AT29" s="2">
+        <v>1408.2180000000001</v>
+      </c>
+      <c r="AZ29" s="2">
         <f t="shared" si="41"/>
-        <v>846.99699999999996</v>
-      </c>
-      <c r="AU29" s="2">
+        <v>1578.1039999999998</v>
+      </c>
+      <c r="BA29" s="2">
         <f t="shared" si="41"/>
-        <v>1032.934</v>
-      </c>
-      <c r="AV29" s="2">
+        <v>1772</v>
+      </c>
+      <c r="BB29" s="2">
         <f t="shared" si="41"/>
-        <v>1218.1010000000001</v>
-      </c>
-      <c r="AW29" s="2">
+        <v>1840</v>
+      </c>
+      <c r="BC29" s="2">
         <f t="shared" si="41"/>
-        <v>1275.8679999999999</v>
-      </c>
-      <c r="AX29" s="2">
-        <f t="shared" ref="AX29:BJ29" si="42">+AX27+AX28</f>
-        <v>1210.3430000000001</v>
-      </c>
-      <c r="AY29" s="2">
-        <f t="shared" si="42"/>
-        <v>1408.2180000000001</v>
-      </c>
-      <c r="AZ29" s="2">
-        <f t="shared" si="42"/>
-        <v>1578.1039999999998</v>
-      </c>
-      <c r="BA29" s="2">
-        <f t="shared" si="42"/>
-        <v>1772</v>
-      </c>
-      <c r="BB29" s="2">
-        <f t="shared" si="42"/>
-        <v>1840</v>
-      </c>
-      <c r="BC29" s="2">
-        <f t="shared" si="42"/>
         <v>1933</v>
       </c>
       <c r="BD29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>2126</v>
       </c>
       <c r="BE29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>2612</v>
       </c>
       <c r="BF29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>3367</v>
       </c>
       <c r="BG29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>3922</v>
       </c>
       <c r="BH29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>5864</v>
       </c>
       <c r="BI29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>7433</v>
       </c>
       <c r="BJ29" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>9779</v>
       </c>
       <c r="BK29" s="2">
@@ -6069,27 +6075,27 @@
         <v>16405</v>
       </c>
       <c r="BM29" s="2">
-        <f t="shared" ref="BM29:BP29" si="43">+BM27+BM28</f>
+        <f t="shared" ref="BM29:BP29" si="42">+BM27+BM28</f>
         <v>21214.199999999997</v>
       </c>
       <c r="BN29" s="2">
-        <f t="shared" si="43"/>
+        <f>+BN27+BN28</f>
         <v>25457.039999999997</v>
       </c>
       <c r="BO29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>30548.447999999997</v>
       </c>
       <c r="BP29" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>36658.137599999995</v>
       </c>
       <c r="BQ29" s="2">
-        <f t="shared" ref="BQ29" si="44">+BQ27+BQ28</f>
+        <f t="shared" ref="BQ29" si="43">+BQ27+BQ28</f>
         <v>43989.765119999996</v>
       </c>
       <c r="BR29" s="2">
-        <f t="shared" ref="BR29" si="45">+BR27+BR28</f>
+        <f t="shared" ref="BR29" si="44">+BR27+BR28</f>
         <v>52787.718143999991</v>
       </c>
     </row>
@@ -6098,51 +6104,51 @@
         <v>2</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" ref="C30:F30" si="46">+C26-C29</f>
+        <f t="shared" ref="C30:F30" si="45">+C26-C29</f>
         <v>358</v>
       </c>
       <c r="D30" s="5">
+        <f t="shared" si="45"/>
+        <v>571</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="45"/>
+        <v>927</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="45"/>
+        <v>990</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" ref="G30:I30" si="46">+G26-G29</f>
+        <v>976</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" ref="H30" si="47">+H26-H29</f>
+        <v>651</v>
+      </c>
+      <c r="I30" s="5">
         <f t="shared" si="46"/>
-        <v>571</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" si="46"/>
-        <v>927</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" si="46"/>
-        <v>990</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" ref="G30:I30" si="47">+G26-G29</f>
-        <v>976</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" ref="H30" si="48">+H26-H29</f>
-        <v>651</v>
-      </c>
-      <c r="I30" s="5">
-        <f t="shared" si="47"/>
         <v>1398</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" ref="J30" si="49">+J26-J29</f>
+        <f t="shared" ref="J30" si="48">+J26-J29</f>
         <v>1507</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" ref="K30:M30" si="50">+K26-K29</f>
+        <f t="shared" ref="K30:M30" si="49">+K26-K29</f>
         <v>1956</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>2444</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>2671</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" ref="N30" si="51">+N26-N29</f>
+        <f t="shared" ref="N30" si="50">+N26-N29</f>
         <v>2970</v>
       </c>
       <c r="O30" s="5">
@@ -6150,7 +6156,7 @@
         <v>3221</v>
       </c>
       <c r="P30" s="5">
-        <f t="shared" ref="P30" si="52">+P26-P29</f>
+        <f t="shared" ref="P30" si="51">+P26-P29</f>
         <v>499</v>
       </c>
       <c r="Q30" s="5">
@@ -6170,44 +6176,44 @@
         <v>6800</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" ref="U30:W30" si="53">+U26-U29</f>
+        <f t="shared" ref="U30:W30" si="52">+U26-U29</f>
         <v>10417</v>
       </c>
       <c r="V30" s="5">
+        <f t="shared" si="52"/>
+        <v>13615</v>
+      </c>
+      <c r="W30" s="5">
+        <f t="shared" si="52"/>
+        <v>16909</v>
+      </c>
+      <c r="X30" s="5">
+        <f t="shared" ref="X30:Z30" si="53">+X26-X29</f>
+        <v>18642</v>
+      </c>
+      <c r="Y30" s="5">
         <f t="shared" si="53"/>
-        <v>13615</v>
-      </c>
-      <c r="W30" s="5">
+        <v>21869</v>
+      </c>
+      <c r="Z30" s="5">
         <f t="shared" si="53"/>
-        <v>16909</v>
-      </c>
-      <c r="X30" s="5">
-        <f t="shared" ref="X30:Z30" si="54">+X26-X29</f>
-        <v>18642</v>
-      </c>
-      <c r="Y30" s="5">
+        <v>24034</v>
+      </c>
+      <c r="AA30" s="5">
+        <f t="shared" ref="AA30:AD30" si="54">+AA26-AA29</f>
+        <v>21638</v>
+      </c>
+      <c r="AB30" s="5">
         <f t="shared" si="54"/>
-        <v>21869</v>
-      </c>
-      <c r="Z30" s="5">
+        <v>28440</v>
+      </c>
+      <c r="AC30" s="5">
         <f t="shared" si="54"/>
-        <v>24034</v>
-      </c>
-      <c r="AA30" s="5">
-        <f t="shared" ref="AA30:AD30" si="55">+AA26-AA29</f>
-        <v>21638</v>
-      </c>
-      <c r="AB30" s="5">
-        <f t="shared" si="55"/>
-        <v>28440</v>
-      </c>
-      <c r="AC30" s="5">
-        <f t="shared" si="55"/>
-        <v>35462.400000000001</v>
+        <v>38175.599999999999</v>
       </c>
       <c r="AD30" s="5">
-        <f t="shared" si="55"/>
-        <v>34641.440064000002</v>
+        <f t="shared" si="54"/>
+        <v>43773.2</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -6218,132 +6224,132 @@
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
       <c r="AM30" s="2">
-        <f t="shared" ref="AM30" si="56">+AM26-AM29</f>
+        <f t="shared" ref="AM30" si="55">+AM26-AM29</f>
         <v>232.66200000000001</v>
       </c>
       <c r="AN30" s="2">
-        <f t="shared" ref="AN30:AO30" si="57">+AN26-AN29</f>
+        <f t="shared" ref="AN30:AO30" si="56">+AN26-AN29</f>
         <v>462.38499999999999</v>
       </c>
       <c r="AO30" s="2">
+        <f t="shared" si="56"/>
+        <v>850.23299999999995</v>
+      </c>
+      <c r="AP30" s="2">
+        <f t="shared" ref="AP30:AQ30" si="57">+AP26-AP29</f>
+        <v>205.81799999999993</v>
+      </c>
+      <c r="AQ30" s="2">
         <f t="shared" si="57"/>
-        <v>850.23299999999995</v>
-      </c>
-      <c r="AP30" s="2">
-        <f t="shared" ref="AP30:AQ30" si="58">+AP26-AP29</f>
-        <v>205.81799999999993</v>
-      </c>
-      <c r="AQ30" s="2">
+        <v>93.656999999999925</v>
+      </c>
+      <c r="AR30" s="2">
+        <f t="shared" ref="AR30:AW30" si="58">+AR26-AR29</f>
+        <v>113.59299999999985</v>
+      </c>
+      <c r="AS30" s="2">
         <f t="shared" si="58"/>
-        <v>93.656999999999925</v>
-      </c>
-      <c r="AR30" s="2">
-        <f t="shared" ref="AR30:AW30" si="59">+AR26-AR29</f>
-        <v>113.59299999999985</v>
-      </c>
-      <c r="AS30" s="2">
+        <v>350.82199999999989</v>
+      </c>
+      <c r="AT30" s="2">
+        <f t="shared" si="58"/>
+        <v>453.45200000000034</v>
+      </c>
+      <c r="AU30" s="2">
+        <f t="shared" si="58"/>
+        <v>836.34599999999978</v>
+      </c>
+      <c r="AV30" s="2">
+        <f t="shared" si="58"/>
+        <v>-43.832000000000335</v>
+      </c>
+      <c r="AW30" s="2">
+        <f t="shared" si="58"/>
+        <v>-98.944999999999709</v>
+      </c>
+      <c r="AX30" s="2">
+        <f t="shared" ref="AX30:BL30" si="59">+AX26-AX29</f>
+        <v>198.74700000000007</v>
+      </c>
+      <c r="AY30" s="2">
         <f t="shared" si="59"/>
-        <v>350.82199999999989</v>
-      </c>
-      <c r="AT30" s="2">
+        <v>648.29899999999975</v>
+      </c>
+      <c r="AZ30" s="2">
         <f t="shared" si="59"/>
-        <v>453.45200000000034</v>
-      </c>
-      <c r="AU30" s="2">
+        <v>648.23900000000003</v>
+      </c>
+      <c r="BA30" s="2">
         <f t="shared" si="59"/>
-        <v>836.34599999999978</v>
-      </c>
-      <c r="AV30" s="2">
+        <v>496</v>
+      </c>
+      <c r="BB30" s="2">
         <f t="shared" si="59"/>
-        <v>-43.832000000000335</v>
-      </c>
-      <c r="AW30" s="2">
+        <v>759</v>
+      </c>
+      <c r="BC30" s="2">
         <f t="shared" si="59"/>
-        <v>-98.944999999999709</v>
-      </c>
-      <c r="AX30" s="2">
-        <f t="shared" ref="AX30:BL30" si="60">+AX26-AX29</f>
-        <v>198.74700000000007</v>
-      </c>
-      <c r="AY30" s="2">
+        <v>878</v>
+      </c>
+      <c r="BD30" s="2">
+        <f t="shared" si="59"/>
+        <v>1937</v>
+      </c>
+      <c r="BE30" s="2">
+        <f t="shared" si="59"/>
+        <v>3210</v>
+      </c>
+      <c r="BF30" s="2">
+        <f t="shared" si="59"/>
+        <v>3804</v>
+      </c>
+      <c r="BG30" s="2">
+        <f t="shared" si="59"/>
+        <v>2846</v>
+      </c>
+      <c r="BH30" s="2">
+        <f t="shared" si="59"/>
+        <v>4532</v>
+      </c>
+      <c r="BI30" s="2">
+        <f t="shared" si="59"/>
+        <v>10040</v>
+      </c>
+      <c r="BJ30" s="2">
+        <f t="shared" si="59"/>
+        <v>5580</v>
+      </c>
+      <c r="BK30" s="2">
+        <f t="shared" si="59"/>
+        <v>32972</v>
+      </c>
+      <c r="BL30" s="2">
+        <f t="shared" si="59"/>
+        <v>81454</v>
+      </c>
+      <c r="BM30" s="2">
+        <f t="shared" ref="BM30:BP30" si="60">+BM26-BM29</f>
+        <v>132026.79999999999</v>
+      </c>
+      <c r="BN30" s="2">
+        <f>+BN26-BN29</f>
+        <v>277790.08500000002</v>
+      </c>
+      <c r="BO30" s="2">
         <f t="shared" si="60"/>
-        <v>648.29899999999975</v>
-      </c>
-      <c r="AZ30" s="2">
+        <v>505592.46900000004</v>
+      </c>
+      <c r="BP30" s="2">
         <f t="shared" si="60"/>
-        <v>648.23900000000003</v>
-      </c>
-      <c r="BA30" s="2">
-        <f t="shared" si="60"/>
-        <v>496</v>
-      </c>
-      <c r="BB30" s="2">
-        <f t="shared" si="60"/>
-        <v>759</v>
-      </c>
-      <c r="BC30" s="2">
-        <f t="shared" si="60"/>
-        <v>878</v>
-      </c>
-      <c r="BD30" s="2">
-        <f t="shared" si="60"/>
-        <v>1937</v>
-      </c>
-      <c r="BE30" s="2">
-        <f t="shared" si="60"/>
-        <v>3210</v>
-      </c>
-      <c r="BF30" s="2">
-        <f t="shared" si="60"/>
-        <v>3804</v>
-      </c>
-      <c r="BG30" s="2">
-        <f t="shared" si="60"/>
-        <v>2846</v>
-      </c>
-      <c r="BH30" s="2">
-        <f t="shared" si="60"/>
-        <v>4532</v>
-      </c>
-      <c r="BI30" s="2">
-        <f t="shared" si="60"/>
-        <v>10040</v>
-      </c>
-      <c r="BJ30" s="2">
-        <f t="shared" si="60"/>
-        <v>5580</v>
-      </c>
-      <c r="BK30" s="2">
-        <f t="shared" si="60"/>
-        <v>32972</v>
-      </c>
-      <c r="BL30" s="2">
-        <f t="shared" si="60"/>
-        <v>81454</v>
-      </c>
-      <c r="BM30" s="2">
-        <f t="shared" ref="BM30:BP30" si="61">+BM26-BM29</f>
-        <v>120181.840064</v>
-      </c>
-      <c r="BN30" s="2">
-        <f t="shared" si="61"/>
-        <v>205289.805888</v>
-      </c>
-      <c r="BO30" s="2">
-        <f t="shared" si="61"/>
-        <v>292497.13624320005</v>
-      </c>
-      <c r="BP30" s="2">
-        <f t="shared" si="61"/>
-        <v>415605.68034047994</v>
+        <v>713939.14619999996</v>
       </c>
       <c r="BQ30" s="2">
-        <f t="shared" ref="BQ30" si="62">+BQ26-BQ29</f>
-        <v>543953.19820262399</v>
+        <f t="shared" ref="BQ30" si="61">+BQ26-BQ29</f>
+        <v>931786.70382000005</v>
       </c>
       <c r="BR30" s="2">
-        <f t="shared" ref="BR30" si="63">+BR26-BR29</f>
-        <v>711538.13417541119</v>
+        <f t="shared" ref="BR30" si="62">+BR26-BR29</f>
+        <v>1215721.691478</v>
       </c>
     </row>
     <row r="31" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6402,7 +6408,7 @@
         <v>12</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" ref="R31" si="64">+BJ31-Q31-P31-O31</f>
+        <f t="shared" ref="R31" si="63">+BJ31-Q31-P31-O31</f>
         <v>32</v>
       </c>
       <c r="S31" s="5">
@@ -6554,11 +6560,11 @@
         <v>11406.670000000002</v>
       </c>
       <c r="BQ31" s="2">
-        <f t="shared" ref="BQ31:BR31" si="65">+BP31*1.1</f>
+        <f t="shared" ref="BQ31:BR31" si="64">+BP31*1.1</f>
         <v>12547.337000000003</v>
       </c>
       <c r="BR31" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>13802.070700000004</v>
       </c>
     </row>
@@ -6567,87 +6573,87 @@
         <v>10</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" ref="C32:F32" si="66">+C30+C31</f>
+        <f t="shared" ref="C32:F32" si="65">+C30+C31</f>
         <v>389</v>
       </c>
       <c r="D32" s="5">
+        <f t="shared" si="65"/>
+        <v>606</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="65"/>
+        <v>959</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="65"/>
+        <v>1016</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" ref="G32:T32" si="66">+G30+G31</f>
+        <v>981</v>
+      </c>
+      <c r="H32" s="5">
         <f t="shared" si="66"/>
-        <v>606</v>
-      </c>
-      <c r="E32" s="5">
+        <v>609</v>
+      </c>
+      <c r="I32" s="5">
         <f t="shared" si="66"/>
-        <v>959</v>
-      </c>
-      <c r="F32" s="5">
+        <v>1348</v>
+      </c>
+      <c r="J32" s="5">
         <f t="shared" si="66"/>
-        <v>1016</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" ref="G32:T32" si="67">+G30+G31</f>
-        <v>981</v>
-      </c>
-      <c r="H32" s="5">
+        <v>1470</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="66"/>
+        <v>2044</v>
+      </c>
+      <c r="L32" s="5">
+        <f t="shared" si="66"/>
+        <v>2394</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="66"/>
+        <v>2638</v>
+      </c>
+      <c r="N32" s="5">
+        <f t="shared" si="66"/>
+        <v>2865</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="66"/>
+        <v>3158</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="66"/>
+        <v>475</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="66"/>
+        <v>613</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="66"/>
+        <v>1288</v>
+      </c>
+      <c r="S32" s="5">
+        <f t="shared" si="66"/>
+        <v>2209</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="66"/>
+        <v>6981</v>
+      </c>
+      <c r="U32" s="5">
+        <f t="shared" ref="U32:AD32" si="67">+U30+U31</f>
+        <v>10522</v>
+      </c>
+      <c r="V32" s="5">
         <f t="shared" si="67"/>
-        <v>609</v>
-      </c>
-      <c r="I32" s="5">
+        <v>14106</v>
+      </c>
+      <c r="W32" s="5">
         <f t="shared" si="67"/>
-        <v>1348</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" si="67"/>
-        <v>1470</v>
-      </c>
-      <c r="K32" s="5">
-        <f t="shared" si="67"/>
-        <v>2044</v>
-      </c>
-      <c r="L32" s="5">
-        <f t="shared" si="67"/>
-        <v>2394</v>
-      </c>
-      <c r="M32" s="5">
-        <f t="shared" si="67"/>
-        <v>2638</v>
-      </c>
-      <c r="N32" s="5">
-        <f t="shared" si="67"/>
-        <v>2865</v>
-      </c>
-      <c r="O32" s="5">
-        <f t="shared" si="67"/>
-        <v>3158</v>
-      </c>
-      <c r="P32" s="5">
-        <f t="shared" si="67"/>
-        <v>475</v>
-      </c>
-      <c r="Q32" s="5">
-        <f t="shared" si="67"/>
-        <v>613</v>
-      </c>
-      <c r="R32" s="5">
-        <f t="shared" si="67"/>
-        <v>1288</v>
-      </c>
-      <c r="S32" s="5">
-        <f t="shared" si="67"/>
-        <v>2209</v>
-      </c>
-      <c r="T32" s="5">
-        <f t="shared" si="67"/>
-        <v>6981</v>
-      </c>
-      <c r="U32" s="5">
-        <f t="shared" ref="U32:AD32" si="68">+U30+U31</f>
-        <v>10522</v>
-      </c>
-      <c r="V32" s="5">
-        <f t="shared" si="68"/>
-        <v>14106</v>
-      </c>
-      <c r="W32" s="5">
-        <f t="shared" si="68"/>
         <v>17279</v>
       </c>
       <c r="X32" s="5">
@@ -6655,28 +6661,28 @@
         <v>19214</v>
       </c>
       <c r="Y32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>22316</v>
       </c>
       <c r="Z32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>25217</v>
       </c>
       <c r="AA32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>21910</v>
       </c>
       <c r="AB32" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>31206</v>
       </c>
       <c r="AC32" s="5">
-        <f t="shared" si="68"/>
-        <v>38228.400000000001</v>
+        <f t="shared" si="67"/>
+        <v>40941.599999999999</v>
       </c>
       <c r="AD32" s="5">
-        <f t="shared" si="68"/>
-        <v>37407.440064000002</v>
+        <f t="shared" si="67"/>
+        <v>46539.199999999997</v>
       </c>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
@@ -6687,132 +6693,132 @@
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
       <c r="AM32" s="2">
-        <f t="shared" ref="AM32" si="69">+AM30+AM31</f>
+        <f t="shared" ref="AM32" si="68">+AM30+AM31</f>
         <v>255.90800000000002</v>
       </c>
       <c r="AN32" s="2">
-        <f t="shared" ref="AN32:AO32" si="70">+AN30+AN31</f>
+        <f t="shared" ref="AN32:AO32" si="69">+AN30+AN31</f>
         <v>485.63099999999997</v>
       </c>
       <c r="AO32" s="2">
+        <f t="shared" si="69"/>
+        <v>873.47899999999993</v>
+      </c>
+      <c r="AP32" s="2">
+        <f t="shared" ref="AP32:AQ32" si="70">+AP30+AP31</f>
+        <v>229.06399999999994</v>
+      </c>
+      <c r="AQ32" s="2">
         <f t="shared" si="70"/>
-        <v>873.47899999999993</v>
-      </c>
-      <c r="AP32" s="2">
-        <f t="shared" ref="AP32:AQ32" si="71">+AP30+AP31</f>
-        <v>229.06399999999994</v>
-      </c>
-      <c r="AQ32" s="2">
+        <v>112.21799999999993</v>
+      </c>
+      <c r="AR32" s="2">
+        <f t="shared" ref="AR32:AW32" si="71">+AR30+AR31</f>
+        <v>125.01499999999984</v>
+      </c>
+      <c r="AS32" s="2">
         <f t="shared" si="71"/>
-        <v>112.21799999999993</v>
-      </c>
-      <c r="AR32" s="2">
-        <f t="shared" ref="AR32:AW32" si="72">+AR30+AR31</f>
-        <v>125.01499999999984</v>
-      </c>
-      <c r="AS32" s="2">
+        <v>371.51999999999987</v>
+      </c>
+      <c r="AT32" s="2">
+        <f t="shared" si="71"/>
+        <v>495.27200000000033</v>
+      </c>
+      <c r="AU32" s="2">
+        <f t="shared" si="71"/>
+        <v>900.63499999999976</v>
+      </c>
+      <c r="AV32" s="2">
+        <f t="shared" si="71"/>
+        <v>-1.3790000000003317</v>
+      </c>
+      <c r="AW32" s="2">
+        <f t="shared" si="71"/>
+        <v>-75.829999999999714</v>
+      </c>
+      <c r="AX32" s="2">
+        <f t="shared" ref="AX32:BL32" si="72">+AX30+AX31</f>
+        <v>214.16900000000007</v>
+      </c>
+      <c r="AY32" s="2">
         <f t="shared" si="72"/>
-        <v>371.51999999999987</v>
-      </c>
-      <c r="AT32" s="2">
+        <v>663.39599999999973</v>
+      </c>
+      <c r="AZ32" s="2">
         <f t="shared" si="72"/>
-        <v>495.27200000000033</v>
-      </c>
-      <c r="AU32" s="2">
+        <v>662.03899999999999</v>
+      </c>
+      <c r="BA32" s="2">
         <f t="shared" si="72"/>
-        <v>900.63499999999976</v>
-      </c>
-      <c r="AV32" s="2">
+        <v>510</v>
+      </c>
+      <c r="BB32" s="2">
         <f t="shared" si="72"/>
-        <v>-1.3790000000003317</v>
-      </c>
-      <c r="AW32" s="2">
+        <v>773</v>
+      </c>
+      <c r="BC32" s="2">
         <f t="shared" si="72"/>
-        <v>-75.829999999999714</v>
-      </c>
-      <c r="AX32" s="2">
-        <f t="shared" ref="AX32:BL32" si="73">+AX30+AX31</f>
-        <v>214.16900000000007</v>
-      </c>
-      <c r="AY32" s="2">
+        <v>874</v>
+      </c>
+      <c r="BD32" s="2">
+        <f t="shared" si="72"/>
+        <v>1908</v>
+      </c>
+      <c r="BE32" s="2">
+        <f t="shared" si="72"/>
+        <v>3196</v>
+      </c>
+      <c r="BF32" s="2">
+        <f t="shared" si="72"/>
+        <v>3896</v>
+      </c>
+      <c r="BG32" s="2">
+        <f t="shared" si="72"/>
+        <v>2970</v>
+      </c>
+      <c r="BH32" s="2">
+        <f t="shared" si="72"/>
+        <v>4409</v>
+      </c>
+      <c r="BI32" s="2">
+        <f t="shared" si="72"/>
+        <v>9940</v>
+      </c>
+      <c r="BJ32" s="2">
+        <f t="shared" si="72"/>
+        <v>5537</v>
+      </c>
+      <c r="BK32" s="2">
+        <f t="shared" si="72"/>
+        <v>33818</v>
+      </c>
+      <c r="BL32" s="2">
+        <f t="shared" si="72"/>
+        <v>84026</v>
+      </c>
+      <c r="BM32" s="2">
+        <f t="shared" ref="BM32:BP32" si="73">+BM30+BM31</f>
+        <v>140596.79999999999</v>
+      </c>
+      <c r="BN32" s="2">
+        <f>+BN30+BN31</f>
+        <v>287217.08500000002</v>
+      </c>
+      <c r="BO32" s="2">
         <f t="shared" si="73"/>
-        <v>663.39599999999973</v>
-      </c>
-      <c r="AZ32" s="2">
+        <v>515962.16900000005</v>
+      </c>
+      <c r="BP32" s="2">
         <f t="shared" si="73"/>
-        <v>662.03899999999999</v>
-      </c>
-      <c r="BA32" s="2">
-        <f t="shared" si="73"/>
-        <v>510</v>
-      </c>
-      <c r="BB32" s="2">
-        <f t="shared" si="73"/>
-        <v>773</v>
-      </c>
-      <c r="BC32" s="2">
-        <f t="shared" si="73"/>
-        <v>874</v>
-      </c>
-      <c r="BD32" s="2">
-        <f t="shared" si="73"/>
-        <v>1908</v>
-      </c>
-      <c r="BE32" s="2">
-        <f t="shared" si="73"/>
-        <v>3196</v>
-      </c>
-      <c r="BF32" s="2">
-        <f t="shared" si="73"/>
-        <v>3896</v>
-      </c>
-      <c r="BG32" s="2">
-        <f t="shared" si="73"/>
-        <v>2970</v>
-      </c>
-      <c r="BH32" s="2">
-        <f t="shared" si="73"/>
-        <v>4409</v>
-      </c>
-      <c r="BI32" s="2">
-        <f t="shared" si="73"/>
-        <v>9940</v>
-      </c>
-      <c r="BJ32" s="2">
-        <f t="shared" si="73"/>
-        <v>5537</v>
-      </c>
-      <c r="BK32" s="2">
-        <f t="shared" si="73"/>
-        <v>33818</v>
-      </c>
-      <c r="BL32" s="2">
-        <f t="shared" si="73"/>
-        <v>84026</v>
-      </c>
-      <c r="BM32" s="2">
-        <f t="shared" ref="BM32:BP32" si="74">+BM30+BM31</f>
-        <v>128751.840064</v>
-      </c>
-      <c r="BN32" s="2">
-        <f t="shared" si="74"/>
-        <v>214716.805888</v>
-      </c>
-      <c r="BO32" s="2">
-        <f t="shared" si="74"/>
-        <v>302866.83624320006</v>
-      </c>
-      <c r="BP32" s="2">
-        <f t="shared" si="74"/>
-        <v>427012.35034047993</v>
+        <v>725345.8162</v>
       </c>
       <c r="BQ32" s="2">
-        <f t="shared" ref="BQ32" si="75">+BQ30+BQ31</f>
-        <v>556500.53520262404</v>
+        <f t="shared" ref="BQ32" si="74">+BQ30+BQ31</f>
+        <v>944334.04082000011</v>
       </c>
       <c r="BR32" s="2">
-        <f t="shared" ref="BR32" si="76">+BR30+BR31</f>
-        <v>725340.20487541123</v>
+        <f t="shared" ref="BR32" si="75">+BR30+BR31</f>
+        <v>1229523.7621780001</v>
       </c>
     </row>
     <row r="33" spans="2:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6866,7 +6872,7 @@
         <v>-67</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" ref="R33" si="77">+BJ33-Q33-P33-O33</f>
+        <f t="shared" ref="R33" si="76">+BJ33-Q33-P33-O33</f>
         <v>61</v>
       </c>
       <c r="S33" s="5">
@@ -6901,11 +6907,11 @@
       </c>
       <c r="AC33" s="2">
         <f>+AC32*0.15</f>
-        <v>5734.26</v>
+        <v>6141.24</v>
       </c>
       <c r="AD33" s="2">
         <f>+AD32*0.15</f>
-        <v>5611.1160096000003</v>
+        <v>6980.8799999999992</v>
       </c>
       <c r="AM33" s="2">
         <v>59.758000000000003</v>
@@ -6990,27 +6996,27 @@
       </c>
       <c r="BM33" s="2">
         <f>SUM(AA33:AD33)</f>
-        <v>19264.376009600001</v>
+        <v>21041.119999999999</v>
       </c>
       <c r="BN33" s="2">
-        <f t="shared" ref="BN33:BP33" si="78">+BN32*0.2</f>
-        <v>42943.361177600003</v>
+        <f>+BN32*0.2</f>
+        <v>57443.417000000009</v>
       </c>
       <c r="BO33" s="2">
-        <f t="shared" si="78"/>
-        <v>60573.367248640017</v>
+        <f t="shared" ref="BN33:BP33" si="77">+BO32*0.2</f>
+        <v>103192.43380000001</v>
       </c>
       <c r="BP33" s="2">
-        <f t="shared" si="78"/>
-        <v>85402.470068095994</v>
+        <f t="shared" si="77"/>
+        <v>145069.16323999999</v>
       </c>
       <c r="BQ33" s="2">
-        <f t="shared" ref="BQ33" si="79">+BQ32*0.2</f>
-        <v>111300.10704052482</v>
+        <f t="shared" ref="BQ33" si="78">+BQ32*0.2</f>
+        <v>188866.80816400005</v>
       </c>
       <c r="BR33" s="2">
-        <f t="shared" ref="BR33" si="80">+BR32*0.2</f>
-        <v>145068.04097508226</v>
+        <f t="shared" ref="BR33" si="79">+BR32*0.2</f>
+        <v>245904.75243560004</v>
       </c>
     </row>
     <row r="34" spans="2:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7018,71 +7024,71 @@
         <v>8</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" ref="C34:F34" si="81">+C32-C33</f>
+        <f t="shared" ref="C34:F34" si="80">+C32-C33</f>
         <v>394</v>
       </c>
       <c r="D34" s="5">
+        <f t="shared" si="80"/>
+        <v>552</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="80"/>
+        <v>899</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="80"/>
+        <v>951</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" ref="G34:S34" si="81">+G32-G33</f>
+        <v>917</v>
+      </c>
+      <c r="H34" s="5">
         <f t="shared" si="81"/>
-        <v>552</v>
-      </c>
-      <c r="E34" s="5">
+        <v>622</v>
+      </c>
+      <c r="I34" s="5">
         <f t="shared" si="81"/>
-        <v>899</v>
-      </c>
-      <c r="F34" s="5">
+        <v>1336</v>
+      </c>
+      <c r="J34" s="5">
         <f t="shared" si="81"/>
-        <v>951</v>
-      </c>
-      <c r="G34" s="5">
-        <f t="shared" ref="G34:S34" si="82">+G32-G33</f>
-        <v>917</v>
-      </c>
-      <c r="H34" s="5">
-        <f t="shared" si="82"/>
-        <v>622</v>
-      </c>
-      <c r="I34" s="5">
-        <f t="shared" si="82"/>
-        <v>1336</v>
-      </c>
-      <c r="J34" s="5">
-        <f t="shared" si="82"/>
         <v>1457</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1912</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>2374</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>2464</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>3003</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>2971</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>656</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>680</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>1227</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>2043</v>
       </c>
       <c r="T34" s="2">
@@ -7090,7 +7096,7 @@
         <v>6188</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" ref="U34" si="83">U32-U33</f>
+        <f t="shared" ref="U34" si="82">U32-U33</f>
         <v>9243</v>
       </c>
       <c r="V34" s="2">
@@ -7102,544 +7108,544 @@
         <v>14881</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" ref="X34:AD34" si="84">+X32-X33</f>
+        <f t="shared" ref="X34:AD34" si="83">+X32-X33</f>
         <v>16599</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>19309</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>22091</v>
       </c>
       <c r="AA34" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>18775</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>26422</v>
       </c>
       <c r="AC34" s="2">
-        <f t="shared" si="84"/>
-        <v>32494.14</v>
+        <f t="shared" si="83"/>
+        <v>34800.36</v>
       </c>
       <c r="AD34" s="2">
-        <f t="shared" si="84"/>
-        <v>31796.3240544</v>
+        <f t="shared" si="83"/>
+        <v>39558.32</v>
       </c>
       <c r="AM34" s="2">
-        <f t="shared" ref="AM34" si="85">+AM32-AM33</f>
+        <f t="shared" ref="AM34" si="84">+AM32-AM33</f>
         <v>196.15</v>
       </c>
       <c r="AN34" s="2">
-        <f t="shared" ref="AN34:AO34" si="86">+AN32-AN33</f>
+        <f t="shared" ref="AN34:AO34" si="85">+AN32-AN33</f>
         <v>425.87299999999999</v>
       </c>
       <c r="AO34" s="2">
+        <f t="shared" si="85"/>
+        <v>813.72099999999989</v>
+      </c>
+      <c r="AP34" s="2">
+        <f t="shared" ref="AP34:AQ34" si="86">+AP32-AP33</f>
+        <v>169.30599999999993</v>
+      </c>
+      <c r="AQ34" s="2">
         <f t="shared" si="86"/>
-        <v>813.72099999999989</v>
-      </c>
-      <c r="AP34" s="2">
-        <f t="shared" ref="AP34:AQ34" si="87">+AP32-AP33</f>
-        <v>169.30599999999993</v>
-      </c>
-      <c r="AQ34" s="2">
+        <v>99.963999999999928</v>
+      </c>
+      <c r="AR34" s="2">
+        <f t="shared" ref="AR34:AW34" si="87">+AR32-AR33</f>
+        <v>99.925999999999846</v>
+      </c>
+      <c r="AS34" s="2">
         <f t="shared" si="87"/>
-        <v>99.963999999999928</v>
-      </c>
-      <c r="AR34" s="2">
-        <f t="shared" ref="AR34:AW34" si="88">+AR32-AR33</f>
-        <v>99.925999999999846</v>
-      </c>
-      <c r="AS34" s="2">
+        <v>315.90799999999984</v>
+      </c>
+      <c r="AT34" s="2">
+        <f t="shared" si="87"/>
+        <v>448.92200000000031</v>
+      </c>
+      <c r="AU34" s="2">
+        <f t="shared" si="87"/>
+        <v>796.93899999999974</v>
+      </c>
+      <c r="AV34" s="2">
+        <f t="shared" si="87"/>
+        <v>-1.3790000000003317</v>
+      </c>
+      <c r="AW34" s="2">
+        <f t="shared" si="87"/>
+        <v>-75.829999999999714</v>
+      </c>
+      <c r="AX34" s="2">
+        <f t="shared" ref="AX34:BL34" si="88">+AX32-AX33</f>
+        <v>196.14600000000007</v>
+      </c>
+      <c r="AY34" s="2">
         <f t="shared" si="88"/>
-        <v>315.90799999999984</v>
-      </c>
-      <c r="AT34" s="2">
+        <v>581.08999999999969</v>
+      </c>
+      <c r="AZ34" s="2">
         <f t="shared" si="88"/>
-        <v>448.92200000000031</v>
-      </c>
-      <c r="AU34" s="2">
+        <v>562.53599999999994</v>
+      </c>
+      <c r="BA34" s="2">
         <f t="shared" si="88"/>
-        <v>796.93899999999974</v>
-      </c>
-      <c r="AV34" s="2">
+        <v>440</v>
+      </c>
+      <c r="BB34" s="2">
         <f t="shared" si="88"/>
-        <v>-1.3790000000003317</v>
-      </c>
-      <c r="AW34" s="2">
+        <v>649</v>
+      </c>
+      <c r="BC34" s="2">
         <f t="shared" si="88"/>
-        <v>-75.829999999999714</v>
-      </c>
-      <c r="AX34" s="2">
-        <f t="shared" ref="AX34:BL34" si="89">+AX32-AX33</f>
-        <v>196.14600000000007</v>
-      </c>
-      <c r="AY34" s="2">
+        <v>745</v>
+      </c>
+      <c r="BD34" s="2">
+        <f t="shared" si="88"/>
+        <v>1669</v>
+      </c>
+      <c r="BE34" s="2">
+        <f t="shared" si="88"/>
+        <v>3047</v>
+      </c>
+      <c r="BF34" s="2">
+        <f t="shared" si="88"/>
+        <v>4141</v>
+      </c>
+      <c r="BG34" s="2">
+        <f t="shared" si="88"/>
+        <v>2796</v>
+      </c>
+      <c r="BH34" s="2">
+        <f t="shared" si="88"/>
+        <v>4332</v>
+      </c>
+      <c r="BI34" s="2">
+        <f t="shared" si="88"/>
+        <v>9752</v>
+      </c>
+      <c r="BJ34" s="2">
+        <f t="shared" si="88"/>
+        <v>5537</v>
+      </c>
+      <c r="BK34" s="2">
+        <f t="shared" si="88"/>
+        <v>29759</v>
+      </c>
+      <c r="BL34" s="2">
+        <f t="shared" si="88"/>
+        <v>72880</v>
+      </c>
+      <c r="BM34" s="2">
+        <f t="shared" ref="BM34:BP34" si="89">+BM32-BM33</f>
+        <v>119555.68</v>
+      </c>
+      <c r="BN34" s="2">
+        <f>+BN32-BN33</f>
+        <v>229773.66800000001</v>
+      </c>
+      <c r="BO34" s="2">
         <f t="shared" si="89"/>
-        <v>581.08999999999969</v>
-      </c>
-      <c r="AZ34" s="2">
+        <v>412769.73520000005</v>
+      </c>
+      <c r="BP34" s="2">
         <f t="shared" si="89"/>
-        <v>562.53599999999994</v>
-      </c>
-      <c r="BA34" s="2">
-        <f t="shared" si="89"/>
-        <v>440</v>
-      </c>
-      <c r="BB34" s="2">
-        <f t="shared" si="89"/>
-        <v>649</v>
-      </c>
-      <c r="BC34" s="2">
-        <f t="shared" si="89"/>
-        <v>745</v>
-      </c>
-      <c r="BD34" s="2">
-        <f t="shared" si="89"/>
-        <v>1669</v>
-      </c>
-      <c r="BE34" s="2">
-        <f t="shared" si="89"/>
-        <v>3047</v>
-      </c>
-      <c r="BF34" s="2">
-        <f t="shared" si="89"/>
-        <v>4141</v>
-      </c>
-      <c r="BG34" s="2">
-        <f t="shared" si="89"/>
-        <v>2796</v>
-      </c>
-      <c r="BH34" s="2">
-        <f t="shared" si="89"/>
-        <v>4332</v>
-      </c>
-      <c r="BI34" s="2">
-        <f t="shared" si="89"/>
-        <v>9752</v>
-      </c>
-      <c r="BJ34" s="2">
-        <f t="shared" si="89"/>
-        <v>5537</v>
-      </c>
-      <c r="BK34" s="2">
-        <f t="shared" si="89"/>
-        <v>29759</v>
-      </c>
-      <c r="BL34" s="2">
-        <f t="shared" si="89"/>
-        <v>72880</v>
-      </c>
-      <c r="BM34" s="2">
-        <f t="shared" ref="BM34:BP34" si="90">+BM32-BM33</f>
-        <v>109487.4640544</v>
-      </c>
-      <c r="BN34" s="2">
-        <f t="shared" si="90"/>
-        <v>171773.44471040001</v>
-      </c>
-      <c r="BO34" s="2">
-        <f t="shared" si="90"/>
-        <v>242293.46899456004</v>
-      </c>
-      <c r="BP34" s="2">
-        <f t="shared" si="90"/>
-        <v>341609.88027238392</v>
+        <v>580276.65295999998</v>
       </c>
       <c r="BQ34" s="2">
-        <f t="shared" ref="BQ34" si="91">+BQ32-BQ33</f>
-        <v>445200.42816209921</v>
+        <f t="shared" ref="BQ34" si="90">+BQ32-BQ33</f>
+        <v>755467.23265600007</v>
       </c>
       <c r="BR34" s="2">
-        <f t="shared" ref="BR34" si="92">+BR32-BR33</f>
-        <v>580272.16390032903</v>
+        <f t="shared" ref="BR34" si="91">+BR32-BR33</f>
+        <v>983619.00974240003</v>
       </c>
       <c r="BS34" s="2">
-        <f t="shared" ref="BS34:CX34" si="93">BR34*(1+$BU$44)</f>
-        <v>580272.16390032903</v>
+        <f t="shared" ref="BS34:CX34" si="92">BR34*(1+$BU$44)</f>
+        <v>983619.00974240003</v>
       </c>
       <c r="BT34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="BU34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="BV34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="BW34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="BX34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="BY34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="BZ34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CA34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CB34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CC34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CD34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CE34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CF34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CG34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CH34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CI34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CJ34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CK34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CL34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CM34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CN34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CO34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CP34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CQ34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CR34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CS34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CT34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CU34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CV34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CW34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CX34" s="2">
+        <f t="shared" si="92"/>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CY34" s="2">
+        <f t="shared" ref="CY34:ED34" si="93">CX34*(1+$BU$44)</f>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="CZ34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="BU34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DA34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="BV34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DB34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="BW34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DC34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="BX34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DD34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="BY34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DE34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="BZ34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DF34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CA34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DG34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CB34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DH34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CC34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DI34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CD34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DJ34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CE34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DK34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CF34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DL34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CG34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DM34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CH34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DN34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CI34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DO34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CJ34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DP34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CK34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DQ34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CL34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DR34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CM34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DS34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CN34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DT34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CO34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DU34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CP34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DV34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CQ34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DW34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CR34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DX34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CS34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DY34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CT34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="DZ34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CU34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EA34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CV34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EB34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CW34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EC34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CX34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="ED34" s="2">
         <f t="shared" si="93"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CY34" s="2">
-        <f t="shared" ref="CY34:ED34" si="94">CX34*(1+$BU$44)</f>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="CZ34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EE34" s="2">
+        <f t="shared" ref="EE34:FJ34" si="94">ED34*(1+$BU$44)</f>
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EF34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DA34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EG34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DB34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EH34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DC34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EI34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DD34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EJ34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DE34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EK34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DF34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EL34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DG34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EM34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DH34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EN34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DI34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EO34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DJ34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EP34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DK34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EQ34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DL34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="ER34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DM34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="ES34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DN34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="ET34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DO34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EU34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DP34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EV34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DQ34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EW34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DR34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EX34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DS34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EY34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DT34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="EZ34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DU34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="FA34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DV34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="FB34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DW34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="FC34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DX34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="FD34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DY34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="FE34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="DZ34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="FF34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EA34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="FG34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EB34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="FH34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EC34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="FI34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="ED34" s="2">
+        <v>983619.00974240003</v>
+      </c>
+      <c r="FJ34" s="2">
         <f t="shared" si="94"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EE34" s="2">
-        <f t="shared" ref="EE34:FJ34" si="95">ED34*(1+$BU$44)</f>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EF34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EG34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EH34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EI34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EJ34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EK34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EL34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EM34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EN34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EO34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EP34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EQ34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="ER34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="ES34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="ET34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EU34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EV34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EW34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EX34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EY34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="EZ34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="FA34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="FB34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="FC34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="FD34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="FE34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="FF34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="FG34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="FH34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="FI34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
-      </c>
-      <c r="FJ34" s="2">
-        <f t="shared" si="95"/>
-        <v>580272.16390032903</v>
+        <v>983619.00974240003</v>
       </c>
     </row>
     <row r="35" spans="2:166" x14ac:dyDescent="0.25">
@@ -7647,116 +7653,116 @@
         <v>12</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" ref="C35:F35" si="96">+C34/C36</f>
+        <f t="shared" ref="C35:F35" si="95">+C34/C36</f>
         <v>0.15990259740259741</v>
       </c>
       <c r="D35" s="6">
+        <f t="shared" si="95"/>
+        <v>0.22402597402597402</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="95"/>
+        <v>0.36367313915857608</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="95"/>
+        <v>0.38470873786407767</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" ref="G35:T35" si="96">+G34/G36</f>
+        <v>0.36856913183279744</v>
+      </c>
+      <c r="H35" s="6">
         <f t="shared" si="96"/>
-        <v>0.22402597402597402</v>
-      </c>
-      <c r="E35" s="6">
+        <v>0.24840255591054314</v>
+      </c>
+      <c r="I35" s="6">
         <f t="shared" si="96"/>
-        <v>0.36367313915857608</v>
-      </c>
-      <c r="F35" s="6">
+        <v>0.53015873015873016</v>
+      </c>
+      <c r="J35" s="6">
         <f t="shared" si="96"/>
-        <v>0.38470873786407767</v>
-      </c>
-      <c r="G35" s="6">
-        <f t="shared" ref="G35:T35" si="97">+G34/G36</f>
-        <v>0.36856913183279744</v>
-      </c>
-      <c r="H35" s="6">
+        <v>0.57725832012678291</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="96"/>
+        <v>0.75632911392405067</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="96"/>
+        <v>0.93759873617693523</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="96"/>
+        <v>0.97084318360914101</v>
+      </c>
+      <c r="N35" s="6">
+        <f t="shared" si="96"/>
+        <v>1.1799607072691551</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="96"/>
+        <v>1.1710681907765077</v>
+      </c>
+      <c r="P35" s="6">
+        <f t="shared" si="96"/>
+        <v>0.26073131955484896</v>
+      </c>
+      <c r="Q35" s="6">
+        <f t="shared" si="96"/>
+        <v>0.27210884353741499</v>
+      </c>
+      <c r="R35" s="6">
+        <f t="shared" si="96"/>
+        <v>4.894295971280415E-2</v>
+      </c>
+      <c r="S35" s="6">
+        <f t="shared" si="96"/>
+        <v>8.2048192771084341E-2</v>
+      </c>
+      <c r="T35" s="6">
+        <f t="shared" si="96"/>
+        <v>0.24757941906057454</v>
+      </c>
+      <c r="U35" s="6">
+        <f t="shared" ref="U35:W35" si="97">+U34/U36</f>
+        <v>3.7060946271050521</v>
+      </c>
+      <c r="V35" s="6">
         <f t="shared" si="97"/>
-        <v>0.24840255591054314</v>
-      </c>
-      <c r="I35" s="6">
+        <v>0.49337349397590363</v>
+      </c>
+      <c r="W35" s="6">
         <f t="shared" si="97"/>
-        <v>0.53015873015873016</v>
-      </c>
-      <c r="J35" s="6">
-        <f t="shared" si="97"/>
-        <v>0.57725832012678291</v>
-      </c>
-      <c r="K35" s="6">
-        <f t="shared" si="97"/>
-        <v>0.75632911392405067</v>
-      </c>
-      <c r="L35" s="6">
-        <f t="shared" si="97"/>
-        <v>0.93759873617693523</v>
-      </c>
-      <c r="M35" s="6">
-        <f t="shared" si="97"/>
-        <v>0.97084318360914101</v>
-      </c>
-      <c r="N35" s="6">
-        <f t="shared" si="97"/>
-        <v>1.1799607072691551</v>
-      </c>
-      <c r="O35" s="6">
-        <f t="shared" si="97"/>
-        <v>1.1710681907765077</v>
-      </c>
-      <c r="P35" s="6">
-        <f t="shared" si="97"/>
-        <v>0.26073131955484896</v>
-      </c>
-      <c r="Q35" s="6">
-        <f t="shared" si="97"/>
-        <v>0.27210884353741499</v>
-      </c>
-      <c r="R35" s="6">
-        <f t="shared" si="97"/>
-        <v>4.894295971280415E-2</v>
-      </c>
-      <c r="S35" s="6">
-        <f t="shared" si="97"/>
-        <v>8.2048192771084341E-2</v>
-      </c>
-      <c r="T35" s="6">
-        <f t="shared" si="97"/>
-        <v>0.24757941906057454</v>
-      </c>
-      <c r="U35" s="6">
-        <f t="shared" ref="U35:W35" si="98">+U34/U36</f>
-        <v>3.7060946271050521</v>
-      </c>
-      <c r="V35" s="6">
+        <v>5.978706307754118</v>
+      </c>
+      <c r="X35" s="6">
+        <f t="shared" ref="X35:AD35" si="98">+X34/X36</f>
+        <v>0.66802157115260785</v>
+      </c>
+      <c r="Y35" s="6">
         <f t="shared" si="98"/>
-        <v>0.49337349397590363</v>
-      </c>
-      <c r="W35" s="6">
+        <v>0.77940582869136998</v>
+      </c>
+      <c r="Z35" s="6">
         <f t="shared" si="98"/>
-        <v>5.978706307754118</v>
-      </c>
-      <c r="X35" s="6">
-        <f t="shared" ref="X35:AD35" si="99">+X34/X36</f>
-        <v>0.66802157115260785</v>
-      </c>
-      <c r="Y35" s="6">
-        <f t="shared" si="99"/>
-        <v>0.77940582869136998</v>
-      </c>
-      <c r="Z35" s="6">
-        <f t="shared" si="99"/>
         <v>0.8941552659273051</v>
       </c>
       <c r="AA35" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>0.7628702612652879</v>
       </c>
       <c r="AB35" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>1.0770422305560086</v>
       </c>
       <c r="AC35" s="6">
-        <f t="shared" si="99"/>
-        <v>1.3245613892059351</v>
+        <f t="shared" si="98"/>
+        <v>1.4185700309799445</v>
       </c>
       <c r="AD35" s="6">
-        <f t="shared" si="99"/>
-        <v>1.2961162585357899</v>
+        <f t="shared" si="98"/>
+        <v>1.6125191586499266</v>
       </c>
       <c r="AE35" s="6"/>
       <c r="AF35" s="6"/>
@@ -7767,132 +7773,132 @@
       <c r="AK35" s="6"/>
       <c r="AL35" s="6"/>
       <c r="AM35" s="15">
-        <f t="shared" ref="AM35" si="100">+AM34/AM36</f>
+        <f t="shared" ref="AM35" si="99">+AM34/AM36</f>
         <v>1.1648346427701863</v>
       </c>
       <c r="AN35" s="15">
-        <f t="shared" ref="AN35:AO35" si="101">+AN34/AN36</f>
+        <f t="shared" ref="AN35:AO35" si="100">+AN34/AN36</f>
         <v>2.5290421810882875</v>
       </c>
       <c r="AO35" s="15">
+        <f t="shared" si="100"/>
+        <v>4.8322733130237001</v>
+      </c>
+      <c r="AP35" s="15">
+        <f t="shared" ref="AP35:AQ35" si="101">+AP34/AP36</f>
+        <v>1.0054218405753204</v>
+      </c>
+      <c r="AQ35" s="15">
         <f t="shared" si="101"/>
-        <v>4.8322733130237001</v>
-      </c>
-      <c r="AP35" s="15">
-        <f t="shared" ref="AP35:AQ35" si="102">+AP34/AP36</f>
-        <v>1.0054218405753204</v>
-      </c>
-      <c r="AQ35" s="15">
+        <v>0.57880688101814015</v>
+      </c>
+      <c r="AR35" s="15">
+        <f t="shared" ref="AR35:AW35" si="102">+AR34/AR36</f>
+        <v>0.56596699101711534</v>
+      </c>
+      <c r="AS35" s="15">
         <f t="shared" si="102"/>
-        <v>0.57880688101814015</v>
-      </c>
-      <c r="AR35" s="15">
-        <f t="shared" ref="AR35:AW35" si="103">+AR34/AR36</f>
-        <v>0.56596699101711534</v>
-      </c>
-      <c r="AS35" s="15">
-        <f t="shared" si="103"/>
         <v>0.62055905867562389</v>
       </c>
       <c r="AT35" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>0.76444003977822339</v>
       </c>
       <c r="AU35" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>1.3134942610575999</v>
       </c>
       <c r="AV35" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>-2.515844896976848E-3</v>
       </c>
       <c r="AW35" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>-0.13797959874375373</v>
       </c>
       <c r="AX35" s="15">
-        <f t="shared" ref="AX35" si="104">+AX34/AX36</f>
+        <f t="shared" ref="AX35" si="103">+AX34/AX36</f>
         <v>0.33319403958660349</v>
       </c>
       <c r="AY35" s="15">
-        <f t="shared" ref="AY35:AZ35" si="105">+AY34/AY36</f>
+        <f t="shared" ref="AY35:AZ35" si="104">+AY34/AY36</f>
         <v>0.94276012336725723</v>
       </c>
       <c r="AZ35" s="15">
+        <f t="shared" si="104"/>
+        <v>0.90011952822354169</v>
+      </c>
+      <c r="BA35" s="15">
+        <f t="shared" ref="BA35:BB35" si="105">+BA34/BA36</f>
+        <v>0.73949579831932777</v>
+      </c>
+      <c r="BB35" s="15">
         <f t="shared" si="105"/>
-        <v>0.90011952822354169</v>
-      </c>
-      <c r="BA35" s="15">
-        <f t="shared" ref="BA35:BB35" si="106">+BA34/BA36</f>
-        <v>0.73949579831932777</v>
-      </c>
-      <c r="BB35" s="15">
+        <v>1.152753108348135</v>
+      </c>
+      <c r="BC35" s="15">
+        <f t="shared" ref="BC35:BD35" si="106">+BC34/BC36</f>
+        <v>1.3093145869947276</v>
+      </c>
+      <c r="BD35" s="15">
         <f t="shared" si="106"/>
-        <v>1.152753108348135</v>
-      </c>
-      <c r="BC35" s="15">
-        <f t="shared" ref="BC35:BD35" si="107">+BC34/BC36</f>
-        <v>1.3093145869947276</v>
-      </c>
-      <c r="BD35" s="15">
+        <v>2.5716486902927582</v>
+      </c>
+      <c r="BE35" s="15">
+        <f t="shared" ref="BE35:BF35" si="107">+BE34/BE36</f>
+        <v>4.8212025316455698</v>
+      </c>
+      <c r="BF35" s="15">
         <f t="shared" si="107"/>
-        <v>2.5716486902927582</v>
-      </c>
-      <c r="BE35" s="15">
-        <f t="shared" ref="BE35:BF35" si="108">+BE34/BE36</f>
-        <v>4.8212025316455698</v>
-      </c>
-      <c r="BF35" s="15">
+        <v>6.6256000000000004</v>
+      </c>
+      <c r="BG35" s="15">
+        <f t="shared" ref="BG35:BH35" si="108">+BG34/BG36</f>
+        <v>1.1310679611650485</v>
+      </c>
+      <c r="BH35" s="15">
         <f t="shared" si="108"/>
-        <v>6.6256000000000004</v>
-      </c>
-      <c r="BG35" s="15">
-        <f t="shared" ref="BG35:BH35" si="109">+BG34/BG36</f>
-        <v>1.1310679611650485</v>
-      </c>
-      <c r="BH35" s="15">
+        <v>1.7258964143426294</v>
+      </c>
+      <c r="BI35" s="15">
+        <f t="shared" ref="BI35:BP35" si="109">+BI34/BI36</f>
+        <v>3.8469428007889546</v>
+      </c>
+      <c r="BJ35" s="15">
         <f t="shared" si="109"/>
-        <v>1.7258964143426294</v>
-      </c>
-      <c r="BI35" s="15">
-        <f t="shared" ref="BI35:BP35" si="110">+BI34/BI36</f>
-        <v>3.8469428007889546</v>
-      </c>
-      <c r="BJ35" s="15">
+        <v>0.22086158755484642</v>
+      </c>
+      <c r="BK35" s="15">
+        <f t="shared" si="109"/>
+        <v>1.1932237369687249</v>
+      </c>
+      <c r="BL35" s="15">
+        <f t="shared" si="109"/>
+        <v>2.9382357684244478</v>
+      </c>
+      <c r="BM35" s="15">
+        <f t="shared" si="109"/>
+        <v>4.8695380166383249</v>
+      </c>
+      <c r="BN35" s="15">
+        <f>+BN34/BN36</f>
+        <v>9.3587490912053113</v>
+      </c>
+      <c r="BO35" s="15">
+        <f t="shared" si="109"/>
+        <v>16.812232741046973</v>
+      </c>
+      <c r="BP35" s="15">
+        <f t="shared" si="109"/>
+        <v>23.634838777683871</v>
+      </c>
+      <c r="BQ35" s="15">
+        <f t="shared" ref="BQ35:BR35" si="110">+BQ34/BQ36</f>
+        <v>30.770402625311846</v>
+      </c>
+      <c r="BR35" s="15">
         <f t="shared" si="110"/>
-        <v>0.22086158755484642</v>
-      </c>
-      <c r="BK35" s="15">
-        <f t="shared" si="110"/>
-        <v>1.1932237369687249</v>
-      </c>
-      <c r="BL35" s="15">
-        <f t="shared" si="110"/>
-        <v>2.9382357684244478</v>
-      </c>
-      <c r="BM35" s="15">
-        <f t="shared" si="110"/>
-        <v>4.4594566193611449</v>
-      </c>
-      <c r="BN35" s="15">
-        <f t="shared" si="110"/>
-        <v>6.9963829344303363</v>
-      </c>
-      <c r="BO35" s="15">
-        <f t="shared" si="110"/>
-        <v>9.8686842687205605</v>
-      </c>
-      <c r="BP35" s="15">
-        <f t="shared" si="110"/>
-        <v>13.913870916426891</v>
-      </c>
-      <c r="BQ35" s="15">
-        <f t="shared" ref="BQ35:BR35" si="111">+BQ34/BQ36</f>
-        <v>18.133144405677772</v>
-      </c>
-      <c r="BR35" s="15">
-        <f t="shared" si="111"/>
-        <v>23.634655936962908</v>
+        <v>40.0630916224872</v>
       </c>
       <c r="BS35" s="15"/>
     </row>
@@ -8098,11 +8104,11 @@
         <v>24551.75</v>
       </c>
       <c r="BQ36" s="2">
-        <f t="shared" ref="BQ36:BR36" si="112">+BP36</f>
+        <f t="shared" ref="BQ36:BR36" si="111">+BP36</f>
         <v>24551.75</v>
       </c>
       <c r="BR36" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>24551.75</v>
       </c>
       <c r="BS36" s="2"/>
@@ -8116,67 +8122,67 @@
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
       <c r="G38" s="17">
-        <f t="shared" ref="G38" si="113">+G24/C24-1</f>
+        <f t="shared" ref="G38" si="112">+G24/C24-1</f>
         <v>0.38738738738738743</v>
       </c>
       <c r="H38" s="17">
-        <f t="shared" ref="H38" si="114">+H24/D24-1</f>
+        <f t="shared" ref="H38" si="113">+H24/D24-1</f>
         <v>0.49903063202791786</v>
       </c>
       <c r="I38" s="17">
-        <f t="shared" ref="I38" si="115">+I24/E24-1</f>
+        <f t="shared" ref="I38" si="114">+I24/E24-1</f>
         <v>0.56801592568015935</v>
       </c>
       <c r="J38" s="17">
-        <f t="shared" ref="J38" si="116">+J24/F24-1</f>
+        <f t="shared" ref="J38" si="115">+J24/F24-1</f>
         <v>0.61127214170692423</v>
       </c>
       <c r="K38" s="17">
-        <f t="shared" ref="K38:M38" si="117">+K24/G24-1</f>
+        <f t="shared" ref="K38:M38" si="116">+K24/G24-1</f>
         <v>0.83798701298701306</v>
       </c>
       <c r="L38" s="17">
+        <f t="shared" si="116"/>
+        <v>0.68313502327987585</v>
+      </c>
+      <c r="M38" s="17">
+        <f t="shared" si="116"/>
+        <v>0.50296233601354201</v>
+      </c>
+      <c r="N38" s="17">
+        <f t="shared" ref="N38:V38" si="117">+N24/J24-1</f>
+        <v>0.52768338996602049</v>
+      </c>
+      <c r="O38" s="17">
         <f t="shared" si="117"/>
-        <v>0.68313502327987585</v>
-      </c>
-      <c r="M38" s="17">
+        <v>0.46405228758169925</v>
+      </c>
+      <c r="P38" s="17">
         <f t="shared" si="117"/>
-        <v>0.50296233601354201</v>
-      </c>
-      <c r="N38" s="17">
-        <f t="shared" ref="N38:V38" si="118">+N24/J24-1</f>
-        <v>0.52768338996602049</v>
-      </c>
-      <c r="O38" s="17">
-        <f t="shared" si="118"/>
-        <v>0.46405228758169925</v>
-      </c>
-      <c r="P38" s="17">
-        <f t="shared" si="118"/>
         <v>3.0275088366374714E-2</v>
       </c>
       <c r="Q38" s="17">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>-0.16500070392791777</v>
       </c>
       <c r="R38" s="17">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>-0.20829517205285886</v>
       </c>
       <c r="S38" s="17">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>-0.13223938223938225</v>
       </c>
       <c r="T38" s="17">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>1.0147673031026252</v>
       </c>
       <c r="U38" s="17">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>2.0551340414769852</v>
       </c>
       <c r="V38" s="17">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>2.6527846636919516</v>
       </c>
       <c r="W38" s="17">
@@ -8184,32 +8190,32 @@
         <v>2.6212458286985538</v>
       </c>
       <c r="X38" s="17">
-        <f t="shared" ref="X38" si="119">+X24/T24-1</f>
+        <f t="shared" ref="X38" si="118">+X24/T24-1</f>
         <v>1.2240319834160065</v>
       </c>
       <c r="Y38" s="17">
-        <f t="shared" ref="Y38" si="120">+Y24/U24-1</f>
+        <f t="shared" ref="Y38" si="119">+Y24/U24-1</f>
         <v>0.93609271523178816</v>
       </c>
       <c r="Z38" s="17">
-        <f t="shared" ref="Z38:AA38" si="121">+Z24/V24-1</f>
+        <f t="shared" ref="Z38:AA38" si="120">+Z24/V24-1</f>
         <v>0.77944170474596208</v>
       </c>
       <c r="AA38" s="17">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>0.69182921210259551</v>
       </c>
       <c r="AB38" s="17">
-        <f t="shared" ref="AB38" si="122">+AB24/X24-1</f>
+        <f>+AB24/X24-1</f>
         <v>0.5560252996005326</v>
       </c>
       <c r="AC38" s="17">
-        <f t="shared" ref="AC38" si="123">+AC24/Y24-1</f>
-        <v>0.52300324952967325</v>
+        <f>+AC24/Y24-1</f>
+        <v>0.6247648366683769</v>
       </c>
       <c r="AD38" s="17">
-        <f t="shared" ref="AD38" si="124">+AD24/Z24-1</f>
-        <v>0.34714414583915998</v>
+        <f>+AD24/Z24-1</f>
+        <v>0.65264041087183133</v>
       </c>
       <c r="AE38" s="17"/>
       <c r="AF38" s="17"/>
@@ -8217,143 +8223,143 @@
       <c r="AH38" s="17"/>
       <c r="AI38" s="17"/>
       <c r="AJ38" s="17">
-        <f t="shared" ref="AJ38" si="125">+AJ24/AI24-1</f>
+        <f t="shared" ref="AJ38" si="121">+AJ24/AI24-1</f>
         <v>6.4312372188139069</v>
       </c>
       <c r="AK38" s="17">
-        <f t="shared" ref="AK38" si="126">+AK24/AJ24-1</f>
+        <f t="shared" ref="AK38" si="122">+AK24/AJ24-1</f>
         <v>-0.54249939802552372</v>
       </c>
       <c r="AL38" s="17">
-        <f t="shared" ref="AL38" si="127">+AL24/AK24-1</f>
+        <f t="shared" ref="AL38" si="123">+AL24/AK24-1</f>
         <v>10.897518796992481</v>
       </c>
       <c r="AM38" s="17">
-        <f t="shared" ref="AM38" si="128">+AM24/AL24-1</f>
+        <f t="shared" ref="AM38" si="124">+AM24/AL24-1</f>
         <v>1.3667347080644854</v>
       </c>
       <c r="AN38" s="17">
-        <f t="shared" ref="AN38" si="129">+AN24/AM24-1</f>
+        <f t="shared" ref="AN38" si="125">+AN24/AM24-1</f>
         <v>0.96329555012616663</v>
       </c>
       <c r="AO38" s="17">
-        <f t="shared" ref="AO38" si="130">+AO24/AN24-1</f>
+        <f t="shared" ref="AO38" si="126">+AO24/AN24-1</f>
         <v>0.86255685032858942</v>
       </c>
       <c r="AP38" s="17">
-        <f t="shared" ref="AP38" si="131">+AP24/AO24-1</f>
+        <f t="shared" ref="AP38" si="127">+AP24/AO24-1</f>
         <v>0.39429531549043384</v>
       </c>
       <c r="AQ38" s="17">
-        <f t="shared" ref="AQ38:AS38" si="132">+AQ24/AP24-1</f>
+        <f t="shared" ref="AQ38:AS38" si="128">+AQ24/AP24-1</f>
         <v>-4.5302121504288917E-2</v>
       </c>
       <c r="AR38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="128"/>
         <v>0.10262953627235039</v>
       </c>
       <c r="AS38" s="17">
-        <f t="shared" si="132"/>
+        <f t="shared" si="128"/>
         <v>0.18191442628056365</v>
       </c>
       <c r="AT38" s="17">
-        <f t="shared" ref="AT38" si="133">+AT24/AS24-1</f>
+        <f t="shared" ref="AT38" si="129">+AT24/AS24-1</f>
         <v>0.29174045234073365</v>
       </c>
       <c r="AU38" s="17">
-        <f t="shared" ref="AU38" si="134">+AU24/AT24-1</f>
+        <f t="shared" ref="AU38" si="130">+AU24/AT24-1</f>
         <v>0.33534238951032824</v>
       </c>
       <c r="AV38" s="17">
-        <f t="shared" ref="AV38" si="135">+AV24/AU24-1</f>
+        <f t="shared" ref="AV38" si="131">+AV24/AU24-1</f>
         <v>-0.16423230661857646</v>
       </c>
       <c r="AW38" s="17">
-        <f t="shared" ref="AW38" si="136">+AW24/AV24-1</f>
+        <f t="shared" ref="AW38" si="132">+AW24/AV24-1</f>
         <v>-2.8735197565797566E-2</v>
       </c>
       <c r="AX38" s="17">
-        <f t="shared" ref="AX38" si="137">+AX24/AW24-1</f>
+        <f t="shared" ref="AX38" si="133">+AX24/AW24-1</f>
         <v>6.5193923242380381E-2</v>
       </c>
       <c r="AY38" s="17">
-        <f t="shared" ref="AY38:BR38" si="138">+AY24/AX24-1</f>
+        <f t="shared" ref="AY38:BR38" si="134">+AY24/AX24-1</f>
         <v>0.12830407960468571</v>
       </c>
       <c r="AZ38" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>7.0593782282331041E-2</v>
       </c>
       <c r="BA38" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>-3.5082575203397748E-2</v>
       </c>
       <c r="BB38" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.13365617433414045</v>
       </c>
       <c r="BC38" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>7.0055531824006811E-2</v>
       </c>
       <c r="BD38" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.37924151696606789</v>
       </c>
       <c r="BE38" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.40578871201157751</v>
       </c>
       <c r="BF38" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.20609429689108505</v>
       </c>
       <c r="BG38" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>-6.8111983612154314E-2</v>
       </c>
       <c r="BH38" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.52729437625938824</v>
       </c>
       <c r="BI38" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.61397301349325328</v>
       </c>
       <c r="BJ38" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>2.378032920893336E-3</v>
       </c>
       <c r="BK38" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>1.2582941023835117</v>
       </c>
       <c r="BL38" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>1.1420340763599355</v>
       </c>
       <c r="BM38" s="17">
         <f>+BM24/BL24-1</f>
-        <v>0.51129548112217149</v>
+        <v>0.63072714315271616</v>
       </c>
       <c r="BN38" s="17">
-        <f t="shared" si="138"/>
-        <v>0.5</v>
+        <f>+BN24/BM24-1</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="BO38" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
+        <v>0.7</v>
+      </c>
+      <c r="BP38" s="17">
+        <f t="shared" si="134"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="BP38" s="17">
-        <f t="shared" si="138"/>
-        <v>0.39999999999999991</v>
-      </c>
       <c r="BQ38" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BR38" s="17">
-        <f t="shared" si="138"/>
+        <f t="shared" si="134"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="BS38" s="17"/>
@@ -8364,79 +8370,79 @@
         <v>72</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" ref="D39" si="139">+D24/C24-1</f>
+        <f t="shared" ref="D39" si="135">+D24/C24-1</f>
         <v>0.16171171171171173</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" ref="E39" si="140">+E24/D24-1</f>
+        <f t="shared" ref="E39" si="136">+E24/D24-1</f>
         <v>0.16867002714230317</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" ref="F39" si="141">+F24/E24-1</f>
+        <f t="shared" ref="F39" si="137">+F24/E24-1</f>
         <v>3.0192435301924281E-2</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" ref="G39:H39" si="142">+G24/F24-1</f>
+        <f t="shared" ref="G39:H39" si="138">+G24/F24-1</f>
         <v>-8.0515297906602612E-3</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="142"/>
+        <f t="shared" si="138"/>
         <v>0.2551948051948052</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" ref="I39" si="143">+I24/H24-1</f>
+        <f t="shared" ref="I39" si="139">+I24/H24-1</f>
         <v>0.22245214692188298</v>
       </c>
       <c r="J39" s="10">
-        <f t="shared" ref="J39" si="144">+J24/I24-1</f>
+        <f t="shared" ref="J39" si="140">+J24/I24-1</f>
         <v>5.8611933982225972E-2</v>
       </c>
       <c r="K39" s="10">
-        <f t="shared" ref="K39:V39" si="145">+K24/J24-1</f>
+        <f t="shared" ref="K39:V39" si="141">+K24/J24-1</f>
         <v>0.13152108734759138</v>
       </c>
       <c r="L39" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="141"/>
         <v>0.14944356120826718</v>
       </c>
       <c r="M39" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="141"/>
         <v>9.1593668357153879E-2</v>
       </c>
       <c r="N39" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="141"/>
         <v>7.6024215120371608E-2</v>
       </c>
       <c r="O39" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="141"/>
         <v>8.4390945963626951E-2</v>
       </c>
       <c r="P39" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="141"/>
         <v>-0.19111969111969107</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="141"/>
         <v>-0.11530429594272074</v>
       </c>
       <c r="R39" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="141"/>
         <v>2.0232675771370667E-2</v>
       </c>
       <c r="S39" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="141"/>
         <v>0.1885638737398776</v>
       </c>
       <c r="T39" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="141"/>
         <v>0.87805895439377091</v>
       </c>
       <c r="U39" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="141"/>
         <v>0.34152661582882948</v>
       </c>
       <c r="V39" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="141"/>
         <v>0.21981236203090515</v>
       </c>
       <c r="W39" s="10">
@@ -8444,32 +8450,32 @@
         <v>0.17830158801972584</v>
       </c>
       <c r="X39" s="10">
-        <f t="shared" ref="X39" si="146">+X24/W24-1</f>
+        <f t="shared" ref="X39" si="142">+X24/W24-1</f>
         <v>0.1534326524343419</v>
       </c>
       <c r="Y39" s="10">
-        <f t="shared" ref="Y39" si="147">+Y24/X24-1</f>
+        <f t="shared" ref="Y39" si="143">+Y24/X24-1</f>
         <v>0.16784287616511318</v>
       </c>
       <c r="Z39" s="10">
-        <f t="shared" ref="Z39" si="148">+Z24/Y24-1</f>
+        <f t="shared" ref="Z39" si="144">+Z24/Y24-1</f>
         <v>0.12111624194743742</v>
       </c>
       <c r="AA39" s="10">
-        <f t="shared" ref="AA39" si="149">+AA24/Z24-1</f>
+        <f t="shared" ref="AA39" si="145">+AA24/Z24-1</f>
         <v>0.12028679667437903</v>
       </c>
       <c r="AB39" s="10">
-        <f t="shared" ref="AB39" si="150">+AB24/AA24-1</f>
+        <f t="shared" ref="AB39" si="146">+AB24/AA24-1</f>
         <v>6.0846080522899637E-2</v>
       </c>
       <c r="AC39" s="10">
-        <f t="shared" ref="AC39" si="151">+AC24/AB24-1</f>
-        <v>0.14305885373210958</v>
+        <f t="shared" ref="AC39" si="147">+AC24/AB24-1</f>
+        <v>0.21943392593543409</v>
       </c>
       <c r="AD39" s="10">
-        <f t="shared" ref="AD39" si="152">+AD24/AC24-1</f>
-        <v>-8.3375182481751908E-3</v>
+        <f t="shared" ref="AD39" si="148">+AD24/AC24-1</f>
+        <v>0.14035087719298245</v>
       </c>
       <c r="AE39" s="10"/>
       <c r="AF39" s="10"/>
@@ -8501,75 +8507,75 @@
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10">
-        <f t="shared" ref="E40" si="153">+E22/D22-1</f>
+        <f t="shared" ref="E40" si="149">+E22/D22-1</f>
         <v>0.10839694656488552</v>
       </c>
       <c r="F40" s="10">
-        <f t="shared" ref="F40" si="154">+F22/E22-1</f>
+        <f t="shared" ref="F40" si="150">+F22/E22-1</f>
         <v>0.33333333333333326</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" ref="G40" si="155">+G22/F22-1</f>
+        <f t="shared" ref="G40" si="151">+G22/F22-1</f>
         <v>0.17871900826446274</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" ref="H40" si="156">+H22/G22-1</f>
+        <f t="shared" ref="H40" si="152">+H22/G22-1</f>
         <v>0.5354951796669587</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" ref="I40" si="157">+I22/H22-1</f>
+        <f t="shared" ref="I40" si="153">+I22/H22-1</f>
         <v>8.4474885844748826E-2</v>
       </c>
       <c r="J40" s="10">
-        <f t="shared" ref="J40" si="158">+J22/I22-1</f>
+        <f t="shared" ref="J40" si="154">+J22/I22-1</f>
         <v>1.5789473684211242E-3</v>
       </c>
       <c r="K40" s="10">
-        <f t="shared" ref="K40" si="159">+K22/J22-1</f>
+        <f t="shared" ref="K40" si="155">+K22/J22-1</f>
         <v>7.7246452968996238E-2</v>
       </c>
       <c r="L40" s="10">
-        <f t="shared" ref="L40:V40" si="160">+L22/K22-1</f>
+        <f t="shared" ref="L40:V40" si="156">+L22/K22-1</f>
         <v>0.15414634146341455</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="156"/>
         <v>0.24091293322062546</v>
       </c>
       <c r="N40" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="156"/>
         <v>0.11035422343324242</v>
       </c>
       <c r="O40" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="156"/>
         <v>0.15030674846625769</v>
       </c>
       <c r="P40" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="156"/>
         <v>1.4933333333333243E-2</v>
       </c>
       <c r="Q40" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="156"/>
         <v>7.0940620073567384E-3</v>
       </c>
       <c r="R40" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="156"/>
         <v>-5.5570049569527824E-2</v>
       </c>
       <c r="S40" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="156"/>
         <v>0.18342541436464099</v>
       </c>
       <c r="T40" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="156"/>
         <v>1.4096638655462184</v>
       </c>
       <c r="U40" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="156"/>
         <v>0.40598663179308336</v>
       </c>
       <c r="V40" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="156"/>
         <v>0.2680170869505305</v>
       </c>
       <c r="W40" s="10">
@@ -8577,32 +8583,32 @@
         <v>0.22598348185177142</v>
       </c>
       <c r="X40" s="10">
-        <f t="shared" ref="X40" si="161">+X22/W22-1</f>
+        <f t="shared" ref="X40" si="157">+X22/W22-1</f>
         <v>0.16438416877188322</v>
       </c>
       <c r="Y40" s="10">
-        <f t="shared" ref="Y40" si="162">+Y22/X22-1</f>
+        <f t="shared" ref="Y40" si="158">+Y22/X22-1</f>
         <v>0.17124695493300846</v>
       </c>
       <c r="Z40" s="10">
-        <f t="shared" ref="Z40" si="163">+Z22/Y22-1</f>
+        <f t="shared" ref="Z40" si="159">+Z22/Y22-1</f>
         <v>0.15628351369796234</v>
       </c>
       <c r="AA40" s="10">
-        <f t="shared" ref="AA40" si="164">+AA22/Z22-1</f>
+        <f t="shared" ref="AA40" si="160">+AA22/Z22-1</f>
         <v>9.9269252388982654E-2</v>
       </c>
       <c r="AB40" s="10">
-        <f t="shared" ref="AB40" si="165">+AB22/AA22-1</f>
+        <f t="shared" ref="AB40" si="161">+AB22/AA22-1</f>
         <v>5.0726119860912355E-2</v>
       </c>
       <c r="AC40" s="10">
-        <f t="shared" ref="AC40" si="166">+AC22/AB22-1</f>
-        <v>4.8262604633054096E-2</v>
+        <f t="shared" ref="AC40" si="162">+AC22/AB22-1</f>
+        <v>0.19801440529491932</v>
       </c>
       <c r="AD40" s="10">
-        <f t="shared" ref="AD40" si="167">+AD22/AC22-1</f>
-        <v>0.11498767392303533</v>
+        <f t="shared" ref="AD40" si="163">+AD22/AC22-1</f>
+        <v>0.1924173735010235</v>
       </c>
       <c r="AE40" s="10"/>
       <c r="AF40" s="10"/>
@@ -8633,115 +8639,115 @@
         <v>5</v>
       </c>
       <c r="C41" s="7">
-        <f t="shared" ref="C41:F41" si="168">C26/C24</f>
+        <f t="shared" ref="C41:F41" si="164">C26/C24</f>
         <v>0.58378378378378382</v>
       </c>
       <c r="D41" s="7">
+        <f t="shared" si="164"/>
+        <v>0.59751841799146954</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="164"/>
+        <v>0.63570006635700071</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="164"/>
+        <v>0.64895330112721417</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" ref="G41:H41" si="165">G26/G24</f>
+        <v>0.6506493506493507</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="165"/>
+        <v>0.58846352819451631</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" ref="I41:U41" si="166">I26/I24</f>
+        <v>0.62632247143461706</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="166"/>
+        <v>0.6310213871676994</v>
+      </c>
+      <c r="K41" s="7">
+        <f t="shared" si="166"/>
+        <v>0.6410528175234057</v>
+      </c>
+      <c r="L41" s="7">
+        <f t="shared" si="166"/>
+        <v>0.64776394651913327</v>
+      </c>
+      <c r="M41" s="7">
+        <f t="shared" si="166"/>
+        <v>0.65197803744896521</v>
+      </c>
+      <c r="N41" s="7">
+        <f t="shared" si="166"/>
+        <v>0.65406254088708626</v>
+      </c>
+      <c r="O41" s="7">
+        <f t="shared" si="166"/>
+        <v>0.65528474903474898</v>
+      </c>
+      <c r="P41" s="7">
+        <f t="shared" si="166"/>
+        <v>0.43481503579952269</v>
+      </c>
+      <c r="Q41" s="7">
+        <f t="shared" si="166"/>
+        <v>0.53566009104704093</v>
+      </c>
+      <c r="R41" s="7">
+        <f t="shared" si="166"/>
+        <v>0.63344901669145592</v>
+      </c>
+      <c r="S41" s="7">
+        <f t="shared" si="166"/>
+        <v>0.64627363737486099</v>
+      </c>
+      <c r="T41" s="7">
+        <f t="shared" si="166"/>
+        <v>0.7005256533649219</v>
+      </c>
+      <c r="U41" s="7">
+        <f t="shared" si="166"/>
+        <v>0.73951434878587197</v>
+      </c>
+      <c r="V41" s="7">
+        <f t="shared" ref="V41:X41" si="167">V26/V24</f>
+        <v>0.75967063294575399</v>
+      </c>
+      <c r="W41" s="7">
+        <f t="shared" si="167"/>
+        <v>0.78352019659038552</v>
+      </c>
+      <c r="X41" s="7">
+        <f t="shared" si="167"/>
+        <v>0.75146471371504664</v>
+      </c>
+      <c r="Y41" s="7">
+        <f t="shared" ref="Y41:AD41" si="168">Y26/Y24</f>
+        <v>0.74556752750698363</v>
+      </c>
+      <c r="Z41" s="7">
         <f t="shared" si="168"/>
-        <v>0.59751841799146954</v>
-      </c>
-      <c r="E41" s="7">
+        <v>0.73028908494571709</v>
+      </c>
+      <c r="AA41" s="7">
         <f t="shared" si="168"/>
-        <v>0.63570006635700071</v>
-      </c>
-      <c r="F41" s="7">
+        <v>0.60523807362353044</v>
+      </c>
+      <c r="AB41" s="7">
         <f t="shared" si="168"/>
-        <v>0.64895330112721417</v>
-      </c>
-      <c r="G41" s="7">
-        <f t="shared" ref="G41:H41" si="169">G26/G24</f>
-        <v>0.6506493506493507</v>
-      </c>
-      <c r="H41" s="7">
-        <f t="shared" si="169"/>
-        <v>0.58846352819451631</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" ref="I41:U41" si="170">I26/I24</f>
-        <v>0.62632247143461706</v>
-      </c>
-      <c r="J41" s="7">
-        <f t="shared" si="170"/>
-        <v>0.6310213871676994</v>
-      </c>
-      <c r="K41" s="7">
-        <f t="shared" si="170"/>
-        <v>0.6410528175234057</v>
-      </c>
-      <c r="L41" s="7">
-        <f t="shared" si="170"/>
-        <v>0.64776394651913327</v>
-      </c>
-      <c r="M41" s="7">
-        <f t="shared" si="170"/>
-        <v>0.65197803744896521</v>
-      </c>
-      <c r="N41" s="7">
-        <f t="shared" si="170"/>
-        <v>0.65406254088708626</v>
-      </c>
-      <c r="O41" s="7">
-        <f t="shared" si="170"/>
-        <v>0.65528474903474898</v>
-      </c>
-      <c r="P41" s="7">
-        <f t="shared" si="170"/>
-        <v>0.43481503579952269</v>
-      </c>
-      <c r="Q41" s="7">
-        <f t="shared" si="170"/>
-        <v>0.53566009104704093</v>
-      </c>
-      <c r="R41" s="7">
-        <f t="shared" si="170"/>
-        <v>0.63344901669145592</v>
-      </c>
-      <c r="S41" s="7">
-        <f t="shared" si="170"/>
-        <v>0.64627363737486099</v>
-      </c>
-      <c r="T41" s="7">
-        <f t="shared" si="170"/>
-        <v>0.7005256533649219</v>
-      </c>
-      <c r="U41" s="7">
-        <f t="shared" si="170"/>
-        <v>0.73951434878587197</v>
-      </c>
-      <c r="V41" s="7">
-        <f t="shared" ref="V41:X41" si="171">V26/V24</f>
-        <v>0.75967063294575399</v>
-      </c>
-      <c r="W41" s="7">
-        <f t="shared" si="171"/>
-        <v>0.78352019659038552</v>
-      </c>
-      <c r="X41" s="7">
-        <f t="shared" si="171"/>
-        <v>0.75146471371504664</v>
-      </c>
-      <c r="Y41" s="7">
-        <f t="shared" ref="Y41:AD41" si="172">Y26/Y24</f>
-        <v>0.74556752750698363</v>
-      </c>
-      <c r="Z41" s="7">
-        <f t="shared" si="172"/>
-        <v>0.73028908494571709</v>
-      </c>
-      <c r="AA41" s="7">
-        <f t="shared" si="172"/>
-        <v>0.60523807362353044</v>
-      </c>
-      <c r="AB41" s="7">
-        <f t="shared" si="172"/>
         <v>0.72423678411740799</v>
       </c>
       <c r="AC41" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="168"/>
         <v>0.76</v>
       </c>
       <c r="AD41" s="7">
-        <f t="shared" si="172"/>
+        <f t="shared" si="168"/>
         <v>0.76</v>
       </c>
       <c r="AE41" s="7"/>
@@ -8749,148 +8755,148 @@
       <c r="AG41" s="7"/>
       <c r="AH41" s="7"/>
       <c r="AI41" s="7">
-        <f t="shared" ref="AI41:AM41" si="173">AI26/AI24</f>
+        <f t="shared" ref="AI41:AL41" si="169">AI26/AI24</f>
         <v>0</v>
       </c>
       <c r="AJ41" s="7">
-        <f t="shared" si="173"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AK41" s="7">
-        <f t="shared" si="173"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AL41" s="7">
-        <f t="shared" si="173"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="AM41" s="7">
-        <f t="shared" ref="AM41" si="174">AM26/AM24</f>
+        <f t="shared" ref="AM41" si="170">AM26/AM24</f>
         <v>0.62125205270957662</v>
       </c>
       <c r="AN41" s="7">
-        <f t="shared" ref="AN41:AO41" si="175">AN26/AN24</f>
+        <f t="shared" ref="AN41:AO41" si="171">AN26/AN24</f>
         <v>0.62886935848892367</v>
       </c>
       <c r="AO41" s="7">
+        <f t="shared" si="171"/>
+        <v>0.6208477580029077</v>
+      </c>
+      <c r="AP41" s="7">
+        <f t="shared" ref="AP41:AW41" si="172">AP26/AP24</f>
+        <v>0.30489246362952205</v>
+      </c>
+      <c r="AQ41" s="7">
+        <f t="shared" si="172"/>
+        <v>0.29012285066197824</v>
+      </c>
+      <c r="AR41" s="7">
+        <f t="shared" si="172"/>
+        <v>0.3231220581950644</v>
+      </c>
+      <c r="AS41" s="7">
+        <f t="shared" si="172"/>
+        <v>0.38306098404377342</v>
+      </c>
+      <c r="AT41" s="7">
+        <f t="shared" si="172"/>
+        <v>0.42376866830402143</v>
+      </c>
+      <c r="AU41" s="7">
+        <f t="shared" si="172"/>
+        <v>0.45616004451103742</v>
+      </c>
+      <c r="AV41" s="7">
+        <f t="shared" si="172"/>
+        <v>0.34286637785672341</v>
+      </c>
+      <c r="AW41" s="7">
+        <f t="shared" si="172"/>
+        <v>0.35380804432359475</v>
+      </c>
+      <c r="AX41" s="7">
+        <f t="shared" ref="AX41" si="173">AX26/AX24</f>
+        <v>0.39767629636591112</v>
+      </c>
+      <c r="AY41" s="7">
+        <f t="shared" ref="AY41:AZ41" si="174">AY26/AY24</f>
+        <v>0.51439544964519135</v>
+      </c>
+      <c r="AZ41" s="7">
+        <f t="shared" si="174"/>
+        <v>0.52015427464260089</v>
+      </c>
+      <c r="BA41" s="7">
+        <f t="shared" ref="BA41:BR41" si="175">BA26/BA24</f>
+        <v>0.54915254237288136</v>
+      </c>
+      <c r="BB41" s="7">
         <f t="shared" si="175"/>
-        <v>0.6208477580029077</v>
-      </c>
-      <c r="AP41" s="7">
-        <f t="shared" ref="AP41:AW41" si="176">AP26/AP24</f>
-        <v>0.30489246362952205</v>
-      </c>
-      <c r="AQ41" s="7">
-        <f t="shared" si="176"/>
-        <v>0.29012285066197824</v>
-      </c>
-      <c r="AR41" s="7">
-        <f t="shared" si="176"/>
-        <v>0.3231220581950644</v>
-      </c>
-      <c r="AS41" s="7">
-        <f t="shared" si="176"/>
-        <v>0.38306098404377342</v>
-      </c>
-      <c r="AT41" s="7">
-        <f t="shared" si="176"/>
-        <v>0.42376866830402143</v>
-      </c>
-      <c r="AU41" s="7">
-        <f t="shared" si="176"/>
-        <v>0.45616004451103742</v>
-      </c>
-      <c r="AV41" s="7">
-        <f t="shared" si="176"/>
-        <v>0.34286637785672341</v>
-      </c>
-      <c r="AW41" s="7">
-        <f t="shared" si="176"/>
-        <v>0.35380804432359475</v>
-      </c>
-      <c r="AX41" s="7">
-        <f t="shared" ref="AX41" si="177">AX26/AX24</f>
-        <v>0.39767629636591112</v>
-      </c>
-      <c r="AY41" s="7">
-        <f t="shared" ref="AY41:AZ41" si="178">AY26/AY24</f>
-        <v>0.51439544964519135</v>
-      </c>
-      <c r="AZ41" s="7">
-        <f t="shared" si="178"/>
-        <v>0.52015427464260089</v>
-      </c>
-      <c r="BA41" s="7">
-        <f t="shared" ref="BA41:BR41" si="179">BA26/BA24</f>
-        <v>0.54915254237288136</v>
-      </c>
-      <c r="BB41" s="7">
-        <f t="shared" si="179"/>
         <v>0.55510465612985904</v>
       </c>
       <c r="BC41" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="175"/>
         <v>0.56107784431137719</v>
       </c>
       <c r="BD41" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="175"/>
         <v>0.58798842257597683</v>
       </c>
       <c r="BE41" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="175"/>
         <v>0.59934115709285563</v>
       </c>
       <c r="BF41" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="175"/>
         <v>0.61206896551724133</v>
       </c>
       <c r="BG41" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="175"/>
         <v>0.61989375343469499</v>
       </c>
       <c r="BH41" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="175"/>
         <v>0.62344827586206897</v>
       </c>
       <c r="BI41" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="175"/>
         <v>0.64924014416824583</v>
       </c>
       <c r="BJ41" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="175"/>
         <v>0.56933684249545913</v>
       </c>
       <c r="BK41" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="175"/>
         <v>0.72717573290436954</v>
       </c>
       <c r="BL41" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="175"/>
         <v>0.74989463359310937</v>
       </c>
       <c r="BM41" s="7">
-        <f t="shared" si="179"/>
-        <v>0.71694746785478536</v>
+        <f t="shared" si="175"/>
+        <v>0.72010056154695612</v>
       </c>
       <c r="BN41" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="175"/>
+        <v>0.75</v>
+      </c>
+      <c r="BO41" s="7">
+        <f t="shared" si="175"/>
         <v>0.78</v>
       </c>
-      <c r="BO41" s="7">
-        <f t="shared" si="179"/>
-        <v>0.78000000000000014</v>
-      </c>
       <c r="BP41" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="175"/>
         <v>0.78</v>
       </c>
       <c r="BQ41" s="7">
-        <f t="shared" si="179"/>
+        <f t="shared" si="175"/>
         <v>0.78</v>
       </c>
       <c r="BR41" s="7">
-        <f t="shared" si="179"/>
-        <v>0.78</v>
+        <f t="shared" si="175"/>
+        <v>0.77999999999999992</v>
       </c>
     </row>
     <row r="42" spans="2:166" x14ac:dyDescent="0.25">
@@ -8898,83 +8904,83 @@
         <v>24</v>
       </c>
       <c r="C42" s="7">
-        <f t="shared" ref="C42:F42" si="180">C22/C24</f>
+        <f t="shared" ref="C42:F42" si="176">C22/C24</f>
         <v>0.28558558558558561</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="176"/>
         <v>0.25397440868553706</v>
       </c>
       <c r="E42" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="176"/>
         <v>0.24087591240875914</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="180"/>
+        <f t="shared" si="176"/>
         <v>0.3117552334943639</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" ref="G42:I42" si="181">G22/G24</f>
+        <f t="shared" ref="G42:I42" si="177">G22/G24</f>
         <v>0.37045454545454548</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="181"/>
+        <f t="shared" si="177"/>
         <v>0.45318158303155714</v>
       </c>
       <c r="I42" s="7">
-        <f t="shared" si="181"/>
+        <f t="shared" si="177"/>
         <v>0.40203131612357174</v>
       </c>
       <c r="J42" s="7">
-        <f t="shared" ref="J42:O42" si="182">J22/J24</f>
+        <f t="shared" ref="J42:O42" si="178">J22/J24</f>
         <v>0.38037177693383972</v>
       </c>
       <c r="K42" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="178"/>
         <v>0.36212683271506801</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="178"/>
         <v>0.36360842169970803</v>
       </c>
       <c r="M42" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="178"/>
         <v>0.41334647332113189</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="178"/>
         <v>0.42653408347507521</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="182"/>
+        <f t="shared" si="178"/>
         <v>0.45246138996138996</v>
       </c>
       <c r="P42" s="7">
-        <f t="shared" ref="P42:U42" si="183">P22/P24</f>
+        <f t="shared" ref="P42:U42" si="179">P22/P24</f>
         <v>0.56772076372315039</v>
       </c>
       <c r="Q42" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="179"/>
         <v>0.64626538526386779</v>
       </c>
       <c r="R42" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="179"/>
         <v>0.59824822343414308</v>
       </c>
       <c r="S42" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="179"/>
         <v>0.59566184649610676</v>
       </c>
       <c r="T42" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="179"/>
         <v>0.76427037832235134</v>
       </c>
       <c r="U42" s="7">
-        <f t="shared" si="183"/>
+        <f t="shared" si="179"/>
         <v>0.80099337748344368</v>
       </c>
       <c r="V42" s="7">
-        <f t="shared" ref="V42:AD42" si="184">V22/V24</f>
+        <f t="shared" ref="V42:AD42" si="180">V22/V24</f>
         <v>0.8326471519703208</v>
       </c>
       <c r="W42" s="7">
@@ -8982,32 +8988,32 @@
         <v>0.86634157579480875</v>
       </c>
       <c r="X42" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="180"/>
         <v>0.87456724367509986</v>
       </c>
       <c r="Y42" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="180"/>
         <v>0.87711646998460746</v>
       </c>
       <c r="Z42" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="180"/>
         <v>0.90462993567415018</v>
       </c>
       <c r="AA42" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="180"/>
         <v>0.88765829966864873</v>
       </c>
       <c r="AB42" s="7">
-        <f t="shared" si="184"/>
+        <f t="shared" si="180"/>
         <v>0.87919046702180004</v>
       </c>
       <c r="AC42" s="7">
-        <f t="shared" si="184"/>
-        <v>0.80627737226277363</v>
+        <f t="shared" si="180"/>
+        <v>0.86374736842105271</v>
       </c>
       <c r="AD42" s="7">
-        <f t="shared" si="184"/>
-        <v>0.90654768974211308</v>
+        <f t="shared" si="180"/>
+        <v>0.90318461538461536</v>
       </c>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
@@ -9059,71 +9065,71 @@
         <v>5704</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" ref="L44:M44" si="185">+L45-L58</f>
+        <f t="shared" ref="L44:M44" si="181">+L45-L58</f>
         <v>7711</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="185"/>
+        <f t="shared" si="181"/>
         <v>8354</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" ref="N44:V44" si="186">+N45-N58</f>
+        <f t="shared" ref="N44:V44" si="182">+N45-N58</f>
         <v>10262</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="182"/>
         <v>9391</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="182"/>
         <v>6088</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="182"/>
         <v>2193</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="182"/>
         <v>2343</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="182"/>
         <v>4366</v>
       </c>
       <c r="T44" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="182"/>
         <v>6318</v>
       </c>
       <c r="U44" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="182"/>
         <v>8575</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" si="186"/>
+        <f t="shared" si="182"/>
         <v>16275</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" ref="W44:AB44" si="187">+W45-W58</f>
+        <f t="shared" ref="W44:AB44" si="183">+W45-W58</f>
         <v>21728</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="183"/>
         <v>26339</v>
       </c>
       <c r="Y44" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="183"/>
         <v>30025</v>
       </c>
       <c r="Z44" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="183"/>
         <v>34747</v>
       </c>
       <c r="AA44" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="183"/>
         <v>45227</v>
       </c>
       <c r="AB44" s="2">
-        <f t="shared" si="187"/>
+        <f t="shared" si="183"/>
         <v>48325</v>
       </c>
       <c r="AC44" s="2"/>
@@ -9375,23 +9381,23 @@
         <v>27808</v>
       </c>
       <c r="BH46" s="2">
-        <f t="shared" ref="BH46:BH53" si="188">+J46</f>
+        <f t="shared" ref="BH46:BH53" si="184">+J46</f>
         <v>2429</v>
       </c>
       <c r="BI46" s="2">
-        <f t="shared" ref="BI46:BI53" si="189">+N46</f>
+        <f t="shared" ref="BI46:BI53" si="185">+N46</f>
         <v>4650</v>
       </c>
       <c r="BJ46" s="2">
-        <f t="shared" ref="BJ46:BJ53" si="190">+R46</f>
+        <f t="shared" ref="BJ46:BJ53" si="186">+R46</f>
         <v>3827</v>
       </c>
       <c r="BK46" s="2">
-        <f t="shared" ref="BK46:BK53" si="191">+V46</f>
+        <f t="shared" ref="BK46:BK53" si="187">+V46</f>
         <v>9999</v>
       </c>
       <c r="BL46" s="2">
-        <f t="shared" ref="BL46:BL53" si="192">+Z46</f>
+        <f t="shared" ref="BL46:BL53" si="188">+Z46</f>
         <v>23065</v>
       </c>
       <c r="BT46" t="s">
@@ -9399,7 +9405,7 @@
       </c>
       <c r="BU46" s="2">
         <f>NPV(BU45,BM34:FJ34)+Main!K5-Main!K6</f>
-        <v>5977116.6842280552</v>
+        <v>9987507.6417329758</v>
       </c>
     </row>
     <row r="47" spans="2:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -9477,23 +9483,23 @@
         <v>14962</v>
       </c>
       <c r="BH47" s="2">
+        <f t="shared" si="184"/>
+        <v>1826</v>
+      </c>
+      <c r="BI47" s="2">
+        <f t="shared" si="185"/>
+        <v>2605</v>
+      </c>
+      <c r="BJ47" s="2">
+        <f t="shared" si="186"/>
+        <v>5159</v>
+      </c>
+      <c r="BK47" s="2">
+        <f t="shared" si="187"/>
+        <v>5282</v>
+      </c>
+      <c r="BL47" s="2">
         <f t="shared" si="188"/>
-        <v>1826</v>
-      </c>
-      <c r="BI47" s="2">
-        <f t="shared" si="189"/>
-        <v>2605</v>
-      </c>
-      <c r="BJ47" s="2">
-        <f t="shared" si="190"/>
-        <v>5159</v>
-      </c>
-      <c r="BK47" s="2">
-        <f t="shared" si="191"/>
-        <v>5282</v>
-      </c>
-      <c r="BL47" s="2">
-        <f t="shared" si="192"/>
         <v>10080</v>
       </c>
       <c r="BT47" t="s">
@@ -9501,7 +9507,7 @@
       </c>
       <c r="BU47" s="15">
         <f>BU46/Main!K3</f>
-        <v>245.97188000938499</v>
+        <v>411.00854492728297</v>
       </c>
     </row>
     <row r="48" spans="2:166" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -9579,23 +9585,23 @@
         <v>2658</v>
       </c>
       <c r="BH48" s="2">
+        <f t="shared" si="184"/>
+        <v>239</v>
+      </c>
+      <c r="BI48" s="2">
+        <f t="shared" si="185"/>
+        <v>366</v>
+      </c>
+      <c r="BJ48" s="2">
+        <f t="shared" si="186"/>
+        <v>791</v>
+      </c>
+      <c r="BK48" s="2">
+        <f t="shared" si="187"/>
+        <v>3080</v>
+      </c>
+      <c r="BL48" s="2">
         <f t="shared" si="188"/>
-        <v>239</v>
-      </c>
-      <c r="BI48" s="2">
-        <f t="shared" si="189"/>
-        <v>366</v>
-      </c>
-      <c r="BJ48" s="2">
-        <f t="shared" si="190"/>
-        <v>791</v>
-      </c>
-      <c r="BK48" s="2">
-        <f t="shared" si="191"/>
-        <v>3080</v>
-      </c>
-      <c r="BL48" s="2">
-        <f t="shared" si="192"/>
         <v>3771</v>
       </c>
     </row>
@@ -9674,23 +9680,23 @@
         <v>9141</v>
       </c>
       <c r="BH49" s="2">
+        <f t="shared" si="184"/>
+        <v>2149</v>
+      </c>
+      <c r="BI49" s="2">
+        <f t="shared" si="185"/>
+        <v>2778</v>
+      </c>
+      <c r="BJ49" s="2">
+        <f t="shared" si="186"/>
+        <v>3807</v>
+      </c>
+      <c r="BK49" s="2">
+        <f t="shared" si="187"/>
+        <v>3914</v>
+      </c>
+      <c r="BL49" s="2">
         <f t="shared" si="188"/>
-        <v>2149</v>
-      </c>
-      <c r="BI49" s="2">
-        <f t="shared" si="189"/>
-        <v>2778</v>
-      </c>
-      <c r="BJ49" s="2">
-        <f t="shared" si="190"/>
-        <v>3807</v>
-      </c>
-      <c r="BK49" s="2">
-        <f t="shared" si="191"/>
-        <v>3914</v>
-      </c>
-      <c r="BL49" s="2">
-        <f t="shared" si="192"/>
         <v>6283</v>
       </c>
     </row>
@@ -9769,23 +9775,23 @@
         <v>2084</v>
       </c>
       <c r="BH50" s="2">
+        <f t="shared" si="184"/>
+        <v>707</v>
+      </c>
+      <c r="BI50" s="2">
+        <f t="shared" si="185"/>
+        <v>829</v>
+      </c>
+      <c r="BJ50" s="2">
+        <f t="shared" si="186"/>
+        <v>1038</v>
+      </c>
+      <c r="BK50" s="2">
+        <f t="shared" si="187"/>
+        <v>1346</v>
+      </c>
+      <c r="BL50" s="2">
         <f t="shared" si="188"/>
-        <v>707</v>
-      </c>
-      <c r="BI50" s="2">
-        <f t="shared" si="189"/>
-        <v>829</v>
-      </c>
-      <c r="BJ50" s="2">
-        <f t="shared" si="190"/>
-        <v>1038</v>
-      </c>
-      <c r="BK50" s="2">
-        <f t="shared" si="191"/>
-        <v>1346</v>
-      </c>
-      <c r="BL50" s="2">
-        <f t="shared" si="192"/>
         <v>1793</v>
       </c>
     </row>
@@ -9886,23 +9892,23 @@
         <v>6510</v>
       </c>
       <c r="BH51" s="2">
+        <f t="shared" si="184"/>
+        <v>6930</v>
+      </c>
+      <c r="BI51" s="2">
+        <f t="shared" si="185"/>
+        <v>6688</v>
+      </c>
+      <c r="BJ51" s="2">
+        <f t="shared" si="186"/>
+        <v>6048</v>
+      </c>
+      <c r="BK51" s="2">
+        <f t="shared" si="187"/>
+        <v>5542</v>
+      </c>
+      <c r="BL51" s="2">
         <f t="shared" si="188"/>
-        <v>6930</v>
-      </c>
-      <c r="BI51" s="2">
-        <f t="shared" si="189"/>
-        <v>6688</v>
-      </c>
-      <c r="BJ51" s="2">
-        <f t="shared" si="190"/>
-        <v>6048</v>
-      </c>
-      <c r="BK51" s="2">
-        <f t="shared" si="191"/>
-        <v>5542</v>
-      </c>
-      <c r="BL51" s="2">
-        <f t="shared" si="192"/>
         <v>5995</v>
       </c>
     </row>
@@ -9981,23 +9987,23 @@
         <v>13570</v>
       </c>
       <c r="BH52" s="2">
+        <f t="shared" si="184"/>
+        <v>806</v>
+      </c>
+      <c r="BI52" s="2">
+        <f t="shared" si="185"/>
+        <v>1222</v>
+      </c>
+      <c r="BJ52" s="2">
+        <f t="shared" si="186"/>
+        <v>3396</v>
+      </c>
+      <c r="BK52" s="2">
+        <f t="shared" si="187"/>
+        <v>6081</v>
+      </c>
+      <c r="BL52" s="2">
         <f t="shared" si="188"/>
-        <v>806</v>
-      </c>
-      <c r="BI52" s="2">
-        <f t="shared" si="189"/>
-        <v>1222</v>
-      </c>
-      <c r="BJ52" s="2">
-        <f t="shared" si="190"/>
-        <v>3396</v>
-      </c>
-      <c r="BK52" s="2">
-        <f t="shared" si="191"/>
-        <v>6081</v>
-      </c>
-      <c r="BL52" s="2">
-        <f t="shared" si="192"/>
         <v>10979</v>
       </c>
     </row>
@@ -10076,23 +10082,23 @@
         <v>7216</v>
       </c>
       <c r="BH53" s="2">
+        <f t="shared" si="184"/>
+        <v>2144</v>
+      </c>
+      <c r="BI53" s="2">
+        <f t="shared" si="185"/>
+        <v>3841</v>
+      </c>
+      <c r="BJ53" s="2">
+        <f t="shared" si="186"/>
+        <v>3820</v>
+      </c>
+      <c r="BK53" s="2">
+        <f t="shared" si="187"/>
+        <v>4500</v>
+      </c>
+      <c r="BL53" s="2">
         <f t="shared" si="188"/>
-        <v>2144</v>
-      </c>
-      <c r="BI53" s="2">
-        <f t="shared" si="189"/>
-        <v>3841</v>
-      </c>
-      <c r="BJ53" s="2">
-        <f t="shared" si="190"/>
-        <v>3820</v>
-      </c>
-      <c r="BK53" s="2">
-        <f t="shared" si="191"/>
-        <v>4500</v>
-      </c>
-      <c r="BL53" s="2">
-        <f t="shared" si="192"/>
         <v>6425</v>
       </c>
     </row>
@@ -10104,91 +10110,91 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="G54" s="2">
-        <f t="shared" ref="G54:M54" si="193">SUM(G45:G53)</f>
+        <f t="shared" ref="G54:M54" si="189">SUM(G45:G53)</f>
         <v>23254</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="193"/>
+        <f t="shared" si="189"/>
         <v>25180</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="193"/>
+        <f t="shared" si="189"/>
         <v>26881</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="193"/>
+        <f t="shared" si="189"/>
         <v>28791</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="193"/>
+        <f t="shared" si="189"/>
         <v>30796</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" si="193"/>
+        <f t="shared" si="189"/>
         <v>38650</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="193"/>
+        <f t="shared" si="189"/>
         <v>40632</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" ref="N54:Q54" si="194">SUM(N45:N53)</f>
+        <f t="shared" ref="N54:Q54" si="190">SUM(N45:N53)</f>
         <v>44187</v>
       </c>
       <c r="O54" s="2">
-        <f t="shared" si="194"/>
+        <f t="shared" si="190"/>
         <v>45212</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" si="194"/>
+        <f t="shared" si="190"/>
         <v>43476</v>
       </c>
       <c r="Q54" s="2">
-        <f t="shared" si="194"/>
+        <f t="shared" si="190"/>
         <v>40488</v>
       </c>
       <c r="R54" s="2">
-        <f t="shared" ref="R54:S54" si="195">SUM(R45:R53)</f>
+        <f t="shared" ref="R54:S54" si="191">SUM(R45:R53)</f>
         <v>41182</v>
       </c>
       <c r="S54" s="2">
-        <f t="shared" si="195"/>
+        <f t="shared" si="191"/>
         <v>44460</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" ref="T54:AB54" si="196">SUM(T45:T53)</f>
+        <f t="shared" ref="T54:AB54" si="192">SUM(T45:T53)</f>
         <v>49555</v>
       </c>
       <c r="U54" s="2">
-        <f t="shared" si="196"/>
+        <f t="shared" si="192"/>
         <v>54148</v>
       </c>
       <c r="V54" s="2">
-        <f t="shared" si="196"/>
+        <f t="shared" si="192"/>
         <v>65728</v>
       </c>
       <c r="W54" s="2">
-        <f t="shared" si="196"/>
+        <f t="shared" si="192"/>
         <v>77072</v>
       </c>
       <c r="X54" s="2">
-        <f t="shared" si="196"/>
+        <f t="shared" si="192"/>
         <v>85227</v>
       </c>
       <c r="Y54" s="2">
-        <f t="shared" si="196"/>
+        <f t="shared" si="192"/>
         <v>96013</v>
       </c>
       <c r="Z54" s="2">
-        <f t="shared" si="196"/>
+        <f t="shared" si="192"/>
         <v>111601</v>
       </c>
       <c r="AA54" s="2">
-        <f t="shared" si="196"/>
+        <f t="shared" si="192"/>
         <v>125254</v>
       </c>
       <c r="AB54" s="2">
-        <f t="shared" si="196"/>
+        <f t="shared" si="192"/>
         <v>140740</v>
       </c>
       <c r="BH54" s="2">
@@ -10305,23 +10311,23 @@
         <v>9064</v>
       </c>
       <c r="BH56" s="2">
-        <f t="shared" ref="BH56:BH61" si="197">+J56</f>
+        <f t="shared" ref="BH56:BH61" si="193">+J56</f>
         <v>1201</v>
       </c>
       <c r="BI56" s="2">
-        <f t="shared" ref="BI56:BI61" si="198">+N56</f>
+        <f t="shared" ref="BI56:BI61" si="194">+N56</f>
         <v>1783</v>
       </c>
       <c r="BJ56" s="2">
-        <f t="shared" ref="BJ56:BJ61" si="199">+R56</f>
+        <f t="shared" ref="BJ56:BJ61" si="195">+R56</f>
         <v>1193</v>
       </c>
       <c r="BK56" s="2">
-        <f t="shared" ref="BK56:BK61" si="200">+V56</f>
+        <f t="shared" ref="BK56:BK61" si="196">+V56</f>
         <v>2699</v>
       </c>
       <c r="BL56" s="2">
-        <f t="shared" ref="BL56:BL61" si="201">+Z56</f>
+        <f t="shared" ref="BL56:BL61" si="197">+Z56</f>
         <v>6310</v>
       </c>
     </row>
@@ -10400,23 +10406,23 @@
         <v>15193</v>
       </c>
       <c r="BH57" s="2">
+        <f t="shared" si="193"/>
+        <v>1725</v>
+      </c>
+      <c r="BI57" s="2">
+        <f t="shared" si="194"/>
+        <v>2552</v>
+      </c>
+      <c r="BJ57" s="2">
+        <f t="shared" si="195"/>
+        <v>4120</v>
+      </c>
+      <c r="BK57" s="2">
+        <f t="shared" si="196"/>
+        <v>6682</v>
+      </c>
+      <c r="BL57" s="2">
         <f t="shared" si="197"/>
-        <v>1725</v>
-      </c>
-      <c r="BI57" s="2">
-        <f t="shared" si="198"/>
-        <v>2552</v>
-      </c>
-      <c r="BJ57" s="2">
-        <f t="shared" si="199"/>
-        <v>4120</v>
-      </c>
-      <c r="BK57" s="2">
-        <f t="shared" si="200"/>
-        <v>6682</v>
-      </c>
-      <c r="BL57" s="2">
-        <f t="shared" si="201"/>
         <v>11737</v>
       </c>
     </row>
@@ -10507,23 +10513,23 @@
         <v>8466</v>
       </c>
       <c r="BH58" s="2">
+        <f t="shared" si="193"/>
+        <v>6963</v>
+      </c>
+      <c r="BI58" s="2">
+        <f t="shared" si="194"/>
+        <v>10946</v>
+      </c>
+      <c r="BJ58" s="2">
+        <f t="shared" si="195"/>
+        <v>10953</v>
+      </c>
+      <c r="BK58" s="2">
+        <f t="shared" si="196"/>
+        <v>9709</v>
+      </c>
+      <c r="BL58" s="2">
         <f t="shared" si="197"/>
-        <v>6963</v>
-      </c>
-      <c r="BI58" s="2">
-        <f t="shared" si="198"/>
-        <v>10946</v>
-      </c>
-      <c r="BJ58" s="2">
-        <f t="shared" si="199"/>
-        <v>10953</v>
-      </c>
-      <c r="BK58" s="2">
-        <f t="shared" si="200"/>
-        <v>9709</v>
-      </c>
-      <c r="BL58" s="2">
-        <f t="shared" si="201"/>
         <v>8463</v>
       </c>
     </row>
@@ -10603,23 +10609,23 @@
         <v>1831</v>
       </c>
       <c r="BH59" s="2">
+        <f t="shared" si="193"/>
+        <v>634</v>
+      </c>
+      <c r="BI59" s="2">
+        <f t="shared" si="194"/>
+        <v>741</v>
+      </c>
+      <c r="BJ59" s="2">
+        <f t="shared" si="195"/>
+        <v>902</v>
+      </c>
+      <c r="BK59" s="2">
+        <f t="shared" si="196"/>
+        <v>1119</v>
+      </c>
+      <c r="BL59" s="2">
         <f t="shared" si="197"/>
-        <v>634</v>
-      </c>
-      <c r="BI59" s="2">
-        <f t="shared" si="198"/>
-        <v>741</v>
-      </c>
-      <c r="BJ59" s="2">
-        <f t="shared" si="199"/>
-        <v>902</v>
-      </c>
-      <c r="BK59" s="2">
-        <f t="shared" si="200"/>
-        <v>1119</v>
-      </c>
-      <c r="BL59" s="2">
-        <f t="shared" si="201"/>
         <v>1519</v>
       </c>
     </row>
@@ -10698,23 +10704,23 @@
         <v>6055</v>
       </c>
       <c r="BH60" s="2">
+        <f t="shared" si="193"/>
+        <v>1375</v>
+      </c>
+      <c r="BI60" s="2">
+        <f t="shared" si="194"/>
+        <v>1553</v>
+      </c>
+      <c r="BJ60" s="2">
+        <f t="shared" si="195"/>
+        <v>1913</v>
+      </c>
+      <c r="BK60" s="2">
+        <f t="shared" si="196"/>
+        <v>2541</v>
+      </c>
+      <c r="BL60" s="2">
         <f t="shared" si="197"/>
-        <v>1375</v>
-      </c>
-      <c r="BI60" s="2">
-        <f t="shared" si="198"/>
-        <v>1553</v>
-      </c>
-      <c r="BJ60" s="2">
-        <f t="shared" si="199"/>
-        <v>1913</v>
-      </c>
-      <c r="BK60" s="2">
-        <f t="shared" si="200"/>
-        <v>2541</v>
-      </c>
-      <c r="BL60" s="2">
-        <f t="shared" si="201"/>
         <v>4245</v>
       </c>
     </row>
@@ -10793,23 +10799,23 @@
         <v>100131</v>
       </c>
       <c r="BH61" s="2">
+        <f t="shared" si="193"/>
+        <v>16893</v>
+      </c>
+      <c r="BI61" s="2">
+        <f t="shared" si="194"/>
+        <v>26612</v>
+      </c>
+      <c r="BJ61" s="2">
+        <f t="shared" si="195"/>
+        <v>22101</v>
+      </c>
+      <c r="BK61" s="2">
+        <f t="shared" si="196"/>
+        <v>42978</v>
+      </c>
+      <c r="BL61" s="2">
         <f t="shared" si="197"/>
-        <v>16893</v>
-      </c>
-      <c r="BI61" s="2">
-        <f t="shared" si="198"/>
-        <v>26612</v>
-      </c>
-      <c r="BJ61" s="2">
-        <f t="shared" si="199"/>
-        <v>22101</v>
-      </c>
-      <c r="BK61" s="2">
-        <f t="shared" si="200"/>
-        <v>42978</v>
-      </c>
-      <c r="BL61" s="2">
-        <f t="shared" si="201"/>
         <v>79327</v>
       </c>
     </row>
@@ -10821,95 +10827,95 @@
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="2">
-        <f t="shared" ref="F62" si="202">SUM(F56:F61)</f>
+        <f t="shared" ref="F62" si="198">SUM(F56:F61)</f>
         <v>0</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" ref="G62:M62" si="203">SUM(G56:G61)</f>
+        <f t="shared" ref="G62:M62" si="199">SUM(G56:G61)</f>
         <v>23254</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="199"/>
         <v>25180</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="199"/>
         <v>26881</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="199"/>
         <v>28791</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="199"/>
         <v>30796</v>
       </c>
       <c r="L62" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="199"/>
         <v>38650</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="203"/>
+        <f t="shared" si="199"/>
         <v>40632</v>
       </c>
       <c r="N62" s="2">
-        <f t="shared" ref="N62:Q62" si="204">SUM(N56:N61)</f>
+        <f t="shared" ref="N62:Q62" si="200">SUM(N56:N61)</f>
         <v>44187</v>
       </c>
       <c r="O62" s="2">
-        <f t="shared" si="204"/>
+        <f t="shared" si="200"/>
         <v>45212</v>
       </c>
       <c r="P62" s="2">
-        <f t="shared" si="204"/>
+        <f t="shared" si="200"/>
         <v>43476</v>
       </c>
       <c r="Q62" s="2">
-        <f t="shared" si="204"/>
+        <f t="shared" si="200"/>
         <v>40488</v>
       </c>
       <c r="R62" s="2">
-        <f t="shared" ref="R62:S62" si="205">SUM(R56:R61)</f>
+        <f t="shared" ref="R62:S62" si="201">SUM(R56:R61)</f>
         <v>41182</v>
       </c>
       <c r="S62" s="2">
-        <f t="shared" si="205"/>
+        <f t="shared" si="201"/>
         <v>44460</v>
       </c>
       <c r="T62" s="2">
-        <f t="shared" ref="T62:AB62" si="206">SUM(T56:T61)</f>
+        <f t="shared" ref="T62:AB62" si="202">SUM(T56:T61)</f>
         <v>49555</v>
       </c>
       <c r="U62" s="2">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>54148</v>
       </c>
       <c r="V62" s="2">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>65728</v>
       </c>
       <c r="W62" s="2">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>77072</v>
       </c>
       <c r="X62" s="2">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>85227</v>
       </c>
       <c r="Y62" s="2">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>96013</v>
       </c>
       <c r="Z62" s="2">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>111601</v>
       </c>
       <c r="AA62" s="2">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>125254</v>
       </c>
       <c r="AB62" s="2">
-        <f t="shared" si="206"/>
+        <f t="shared" si="202"/>
         <v>140740</v>
       </c>
       <c r="BH62" s="2">
@@ -10946,95 +10952,95 @@
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5">
-        <f t="shared" ref="F64:K64" si="207">F34</f>
+        <f t="shared" ref="F64:K64" si="203">F34</f>
         <v>951</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="203"/>
         <v>917</v>
       </c>
       <c r="H64" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="203"/>
         <v>622</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="203"/>
         <v>1336</v>
       </c>
       <c r="J64" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="203"/>
         <v>1457</v>
       </c>
       <c r="K64" s="5">
-        <f t="shared" si="207"/>
+        <f t="shared" si="203"/>
         <v>1912</v>
       </c>
       <c r="L64" s="5">
-        <f t="shared" ref="L64:R64" si="208">L34</f>
+        <f t="shared" ref="L64:R64" si="204">L34</f>
         <v>2374</v>
       </c>
       <c r="M64" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="204"/>
         <v>2464</v>
       </c>
       <c r="N64" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="204"/>
         <v>3003</v>
       </c>
       <c r="O64" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="204"/>
         <v>2971</v>
       </c>
       <c r="P64" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="204"/>
         <v>656</v>
       </c>
       <c r="Q64" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="204"/>
         <v>680</v>
       </c>
       <c r="R64" s="5">
-        <f t="shared" si="208"/>
+        <f t="shared" si="204"/>
         <v>1227</v>
       </c>
       <c r="S64" s="5">
-        <f t="shared" ref="S64:AB64" si="209">S34</f>
+        <f t="shared" ref="S64:AB64" si="205">S34</f>
         <v>2043</v>
       </c>
       <c r="T64" s="5">
-        <f t="shared" si="209"/>
+        <f t="shared" si="205"/>
         <v>6188</v>
       </c>
       <c r="U64" s="5">
-        <f t="shared" si="209"/>
+        <f t="shared" si="205"/>
         <v>9243</v>
       </c>
       <c r="V64" s="5">
-        <f t="shared" si="209"/>
+        <f t="shared" si="205"/>
         <v>12285</v>
       </c>
       <c r="W64" s="5">
-        <f t="shared" si="209"/>
+        <f t="shared" si="205"/>
         <v>14881</v>
       </c>
       <c r="X64" s="5">
-        <f t="shared" si="209"/>
+        <f t="shared" si="205"/>
         <v>16599</v>
       </c>
       <c r="Y64" s="5">
-        <f t="shared" si="209"/>
+        <f t="shared" si="205"/>
         <v>19309</v>
       </c>
       <c r="Z64" s="5">
-        <f t="shared" si="209"/>
+        <f t="shared" si="205"/>
         <v>22091</v>
       </c>
       <c r="AA64" s="5">
-        <f t="shared" si="209"/>
+        <f t="shared" si="205"/>
         <v>18775</v>
       </c>
       <c r="AB64" s="5">
-        <f t="shared" si="209"/>
+        <f t="shared" si="205"/>
         <v>26422</v>
       </c>
       <c r="AF64" s="5"/>
@@ -11206,7 +11212,7 @@
         <v>4332</v>
       </c>
       <c r="BI65" s="2">
-        <f t="shared" ref="BI65:BI72" si="210">SUM(K65:N65)</f>
+        <f t="shared" ref="BI65:BI72" si="206">SUM(K65:N65)</f>
         <v>9752</v>
       </c>
       <c r="BJ65" s="2">
@@ -11240,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" ref="J66:J72" si="211">+BH66-I66-H66-G66</f>
+        <f t="shared" ref="J66:J72" si="207">+BH66-I66-H66-G66</f>
         <v>0</v>
       </c>
       <c r="K66" s="5">
@@ -11308,19 +11314,19 @@
         <v>0</v>
       </c>
       <c r="BI66" s="2">
-        <f t="shared" si="210"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="BJ66" s="2">
-        <f t="shared" ref="BJ66:BJ72" si="212">SUM(O66:R66)</f>
+        <f t="shared" ref="BJ66:BJ72" si="208">SUM(O66:R66)</f>
         <v>1353</v>
       </c>
       <c r="BK66" s="2">
-        <f t="shared" ref="BK66:BK72" si="213">SUM(S66:V66)</f>
+        <f t="shared" ref="BK66:BK72" si="209">SUM(S66:V66)</f>
         <v>0</v>
       </c>
       <c r="BL66" s="2">
-        <f t="shared" ref="BL66:BL72" si="214">SUM(W66:Z66)</f>
+        <f t="shared" ref="BL66:BL72" si="210">SUM(W66:Z66)</f>
         <v>0</v>
       </c>
     </row>
@@ -11344,7 +11350,7 @@
         <v>383</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="211"/>
+        <f t="shared" si="207"/>
         <v>416</v>
       </c>
       <c r="K67" s="5">
@@ -11423,19 +11429,19 @@
         <v>1397</v>
       </c>
       <c r="BI67" s="2">
+        <f t="shared" si="206"/>
+        <v>2004</v>
+      </c>
+      <c r="BJ67" s="2">
+        <f t="shared" si="208"/>
+        <v>2709</v>
+      </c>
+      <c r="BK67" s="2">
+        <f t="shared" si="209"/>
+        <v>3549</v>
+      </c>
+      <c r="BL67" s="2">
         <f t="shared" si="210"/>
-        <v>2004</v>
-      </c>
-      <c r="BJ67" s="2">
-        <f t="shared" si="212"/>
-        <v>2709</v>
-      </c>
-      <c r="BK67" s="2">
-        <f t="shared" si="213"/>
-        <v>3549</v>
-      </c>
-      <c r="BL67" s="2">
-        <f t="shared" si="214"/>
         <v>4737</v>
       </c>
     </row>
@@ -11459,7 +11465,7 @@
         <v>299</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="211"/>
+        <f t="shared" si="207"/>
         <v>288</v>
       </c>
       <c r="K68" s="5">
@@ -11538,19 +11544,19 @@
         <v>1098</v>
       </c>
       <c r="BI68" s="2">
+        <f t="shared" si="206"/>
+        <v>1174</v>
+      </c>
+      <c r="BJ68" s="2">
+        <f t="shared" si="208"/>
+        <v>1544</v>
+      </c>
+      <c r="BK68" s="2">
+        <f t="shared" si="209"/>
+        <v>1508</v>
+      </c>
+      <c r="BL68" s="2">
         <f t="shared" si="210"/>
-        <v>1174</v>
-      </c>
-      <c r="BJ68" s="2">
-        <f t="shared" si="212"/>
-        <v>1544</v>
-      </c>
-      <c r="BK68" s="2">
-        <f t="shared" si="213"/>
-        <v>1508</v>
-      </c>
-      <c r="BL68" s="2">
-        <f t="shared" si="214"/>
         <v>1864</v>
       </c>
     </row>
@@ -11572,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="5">
-        <f t="shared" si="211"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="K69" s="5">
@@ -11651,19 +11657,19 @@
         <v>0</v>
       </c>
       <c r="BI69" s="2">
+        <f t="shared" si="206"/>
+        <v>-100</v>
+      </c>
+      <c r="BJ69" s="2">
+        <f t="shared" si="208"/>
+        <v>45</v>
+      </c>
+      <c r="BK69" s="2">
+        <f t="shared" si="209"/>
+        <v>-238</v>
+      </c>
+      <c r="BL69" s="2">
         <f t="shared" si="210"/>
-        <v>-100</v>
-      </c>
-      <c r="BJ69" s="2">
-        <f t="shared" si="212"/>
-        <v>45</v>
-      </c>
-      <c r="BK69" s="2">
-        <f t="shared" si="213"/>
-        <v>-238</v>
-      </c>
-      <c r="BL69" s="2">
-        <f t="shared" si="214"/>
         <v>-1029</v>
       </c>
     </row>
@@ -11687,7 +11693,7 @@
         <v>-53</v>
       </c>
       <c r="J70" s="5">
-        <f t="shared" si="211"/>
+        <f t="shared" si="207"/>
         <v>-165</v>
       </c>
       <c r="K70" s="5">
@@ -11766,19 +11772,19 @@
         <v>-282</v>
       </c>
       <c r="BI70" s="2">
+        <f t="shared" si="206"/>
+        <v>-406</v>
+      </c>
+      <c r="BJ70" s="2">
+        <f t="shared" si="208"/>
+        <v>-2164</v>
+      </c>
+      <c r="BK70" s="2">
+        <f t="shared" si="209"/>
+        <v>-2489</v>
+      </c>
+      <c r="BL70" s="2">
         <f t="shared" si="210"/>
-        <v>-406</v>
-      </c>
-      <c r="BJ70" s="2">
-        <f t="shared" si="212"/>
-        <v>-2164</v>
-      </c>
-      <c r="BK70" s="2">
-        <f t="shared" si="213"/>
-        <v>-2489</v>
-      </c>
-      <c r="BL70" s="2">
-        <f t="shared" si="214"/>
         <v>-4477</v>
       </c>
     </row>
@@ -11802,7 +11808,7 @@
         <v>3</v>
       </c>
       <c r="J71" s="5">
-        <f t="shared" si="211"/>
+        <f t="shared" si="207"/>
         <v>-18</v>
       </c>
       <c r="K71" s="5">
@@ -11881,19 +11887,19 @@
         <v>-20</v>
       </c>
       <c r="BI71" s="2">
+        <f t="shared" si="206"/>
+        <v>47</v>
+      </c>
+      <c r="BJ71" s="2">
+        <f t="shared" si="208"/>
+        <v>-7</v>
+      </c>
+      <c r="BK71" s="2">
+        <f t="shared" si="209"/>
+        <v>-278</v>
+      </c>
+      <c r="BL71" s="2">
         <f t="shared" si="210"/>
-        <v>47</v>
-      </c>
-      <c r="BJ71" s="2">
-        <f t="shared" si="212"/>
-        <v>-7</v>
-      </c>
-      <c r="BK71" s="2">
-        <f t="shared" si="213"/>
-        <v>-278</v>
-      </c>
-      <c r="BL71" s="2">
-        <f t="shared" si="214"/>
         <v>-503</v>
       </c>
     </row>
@@ -11918,7 +11924,7 @@
         <v>-689</v>
       </c>
       <c r="J72" s="5">
-        <f t="shared" si="211"/>
+        <f t="shared" si="207"/>
         <v>89</v>
       </c>
       <c r="K72" s="5">
@@ -12006,19 +12012,19 @@
         <v>-703</v>
       </c>
       <c r="BI72" s="2">
+        <f t="shared" si="206"/>
+        <v>-3363</v>
+      </c>
+      <c r="BJ72" s="2">
+        <f t="shared" si="208"/>
+        <v>-2207</v>
+      </c>
+      <c r="BK72" s="2">
+        <f t="shared" si="209"/>
+        <v>-3722</v>
+      </c>
+      <c r="BL72" s="2">
         <f t="shared" si="210"/>
-        <v>-3363</v>
-      </c>
-      <c r="BJ72" s="2">
-        <f t="shared" si="212"/>
-        <v>-2207</v>
-      </c>
-      <c r="BK72" s="2">
-        <f t="shared" si="213"/>
-        <v>-3722</v>
-      </c>
-      <c r="BL72" s="2">
-        <f t="shared" si="214"/>
         <v>-9384</v>
       </c>
     </row>
@@ -12031,91 +12037,91 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5">
-        <f t="shared" ref="G73:AB73" si="215">SUM(G65:G72)</f>
+        <f t="shared" ref="G73:AB73" si="211">SUM(G65:G72)</f>
         <v>909</v>
       </c>
       <c r="H73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>1567</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>1279</v>
       </c>
       <c r="J73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>2067</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>1874</v>
       </c>
       <c r="L73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>2682</v>
       </c>
       <c r="M73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>1519</v>
       </c>
       <c r="N73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>3033</v>
       </c>
       <c r="O73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>1731</v>
       </c>
       <c r="P73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>1270</v>
       </c>
       <c r="Q73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>392</v>
       </c>
       <c r="R73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>2248</v>
       </c>
       <c r="S73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>2911</v>
       </c>
       <c r="T73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>6348</v>
       </c>
       <c r="U73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>7332</v>
       </c>
       <c r="V73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>11499</v>
       </c>
       <c r="W73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>15345</v>
       </c>
       <c r="X73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>14488</v>
       </c>
       <c r="Y73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>17627</v>
       </c>
       <c r="Z73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>16628</v>
       </c>
       <c r="AA73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>27414</v>
       </c>
       <c r="AB73" s="5">
-        <f t="shared" si="215"/>
+        <f t="shared" si="211"/>
         <v>15365</v>
       </c>
       <c r="AF73" s="5"/>
@@ -12140,31 +12146,31 @@
       <c r="AY73" s="5"/>
       <c r="AZ73" s="5"/>
       <c r="BF73" s="2">
-        <f t="shared" ref="BF73:BL73" si="216">SUM(BF65:BF72)</f>
+        <f t="shared" ref="BF73:BL73" si="212">SUM(BF65:BF72)</f>
         <v>3743</v>
       </c>
       <c r="BG73" s="2">
-        <f t="shared" si="216"/>
+        <f t="shared" si="212"/>
         <v>4761</v>
       </c>
       <c r="BH73" s="2">
-        <f t="shared" si="216"/>
+        <f t="shared" si="212"/>
         <v>5822</v>
       </c>
       <c r="BI73" s="2">
-        <f t="shared" si="216"/>
+        <f t="shared" si="212"/>
         <v>9108</v>
       </c>
       <c r="BJ73" s="2">
-        <f t="shared" si="216"/>
+        <f t="shared" si="212"/>
         <v>5641</v>
       </c>
       <c r="BK73" s="2">
-        <f t="shared" si="216"/>
+        <f t="shared" si="212"/>
         <v>28090</v>
       </c>
       <c r="BL73" s="2">
-        <f t="shared" si="216"/>
+        <f t="shared" si="212"/>
         <v>64088</v>
       </c>
     </row>
@@ -12195,7 +12201,7 @@
         <v>-175</v>
       </c>
       <c r="J75" s="5">
-        <f t="shared" ref="J75:J77" si="217">+BH75-I75-H75-G75</f>
+        <f t="shared" ref="J75:J77" si="213">+BH75-I75-H75-G75</f>
         <v>-2846</v>
       </c>
       <c r="K75" s="5">
@@ -12287,15 +12293,15 @@
         <v>-8591</v>
       </c>
       <c r="BJ75" s="2">
-        <f t="shared" ref="BJ75:BJ77" si="218">SUM(O75:R75)</f>
+        <f t="shared" ref="BJ75:BJ77" si="214">SUM(O75:R75)</f>
         <v>9257</v>
       </c>
       <c r="BK75" s="2">
-        <f t="shared" ref="BK75:BK80" si="219">SUM(S75:V75)</f>
+        <f t="shared" ref="BK75:BK80" si="215">SUM(S75:V75)</f>
         <v>-9414</v>
       </c>
       <c r="BL75" s="2">
-        <f t="shared" ref="BL75:BL80" si="220">SUM(W75:Z75)</f>
+        <f t="shared" ref="BL75:BL80" si="216">SUM(W75:Z75)</f>
         <v>-16178</v>
       </c>
     </row>
@@ -12319,7 +12325,7 @@
         <v>-473</v>
       </c>
       <c r="J76" s="5">
-        <f t="shared" si="217"/>
+        <f t="shared" si="213"/>
         <v>-283</v>
       </c>
       <c r="K76" s="5">
@@ -12402,15 +12408,15 @@
         <v>-976</v>
       </c>
       <c r="BJ76" s="2">
-        <f t="shared" si="218"/>
+        <f t="shared" si="214"/>
         <v>-1833</v>
       </c>
       <c r="BK76" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="215"/>
         <v>-1069</v>
       </c>
       <c r="BL76" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="216"/>
         <v>-3236</v>
       </c>
     </row>
@@ -12434,7 +12440,7 @@
         <v>-1353</v>
       </c>
       <c r="J77" s="5">
-        <f t="shared" si="217"/>
+        <f t="shared" si="213"/>
         <v>0</v>
       </c>
       <c r="K77" s="5">
@@ -12516,15 +12522,15 @@
         <v>-263</v>
       </c>
       <c r="BJ77" s="2">
-        <f t="shared" si="218"/>
+        <f t="shared" si="214"/>
         <v>-49</v>
       </c>
       <c r="BK77" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="215"/>
         <v>-83</v>
       </c>
       <c r="BL77" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="216"/>
         <v>-1007</v>
       </c>
     </row>
@@ -12537,91 +12543,91 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5">
-        <f t="shared" ref="G78:N78" si="221">SUM(G75:G77)</f>
+        <f t="shared" ref="G78:N78" si="217">SUM(G75:G77)</f>
         <v>-1055</v>
       </c>
       <c r="H78" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="217"/>
         <v>-13490</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="217"/>
         <v>-2001</v>
       </c>
       <c r="J78" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="217"/>
         <v>-3129</v>
       </c>
       <c r="K78" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="217"/>
         <v>-1272</v>
       </c>
       <c r="L78" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="217"/>
         <v>-2533</v>
       </c>
       <c r="M78" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="217"/>
         <v>-4439</v>
       </c>
       <c r="N78" s="5">
-        <f t="shared" si="221"/>
+        <f t="shared" si="217"/>
         <v>-1586</v>
       </c>
       <c r="O78" s="5">
-        <f t="shared" ref="O78:S78" si="222">SUM(O75:O77)</f>
+        <f t="shared" ref="O78:S78" si="218">SUM(O75:O77)</f>
         <v>2612</v>
       </c>
       <c r="P78" s="5">
-        <f t="shared" si="222"/>
+        <f t="shared" si="218"/>
         <v>1618</v>
       </c>
       <c r="Q78" s="5">
-        <f t="shared" si="222"/>
+        <f t="shared" si="218"/>
         <v>3148</v>
       </c>
       <c r="R78" s="5">
-        <f t="shared" si="222"/>
+        <f t="shared" si="218"/>
         <v>-3</v>
       </c>
       <c r="S78" s="5">
-        <f t="shared" si="222"/>
+        <f t="shared" si="218"/>
         <v>-841</v>
       </c>
       <c r="T78" s="5">
-        <f t="shared" ref="T78:AB78" si="223">SUM(T75:T77)</f>
+        <f t="shared" ref="T78:AB78" si="219">SUM(T75:T77)</f>
         <v>-446</v>
       </c>
       <c r="U78" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="219"/>
         <v>-3170</v>
       </c>
       <c r="V78" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="219"/>
         <v>-6109</v>
       </c>
       <c r="W78" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="219"/>
         <v>-5693</v>
       </c>
       <c r="X78" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="219"/>
         <v>-3184</v>
       </c>
       <c r="Y78" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="219"/>
         <v>-4346</v>
       </c>
       <c r="Z78" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="219"/>
         <v>-7198</v>
       </c>
       <c r="AA78" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="219"/>
         <v>-5216</v>
       </c>
       <c r="AB78" s="5">
-        <f t="shared" si="223"/>
+        <f t="shared" si="219"/>
         <v>-7127</v>
       </c>
       <c r="AF78" s="5"/>
@@ -12646,11 +12652,11 @@
       <c r="AY78" s="5"/>
       <c r="AZ78" s="5"/>
       <c r="BF78" s="2">
-        <f t="shared" ref="BF78:BG78" si="224">SUM(BF75:BF77)</f>
+        <f t="shared" ref="BF78:BG78" si="220">SUM(BF75:BF77)</f>
         <v>-4097</v>
       </c>
       <c r="BG78" s="2">
-        <f t="shared" si="224"/>
+        <f t="shared" si="220"/>
         <v>6145</v>
       </c>
       <c r="BH78" s="2">
@@ -12697,7 +12703,7 @@
         <v>96</v>
       </c>
       <c r="J80" s="5">
-        <f t="shared" ref="J80:J85" si="225">+BH80-I80-H80-G80</f>
+        <f t="shared" ref="J80:J85" si="221">+BH80-I80-H80-G80</f>
         <v>4</v>
       </c>
       <c r="K80" s="5">
@@ -12777,19 +12783,19 @@
         <v>194</v>
       </c>
       <c r="BI80" s="2">
-        <f t="shared" ref="BI80:BI85" si="226">SUM(K80:N80)</f>
+        <f t="shared" ref="BI80:BI85" si="222">SUM(K80:N80)</f>
         <v>281</v>
       </c>
       <c r="BJ80" s="2">
-        <f t="shared" ref="BJ80:BJ85" si="227">SUM(O80:R80)</f>
+        <f t="shared" ref="BJ80:BJ85" si="223">SUM(O80:R80)</f>
         <v>355</v>
       </c>
       <c r="BK80" s="2">
-        <f t="shared" si="219"/>
+        <f t="shared" si="215"/>
         <v>403</v>
       </c>
       <c r="BL80" s="2">
-        <f t="shared" si="220"/>
+        <f t="shared" si="216"/>
         <v>489</v>
       </c>
     </row>
@@ -12813,7 +12819,7 @@
         <v>-298</v>
       </c>
       <c r="J81" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="221"/>
         <v>-226</v>
       </c>
       <c r="K81" s="5">
@@ -12892,19 +12898,19 @@
         <v>-942</v>
       </c>
       <c r="BI81" s="2">
-        <f t="shared" si="226"/>
+        <f t="shared" si="222"/>
         <v>-1904</v>
       </c>
       <c r="BJ81" s="2">
-        <f t="shared" si="227"/>
+        <f t="shared" si="223"/>
         <v>-1475</v>
       </c>
       <c r="BK81" s="2">
-        <f t="shared" ref="BK81:BK85" si="228">SUM(S81:V81)</f>
+        <f t="shared" ref="BK81:BK85" si="224">SUM(S81:V81)</f>
         <v>-2783</v>
       </c>
       <c r="BL81" s="2">
-        <f t="shared" ref="BL81:BL85" si="229">SUM(W81:Z81)</f>
+        <f t="shared" ref="BL81:BL85" si="225">SUM(W81:Z81)</f>
         <v>-6929</v>
       </c>
     </row>
@@ -12928,7 +12934,7 @@
         <v>-99</v>
       </c>
       <c r="J82" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="221"/>
         <v>-99</v>
       </c>
       <c r="K82" s="5">
@@ -13007,19 +13013,19 @@
         <v>-395</v>
       </c>
       <c r="BI82" s="2">
-        <f t="shared" si="226"/>
+        <f t="shared" si="222"/>
         <v>-399</v>
       </c>
       <c r="BJ82" s="2">
-        <f t="shared" si="227"/>
+        <f t="shared" si="223"/>
         <v>-398</v>
       </c>
       <c r="BK82" s="2">
-        <f t="shared" si="228"/>
+        <f t="shared" si="224"/>
         <v>-395</v>
       </c>
       <c r="BL82" s="2">
-        <f t="shared" si="229"/>
+        <f t="shared" si="225"/>
         <v>-834</v>
       </c>
     </row>
@@ -13041,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="221"/>
         <v>0</v>
       </c>
       <c r="K83" s="5">
@@ -13117,19 +13123,19 @@
         <v>0</v>
       </c>
       <c r="BI83" s="2">
-        <f t="shared" si="226"/>
+        <f t="shared" si="222"/>
         <v>0</v>
       </c>
       <c r="BJ83" s="2">
-        <f t="shared" si="227"/>
+        <f t="shared" si="223"/>
         <v>-10039</v>
       </c>
       <c r="BK83" s="2">
-        <f t="shared" si="228"/>
+        <f t="shared" si="224"/>
         <v>-9533</v>
       </c>
       <c r="BL83" s="2">
-        <f t="shared" si="229"/>
+        <f t="shared" si="225"/>
         <v>-33705</v>
       </c>
     </row>
@@ -13154,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="221"/>
         <v>-4</v>
       </c>
       <c r="K84" s="5">
@@ -13233,19 +13239,19 @@
         <v>4964</v>
       </c>
       <c r="BI84" s="2">
-        <f t="shared" si="226"/>
+        <f t="shared" si="222"/>
         <v>3977</v>
       </c>
       <c r="BJ84" s="2">
-        <f t="shared" si="227"/>
+        <f t="shared" si="223"/>
         <v>-2</v>
       </c>
       <c r="BK84" s="2">
-        <f t="shared" si="228"/>
+        <f t="shared" si="224"/>
         <v>-1250</v>
       </c>
       <c r="BL84" s="2">
-        <f t="shared" si="229"/>
+        <f t="shared" si="225"/>
         <v>-1250</v>
       </c>
     </row>
@@ -13267,7 +13273,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="5">
-        <f t="shared" si="225"/>
+        <f t="shared" si="221"/>
         <v>-17</v>
       </c>
       <c r="K85" s="5">
@@ -13347,19 +13353,19 @@
         <v>-17</v>
       </c>
       <c r="BI85" s="2">
-        <f t="shared" si="226"/>
+        <f t="shared" si="222"/>
         <v>-90</v>
       </c>
       <c r="BJ85" s="2">
-        <f t="shared" si="227"/>
+        <f t="shared" si="223"/>
         <v>-58</v>
       </c>
       <c r="BK85" s="2">
-        <f t="shared" si="228"/>
+        <f t="shared" si="224"/>
         <v>-74</v>
       </c>
       <c r="BL85" s="2">
-        <f t="shared" si="229"/>
+        <f t="shared" si="225"/>
         <v>-129</v>
       </c>
     </row>
@@ -13372,91 +13378,91 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5">
-        <f t="shared" ref="G86:N86" si="230">SUM(G80:G85)</f>
+        <f t="shared" ref="G86:N86" si="226">SUM(G80:G85)</f>
         <v>4744</v>
       </c>
       <c r="H86" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="226"/>
         <v>-297</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="226"/>
         <v>-301</v>
       </c>
       <c r="J86" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="226"/>
         <v>-342</v>
       </c>
       <c r="K86" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="226"/>
         <v>-471</v>
       </c>
       <c r="L86" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="226"/>
         <v>4501</v>
       </c>
       <c r="M86" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="226"/>
         <v>-1420</v>
       </c>
       <c r="N86" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="226"/>
         <v>-745</v>
       </c>
       <c r="O86" s="5">
-        <f t="shared" ref="O86:S86" si="231">SUM(O80:O85)</f>
+        <f t="shared" ref="O86:S86" si="227">SUM(O80:O85)</f>
         <v>-2446</v>
       </c>
       <c r="P86" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="227"/>
         <v>-3762</v>
       </c>
       <c r="Q86" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="227"/>
         <v>-3753</v>
       </c>
       <c r="R86" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="227"/>
         <v>-1656</v>
       </c>
       <c r="S86" s="5">
-        <f t="shared" si="231"/>
+        <f t="shared" si="227"/>
         <v>-380</v>
       </c>
       <c r="T86" s="5">
-        <f t="shared" ref="T86:AB86" si="232">SUM(T80:T85)</f>
+        <f t="shared" ref="T86:AB86" si="228">SUM(T80:T85)</f>
         <v>-5099</v>
       </c>
       <c r="U86" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="228"/>
         <v>-4524</v>
       </c>
       <c r="V86" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="228"/>
         <v>-3629</v>
       </c>
       <c r="W86" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="228"/>
         <v>-9345</v>
       </c>
       <c r="X86" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="228"/>
         <v>-10320</v>
       </c>
       <c r="Y86" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="228"/>
         <v>-12745</v>
       </c>
       <c r="Z86" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="228"/>
         <v>-9948</v>
       </c>
       <c r="AA86" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="228"/>
         <v>-15553</v>
       </c>
       <c r="AB86" s="5">
-        <f t="shared" si="232"/>
+        <f t="shared" si="228"/>
         <v>-11833</v>
       </c>
       <c r="AF86" s="5"/>
@@ -13481,31 +13487,31 @@
       <c r="AY86" s="5"/>
       <c r="AZ86" s="5"/>
       <c r="BF86" s="2">
-        <f t="shared" ref="BF86:BL86" si="233">SUM(BF80:BF85)</f>
+        <f t="shared" ref="BF86:BL86" si="229">SUM(BF80:BF85)</f>
         <v>-2866</v>
       </c>
       <c r="BG86" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="229"/>
         <v>-792</v>
       </c>
       <c r="BH86" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="229"/>
         <v>3804</v>
       </c>
       <c r="BI86" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="229"/>
         <v>1865</v>
       </c>
       <c r="BJ86" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="229"/>
         <v>-11617</v>
       </c>
       <c r="BK86" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="229"/>
         <v>-13632</v>
       </c>
       <c r="BL86" s="2">
-        <f t="shared" si="233"/>
+        <f t="shared" si="229"/>
         <v>-42358</v>
       </c>
     </row>
@@ -13515,91 +13521,91 @@
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5">
-        <f t="shared" ref="G87:N87" si="234">G86+G78+G73</f>
+        <f t="shared" ref="G87:N87" si="230">G86+G78+G73</f>
         <v>4598</v>
       </c>
       <c r="H87" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="230"/>
         <v>-12220</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="230"/>
         <v>-1023</v>
       </c>
       <c r="J87" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="230"/>
         <v>-1404</v>
       </c>
       <c r="K87" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="230"/>
         <v>131</v>
       </c>
       <c r="L87" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="230"/>
         <v>4650</v>
       </c>
       <c r="M87" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="230"/>
         <v>-4340</v>
       </c>
       <c r="N87" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="230"/>
         <v>702</v>
       </c>
       <c r="O87" s="5">
-        <f t="shared" ref="O87:R87" si="235">O86+O78+O73</f>
+        <f t="shared" ref="O87:R87" si="231">O86+O78+O73</f>
         <v>1897</v>
       </c>
       <c r="P87" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="231"/>
         <v>-874</v>
       </c>
       <c r="Q87" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="231"/>
         <v>-213</v>
       </c>
       <c r="R87" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="231"/>
         <v>589</v>
       </c>
       <c r="S87" s="5">
-        <f t="shared" ref="S87:AB87" si="236">S86+S78+S73</f>
+        <f t="shared" ref="S87:AB87" si="232">S86+S78+S73</f>
         <v>1690</v>
       </c>
       <c r="T87" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="232"/>
         <v>803</v>
       </c>
       <c r="U87" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="232"/>
         <v>-362</v>
       </c>
       <c r="V87" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="232"/>
         <v>1761</v>
       </c>
       <c r="W87" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="232"/>
         <v>307</v>
       </c>
       <c r="X87" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="232"/>
         <v>984</v>
       </c>
       <c r="Y87" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="232"/>
         <v>536</v>
       </c>
       <c r="Z87" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="232"/>
         <v>-518</v>
       </c>
       <c r="AA87" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="232"/>
         <v>6645</v>
       </c>
       <c r="AB87" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="232"/>
         <v>-3595</v>
       </c>
       <c r="AF87" s="5"/>
@@ -13625,19 +13631,19 @@
       <c r="AZ87" s="5"/>
       <c r="BF87" s="5"/>
       <c r="BG87" s="5">
-        <f t="shared" ref="BG87:BJ87" si="237">BG86+BG78+BG73</f>
+        <f t="shared" ref="BG87:BJ87" si="233">BG86+BG78+BG73</f>
         <v>10114</v>
       </c>
       <c r="BH87" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="233"/>
         <v>-10049</v>
       </c>
       <c r="BI87" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="233"/>
         <v>1143</v>
       </c>
       <c r="BJ87" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="233"/>
         <v>1399</v>
       </c>
       <c r="BK87" s="5">
@@ -13658,27 +13664,27 @@
         <v>18839</v>
       </c>
       <c r="V89" s="2">
-        <f t="shared" ref="V89" si="238">SUM(S73:V73)</f>
+        <f t="shared" ref="V89" si="234">SUM(S73:V73)</f>
         <v>28090</v>
       </c>
       <c r="W89" s="2">
-        <f t="shared" ref="W89" si="239">SUM(T73:W73)</f>
+        <f t="shared" ref="W89" si="235">SUM(T73:W73)</f>
         <v>40524</v>
       </c>
       <c r="X89" s="2">
-        <f t="shared" ref="X89" si="240">SUM(U73:X73)</f>
+        <f t="shared" ref="X89" si="236">SUM(U73:X73)</f>
         <v>48664</v>
       </c>
       <c r="Y89" s="2">
-        <f t="shared" ref="Y89:AA89" si="241">SUM(V73:Y73)</f>
+        <f t="shared" ref="Y89:AA89" si="237">SUM(V73:Y73)</f>
         <v>58959</v>
       </c>
       <c r="Z89" s="2">
-        <f t="shared" si="241"/>
+        <f t="shared" si="237"/>
         <v>64088</v>
       </c>
       <c r="AA89" s="2">
-        <f t="shared" si="241"/>
+        <f t="shared" si="237"/>
         <v>76157</v>
       </c>
       <c r="AB89" s="2">
@@ -13689,15 +13695,15 @@
     <row r="90" spans="2:74" x14ac:dyDescent="0.25">
       <c r="X90" s="10"/>
       <c r="Y90" s="10">
-        <f t="shared" ref="Y90" si="242">+Y89/U89-1</f>
+        <f t="shared" ref="Y90" si="238">+Y89/U89-1</f>
         <v>2.1296247146876159</v>
       </c>
       <c r="Z90" s="10">
-        <f t="shared" ref="Z90:AA90" si="243">+Z89/V89-1</f>
+        <f t="shared" ref="Z90:AA90" si="239">+Z89/V89-1</f>
         <v>1.2815236739053044</v>
       </c>
       <c r="AA90" s="10">
-        <f t="shared" si="243"/>
+        <f t="shared" si="239"/>
         <v>0.87930609021814243</v>
       </c>
       <c r="AB90" s="10">
@@ -13711,91 +13717,91 @@
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5">
-        <f t="shared" ref="G93:N93" si="244">(G46/G24)*90</f>
+        <f t="shared" ref="G93:N93" si="240">(G46/G24)*90</f>
         <v>55.72402597402597</v>
       </c>
       <c r="H93" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="240"/>
         <v>48.51526125193999</v>
       </c>
       <c r="I93" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="240"/>
         <v>48.484976724502751</v>
       </c>
       <c r="J93" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="240"/>
         <v>43.695782530481715</v>
       </c>
       <c r="K93" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="240"/>
         <v>48.076311605723369</v>
       </c>
       <c r="L93" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="240"/>
         <v>49.598893499308438</v>
       </c>
       <c r="M93" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="240"/>
         <v>50.099957764324934</v>
       </c>
       <c r="N93" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="240"/>
         <v>54.755985869423007</v>
       </c>
       <c r="O93" s="5">
-        <f t="shared" ref="O93:AB93" si="245">(O46/O24)*90</f>
+        <f t="shared" ref="O93:AB93" si="241">(O46/O24)*90</f>
         <v>59.051640926640928</v>
       </c>
       <c r="P93" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="241"/>
         <v>71.379773269689736</v>
       </c>
       <c r="Q93" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="241"/>
         <v>74.476479514415786</v>
       </c>
       <c r="R93" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="241"/>
         <v>56.921170054536439</v>
       </c>
       <c r="S93" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="241"/>
         <v>51.056729699666299</v>
       </c>
       <c r="T93" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="241"/>
         <v>47.082253646257499</v>
       </c>
       <c r="U93" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="241"/>
         <v>41.269867549668874</v>
       </c>
       <c r="V93" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="241"/>
         <v>40.714382662986928</v>
       </c>
       <c r="W93" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="241"/>
         <v>42.729611426816156</v>
       </c>
       <c r="X93" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="241"/>
         <v>42.339547270306255</v>
       </c>
       <c r="Y93" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="241"/>
         <v>45.389943560800411</v>
       </c>
       <c r="Z93" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="241"/>
         <v>52.778978413973704</v>
       </c>
       <c r="AA93" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="241"/>
         <v>45.206300213335751</v>
       </c>
       <c r="AB93" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="241"/>
         <v>53.542134651177712</v>
       </c>
       <c r="AF93" s="5"/>
@@ -14122,7 +14128,7 @@
       <c r="AZ101" s="5"/>
       <c r="BA101" s="5"/>
       <c r="BL101" s="2">
-        <f t="shared" ref="BL101:BL119" si="246">SUM(W101:Z101)</f>
+        <f t="shared" ref="BL101:BL119" si="242">SUM(W101:Z101)</f>
         <v>100</v>
       </c>
     </row>
@@ -14196,7 +14202,7 @@
       <c r="AZ102" s="5"/>
       <c r="BA102" s="5"/>
       <c r="BL102" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>200</v>
       </c>
     </row>
@@ -14270,7 +14276,7 @@
       <c r="AZ103" s="5"/>
       <c r="BA103" s="5"/>
       <c r="BL103" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>200</v>
       </c>
     </row>
@@ -14344,7 +14350,7 @@
       <c r="AZ104" s="5"/>
       <c r="BA104" s="5"/>
       <c r="BL104" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>100</v>
       </c>
     </row>
@@ -14418,7 +14424,7 @@
       <c r="AZ105" s="5"/>
       <c r="BA105" s="5"/>
       <c r="BL105" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>400</v>
       </c>
     </row>
@@ -14492,7 +14498,7 @@
       <c r="AZ106" s="5"/>
       <c r="BA106" s="5"/>
       <c r="BL106" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
     </row>
@@ -14566,7 +14572,7 @@
       <c r="AZ107" s="5"/>
       <c r="BA107" s="5"/>
       <c r="BL107" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>400</v>
       </c>
     </row>
@@ -14640,7 +14646,7 @@
       <c r="AZ108" s="5"/>
       <c r="BA108" s="5"/>
       <c r="BL108" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>100</v>
       </c>
     </row>
@@ -14714,7 +14720,7 @@
       <c r="AZ109" s="5"/>
       <c r="BA109" s="5"/>
       <c r="BL109" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>100</v>
       </c>
     </row>
@@ -14788,7 +14794,7 @@
       <c r="AZ110" s="5"/>
       <c r="BA110" s="5"/>
       <c r="BL110" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>210</v>
       </c>
     </row>
@@ -14862,7 +14868,7 @@
       <c r="AZ111" s="5"/>
       <c r="BA111" s="5"/>
       <c r="BL111" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>90</v>
       </c>
     </row>
@@ -14936,7 +14942,7 @@
       <c r="AZ112" s="5"/>
       <c r="BA112" s="5"/>
       <c r="BL112" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
     </row>
@@ -15010,7 +15016,7 @@
       <c r="AZ113" s="5"/>
       <c r="BA113" s="5"/>
       <c r="BL113" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>95</v>
       </c>
     </row>
@@ -15084,7 +15090,7 @@
       <c r="AZ114" s="5"/>
       <c r="BA114" s="5"/>
       <c r="BL114" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>85</v>
       </c>
     </row>
@@ -15158,7 +15164,7 @@
       <c r="AZ115" s="5"/>
       <c r="BA115" s="5"/>
       <c r="BL115" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
     </row>
@@ -15232,7 +15238,7 @@
       <c r="AZ116" s="5"/>
       <c r="BA116" s="5"/>
       <c r="BL116" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>190</v>
       </c>
     </row>
@@ -15306,7 +15312,7 @@
       <c r="AZ117" s="5"/>
       <c r="BA117" s="5"/>
       <c r="BL117" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>160</v>
       </c>
     </row>
@@ -15380,7 +15386,7 @@
       <c r="AZ118" s="5"/>
       <c r="BA118" s="5"/>
       <c r="BL118" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>35</v>
       </c>
     </row>
@@ -15454,7 +15460,7 @@
       <c r="AZ119" s="5"/>
       <c r="BA119" s="5"/>
       <c r="BL119" s="2">
-        <f t="shared" si="246"/>
+        <f t="shared" si="242"/>
         <v>35</v>
       </c>
     </row>
@@ -15488,23 +15494,23 @@
         <v>360</v>
       </c>
       <c r="V120" s="9">
-        <f t="shared" ref="V120:Z120" si="247">SUM(V100:V119)</f>
+        <f t="shared" ref="V120:Z120" si="243">SUM(V100:V119)</f>
         <v>460</v>
       </c>
       <c r="W120" s="9">
-        <f t="shared" si="247"/>
+        <f t="shared" si="243"/>
         <v>570</v>
       </c>
       <c r="X120" s="9">
-        <f t="shared" si="247"/>
+        <f t="shared" si="243"/>
         <v>690</v>
       </c>
       <c r="Y120" s="9">
-        <f t="shared" si="247"/>
+        <f t="shared" si="243"/>
         <v>735</v>
       </c>
       <c r="Z120" s="9">
-        <f t="shared" si="247"/>
+        <f t="shared" si="243"/>
         <v>735</v>
       </c>
       <c r="AA120" s="9"/>
@@ -15796,31 +15802,31 @@
         <v>250</v>
       </c>
       <c r="U127" s="2">
-        <f t="shared" ref="U127:AA127" si="248">+U128-U129</f>
+        <f t="shared" ref="U127:AA127" si="244">+U128-U129</f>
         <v>880.00714285714275</v>
       </c>
       <c r="V127" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="244"/>
         <v>-647.79285714285652</v>
       </c>
       <c r="W127" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="244"/>
         <v>-2786.8428571428558</v>
       </c>
       <c r="X127" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="244"/>
         <v>-2171.2428571428572</v>
       </c>
       <c r="Y127" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="244"/>
         <v>-1903.9499999999971</v>
       </c>
       <c r="Z127" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="244"/>
         <v>-361.90000000000146</v>
       </c>
       <c r="AA127" s="2">
-        <f t="shared" si="248"/>
+        <f t="shared" si="244"/>
         <v>481.70000000000437</v>
       </c>
     </row>
@@ -15829,27 +15835,27 @@
         <v>249</v>
       </c>
       <c r="U128" s="2">
-        <f t="shared" ref="U128:Z128" si="249">+U131*0.45</f>
+        <f t="shared" ref="U128:Z128" si="245">+U131*0.45</f>
         <v>19000.007142857143</v>
       </c>
       <c r="V128" s="2">
-        <f t="shared" si="249"/>
+        <f t="shared" si="245"/>
         <v>21455.207142857143</v>
       </c>
       <c r="W128" s="2">
-        <f t="shared" si="249"/>
+        <f t="shared" si="245"/>
         <v>23257.157142857144</v>
       </c>
       <c r="X128" s="2">
-        <f t="shared" si="249"/>
+        <f t="shared" si="245"/>
         <v>27868.757142857143</v>
       </c>
       <c r="Y128" s="2">
-        <f t="shared" si="249"/>
+        <f t="shared" si="245"/>
         <v>33178.050000000003</v>
       </c>
       <c r="Z128" s="2">
-        <f t="shared" si="249"/>
+        <f t="shared" si="245"/>
         <v>38969.1</v>
       </c>
       <c r="AA128" s="2">
@@ -15862,52 +15868,52 @@
         <v>1</v>
       </c>
       <c r="S129" s="2">
-        <f t="shared" ref="S129:AB129" si="250">S24</f>
+        <f t="shared" ref="S129:AB129" si="246">S24</f>
         <v>7192</v>
       </c>
       <c r="T129" s="2">
-        <f t="shared" si="250"/>
+        <f t="shared" si="246"/>
         <v>13507</v>
       </c>
       <c r="U129" s="2">
-        <f t="shared" si="250"/>
+        <f t="shared" si="246"/>
         <v>18120</v>
       </c>
       <c r="V129" s="2">
-        <f t="shared" si="250"/>
+        <f t="shared" si="246"/>
         <v>22103</v>
       </c>
       <c r="W129" s="2">
-        <f t="shared" si="250"/>
+        <f t="shared" si="246"/>
         <v>26044</v>
       </c>
       <c r="X129" s="2">
-        <f t="shared" si="250"/>
+        <f t="shared" si="246"/>
         <v>30040</v>
       </c>
       <c r="Y129" s="2">
-        <f t="shared" si="250"/>
+        <f t="shared" si="246"/>
         <v>35082</v>
       </c>
       <c r="Z129" s="2">
-        <f t="shared" si="250"/>
+        <f t="shared" si="246"/>
         <v>39331</v>
       </c>
       <c r="AA129" s="2">
-        <f t="shared" si="250"/>
+        <f t="shared" si="246"/>
         <v>44062</v>
       </c>
       <c r="AB129" s="2">
-        <f t="shared" si="250"/>
+        <f t="shared" si="246"/>
         <v>46743</v>
       </c>
       <c r="AC129" s="2">
-        <f>+AC131*0.39</f>
-        <v>51197.951999999997</v>
+        <f>+AC131*0.43</f>
+        <v>55785.404999999999</v>
       </c>
       <c r="AD129" s="2">
-        <f>+AD131*0.39</f>
-        <v>52984.526400000002</v>
+        <f>+AD131*0.43</f>
+        <v>58826.906800000004</v>
       </c>
     </row>
     <row r="130" spans="2:30" x14ac:dyDescent="0.25">
@@ -15915,52 +15921,52 @@
         <v>22</v>
       </c>
       <c r="S130" s="5">
-        <f t="shared" ref="S130:AB130" si="251">S22</f>
+        <f t="shared" ref="S130:AB130" si="247">S22</f>
         <v>4284</v>
       </c>
       <c r="T130" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="247"/>
         <v>10323</v>
       </c>
       <c r="U130" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="247"/>
         <v>14514</v>
       </c>
       <c r="V130" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="247"/>
         <v>18404</v>
       </c>
       <c r="W130" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="247"/>
         <v>22563</v>
       </c>
       <c r="X130" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="247"/>
         <v>26272</v>
       </c>
       <c r="Y130" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="247"/>
         <v>30771</v>
       </c>
       <c r="Z130" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="247"/>
         <v>35580</v>
       </c>
       <c r="AA130" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="247"/>
         <v>39112</v>
       </c>
       <c r="AB130" s="5">
-        <f t="shared" si="251"/>
+        <f t="shared" si="247"/>
         <v>41096</v>
       </c>
       <c r="AC130" s="5">
         <f>+AC131*0.35</f>
-        <v>45946.87999999999</v>
+        <v>45406.724999999999</v>
       </c>
       <c r="AD130" s="5">
         <f>+AD131*0.35</f>
-        <v>47550.216</v>
+        <v>47882.366000000002</v>
       </c>
     </row>
     <row r="131" spans="2:30" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -15988,48 +15994,48 @@
         <v>36225.571428571428</v>
       </c>
       <c r="T131" s="8">
-        <f t="shared" ref="T131:AD131" si="252">SUM(T132:T140)</f>
+        <f t="shared" ref="T131:AD131" si="248">SUM(T132:T140)</f>
         <v>40929.238095238092</v>
       </c>
       <c r="U131" s="8">
-        <f t="shared" si="252"/>
+        <f t="shared" si="248"/>
         <v>42222.238095238092</v>
       </c>
       <c r="V131" s="8">
-        <f t="shared" si="252"/>
+        <f t="shared" si="248"/>
         <v>47678.238095238092</v>
       </c>
       <c r="W131" s="8">
-        <f t="shared" si="252"/>
+        <f t="shared" si="248"/>
         <v>51682.571428571428</v>
       </c>
       <c r="X131" s="8">
-        <f t="shared" si="252"/>
+        <f t="shared" si="248"/>
         <v>61930.571428571428</v>
       </c>
       <c r="Y131" s="8">
-        <f t="shared" si="252"/>
+        <f t="shared" si="248"/>
         <v>73729</v>
       </c>
       <c r="Z131" s="8">
-        <f t="shared" si="252"/>
+        <f t="shared" si="248"/>
         <v>86598</v>
       </c>
       <c r="AA131" s="8">
-        <f t="shared" si="252"/>
+        <f t="shared" si="248"/>
         <v>98986</v>
       </c>
       <c r="AB131" s="8">
-        <f t="shared" si="252"/>
-        <v>118779</v>
+        <f t="shared" si="248"/>
+        <v>117992</v>
       </c>
       <c r="AC131" s="8">
-        <f t="shared" si="252"/>
-        <v>131276.79999999999</v>
+        <f t="shared" si="248"/>
+        <v>129733.5</v>
       </c>
       <c r="AD131" s="8">
-        <f t="shared" si="252"/>
-        <v>135857.76</v>
+        <f t="shared" si="248"/>
+        <v>136806.76</v>
       </c>
     </row>
     <row r="132" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -16071,27 +16077,27 @@
         <v>1500</v>
       </c>
       <c r="Y132" s="2">
-        <f t="shared" ref="Y132:AD132" si="253">+X132+500</f>
+        <f t="shared" ref="Y132:AD132" si="249">+X132+500</f>
         <v>2000</v>
       </c>
       <c r="Z132" s="2">
-        <f t="shared" si="253"/>
+        <f t="shared" si="249"/>
         <v>2500</v>
       </c>
       <c r="AA132" s="2">
-        <f t="shared" si="253"/>
+        <f t="shared" si="249"/>
         <v>3000</v>
       </c>
       <c r="AB132" s="2">
-        <f t="shared" si="253"/>
+        <f t="shared" si="249"/>
         <v>3500</v>
       </c>
       <c r="AC132" s="2">
-        <f t="shared" si="253"/>
+        <f t="shared" si="249"/>
         <v>4000</v>
       </c>
       <c r="AD132" s="2">
-        <f t="shared" si="253"/>
+        <f t="shared" si="249"/>
         <v>4500</v>
       </c>
     </row>
@@ -16146,10 +16152,10 @@
         <v>3000</v>
       </c>
       <c r="AC133" s="2">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="AD133" s="2">
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="134" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -16203,8 +16209,8 @@
         <v>17079</v>
       </c>
       <c r="AC134" s="2">
-        <f>+Y134*1.6</f>
-        <v>23876.800000000003</v>
+        <f>+Y134*1.5</f>
+        <v>22384.5</v>
       </c>
       <c r="AD134" s="2">
         <f>+Z134*1.44</f>
@@ -16390,12 +16396,11 @@
         <v>2453</v>
       </c>
       <c r="AC138" s="2">
-        <f>+AB138+200</f>
-        <v>2653</v>
+        <v>2389</v>
       </c>
       <c r="AD138" s="2">
         <f>+AC138+200</f>
-        <v>2853</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="139" spans="2:30" x14ac:dyDescent="0.25">
@@ -16430,16 +16435,15 @@
         <v>16538</v>
       </c>
       <c r="AB139" s="2">
-        <f>+AA139+2000</f>
-        <v>18538</v>
+        <v>18829</v>
       </c>
       <c r="AC139" s="2">
         <f>+AB139+2000</f>
-        <v>20538</v>
+        <v>20829</v>
       </c>
       <c r="AD139" s="2">
         <f>+AC139+2000</f>
-        <v>22538</v>
+        <v>22829</v>
       </c>
     </row>
     <row r="140" spans="2:30" x14ac:dyDescent="0.25">
@@ -16471,643 +16475,680 @@
         <v>9080</v>
       </c>
       <c r="AB140" s="2">
-        <f>+AA140+500</f>
-        <v>9580</v>
+        <v>8502</v>
       </c>
       <c r="AC140" s="2">
         <f>+AB140+500</f>
-        <v>10080</v>
+        <v>9002</v>
       </c>
       <c r="AD140" s="2">
         <f>+AC140+500</f>
-        <v>10580</v>
+        <v>9502</v>
       </c>
     </row>
     <row r="142" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
+        <v>271</v>
+      </c>
+      <c r="V142" s="10"/>
+      <c r="W142" s="10">
+        <f t="shared" ref="W142" si="250">+W131/S131-1</f>
+        <v>0.42668754116074292</v>
+      </c>
+      <c r="X142" s="10">
+        <f t="shared" ref="X142" si="251">+X131/T131-1</f>
+        <v>0.51311322445009622</v>
+      </c>
+      <c r="Y142" s="10">
+        <f t="shared" ref="Y142:AB142" si="252">+Y131/U131-1</f>
+        <v>0.74621250142387185</v>
+      </c>
+      <c r="Z142" s="10">
+        <f t="shared" si="252"/>
+        <v>0.81630033867902219</v>
+      </c>
+      <c r="AA142" s="10">
+        <f t="shared" si="252"/>
+        <v>0.91526847956481605</v>
+      </c>
+      <c r="AB142" s="10">
+        <f t="shared" si="252"/>
+        <v>0.90523028091364988</v>
+      </c>
+      <c r="AC142" s="10">
+        <f>+AC131/Y131-1</f>
+        <v>0.75959934354188996</v>
+      </c>
+      <c r="AD142" s="10">
+        <f>+AD131/Z131-1</f>
+        <v>0.57979121919674825</v>
+      </c>
+    </row>
+    <row r="144" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
         <v>203</v>
       </c>
-      <c r="S142" s="7">
+      <c r="S144" s="7">
         <f>+S130/S131</f>
         <v>0.11825900409734245</v>
       </c>
-      <c r="T142" s="7">
-        <f t="shared" ref="T142:Z142" si="254">+T130/T131</f>
+      <c r="T144" s="7">
+        <f t="shared" ref="T144:Z144" si="253">+T130/T131</f>
         <v>0.25221578706106013</v>
       </c>
-      <c r="U142" s="7">
+      <c r="U144" s="7">
         <f>+U130/U131</f>
         <v>0.34375250234868338</v>
       </c>
-      <c r="V142" s="7">
-        <f t="shared" si="254"/>
+      <c r="V144" s="7">
+        <f t="shared" si="253"/>
         <v>0.38600419678339826</v>
       </c>
-      <c r="W142" s="7">
-        <f t="shared" si="254"/>
+      <c r="W144" s="7">
+        <f t="shared" si="253"/>
         <v>0.43656883503142813</v>
       </c>
-      <c r="X142" s="7">
-        <f t="shared" si="254"/>
+      <c r="X144" s="7">
+        <f t="shared" si="253"/>
         <v>0.42421698030513433</v>
       </c>
-      <c r="Y142" s="7">
-        <f t="shared" si="254"/>
+      <c r="Y144" s="7">
+        <f t="shared" si="253"/>
         <v>0.41735273772870918</v>
       </c>
-      <c r="Z142" s="7">
-        <f t="shared" si="254"/>
+      <c r="Z144" s="7">
+        <f t="shared" si="253"/>
         <v>0.41086399224000553</v>
       </c>
-      <c r="AA142" s="7">
+      <c r="AA144" s="7">
         <f>+AA130/AA131</f>
         <v>0.39512658355727071</v>
       </c>
-      <c r="AB142" s="7">
-        <f t="shared" ref="AB142:AD142" si="255">+AB130/AB131</f>
-        <v>0.34598708525917882</v>
-      </c>
-      <c r="AC142" s="7">
-        <f t="shared" si="255"/>
+      <c r="AB144" s="7">
+        <f t="shared" ref="AB144:AD144" si="254">+AB130/AB131</f>
+        <v>0.34829479964743371</v>
+      </c>
+      <c r="AC144" s="7">
+        <f t="shared" si="254"/>
         <v>0.35</v>
       </c>
-      <c r="AD142" s="7">
-        <f t="shared" si="255"/>
+      <c r="AD144" s="7">
+        <f t="shared" si="254"/>
         <v>0.35</v>
       </c>
     </row>
-    <row r="143" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+    <row r="145" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
         <v>204</v>
       </c>
-      <c r="S143" s="7">
+      <c r="S145" s="7">
         <f>+S129/S131</f>
         <v>0.19853379025865708</v>
       </c>
-      <c r="T143" s="7">
+      <c r="T145" s="7">
         <f>+T129/T131</f>
         <v>0.33000858624757717</v>
       </c>
-      <c r="U143" s="7">
-        <f t="shared" ref="U143:Z143" si="256">+U129/U131</f>
+      <c r="U145" s="7">
+        <f t="shared" ref="U145:Z145" si="255">+U129/U131</f>
         <v>0.42915773339934837</v>
       </c>
-      <c r="V143" s="7">
-        <f t="shared" si="256"/>
+      <c r="V145" s="7">
+        <f t="shared" si="255"/>
         <v>0.46358676165526252</v>
       </c>
-      <c r="W143" s="7">
-        <f t="shared" si="256"/>
+      <c r="W145" s="7">
+        <f t="shared" si="255"/>
         <v>0.50392229488802531</v>
       </c>
-      <c r="X143" s="7">
-        <f t="shared" si="256"/>
+      <c r="X145" s="7">
+        <f t="shared" si="255"/>
         <v>0.48505930604317277</v>
       </c>
-      <c r="Y143" s="7">
-        <f t="shared" si="256"/>
+      <c r="Y145" s="7">
+        <f t="shared" si="255"/>
         <v>0.47582362435405334</v>
       </c>
-      <c r="Z143" s="7">
-        <f t="shared" si="256"/>
+      <c r="Z145" s="7">
+        <f t="shared" si="255"/>
         <v>0.45417908034827592</v>
       </c>
-      <c r="AA143" s="7">
+      <c r="AA145" s="7">
         <f>+AA129/AA131</f>
         <v>0.44513365526438081</v>
       </c>
-      <c r="AB143" s="7">
+      <c r="AB145" s="7">
         <f>+AB129/AB131</f>
-        <v>0.39352915919480719</v>
-      </c>
-      <c r="AC143" s="7">
-        <f t="shared" ref="AC143:AD143" si="257">+AC129/AC131</f>
-        <v>0.39</v>
-      </c>
-      <c r="AD143" s="7">
-        <f t="shared" si="257"/>
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="144" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="AA144" s="10"/>
-    </row>
-    <row r="145" spans="2:64" x14ac:dyDescent="0.25">
-      <c r="AA145" s="10"/>
-    </row>
-    <row r="146" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C146" s="5">
-        <v>165</v>
-      </c>
-      <c r="D146" s="5">
-        <v>188</v>
-      </c>
-      <c r="E146" s="5">
-        <v>236</v>
-      </c>
-      <c r="F146" s="5">
-        <f>+BG146-E146-D146-C146</f>
-        <v>297</v>
-      </c>
-      <c r="G146" s="5">
-        <v>497</v>
-      </c>
-      <c r="H146" s="5">
-        <v>944</v>
-      </c>
-      <c r="I146" s="5">
-        <v>890</v>
-      </c>
-      <c r="J146" s="5">
-        <f>3214-I146-H146-G146</f>
-        <v>883</v>
-      </c>
-      <c r="K146" s="5">
-        <v>768</v>
-      </c>
-      <c r="L146" s="5">
-        <v>996</v>
-      </c>
-      <c r="M146" s="5">
-        <v>1126</v>
-      </c>
-      <c r="N146" s="5">
-        <f>4349-M146-L146-K146</f>
-        <v>1459</v>
-      </c>
-      <c r="O146" s="5">
-        <v>1932</v>
-      </c>
-      <c r="P146" s="5">
-        <v>1988</v>
-      </c>
-      <c r="Q146" s="5">
-        <v>2148</v>
-      </c>
-      <c r="R146" s="5">
-        <f>8292-Q146-P146-O146</f>
-        <v>2224</v>
-      </c>
-      <c r="S146" s="5">
-        <v>2385</v>
-      </c>
-      <c r="T146" s="2">
-        <v>6043</v>
-      </c>
-      <c r="U146" s="2">
-        <v>6302</v>
-      </c>
-      <c r="V146" s="2">
-        <f>26966-U146-T146-S146</f>
-        <v>12236</v>
-      </c>
-      <c r="W146" s="2">
-        <v>13496</v>
-      </c>
-      <c r="X146" s="2">
-        <v>13022</v>
-      </c>
-      <c r="Y146" s="2">
-        <v>14800</v>
-      </c>
-      <c r="Z146" s="2">
-        <f>61257-Y146-X146-W146</f>
-        <v>19939</v>
-      </c>
-      <c r="AA146" s="2">
-        <v>20739</v>
-      </c>
-      <c r="BF146" s="2">
-        <v>1506</v>
-      </c>
-      <c r="BG146" s="2">
-        <v>886</v>
-      </c>
-      <c r="BH146" s="2">
-        <f>SUM(G146:J146)</f>
-        <v>3214</v>
-      </c>
-      <c r="BI146" s="2">
-        <f>SUM(K146:N146)</f>
-        <v>4349</v>
-      </c>
-      <c r="BJ146" s="2">
-        <f t="shared" ref="BJ146:BJ150" si="258">SUM(O146:R146)</f>
-        <v>8292</v>
-      </c>
-      <c r="BK146" s="2">
-        <f t="shared" ref="BK146:BK150" si="259">SUM(S146:V146)</f>
-        <v>26966</v>
-      </c>
-      <c r="BL146" s="2">
-        <f t="shared" ref="BL146:BL150" si="260">SUM(W146:Z146)</f>
-        <v>61257</v>
-      </c>
-    </row>
-    <row r="147" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C147" s="5">
-        <v>698</v>
-      </c>
-      <c r="D147" s="5">
-        <v>635</v>
-      </c>
-      <c r="E147" s="5">
-        <v>838</v>
-      </c>
-      <c r="F147" s="5">
-        <f>+BG147-E147-D147-C147</f>
-        <v>854</v>
-      </c>
-      <c r="G147" s="5">
-        <v>813</v>
-      </c>
-      <c r="H147" s="5">
-        <v>954</v>
-      </c>
-      <c r="I147" s="5">
-        <v>1296</v>
-      </c>
-      <c r="J147" s="5">
-        <f>4531-I147-H147-G147</f>
-        <v>1468</v>
-      </c>
-      <c r="K147" s="5">
-        <v>1784</v>
-      </c>
-      <c r="L147" s="5">
-        <v>1961</v>
-      </c>
-      <c r="M147" s="5">
-        <v>2187</v>
-      </c>
-      <c r="N147" s="5">
-        <f>8544-M147-L147-K147</f>
-        <v>2612</v>
-      </c>
-      <c r="O147" s="5">
-        <v>2777</v>
-      </c>
-      <c r="P147" s="5">
-        <v>1204</v>
-      </c>
-      <c r="Q147" s="5">
-        <v>1153</v>
-      </c>
-      <c r="R147" s="5">
-        <f>6986-Q147-P147-O147</f>
-        <v>1852</v>
-      </c>
-      <c r="S147" s="5">
-        <v>1796</v>
-      </c>
-      <c r="T147" s="2">
-        <v>2839</v>
-      </c>
-      <c r="U147" s="2">
-        <v>4333</v>
-      </c>
-      <c r="V147" s="2">
-        <f>13405-U147-T147-S147</f>
-        <v>4437</v>
-      </c>
-      <c r="W147" s="2">
-        <v>4373</v>
-      </c>
-      <c r="X147" s="2">
-        <v>5740</v>
-      </c>
-      <c r="Y147" s="2">
-        <v>5153</v>
-      </c>
-      <c r="Z147" s="2">
-        <f>20573-Y147-X147-W147</f>
-        <v>5307</v>
-      </c>
-      <c r="AA147" s="2">
-        <v>7158</v>
-      </c>
-      <c r="BF147" s="2">
-        <v>3360</v>
-      </c>
-      <c r="BG147" s="2">
-        <v>3025</v>
-      </c>
-      <c r="BH147" s="2">
-        <f>SUM(G147:J147)</f>
-        <v>4531</v>
-      </c>
-      <c r="BI147" s="2">
-        <f>SUM(K147:N147)</f>
-        <v>8544</v>
-      </c>
-      <c r="BJ147" s="2">
-        <f t="shared" si="258"/>
-        <v>6986</v>
-      </c>
-      <c r="BK147" s="2">
-        <f t="shared" si="259"/>
-        <v>13405</v>
-      </c>
-      <c r="BL147" s="2">
-        <f t="shared" si="260"/>
-        <v>20573</v>
-      </c>
+        <v>0.39615397654078244</v>
+      </c>
+      <c r="AC145" s="7">
+        <f t="shared" ref="AC145:AD145" si="256">+AC129/AC131</f>
+        <v>0.43</v>
+      </c>
+      <c r="AD145" s="7">
+        <f t="shared" si="256"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="146" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="AA146" s="10"/>
+    </row>
+    <row r="147" spans="2:64" x14ac:dyDescent="0.25">
+      <c r="AA147" s="10"/>
     </row>
     <row r="148" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
-      <c r="K148" s="5"/>
-      <c r="L148" s="5"/>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
-      <c r="O148" s="5"/>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5"/>
-      <c r="R148" s="5"/>
+        <v>219</v>
+      </c>
+      <c r="C148" s="5">
+        <v>165</v>
+      </c>
+      <c r="D148" s="5">
+        <v>188</v>
+      </c>
+      <c r="E148" s="5">
+        <v>236</v>
+      </c>
+      <c r="F148" s="5">
+        <f>+BG148-E148-D148-C148</f>
+        <v>297</v>
+      </c>
+      <c r="G148" s="5">
+        <v>497</v>
+      </c>
+      <c r="H148" s="5">
+        <v>944</v>
+      </c>
+      <c r="I148" s="5">
+        <v>890</v>
+      </c>
+      <c r="J148" s="5">
+        <f>3214-I148-H148-G148</f>
+        <v>883</v>
+      </c>
+      <c r="K148" s="5">
+        <v>768</v>
+      </c>
+      <c r="L148" s="5">
+        <v>996</v>
+      </c>
+      <c r="M148" s="5">
+        <v>1126</v>
+      </c>
+      <c r="N148" s="5">
+        <f>4349-M148-L148-K148</f>
+        <v>1459</v>
+      </c>
+      <c r="O148" s="5">
+        <v>1932</v>
+      </c>
+      <c r="P148" s="5">
+        <v>1988</v>
+      </c>
+      <c r="Q148" s="5">
+        <v>2148</v>
+      </c>
+      <c r="R148" s="5">
+        <f>8292-Q148-P148-O148</f>
+        <v>2224</v>
+      </c>
       <c r="S148" s="5">
-        <v>762</v>
+        <v>2385</v>
       </c>
       <c r="T148" s="2">
-        <v>1042</v>
+        <v>6043</v>
       </c>
       <c r="U148" s="2">
-        <v>2702</v>
+        <v>6302</v>
       </c>
       <c r="V148" s="2">
-        <f>6831-U148-T148-S148</f>
-        <v>2325</v>
+        <f>26966-U148-T148-S148</f>
+        <v>12236</v>
       </c>
       <c r="W148" s="2">
-        <v>4037</v>
+        <v>13496</v>
       </c>
       <c r="X148" s="2">
-        <v>5622</v>
+        <v>13022</v>
       </c>
       <c r="Y148" s="2">
-        <v>7697</v>
+        <v>14800</v>
       </c>
       <c r="Z148" s="2">
-        <f>23684-Y148-X148-W148</f>
-        <v>6328</v>
+        <f>61257-Y148-X148-W148</f>
+        <v>19939</v>
       </c>
       <c r="AA148" s="2">
-        <v>9017</v>
+        <v>20739</v>
+      </c>
+      <c r="BF148" s="2">
+        <v>1506</v>
+      </c>
+      <c r="BG148" s="2">
+        <v>886</v>
+      </c>
+      <c r="BH148" s="2">
+        <f>SUM(G148:J148)</f>
+        <v>3214</v>
+      </c>
+      <c r="BI148" s="2">
+        <f>SUM(K148:N148)</f>
+        <v>4349</v>
+      </c>
+      <c r="BJ148" s="2">
+        <f t="shared" ref="BJ148:BJ152" si="257">SUM(O148:R148)</f>
+        <v>8292</v>
       </c>
       <c r="BK148" s="2">
-        <f t="shared" si="259"/>
-        <v>6831</v>
+        <f t="shared" ref="BK148:BK152" si="258">SUM(S148:V148)</f>
+        <v>26966</v>
       </c>
       <c r="BL148" s="2">
-        <f t="shared" si="260"/>
-        <v>23684</v>
+        <f t="shared" ref="BL148:BL152" si="259">SUM(W148:Z148)</f>
+        <v>61257</v>
       </c>
     </row>
     <row r="149" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C149" s="5">
-        <v>553</v>
+        <v>698</v>
       </c>
       <c r="D149" s="5">
-        <v>583</v>
+        <v>635</v>
       </c>
       <c r="E149" s="5">
-        <v>758</v>
+        <v>838</v>
       </c>
       <c r="F149" s="5">
         <f>+BG149-E149-D149-C149</f>
-        <v>837</v>
+        <v>854</v>
       </c>
       <c r="G149" s="5">
-        <v>758</v>
+        <v>813</v>
       </c>
       <c r="H149" s="5">
-        <v>855</v>
+        <v>954</v>
       </c>
       <c r="I149" s="5">
-        <v>1113</v>
+        <v>1296</v>
       </c>
       <c r="J149" s="5">
-        <f>3886-I149-H149-G149</f>
-        <v>1160</v>
+        <f>4531-I149-H149-G149</f>
+        <v>1468</v>
       </c>
       <c r="K149" s="5">
-        <v>1391</v>
+        <v>1784</v>
       </c>
       <c r="L149" s="5">
-        <v>1720</v>
+        <v>1961</v>
       </c>
       <c r="M149" s="5">
-        <v>2017</v>
+        <v>2187</v>
       </c>
       <c r="N149" s="5">
-        <f>7111-M149-L149-K149</f>
-        <v>1983</v>
+        <f>8544-M149-L149-K149</f>
+        <v>2612</v>
       </c>
       <c r="O149" s="5">
-        <v>2081</v>
+        <v>2777</v>
       </c>
       <c r="P149" s="5">
-        <v>1602</v>
+        <v>1204</v>
       </c>
       <c r="Q149" s="5">
-        <v>1148</v>
+        <v>1153</v>
       </c>
       <c r="R149" s="5">
-        <f>5785-Q149-P149-O149</f>
-        <v>954</v>
+        <f>6986-Q149-P149-O149</f>
+        <v>1852</v>
       </c>
       <c r="S149" s="5">
-        <v>1590</v>
+        <v>1796</v>
       </c>
       <c r="T149" s="2">
-        <v>2740</v>
+        <v>2839</v>
       </c>
       <c r="U149" s="2">
-        <v>4030</v>
+        <v>4333</v>
       </c>
       <c r="V149" s="2">
-        <f>10306-U149-T149-S149</f>
-        <v>1946</v>
+        <f>13405-U149-T149-S149</f>
+        <v>4437</v>
       </c>
       <c r="W149" s="2">
-        <v>2491</v>
+        <v>4373</v>
       </c>
       <c r="X149" s="2">
-        <v>3667</v>
+        <v>5740</v>
       </c>
       <c r="Y149" s="2">
-        <v>5416</v>
+        <v>5153</v>
       </c>
       <c r="Z149" s="2">
-        <f>17108-Y149-X149-W149</f>
-        <v>5534</v>
+        <f>20573-Y149-X149-W149</f>
+        <v>5307</v>
       </c>
       <c r="AA149" s="2">
-        <v>5522</v>
+        <v>7158</v>
       </c>
       <c r="BF149" s="2">
-        <v>2801</v>
+        <v>3360</v>
       </c>
       <c r="BG149" s="2">
-        <v>2731</v>
+        <v>3025</v>
       </c>
       <c r="BH149" s="2">
         <f>SUM(G149:J149)</f>
-        <v>3886</v>
+        <v>4531</v>
       </c>
       <c r="BI149" s="2">
         <f>SUM(K149:N149)</f>
-        <v>7111</v>
+        <v>8544</v>
       </c>
       <c r="BJ149" s="2">
+        <f t="shared" si="257"/>
+        <v>6986</v>
+      </c>
+      <c r="BK149" s="2">
         <f t="shared" si="258"/>
-        <v>5785</v>
-      </c>
-      <c r="BK149" s="2">
+        <v>13405</v>
+      </c>
+      <c r="BL149" s="2">
         <f t="shared" si="259"/>
-        <v>10306</v>
-      </c>
-      <c r="BL149" s="2">
-        <f t="shared" si="260"/>
-        <v>17108</v>
+        <v>20573</v>
       </c>
     </row>
     <row r="150" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5">
+        <v>762</v>
+      </c>
+      <c r="T150" s="2">
+        <v>1042</v>
+      </c>
+      <c r="U150" s="2">
+        <v>2702</v>
+      </c>
+      <c r="V150" s="2">
+        <f>6831-U150-T150-S150</f>
+        <v>2325</v>
+      </c>
+      <c r="W150" s="2">
+        <v>4037</v>
+      </c>
+      <c r="X150" s="2">
+        <v>5622</v>
+      </c>
+      <c r="Y150" s="2">
+        <v>7697</v>
+      </c>
+      <c r="Z150" s="2">
+        <f>23684-Y150-X150-W150</f>
+        <v>6328</v>
+      </c>
+      <c r="AA150" s="2">
+        <v>9017</v>
+      </c>
+      <c r="BK150" s="2">
+        <f t="shared" si="258"/>
+        <v>6831</v>
+      </c>
+      <c r="BL150" s="2">
+        <f t="shared" si="259"/>
+        <v>23684</v>
+      </c>
+    </row>
+    <row r="151" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C151" s="5">
+        <v>553</v>
+      </c>
+      <c r="D151" s="5">
+        <v>583</v>
+      </c>
+      <c r="E151" s="5">
+        <v>758</v>
+      </c>
+      <c r="F151" s="5">
+        <f>+BG151-E151-D151-C151</f>
+        <v>837</v>
+      </c>
+      <c r="G151" s="5">
+        <v>758</v>
+      </c>
+      <c r="H151" s="5">
+        <v>855</v>
+      </c>
+      <c r="I151" s="5">
+        <v>1113</v>
+      </c>
+      <c r="J151" s="5">
+        <f>3886-I151-H151-G151</f>
+        <v>1160</v>
+      </c>
+      <c r="K151" s="5">
+        <v>1391</v>
+      </c>
+      <c r="L151" s="5">
+        <v>1720</v>
+      </c>
+      <c r="M151" s="5">
+        <v>2017</v>
+      </c>
+      <c r="N151" s="5">
+        <f>7111-M151-L151-K151</f>
+        <v>1983</v>
+      </c>
+      <c r="O151" s="5">
+        <v>2081</v>
+      </c>
+      <c r="P151" s="5">
+        <v>1602</v>
+      </c>
+      <c r="Q151" s="5">
+        <v>1148</v>
+      </c>
+      <c r="R151" s="5">
+        <f>5785-Q151-P151-O151</f>
+        <v>954</v>
+      </c>
+      <c r="S151" s="5">
+        <v>1590</v>
+      </c>
+      <c r="T151" s="2">
+        <v>2740</v>
+      </c>
+      <c r="U151" s="2">
+        <v>4030</v>
+      </c>
+      <c r="V151" s="2">
+        <f>10306-U151-T151-S151</f>
+        <v>1946</v>
+      </c>
+      <c r="W151" s="2">
+        <v>2491</v>
+      </c>
+      <c r="X151" s="2">
+        <v>3667</v>
+      </c>
+      <c r="Y151" s="2">
+        <v>5416</v>
+      </c>
+      <c r="Z151" s="2">
+        <f>17108-Y151-X151-W151</f>
+        <v>5534</v>
+      </c>
+      <c r="AA151" s="2">
+        <v>5522</v>
+      </c>
+      <c r="BF151" s="2">
+        <v>2801</v>
+      </c>
+      <c r="BG151" s="2">
+        <v>2731</v>
+      </c>
+      <c r="BH151" s="2">
+        <f>SUM(G151:J151)</f>
+        <v>3886</v>
+      </c>
+      <c r="BI151" s="2">
+        <f>SUM(K151:N151)</f>
+        <v>7111</v>
+      </c>
+      <c r="BJ151" s="2">
+        <f t="shared" si="257"/>
+        <v>5785</v>
+      </c>
+      <c r="BK151" s="2">
+        <f t="shared" si="258"/>
+        <v>10306</v>
+      </c>
+      <c r="BL151" s="2">
+        <f t="shared" si="259"/>
+        <v>17108</v>
+      </c>
+    </row>
+    <row r="152" spans="2:64" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C152" s="5">
         <f>422+133+249</f>
         <v>804</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D152" s="5">
         <f>756+288+129</f>
         <v>1173</v>
       </c>
-      <c r="E150" s="5">
+      <c r="E152" s="5">
         <f>805+216+161</f>
         <v>1182</v>
       </c>
-      <c r="F150" s="5">
-        <f>+BG150-E150-D150-C150</f>
+      <c r="F152" s="5">
+        <f>+BG152-E152-D152-C152</f>
         <v>1117</v>
       </c>
-      <c r="G150" s="5">
+      <c r="G152" s="5">
         <f>254+151+607</f>
         <v>1012</v>
       </c>
-      <c r="H150" s="5">
+      <c r="H152" s="5">
         <f>240+175+698</f>
         <v>1113</v>
       </c>
-      <c r="I150" s="5">
+      <c r="I152" s="5">
         <f>955+247+225</f>
         <v>1427</v>
       </c>
-      <c r="J150" s="5">
-        <f>3093+1118+833-I150-H150-G150</f>
+      <c r="J152" s="5">
+        <f>3093+1118+833-I152-H152-G152</f>
         <v>1492</v>
       </c>
-      <c r="K150" s="5">
+      <c r="K152" s="5">
         <v>1718</v>
       </c>
-      <c r="L150" s="5">
+      <c r="L152" s="5">
         <v>1830</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M152" s="5">
         <v>1773</v>
       </c>
-      <c r="N150" s="5">
-        <f>6910-M150-L150-K150</f>
+      <c r="N152" s="5">
+        <f>6910-M152-L152-K152</f>
         <v>1589</v>
       </c>
-      <c r="O150" s="5">
+      <c r="O152" s="5">
         <f>1044+454</f>
         <v>1498</v>
       </c>
-      <c r="P150" s="5">
+      <c r="P152" s="5">
         <v>1910</v>
       </c>
-      <c r="Q150" s="5">
+      <c r="Q152" s="5">
         <f>536+946</f>
         <v>1482</v>
       </c>
-      <c r="R150" s="5">
-        <f>3623-Q150-P150-O150+2288</f>
+      <c r="R152" s="5">
+        <f>3623-Q152-P152-O152+2288</f>
         <v>1021</v>
       </c>
-      <c r="S150" s="5">
+      <c r="S152" s="5">
         <v>659</v>
       </c>
-      <c r="T150" s="2">
+      <c r="T152" s="2">
         <v>843</v>
       </c>
-      <c r="U150" s="2">
+      <c r="U152" s="2">
         <v>753</v>
       </c>
-      <c r="V150" s="2">
-        <f>3414-U150-T150-S150</f>
+      <c r="V152" s="2">
+        <f>3414-U152-T152-S152</f>
         <v>1159</v>
       </c>
-      <c r="W150" s="2">
+      <c r="W152" s="2">
         <v>1647</v>
       </c>
-      <c r="X150" s="2">
+      <c r="X152" s="2">
         <v>1989</v>
       </c>
-      <c r="Y150" s="2">
+      <c r="Y152" s="2">
         <v>2016</v>
       </c>
-      <c r="Z150" s="2">
-        <f>7875-Y150-X150-W150</f>
+      <c r="Z152" s="2">
+        <f>7875-Y152-X152-W152</f>
         <v>2223</v>
       </c>
-      <c r="AA150" s="2">
+      <c r="AA152" s="2">
         <v>1626</v>
       </c>
-      <c r="BF150" s="2">
+      <c r="BF152" s="2">
         <f>2368+914+767</f>
         <v>4049</v>
       </c>
-      <c r="BG150" s="2">
+      <c r="BG152" s="2">
         <f>2685+992+599</f>
         <v>4276</v>
       </c>
-      <c r="BH150" s="2">
-        <f>SUM(G150:J150)</f>
+      <c r="BH152" s="2">
+        <f>SUM(G152:J152)</f>
         <v>5044</v>
       </c>
-      <c r="BI150" s="2">
-        <f>SUM(K150:N150)</f>
+      <c r="BI152" s="2">
+        <f>SUM(K152:N152)</f>
         <v>6910</v>
       </c>
-      <c r="BJ150" s="2">
+      <c r="BJ152" s="2">
+        <f t="shared" si="257"/>
+        <v>5911</v>
+      </c>
+      <c r="BK152" s="2">
         <f t="shared" si="258"/>
-        <v>5911</v>
-      </c>
-      <c r="BK150" s="2">
+        <v>3414</v>
+      </c>
+      <c r="BL152" s="2">
         <f t="shared" si="259"/>
-        <v>3414</v>
-      </c>
-      <c r="BL150" s="2">
-        <f t="shared" si="260"/>
         <v>7875</v>
       </c>
     </row>
